--- a/GameModules/SHANGSENZHEN/Localization_SHANGSENZHEN.xlsx
+++ b/GameModules/SHANGSENZHEN/Localization_SHANGSENZHEN.xlsx
@@ -1280,7 +1280,7 @@
           <t>Português-Chirriro</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Русский</t>
         </is>
@@ -1322,7 +1322,7 @@
           <t>Welcome to Townsend</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>ඞДобро пожаловать в Таунсенд</t>
         </is>
@@ -1374,7 +1374,7 @@
 You boarded this long-distance train to get faster to the sunny seaside for vacation...</t>
         </is>
       </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>ඞПоезд до Аркхэма возобновил движение после восьмилетнего перерыва.
 Этот поезд значительно сократил первоначальное время в пути, ради которого вы уже давно планировали поездку в отпуск.
@@ -1418,7 +1418,7 @@
           <t>Inimigos Encontrados</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>ඞВстречные Враги</t>
         </is>
@@ -1460,7 +1460,7 @@
           <t>Exploração</t>
         </is>
       </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>ඞИсследование5</t>
         </is>
@@ -1502,7 +1502,7 @@
           <t>Inf. da Comissão</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>ඞИнформация о комиссии</t>
         </is>
@@ -1544,7 +1544,7 @@
           <t>Registros</t>
         </is>
       </c>
-      <c r="H7" s="0" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>ඞЗаписи</t>
         </is>
@@ -1586,7 +1586,7 @@
           <t>Monster in the fence</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>ඞМонстр в заборе</t>
         </is>
@@ -1628,7 +1628,7 @@
           <t>Find Horn</t>
         </is>
       </c>
-      <c r="H9" s="0" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>ඞНайди Хорна</t>
         </is>
@@ -1676,7 +1676,7 @@
 If you don't know where South Street is, you could follow Merry.</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>ඞВы заключили сделку с Хорном, он сказал вам встретиться с ним на Саут-стрит после пробуждения.
 Если вы не знаете, где находится Саут-стрит, вы можете пойти за Мерри.</t>
@@ -1719,7 +1719,7 @@
           <t>Investigate Ryan</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>ඞРасследовать дело Райана</t>
         </is>
@@ -1761,7 +1761,7 @@
           <t>Flowers Blooming in Mud</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>ඞЦветы, распускающиеся в грязи</t>
         </is>
@@ -1803,7 +1803,7 @@
           <t>Townsend Historical Archives</t>
         </is>
       </c>
-      <c r="H13" s="0" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>ඞИсторический архив Таунсенда</t>
         </is>
@@ -1875,7 +1875,7 @@
 Townsend Town began a reconstruction plan in August 1905 to expand the town's functions and convert the original residential area into a factory...</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>ඞИз-за стихийного бедствия, вызванного проливными дождями десять лет назад, данные за период до 1890 года больше недоступны.
 В марте 1890 года редкая геологическая катастрофа вызвала оползень, который погреб под собой большое количество земли и домов. Более 90% населения города погибло или пропало без вести.
@@ -1922,7 +1922,7 @@
           <t>Orphan Adoption Policy</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>ඞПолитика усыновления сирот</t>
         </is>
@@ -1988,7 +1988,7 @@
 However, only one adoption document was approved. Merry was the object of funding and Ryan was the signatory.</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>ඞВы находите проект Закона о социальном обеспечении от 1910 года, вы видите, что проект подписан Райаном.
 Он обратился в юридическом порядке с призывом обеспечить защиту прав детей и внедрить программы помощи семьям для сирот, детей из неполных семей или семей с родителями-инвалидами.
@@ -2034,7 +2034,7 @@
           <t>Ryan's investigation</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>ඞРасследование Райана</t>
         </is>
@@ -2076,7 +2076,7 @@
           <t>Ryan seems to have discovered some secret, he handed over important items to Merry for safekeeping.</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>ඞРайан, похоже, раскрыл какой-то секрет, он передал важные вещи Мерри на хранение.</t>
         </is>
@@ -2118,7 +2118,7 @@
           <t>Merder's Scent</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>ඞАромат Мердера</t>
         </is>
@@ -2160,7 +2160,7 @@
           <t>Hobo who lost smell</t>
         </is>
       </c>
-      <c r="H20" s="0" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>ඞБродяга, потерявший обоняние</t>
         </is>
@@ -2202,7 +2202,7 @@
           <t>Lottery Announce</t>
         </is>
       </c>
-      <c r="H21" s="0" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>ඞОбъявление о проведении лотереи</t>
         </is>
@@ -2244,7 +2244,7 @@
           <t>Concert Broadcasting</t>
         </is>
       </c>
-      <c r="H22" s="0" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>ඞТрансляция концерта</t>
         </is>
@@ -2286,7 +2286,7 @@
           <t>Nancy's Answer</t>
         </is>
       </c>
-      <c r="H23" s="0" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>ඞОтвет Нэнси</t>
         </is>
@@ -2358,7 +2358,7 @@
 "How long have you not danced with me?"</t>
         </is>
       </c>
-      <c r="H24" s="0" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>ඞСодержание заметки:
 "Я нравлюсь тебе только в мыслях, но не на самом деле".
@@ -2405,7 +2405,7 @@
           <t>The confession letter never given</t>
         </is>
       </c>
-      <c r="H25" s="0" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>ඞПисьмо с признанием, которое так и не было передано</t>
         </is>
@@ -2483,7 +2483,7 @@
 "Merry, I have no face to see you now. I will try to make money to make up for my mistakes…"</t>
         </is>
       </c>
-      <c r="H26" s="0" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>ඞЭто письмо было раскрашено и изменено. Многое в нем было написано и стерто. Бумага для писем истрепалась, но строчки все еще можно различить.
 "Прости меня"… Мне жаль тебя, Нана… Мерри..."
@@ -2531,7 +2531,7 @@
           <t>Agreed Item</t>
         </is>
       </c>
-      <c r="H27" s="0" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>ඞСогласованный пункт</t>
         </is>
@@ -2585,7 +2585,7 @@
 You are going to join Horn and find a way to sneak into Tonson's house.</t>
         </is>
       </c>
-      <c r="H28" s="0" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>ඞВенде считает, что, судя по запаху черного яйца,
 Тонсон подписал контракт с неизвестным, и для выполнения контракта необходимо установить алтарь, связанный с ними.
@@ -2629,7 +2629,7 @@
           <t>Request from the old man in the square</t>
         </is>
       </c>
-      <c r="H29" s="0" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>ඞПросьба старика на площади</t>
         </is>
@@ -2677,7 +2677,7 @@
 He wants you to help him to find out why the broadcast is silent.</t>
         </is>
       </c>
-      <c r="H30" s="0" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>ඞВы нашли старика на площади. Он ждал вас под трансляцией.
 Он хочет, чтобы вы помогли ему выяснить, почему трансляция не работает.</t>
@@ -2720,7 +2720,7 @@
           <t>Customer waiting for lottery</t>
         </is>
       </c>
-      <c r="H31" s="0" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>ඞКлиент, ожидающий лотереи</t>
         </is>
@@ -2768,7 +2768,7 @@
 He seems to have been waiting for the government to release the lottery information.</t>
         </is>
       </c>
-      <c r="H32" s="0" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>ඞВы застали молодого человека в магазине, и его глаза остекленели от множества лотерейных билетов.
 Похоже, он ждал, когда правительство опубликует информацию о лотерее.</t>
@@ -2811,7 +2811,7 @@
           <t>Defeat Defiler</t>
         </is>
       </c>
-      <c r="H33" s="0" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>ඞПобеди осквернителя</t>
         </is>
@@ -2853,7 +2853,7 @@
           <t>Defeat Ryan</t>
         </is>
       </c>
-      <c r="H34" s="0" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>ඞПобедить Райана</t>
         </is>
@@ -2895,7 +2895,7 @@
           <t>Defeat Wende</t>
         </is>
       </c>
-      <c r="H35" s="0" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>ඞПобедить Венде</t>
         </is>
@@ -2937,7 +2937,7 @@
           <t>Train</t>
         </is>
       </c>
-      <c r="H36" s="0" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>ඞПоезд</t>
         </is>
@@ -2979,7 +2979,7 @@
           <t>Ryan had decided to take office and became a sheriff to fight crime.</t>
         </is>
       </c>
-      <c r="H37" s="0" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>ඞРайан решил вступить в должность и стал шерифом, чтобы бороться с преступностью.</t>
         </is>
@@ -3021,7 +3021,7 @@
           <t>Crimes since then was few and far between.</t>
         </is>
       </c>
-      <c r="H38" s="0" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>ඞПреступлений с тех пор было немного, и случались они очень редко.</t>
         </is>
@@ -3063,7 +3063,7 @@
           <t xml:space="preserve">The children of the town would beg him everday to tell stories of him protecting the weak. </t>
         </is>
       </c>
-      <c r="H39" s="0" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>ඞГородские дети каждый день умоляли его рассказать истории о том, как он защищал слабых.</t>
         </is>
@@ -3105,7 +3105,7 @@
           <t>Ryan was always dedicated to the job even when the office was understaffed, continuing to do the usual patrols and even helping out with maintenance.</t>
         </is>
       </c>
-      <c r="H40" s="0" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>ඞРайан всегда был предан своей работе, даже когда в офисе не хватало персонала, продолжая выполнять обычные патрульные работы и даже помогая с техническим обслуживанием.</t>
         </is>
@@ -3153,7 +3153,7 @@
 On days like today, he wipes his badge and shuts the door of the office to begin his daily patrols on the streets.</t>
         </is>
       </c>
-      <c r="H41" s="0" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>ඞНесмотря на все это, он был доволен своей работой и с энтузиазмом приступил к ней. 
 В такие дни, как сегодня, он протирает свой значок и закрывает дверь офиса, чтобы начать ежедневное патрулирование улиц.</t>
@@ -3202,7 +3202,7 @@
 When night fell, he awoke sluggishly…</t>
         </is>
       </c>
-      <c r="H42" s="0" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>ඞМужчина с синими волосами безнаказанно спит на своем рабочем столе.
 Когда наступила ночь, он вяло проснулся…</t>
@@ -3251,7 +3251,7 @@
 "I have to leave my work behind before I leave."</t>
         </is>
       </c>
-      <c r="H43" s="0" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>ඞ"Я плохо выспался здесь, пора отправляться в отпуск куда-нибудь еще".
 "Перед отъездом я должен оставить свою работу".</t>
@@ -3294,7 +3294,7 @@
           <t>He took a long-handled key from the cabinet, turned it with his fingers, and walked shakily towards an opulent mansion.</t>
         </is>
       </c>
-      <c r="H44" s="0" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>ඞОн достал из шкафа ключ с длинной ручкой, повернул его пальцами и, пошатываясь, направился к роскошному особняку.</t>
         </is>
@@ -3336,7 +3336,7 @@
           <t>Merry's hotel has more and more things to buy. She has many better plans.</t>
         </is>
       </c>
-      <c r="H45" s="0" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>ඞВ отеле Мерри можно купить все больше и больше вещей. У нее много планов получше.</t>
         </is>
@@ -3378,7 +3378,7 @@
           <t>Because the town is so small, everyone has agreed that the hotel is the best place for gatherings in town.</t>
         </is>
       </c>
-      <c r="H46" s="0" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>ඞПоскольку городок очень маленький, все сошлись во мнении, что отель - лучшее место для встреч в городе.</t>
         </is>
@@ -3420,7 +3420,7 @@
           <t>Today is no different. The hotel is still extremely busy. Merry enjoys watching the lively scene.</t>
         </is>
       </c>
-      <c r="H47" s="0" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>ඞСегодняшний день ничем не отличается от других. В отеле по-прежнему очень оживленно. Мерри с удовольствием наблюдает за оживленной сценой.</t>
         </is>
@@ -3462,7 +3462,7 @@
           <t>Nana, our wish will come true…</t>
         </is>
       </c>
-      <c r="H48" s="0" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>ඞНана, наше желание сбудется…</t>
         </is>
@@ -3504,7 +3504,7 @@
           <t>If you can currently see that the town has changed into this…</t>
         </is>
       </c>
-      <c r="H49" s="0" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>ඞЕсли вы сейчас видите, что город превратился в это…</t>
         </is>
@@ -3546,7 +3546,7 @@
           <t>You must be very happy…</t>
         </is>
       </c>
-      <c r="H50" s="0" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>ඞВы, должно быть, очень счастливы…</t>
         </is>
@@ -3588,7 +3588,7 @@
           <t>Take it</t>
         </is>
       </c>
-      <c r="H51" s="0" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>ඞВзять</t>
         </is>
@@ -3630,7 +3630,7 @@
           <t>Bored by the repetition of the scene outside as the train speeds along, you pull out the newspaper you just bought at the station and start reading.</t>
         </is>
       </c>
-      <c r="H52" s="0" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>ඞКогда поезд набирает скорость, вам надоедает наблюдать за повторяющейся сценой за окном, и вы достаете газету, которую только что купили на станции, и начинаете читать.</t>
         </is>
@@ -3672,7 +3672,7 @@
           <t>The News Today</t>
         </is>
       </c>
-      <c r="H53" s="0" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>ඞСегодняшние новости</t>
         </is>
@@ -3726,7 +3726,7 @@
 Due to natural disasters, line construction and other reasons, the line was changed several times, and it took eight years to resume the original route and schedule of operation.</t>
         </is>
       </c>
-      <c r="H54" s="0" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>ඞКрупный заголовок на обложке гласит: "Поезд Строителей вновь открывается спустя восемь лет".
 15 января 1928 года поезда из Кливленда в Аркхэм и обратно снова начали курсировать.
@@ -3776,7 +3776,7 @@
 According to the person in charge of the railway, the daily passenger volume can reach about 1285 people per day. The railway has complete line maintenance to ensure normal operation even in the event of tornadoes.</t>
         </is>
       </c>
-      <c r="H55" s="0" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>ඞЭтот поезд был перестроен, и в его состав были добавлены три смотровых вагона и "обзорный вагон" для пассажиров первого класса.
 По словам ответственного за железную дорогу лица, ежедневный пассажиропоток может достигать примерно 1285 человек в день. Железная дорога полностью обслуживает линии, чтобы обеспечить нормальную работу даже в случае торнадо.</t>
@@ -3825,7 +3825,7 @@
 Let's move around.</t>
         </is>
       </c>
-      <c r="H56" s="0" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>ඞДо терминала еще довольно много времени.
 Давайте пройдемся по городу.</t>
@@ -3868,7 +3868,7 @@
           <t>The conversations around you gradually ceased, most likely because the tedious journey had exhausted everyone, and you, too, closed your eyes and rested in your seat| Time passed, the train accelerated, and when it entered a cave, the carriage was immediately plunged into darkness.</t>
         </is>
       </c>
-      <c r="H57" s="0" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>ඞРазговоры вокруг вас постепенно прекратились, скорее всего, потому, что утомительная поездка всех утомила, и вы тоже закрыли глаза и откинулись на спинку сиденья| Время шло, поезд набирал скорость, и когда он въехал в пещеру, вагон сразу погрузился в темноту.</t>
         </is>
@@ -3910,7 +3910,7 @@
           <t>What's going on?</t>
         </is>
       </c>
-      <c r="H58" s="0" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>ඞЧто происходит?</t>
         </is>
@@ -3958,7 +3958,7 @@
 The centrifugal force throws you out, and you fall to the ground and pass out.</t>
         </is>
       </c>
-      <c r="H59" s="0" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>ඞВы просыпаетесь от сильной тряски и криков людей вокруг, земля под вами, кажется, уходит из-под ног.
 Центробежная сила выбрасывает вас, вы падаете на землю и теряете сознание.</t>
@@ -4007,7 +4007,7 @@
 The light enters the house through the gap, dissipating the darkness, and the entire house shines brightly, making you feel very safe, as if there is a warm refuge in front of you.</t>
         </is>
       </c>
-      <c r="H60" s="0" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>ඞВ оцепенении вы чувствуете, как ваше тело отрывается от земли, и замечаете впереди желтый дом.
 Свет проникает в дом через щель, рассеивая темноту, и весь дом ярко сияет, заставляя вас чувствовать себя в полной безопасности, как будто перед вами теплое убежище.</t>
@@ -4056,7 +4056,7 @@
 You see a figure in a mottled ragged robe drawing something at the long table in the center of the room.</t>
         </is>
       </c>
-      <c r="H61" s="0" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>ඞВы толкаете дверь и входите, интерьер внутри очень роскошный: белые настенные панели, старинные портреты, висящие на стенах, цельная деревянная мебель и книжные полки, полные книг, в дополнение к мягким креслам с изящным рисунком, классическим настольным лампам с тканевыми кисточками, элегантным пианино.
 Вы видите фигуру в пестром рваном одеянии, которая что-то рисует за длинным столом в центре комнаты.</t>
@@ -4112,7 +4112,7 @@
 Just as you were about to panic and flee, you discovered that you couldn't move no matter how hard you tried. At this point, that figure appeared to be aware of your presence and turned to face you...</t>
         </is>
       </c>
-      <c r="H62" s="0" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>ඞКогда вы приближаетесь к нему, вы замечаете, что он рисует картину.
 Когда вы видите содержание картины, у вас возникает сильное чувство нереальности происходящего, потому что она написана на том самом доме, в который вы вошли.
@@ -4162,7 +4162,7 @@
 She looked at you with panicked eyes and then extended her hand...</t>
         </is>
       </c>
-      <c r="H63" s="0" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>ඞТолько сейчас вы можете разглядеть, что это миниатюрная фигурка, все ее тело скрыто массивным одеянием, а из-под полей шляпы видно лицо молодой девушки.
 Она посмотрела на вас испуганными глазами, а затем протянула руку...</t>
@@ -4211,7 +4211,7 @@
 The colors in front of your eyes began to fade, the ground beneath your feet cracked, and you continued to fall. She wished she could hold you, but all she could do was watch your form dwindle.</t>
         </is>
       </c>
-      <c r="H64" s="0" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>ඞГрустная песня зазвучала в твоих ушах, как раз когда она собиралась прикоснуться к тебе, ее губы слегка шевельнулись, но ты не смог расслышать ни слова.
 Краски перед твоими глазами начали меркнуть, земля под ногами пошла трещинами, а ты продолжал падать. Она хотела бы обнять тебя, но все, что она могла сделать, это наблюдать, как ты таешь на глазах.</t>
@@ -4254,7 +4254,7 @@
           <t>You lose consciousness as darkness engulfs you.</t>
         </is>
       </c>
-      <c r="H65" s="0" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>ඞВы теряете сознание, когда вас окутывает тьма.</t>
         </is>
@@ -4296,7 +4296,7 @@
           <t>Take a Break</t>
         </is>
       </c>
-      <c r="H66" s="0" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>ඞсделать перерыв</t>
         </is>
@@ -4338,7 +4338,7 @@
           <t>We're about to go home. Why are you so unhappy?</t>
         </is>
       </c>
-      <c r="H67" s="0" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>ඞМы собираемся ехать домой. Почему ты такой несчастный?</t>
         </is>
@@ -4404,7 +4404,7 @@
 They're gonna disqualify me if I don't go back this time.</t>
         </is>
       </c>
-      <c r="H68" s="0" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>ඞАх…
 Моя семья организовала для меня свадьбу…
@@ -4456,7 +4456,7 @@
 Are you a wedlock?</t>
         </is>
       </c>
-      <c r="H69" s="0" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>ඞСвадьба? Разве это не здорово?
 Вы состоите в браке?</t>
@@ -4541,7 +4541,7 @@
 I was afraid of how she looked, so I ran away.</t>
         </is>
       </c>
-      <c r="H70" s="0" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>ඞНет. Хотя это трудно сказать…
 Забудь это… Я скажу вам, в чем дело.
@@ -4596,7 +4596,7 @@
 neither end the relationship.</t>
         </is>
       </c>
-      <c r="H71" s="0" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>ඞЯ понял. Ты не можешь ни принять ее,
 ни прекратить отношения.</t>
@@ -4645,7 +4645,7 @@
 I didn't dare refuse her, so I hade to excuse myself by saying I had to pursue my dream first.</t>
         </is>
       </c>
-      <c r="H72" s="0" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>ඞДа, она дочь местного мафиози.
 Я не посмел отказать ей, поэтому вынужден извиниться, сказав, что сначала должен осуществить свою мечту.</t>
@@ -4688,7 +4688,7 @@
           <t>But now, you're going back for the inheritance?</t>
         </is>
       </c>
-      <c r="H73" s="0" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>ඞНо теперь ты возвращаешься за наследством?</t>
         </is>
@@ -4748,7 +4748,7 @@
 I really hate who I am.</t>
         </is>
       </c>
-      <c r="H74" s="0" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>ඞНа самом деле это не так…
 Я не могу принять решение. Я думаю о ней все эти годы вдали от нее.
@@ -4799,7 +4799,7 @@
 You just need to have the courage to make a choice.</t>
         </is>
       </c>
-      <c r="H75" s="0" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>ඞ- ну и что? Ты уже в этой машине.
 Тебе просто нужно набраться смелости, чтобы сделать выбор.</t>
@@ -4842,7 +4842,7 @@
           <t>Listen</t>
         </is>
       </c>
-      <c r="H76" s="0" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>ඞПослушать</t>
         </is>
@@ -4884,7 +4884,7 @@
           <t>And you? Go home or travel?</t>
         </is>
       </c>
-      <c r="H77" s="0" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>ඞА вы? Вернуться домой или попутешествовать?</t>
         </is>
@@ -4938,7 +4938,7 @@
 So they also prepared a lot of things.</t>
         </is>
       </c>
-      <c r="H78" s="0" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>ඞКонечно, путешествовать.
 На самом деле, это первый раз, когда я путешествую далеко в своей жизни.
@@ -4982,7 +4982,7 @@
           <t>It seems that you have been preparing to travel for a long time.</t>
         </is>
       </c>
-      <c r="H79" s="0" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>ඞПохоже, что вы долго готовились к путешествию.</t>
         </is>
@@ -5060,7 +5060,7 @@
 Of course, this is something that makes me feel excited, so I resolutely bought the ticket.</t>
         </is>
       </c>
-      <c r="H80" s="0" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>ඞНе совсем…
 На самом деле, эта поездка также направлена на удовлетворение пожеланий семьи.
@@ -5114,7 +5114,7 @@
 Time cannot pass away regret. I wish you a wonderful journey.</t>
         </is>
       </c>
-      <c r="H81" s="0" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>ඞЭто здорово!
 Время не может изгнать сожаления. Желаю вам приятного путешествия.</t>
@@ -5157,7 +5157,7 @@
           <t>Thanks</t>
         </is>
       </c>
-      <c r="H82" s="0" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>ඞСпасибо</t>
         </is>
@@ -5199,7 +5199,7 @@
           <t>View the Nameplate</t>
         </is>
       </c>
-      <c r="H83" s="0" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>ඞПосмотрите на заводскую табличку</t>
         </is>
@@ -5241,7 +5241,7 @@
           <t>Commemorative Nameplate</t>
         </is>
       </c>
-      <c r="H84" s="0" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>ඞПамятная табличка с именем</t>
         </is>
@@ -5283,7 +5283,7 @@
           <t>In 1920, following the train collision accident, two trains of Buider" were driven out one after the other to meet the peak of wartime transportation." As a result, the rear train collided with the observation car at the end of the parked front train in Rochester, 11 people dead and leaving one person missing."</t>
         </is>
       </c>
-      <c r="H85" s="0" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>ඞВ 1920 году, после столкновения поездов, два поезда Buider "были отправлены один за другим, чтобы соответствовать пику перевозок военного времени". В результате задний состав столкнулся со смотровым вагоном в конце припаркованного переднего состава в Рочестере, в результате чего 11 человек погибли и один человек пропал без вести."</t>
         </is>
@@ -5325,7 +5325,7 @@
           <t>The names of over a dozen people who died are engraved below.</t>
         </is>
       </c>
-      <c r="H86" s="0" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>ඞНиже выгравированы имена более дюжины погибших людей.</t>
         </is>
@@ -5367,7 +5367,7 @@
           <t>The train is moving fast, you slowly wake up from your seat.</t>
         </is>
       </c>
-      <c r="H87" s="0" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>ඞПоезд мчится быстро, вы медленно поднимаетесь со своего места.</t>
         </is>
@@ -5409,7 +5409,7 @@
           <t>It feels like a long dream…</t>
         </is>
       </c>
-      <c r="H88" s="0" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>ඞЭто похоже на долгий сон…</t>
         </is>
@@ -5463,7 +5463,7 @@
 "Dear passengers, the train has arrived at Townsend train station. Passengers who get off at Townsend please get off the train in time."</t>
         </is>
       </c>
-      <c r="H89" s="0" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>ඞКак раз в тот момент, когда вы теряетесь в догадках о том, что произошло раньше,
 вы услышали голос диктора в поезде.
@@ -5507,7 +5507,7 @@
           <t>It seems that this trip has to change its destination midway…</t>
         </is>
       </c>
-      <c r="H90" s="0" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>ඞПохоже, что на полпути этой поездке придется сменить пункт назначения…</t>
         </is>
@@ -5549,7 +5549,7 @@
           <t>At the same time, in a richly decorated mansion.</t>
         </is>
       </c>
-      <c r="H91" s="0" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>ඞВ то же время в богато украшенном особняке.</t>
         </is>
@@ -5591,7 +5591,7 @@
           <t>In the afternoon, the girl was painting in the room.</t>
         </is>
       </c>
-      <c r="H92" s="0" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>ඞВо второй половине дня девушка рисовала в своей комнате.</t>
         </is>
@@ -5633,7 +5633,7 @@
           <t>The room door opened as she was writing.</t>
         </is>
       </c>
-      <c r="H93" s="0" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>ඞКогда она писала, дверь в комнату открылась.</t>
         </is>
@@ -5675,7 +5675,7 @@
           <t>Wende, I am home~</t>
         </is>
       </c>
-      <c r="H94" s="0" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>ඞВенде, я дома~</t>
         </is>
@@ -5717,7 +5717,7 @@
           <t>The moment the man threw down the bag he was holding, Wende joyfully flew in his direction.</t>
         </is>
       </c>
-      <c r="H95" s="0" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>ඞКак только мужчина бросил сумку, которую держал в руках, Венде радостно бросилась в его сторону.</t>
         </is>
@@ -5759,7 +5759,7 @@
           <t>There is a straightforward watercolor picture on the wall:</t>
         </is>
       </c>
-      <c r="H96" s="0" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>ඞНа стене висит простая акварельная картина:</t>
         </is>
@@ -5807,7 +5807,7 @@
 The pale blue lake next to the castle joins the stream to the area around it.</t>
         </is>
       </c>
-      <c r="H97" s="0" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>ඞВысокий замок возвышается под звездным небом над бескрайним морем.
 Бледно-голубое озеро рядом с замком впадает в ручей, который течет по окрестностям.</t>
@@ -5856,7 +5856,7 @@
 He seemed to be playing an unknown ballad sadly…</t>
         </is>
       </c>
-      <c r="H98" s="0" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>ඞВ замке человек, нарисованный желтым карандашом, стоит перед старинным струнным инструментом…
 Казалось, он печально наигрывает неизвестную балладу…</t>
@@ -5899,7 +5899,7 @@
           <t>At the same time, in a dark abyss.</t>
         </is>
       </c>
-      <c r="H99" s="0" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>ඞВ то же время, в темной бездне.</t>
         </is>
@@ -5941,7 +5941,7 @@
           <t>The other side is hidden in the deep dark valley. A huge spider web is tied over the deep valley and the rope-like spider silk interlaces with each other, binding the whole valley.</t>
         </is>
       </c>
-      <c r="H100" s="0" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>ඞДругая сторона скрыта в глубокой темной долине. Над глубокой долиной раскинута огромная паутина, и похожие на веревки нити паутинного шелка переплетаются друг с другом, опутывая всю долину.</t>
         </is>
@@ -5989,7 +5989,7 @@
 This black thing has a human head but the lower part is a broken spider body. Its broken limbs make its movement slowly and it is struggling to repair some broken web holes.</t>
         </is>
       </c>
-      <c r="H101" s="0" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>ඞВ отдалении, на краю паутины, видна тень размером с присевшего на корточки человека.
 У этого черного существа человеческая голова, но нижняя часть представляет собой сломанное паучье туловище. Его сломанные конечности двигаются медленно, и оно изо всех сил пытается заделать несколько дыр в паутине.</t>
@@ -6038,7 +6038,7 @@
 His facial was distorted and he kept wailing in pain as if he wanted to stop and rest, but his body was out of control. Every movement of his incomplete limbs brought him great pain.</t>
         </is>
       </c>
-      <c r="H102" s="0" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>ඞБлагодаря голове мы можем почти распознать его первоначальный человеческий облик - Тонсона!
 Его лицо было искажено, и он продолжал выть от боли, как будто хотел остановиться и отдохнуть, но его тело было неуправляемо. Каждое движение его неполноценных конечностей причиняло ему сильную боль.</t>
@@ -6081,7 +6081,7 @@
           <t>Together with Atlach, he will never stop weaving a huge net far away from the world.</t>
         </is>
       </c>
-      <c r="H103" s="0" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>ඞВместе с Атлахом он никогда не перестанет плести огромную сеть вдали от всего мира.</t>
         </is>
@@ -6123,7 +6123,7 @@
           <t>You pack your luggages and get ready to get off.</t>
         </is>
       </c>
-      <c r="H104" s="0" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>ඞВы собираете свой багаж и готовитесь к отъезду.</t>
         </is>
@@ -6165,7 +6165,7 @@
           <t>Faded Eternity</t>
         </is>
       </c>
-      <c r="H105" s="0" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>ඞУгасшая Вечность</t>
         </is>
@@ -6219,7 +6219,7 @@
 As time goes on, Townsend has changed quietly. It has developed into a prosperous town. The magnificent pastoral view has attracted a lot of tourists to visit, but no one has remembered the origin of the town's name.</t>
         </is>
       </c>
-      <c r="H106" s="0" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>ඞВы разрываете порочный круг Таунсенда, и чудесным образом все возвращается на круги своя.
 Исчезнувшие люди вернулись в город. Это было похоже на вечный сон. После пробуждения их воспоминания постепенно тускнели, пока не исчезли совсем.
@@ -6281,7 +6281,7 @@
 At the other end of the crack, a spider web gradually spreads to you…</t>
         </is>
       </c>
-      <c r="H107" s="0" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>ඞНо вы знаете, что в неизведанных глубинах или в забытых уголках истории все еще скрыты большие тайны.
 Вы страдаете от периодической бессонницы. Всякий раз, когда планеты звездного скопления Плеяд сияют, в ваших ушах звучит странная песня.
@@ -6332,7 +6332,7 @@
 "Dear passengers, the train has arrived at Arkham train station. Passengers who get off at Arkham please get off the train in time."</t>
         </is>
       </c>
-      <c r="H108" s="0" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>ඞКогда вы все еще были в оцепенении, по радио объявили:
 "Уважаемые пассажиры, поезд прибыл на железнодорожную станцию Аркхэм. Пассажиры, которые выходят в Аркхэме, пожалуйста, сойдите с поезда вовремя".</t>
@@ -6375,7 +6375,7 @@
           <t>Sunshine beach~ here I am~</t>
         </is>
       </c>
-      <c r="H109" s="0" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>ඞСаншайн-бич~ вот и я~</t>
         </is>
@@ -6417,7 +6417,7 @@
           <t>Life is like a dream</t>
         </is>
       </c>
-      <c r="H110" s="0" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>ඞЖизнь похожа на сон.</t>
         </is>
@@ -6465,7 +6465,7 @@
 Your life is constantly changing and you can meet new people or things every day, there is no need to let regrets affect your current life, you comfort yourself.</t>
         </is>
       </c>
-      <c r="H111" s="0" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>ඞВремена идут быстро, никто не будет интересоваться историей без каких-либо записей, и вы никогда не будете мечтать о Таунсенде.
 Ваша жизнь постоянно меняется, и вы можете каждый день знакомиться с новыми людьми или вещами, не нужно позволять сожалениям влиять на вашу текущую жизнь, вы успокаиваете себя.</t>
@@ -6514,7 +6514,7 @@
 Under the unknown underground, or in the gaps of history which have been forgotten, there are still big secrets hidden there.</t>
         </is>
       </c>
-      <c r="H112" s="0" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>ඞНо вы же знаете, что…
 В неизведанном подземелье или в забытых уголках истории все еще скрыты большие тайны.</t>
@@ -6557,7 +6557,7 @@
           <t>Passenger</t>
         </is>
       </c>
-      <c r="H113" s="0" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>ඞПассажир</t>
         </is>
@@ -6599,7 +6599,7 @@
           <t>Listen to the conversation</t>
         </is>
       </c>
-      <c r="H114" s="0" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>ඞПрислушивайтесь к разговору</t>
         </is>
@@ -6641,7 +6641,7 @@
           <t>West Street</t>
         </is>
       </c>
-      <c r="H115" s="0" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>ඞЗападная улица</t>
         </is>
@@ -6683,7 +6683,7 @@
           <t>You tried to get through the mist but eventually, you returned to your original position.</t>
         </is>
       </c>
-      <c r="H116" s="0" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>ඞВы пытались пробраться сквозь туман, но в конце концов вернулись на свое прежнее место.</t>
         </is>
@@ -6728,7 +6728,7 @@
           <t>I don't know the way, we have to wait Merry comes out first.</t>
         </is>
       </c>
-      <c r="H117" s="0" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>ඞЯ не знаю дороги, мы должны подождать, пока Мерри выйдет первой.</t>
         </is>
@@ -6770,7 +6770,7 @@
           <t>It was painted with big words in white paint —— "Welcome to Townsend"</t>
         </is>
       </c>
-      <c r="H118" s="0" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>ඞНа нем белой краской было написано крупными буквами: "Добро пожаловать в Таунсенд".</t>
         </is>
@@ -6812,7 +6812,7 @@
           <t>You realize that there are traces of being rummaged on this grassland, but you only find some useless gravels</t>
         </is>
       </c>
-      <c r="H119" s="0" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>ඞВы понимаете, что на этом лугу есть следы того, что кто-то рылся, но находите только несколько бесполезных камешков</t>
         </is>
@@ -6854,7 +6854,7 @@
           <t>View</t>
         </is>
       </c>
-      <c r="H120" s="0" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>ඞПосмотреть</t>
         </is>
@@ -6896,7 +6896,7 @@
           <t>You search the grass carefully, and luckily you find two four-leaf clovers</t>
         </is>
       </c>
-      <c r="H121" s="0" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>ඞВы тщательно обыскиваете траву и, к счастью, находите два четырехлистных клевера</t>
         </is>
@@ -6938,7 +6938,7 @@
           <t>Climb</t>
         </is>
       </c>
-      <c r="H122" s="0" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>ඞВзобраться</t>
         </is>
@@ -6986,7 +6986,7 @@
 Please come and try.</t>
         </is>
       </c>
-      <c r="H123" s="0" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>ඞСегодня есть еще больше вкусных блюд, которые вам точно понравятся,
 Пожалуйста, приходите и попробуйте.</t>
@@ -7029,7 +7029,7 @@
           <t>You see Merry is going door to door to distribute the leaflets.</t>
         </is>
       </c>
-      <c r="H124" s="0" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>ඞВы видите, что Мерри ходит от двери к двери, чтобы раздавать листовки.</t>
         </is>
@@ -7071,7 +7071,7 @@
           <t>She ended up in a general store.</t>
         </is>
       </c>
-      <c r="H125" s="0" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>ඞВ конце концов она оказалась в универсальном магазине.</t>
         </is>
@@ -7113,7 +7113,7 @@
           <t>Hurrp up and follower Merry.</t>
         </is>
       </c>
-      <c r="H126" s="0" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>ඞПоднимайся и следуй за Мерри.</t>
         </is>
@@ -7155,7 +7155,7 @@
           <t>The Hotel</t>
         </is>
       </c>
-      <c r="H127" s="0" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>ඞОтель</t>
         </is>
@@ -7197,7 +7197,7 @@
           <t>Take the Bread</t>
         </is>
       </c>
-      <c r="H128" s="0" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>ඞВозьми хлеб</t>
         </is>
@@ -7239,7 +7239,7 @@
           <t>Take away the broom</t>
         </is>
       </c>
-      <c r="H129" s="0" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>ඞУбери метлу</t>
         </is>
@@ -7281,7 +7281,7 @@
           <t>Take the kerosene lamp</t>
         </is>
       </c>
-      <c r="H130" s="0" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>ඞВозьми керосиновую лампу</t>
         </is>
@@ -7323,7 +7323,7 @@
           <t>Is anyone there?</t>
         </is>
       </c>
-      <c r="H131" s="0" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>ඞЕсть здесь кто-нибудь?</t>
         </is>
@@ -7365,7 +7365,7 @@
           <t>A young woman is cooking behind the table with bandages around her shoulders.</t>
         </is>
       </c>
-      <c r="H132" s="0" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>ඞМолодая женщина с бинтами на плечах готовит за столом.</t>
         </is>
@@ -7413,7 +7413,7 @@
 Where is this? Did you save my life?</t>
         </is>
       </c>
-      <c r="H133" s="0" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>ඞМадам, извините меня.
 Где это? Вы спасли мне жизнь?</t>
@@ -7468,7 +7468,7 @@
 So you turn up the volume --</t>
         </is>
       </c>
-      <c r="H134" s="0" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>ඞЖенщина перед вами невозмутима, и вы вспоминаете, что не потревожили ее, когда спускались вниз.
 У вас возникает ощущение, что либо у нее значительный дефицит слуха, либо у нее серьезные когнитивные нарушения.
@@ -7512,7 +7512,7 @@
           <t>Land! Lady!</t>
         </is>
       </c>
-      <c r="H135" s="0" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>ඞПриземляйтесь! Леди!</t>
         </is>
@@ -7584,7 +7584,7 @@
 You will be satisfied…</t>
         </is>
       </c>
-      <c r="H136" s="0" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>ඞДорогой гость!
 Вы все-таки пришли!
@@ -7649,7 +7649,7 @@
 You can't help but feel a little queasy.</t>
         </is>
       </c>
-      <c r="H137" s="0" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>ඞПод вашим внимательным наблюдением содержимое кастрюли наконец-то становится понятно - это рагу из нута.
 Вы можете сказать, что это сочная смесь овощей, таких как горох, морковь, картофель и капуста, с говядиной и свининой.
@@ -7694,7 +7694,7 @@
           <t>Is this soup… really drinkable?</t>
         </is>
       </c>
-      <c r="H138" s="0" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>ඞЭтот суп… действительно питьевая?</t>
         </is>
@@ -7736,7 +7736,7 @@
           <t>The lady gives you an expectant look, hope you can accept…</t>
         </is>
       </c>
-      <c r="H139" s="0" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>ඞДама выжидающе смотрит на вас, надеясь, что вы сможете принять…</t>
         </is>
@@ -7778,7 +7778,7 @@
           <t>[Accept the Stew]</t>
         </is>
       </c>
-      <c r="H140" s="0" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>ඞ[Прими рагу]</t>
         </is>
@@ -7820,7 +7820,7 @@
           <t>[Refuse the Stew]</t>
         </is>
       </c>
-      <c r="H141" s="0" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>ඞ[Откажись от рагу]</t>
         </is>
@@ -7862,7 +7862,7 @@
           <t>Conversar</t>
         </is>
       </c>
-      <c r="H142" s="0" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>Поговорить</t>
         </is>
@@ -7916,7 +7916,7 @@
 I'd rather… Give it a try.</t>
         </is>
       </c>
-      <c r="H143" s="0" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>ඞЯ только что видел, как мадам пробовала суп.
 Если с ней все в порядке, ммм...…
@@ -7978,7 +7978,7 @@
 You just have to suck it up.</t>
         </is>
       </c>
-      <c r="H144" s="0" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>ඞДама аккуратно наполняет тарелку тушеным мясом.
 Ты смотришь на тарелку с тушеным мясом, стоящую перед тобой, и видишь, что оно густое и странного цвета.
@@ -8031,7 +8031,7 @@
 There's an incredibly beautiful texture, and you feel the exhaustion of your body giving away to a rich sense of happiness.</t>
         </is>
       </c>
-      <c r="H145" s="0" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>ඞВы с удивлением обнаружите, что, хотя это блюдо выглядит очень отвратительно и неприемлемо, но когда вы его едите, оно становится очень вкусным!
 У него невероятно красивая текстура, и вы чувствуете, как усталость вашего тела сменяется глубоким чувством счастья.</t>
@@ -8074,7 +8074,7 @@
           <t>… Thank you, this is the best stew I've ever tasted.</t>
         </is>
       </c>
-      <c r="H146" s="0" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>ඞ...Спасибо, это лучшее рагу, которое я когда-либо пробовал.</t>
         </is>
@@ -8134,7 +8134,7 @@
 The guest room on the second floor has been cleared out…</t>
         </is>
       </c>
-      <c r="H147" s="0" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>ඞЯвляется… Вам это по вкусу?
 Это действительно мило.
@@ -8179,7 +8179,7 @@
           <t>Thanks… But where exactly is this?</t>
         </is>
       </c>
-      <c r="H148" s="0" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>ඞСпасибо… Но где именно это находится?</t>
         </is>
@@ -8233,7 +8233,7 @@
 But I already processed it. I don't think any blood could be smelled.</t>
         </is>
       </c>
-      <c r="H149" s="0" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>ඞО, доступные номера относительно небольшие…
 В номерах для гостей все еще ведутся ремонтные работы…
@@ -8283,7 +8283,7 @@
 you hear the door open, and in comes an old man dressed like a preacher.</t>
         </is>
       </c>
-      <c r="H150" s="0" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>ඞОна не отвечает вам прямо. Пока вы размышляете над последним предложением,
 вы слышите, как открывается дверь и входит старик, одетый как проповедник.</t>
@@ -8332,7 +8332,7 @@
 But I don't really have an appetite right now.</t>
         </is>
       </c>
-      <c r="H151" s="0" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>ඞБольшое вам спасибо за то, что приняли меня у себя.
 Но сейчас у меня действительно нет аппетита.</t>
@@ -8393,7 +8393,7 @@
 I'll try my best to make it even more delicious.</t>
         </is>
       </c>
-      <c r="H152" s="0" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>ඞА? Моя гостья,
 Вы уверены, что не хотите попробовать?
@@ -8444,7 +8444,7 @@
 Her face grew pale as the blood from her arms poured into the pot.</t>
         </is>
       </c>
-      <c r="H153" s="0" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>ඞВы видели, как она разрезала ножом повязку на левой руке.
 Ее лицо побледнело, когда кровь из ее рук полилась в горшок.</t>
@@ -8499,7 +8499,7 @@
 You'll be happy after you taste it.</t>
         </is>
       </c>
-      <c r="H154" s="0" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>ඞМоя гостья…
 Теперь это блюдо стало еще вкуснее.
@@ -8555,7 +8555,7 @@
 My refusal has nothing to do with the food.</t>
         </is>
       </c>
-      <c r="H155" s="0" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>ඞТы! Почему?
 Ты с ума сошел?
@@ -8599,7 +8599,7 @@
           <t>You feel regret after you say it out, because she didn't react to what you said.</t>
         </is>
       </c>
-      <c r="H156" s="0" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>ඞВы чувствуете сожаление после того, как произносите это вслух, потому что она никак не отреагировала на ваши слова.</t>
         </is>
@@ -8641,7 +8641,7 @@
           <t>The lady just looks at you with hopeful eyes, expecting that you can accept her hospitality…</t>
         </is>
       </c>
-      <c r="H157" s="0" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>ඞДама просто смотрит на вас с надеждой, ожидая, что вы сможете воспользоваться ее гостеприимством…</t>
         </is>
@@ -8683,7 +8683,7 @@
           <t>[Still Refuse the Stew]</t>
         </is>
       </c>
-      <c r="H158" s="0" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>ඞ(Все еще отказывается от рагу)</t>
         </is>
@@ -8727,7 +8727,7 @@
           <t>Even if you look at me like this,I can't accept it…</t>
         </is>
       </c>
-      <c r="H159" s="0" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>ඞДаже если ты будешь так смотреть на меня, я не смогу этого принять…</t>
         </is>
@@ -8775,7 +8775,7 @@
 I'd better get out of here.</t>
         </is>
       </c>
-      <c r="H160" s="0" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>ඞЭтот человек в критическом состоянии,
 Мне лучше уйти отсюда.</t>
@@ -8824,7 +8824,7 @@
 you hear the door open, and in comes an old man dressed like a preacher.</t>
         </is>
       </c>
-      <c r="H161" s="0" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>ඞКак раз в тот момент, когда вы собирались уходить,
 вы услышали, как открылась дверь и вошел старик, одетый как проповедник.</t>
@@ -8867,7 +8867,7 @@
           <t>The old man, upon seeing you, could hardly conceal his surprise.</t>
         </is>
       </c>
-      <c r="H162" s="0" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>ඞСтарик, увидев вас, с трудом скрыл свое удивление.</t>
         </is>
@@ -8909,7 +8909,7 @@
           <t>The old man couldn't hide his surprise when he sees you.</t>
         </is>
       </c>
-      <c r="H163" s="0" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>ඞСтарик не смог скрыть своего удивления, когда увидел тебя.</t>
         </is>
@@ -8951,7 +8951,7 @@
           <t>He helps himself to a bowl of soup and begins to drink.</t>
         </is>
       </c>
-      <c r="H164" s="0" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>ඞОн накладывает себе тарелку супа и начинает пить.</t>
         </is>
@@ -8999,7 +8999,7 @@
 Merry, I will wait for you to complete the final transformation.</t>
         </is>
       </c>
-      <c r="H165" s="0" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>ඞУ него все еще такой восхитительный аромат…
 Мерри, я подожду, пока ты завершишь окончательное преображение.</t>
@@ -9042,7 +9042,7 @@
           <t>Then he looks at you.</t>
         </is>
       </c>
-      <c r="H166" s="0" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>ඞЗатем он смотрит на тебя.</t>
         </is>
@@ -9090,7 +9090,7 @@
 A face of fresh.</t>
         </is>
       </c>
-      <c r="H167" s="0" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>ඞЭто место уже много лет не видело ничего нового…
 Свежее лицо.</t>
@@ -9133,7 +9133,7 @@
           <t>Looks like this is a local guy who can communicate.</t>
         </is>
       </c>
-      <c r="H168" s="0" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>ඞПохоже, это местный парень, который умеет общаться.</t>
         </is>
@@ -9175,7 +9175,7 @@
           <t>You tell him what happened to you.</t>
         </is>
       </c>
-      <c r="H169" s="0" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>ඞТы расскажешь ему, что с тобой случилось.</t>
         </is>
@@ -9217,7 +9217,7 @@
           <t>So you're here today?</t>
         </is>
       </c>
-      <c r="H170" s="0" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>ඞТак ты сегодня здесь?</t>
         </is>
@@ -9265,7 +9265,7 @@
 Can you tell me what's going on here first?</t>
         </is>
       </c>
-      <c r="H171" s="0" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>ඞДа, я уже рассказал вам все, что знаю.
 Не могли бы вы сначала рассказать мне, что здесь происходит?</t>
@@ -9308,7 +9308,7 @@
           <t>The old man thought for a moment.</t>
         </is>
       </c>
-      <c r="H172" s="0" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>ඞСтарик на мгновение задумался.</t>
         </is>
@@ -9374,7 +9374,7 @@
 Do you know you can't get out of that white fog no matter what?</t>
         </is>
       </c>
-      <c r="H173" s="0" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>ඞЛадно, можете называть меня просто Тонсон.
 Это город, который я построил.
@@ -9426,7 +9426,7 @@
 If it's not offensive, could you please inform us about the local customs and taboos?</t>
         </is>
       </c>
-      <c r="H174" s="0" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>ඞХм... Мы здесь недавно.
 Если это не покажется вам оскорбительным, не могли бы вы рассказать нам о местных обычаях и табу?</t>
@@ -9469,7 +9469,7 @@
           <t>Excuse me!</t>
         </is>
       </c>
-      <c r="H175" s="0" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>ඞИзвините меня!</t>
         </is>
@@ -9517,7 +9517,7 @@
 But no matter how many times you try, every time the fog lifts you return to the town.</t>
         </is>
       </c>
-      <c r="H176" s="0" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>ඞВы вышли из отеля и оказались в белом тумане.
 Но сколько бы вы ни пытались, каждый раз, когда туман рассеивается, вы возвращаетесь в город.</t>
@@ -9560,7 +9560,7 @@
           <t>What the hell is going on here, Mr. Tonson?</t>
         </is>
       </c>
-      <c r="H177" s="0" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>ඞЧто, черт возьми, здесь происходит, мистер Тонсон?</t>
         </is>
@@ -9626,7 +9626,7 @@
 When this is done, I'm gonna get you out of here.</t>
         </is>
       </c>
-      <c r="H178" s="0" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>ඞЭто тюремная клетка.
 Я не могу выйти и не в состоянии что-либо изменить. Это сводит многих людей с ума.
@@ -9672,7 +9672,7 @@
           <t>What is the specific content of the mission?</t>
         </is>
       </c>
-      <c r="H179" s="0" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>ඞВ чем заключается конкретное содержание миссии?</t>
         </is>
@@ -9744,7 +9744,7 @@
 This mission won't be too hard for you, and it won't cost you anything.</t>
         </is>
       </c>
-      <c r="H180" s="0" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>ඞЭто на благо людей.
 Помогите мне разобраться с убийцей, скрывающимся в этом городе.
@@ -9791,7 +9791,7 @@
           <t>Let me see…</t>
         </is>
       </c>
-      <c r="H181" s="0" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>ඞДайте-ка подумать…</t>
         </is>
@@ -9851,7 +9851,7 @@
 Either his pay wasn't real, or Tonson lied about the difficulty of the investigation.</t>
         </is>
       </c>
-      <c r="H182" s="0" t="inlineStr">
+      <c r="H182" t="inlineStr">
         <is>
           <t>ඞСпокойные и серьезные слова Тонсона заставляют вас почувствовать, что вы разговариваете с бизнесменом, на лице которого надета маска безмятежной профессиональной ухмылки, словно он торгуется на улице за продукты.
 В отсутствие конфликта интересов у него не должно быть причин обманывать вас, если речь идет о поручении.
@@ -9908,7 +9908,7 @@
 Yes, it's better to have an extra lead and a "partner" to provide information than to pursue it alone.</t>
         </is>
       </c>
-      <c r="H183" s="0" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>ඞВам не терпится получить информацию прямо сейчас, и вы немного подумали о поручении и не видите большой проблемы.
 Потому что вы поступили бы точно так же, расследуя дело о его предполагаемом убийце или исследуя место самостоятельно.
@@ -9958,7 +9958,7 @@
 I don't even know how to find you when I'm done with the commission.</t>
         </is>
       </c>
-      <c r="H184" s="0" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>ඞМистер Тонсон, я пока ничего не знаю об этом месте.
 Я даже не знаю, как вас найти, когда закончу с заказом.</t>
@@ -10031,7 +10031,7 @@
 The least valuable thing here is time, and I'm sure you'll get used to it yourself.</t>
         </is>
       </c>
-      <c r="H185" s="0" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>ඞПосле того, как комиссия будет завершена, все, что вам нужно сделать, это вернуться в отель, и я встречу вас здесь вечером.
 Я дам вам несколько советов на случай, если вы доставите мне неприятности.
@@ -10084,7 +10084,7 @@
 I want information about the killer…</t>
         </is>
       </c>
-      <c r="H186" s="0" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t>ඞЛадно, последний вопрос.
 Мне нужна информация об убийце…</t>
@@ -10127,7 +10127,7 @@
           <t>You could see Tonson's impatience.</t>
         </is>
       </c>
-      <c r="H187" s="0" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>ඞБыло видно нетерпение Тонсона.</t>
         </is>
@@ -10169,7 +10169,7 @@
           <t>His name is Horn…</t>
         </is>
       </c>
-      <c r="H188" s="0" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t>ඞЕго зовут Хорн…</t>
         </is>
@@ -10211,7 +10211,7 @@
           <t>A man dressed in black rolls over the window in. | With blue hair, black clothes, and a playboy expression.</t>
         </is>
       </c>
-      <c r="H189" s="0" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>ඞМужчина, одетый в черное, перелезает через окно. | У него синие волосы, черная одежда и выражение лица плейбоя.</t>
         </is>
@@ -10265,7 +10265,7 @@
 How can I torture you?</t>
         </is>
       </c>
-      <c r="H190" s="0" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t>ඞТонсон, это прекрасная встреча.
 Что ты будешь делать без Райана?
@@ -10309,7 +10309,7 @@
           <t>You see Tonson begin to tremble.</t>
         </is>
       </c>
-      <c r="H191" s="0" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>ඞВы видите, что Тонсон начинает дрожать.</t>
         </is>
@@ -10363,7 +10363,7 @@
 You can get out of here after taking care of him!</t>
         </is>
       </c>
-      <c r="H192" s="0" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>ඞЭто Хорн!
 Помогите мне поймать его!
@@ -10414,7 +10414,7 @@
 He saw you with a smile and tidy his hair.</t>
         </is>
       </c>
-      <c r="H193" s="0" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>ඞВ это время этот человек тоже смотрит на вас.
 Он увидел, что вы улыбаетесь и приводите в порядок свои волосы.</t>
@@ -10481,7 +10481,7 @@
 I'm long gone from this hellhole.</t>
         </is>
       </c>
-      <c r="H194" s="0" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>ඞВ чем дело?
 Вы когда-нибудь видели такого красивого убийцу?
@@ -10533,7 +10533,7 @@
 Do you believe the word of the mayor or a murderer?!!</t>
         </is>
       </c>
-      <c r="H195" s="0" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>ඞЯ определенно могу вытащить вас отсюда!
 Вы верите слову мэра или убийцы?!!</t>
@@ -10576,7 +10576,7 @@
           <t>Just make you don't run away like you did last time.</t>
         </is>
       </c>
-      <c r="H196" s="0" t="inlineStr">
+      <c r="H196" t="inlineStr">
         <is>
           <t>ඞПросто сделай так, чтобы ты не убежала, как в прошлый раз.</t>
         </is>
@@ -10618,7 +10618,7 @@
           <t>Tonson fell to the ground, gasping for air, his bones broken.</t>
         </is>
       </c>
-      <c r="H197" s="0" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>ඞТонсон упал на землю, хватая ртом воздух, его кости были сломаны.</t>
         </is>
@@ -10660,7 +10660,7 @@
           <t>Tonson was knocked to the ground, and now Horn has his back to you, and you are going to…</t>
         </is>
       </c>
-      <c r="H198" s="0" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>ඞТонсон был сбит с ног, и теперь Хорн стоит к тебе спиной, и ты собираешься…</t>
         </is>
@@ -10702,7 +10702,7 @@
           <t>[Wait and See]</t>
         </is>
       </c>
-      <c r="H199" s="0" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>ඞ[Подожди и увидишь]</t>
         </is>
@@ -10744,7 +10744,7 @@
           <t>[Help Tonson]</t>
         </is>
       </c>
-      <c r="H200" s="0" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>ඞ[Помоги Тонсону]</t>
         </is>
@@ -10786,7 +10786,7 @@
           <t>I know you want to call those troublesome things.</t>
         </is>
       </c>
-      <c r="H201" s="0" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>ඞЯ знаю, ты хочешь назвать это неприятными вещами.</t>
         </is>
@@ -10828,7 +10828,7 @@
           <t>Three shots rang out, and Tonson was completely incapacitated.</t>
         </is>
       </c>
-      <c r="H202" s="0" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>ඞРаздались три выстрела, и Тонсон был полностью выведен из строя.</t>
         </is>
@@ -10876,7 +10876,7 @@
 Okay, that's a bit of a strech.</t>
         </is>
       </c>
-      <c r="H203" s="0" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>ඞТсс, он проглотил яд первым.
 Ладно, это уже перебор.</t>
@@ -10919,7 +10919,7 @@
           <t>He turns and looks at you.</t>
         </is>
       </c>
-      <c r="H204" s="0" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>ඞОн поворачивается и смотрит на тебя.</t>
         </is>
@@ -10979,7 +10979,7 @@
 If you can tell me some information, we might cooperate.</t>
         </is>
       </c>
-      <c r="H205" s="0" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>ඞВы меня заинтересовали.
 Вы первый человек, который смог попасть в это место с начала цикла.
@@ -11024,7 +11024,7 @@
           <t>I really don't know what's going on!</t>
         </is>
       </c>
-      <c r="H206" s="0" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>ඞЯ действительно не понимаю, что происходит!</t>
         </is>
@@ -11066,7 +11066,7 @@
           <t>You're ready for a fight.</t>
         </is>
       </c>
-      <c r="H207" s="0" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>ඞТы готов к бою.</t>
         </is>
@@ -11108,7 +11108,7 @@
           <t>Well, I'm gonna have to make you think.</t>
         </is>
       </c>
-      <c r="H208" s="0" t="inlineStr">
+      <c r="H208" t="inlineStr">
         <is>
           <t>ඞЧто ж, мне придется заставить тебя задуматься.</t>
         </is>
@@ -11150,7 +11150,7 @@
           <t>You knocked Horn down, but you still got him up for a clue.</t>
         </is>
       </c>
-      <c r="H209" s="0" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>ඞТы сбил Хорна с ног, но все равно заставил его подняться, чтобы получить подсказку.</t>
         </is>
@@ -11216,7 +11216,7 @@
 We should be building basic trust, not using threats, right?</t>
         </is>
       </c>
-      <c r="H210" s="0" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>ඞУ меня нет причин лгать тебе.
 Если бы я действительно знал, что здесь происходит.
@@ -11262,7 +11262,7 @@
           <t>Well, just occupational habits.</t>
         </is>
       </c>
-      <c r="H211" s="0" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>ඞНу, просто профессиональные привычки.</t>
         </is>
@@ -11310,7 +11310,7 @@
 And then to you in a serious way.</t>
         </is>
       </c>
-      <c r="H212" s="0" t="inlineStr">
+      <c r="H212" t="inlineStr">
         <is>
           <t>ඞОн провел рукой по волосам, словно пытаясь избавиться от смущения.
 А потом серьезно обратился к тебе.</t>
@@ -11365,7 +11365,7 @@
 Think about it, did anything special happen to you?</t>
         </is>
       </c>
-      <c r="H213" s="0" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>ඞЯ тоже ищу способ выбраться отсюда.
 Ты единственный посторонний человек за многие годы!
@@ -11409,7 +11409,7 @@
           <t>Let's see…</t>
         </is>
       </c>
-      <c r="H214" s="0" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>ඞДавайте посмотрим…</t>
         </is>
@@ -11457,7 +11457,7 @@
 You told Horn about the weird dream you had just before you woke up.</t>
         </is>
       </c>
-      <c r="H215" s="0" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>ඞВы вдруг понимаете, что пропустили несколько образов из вашего сна.
 Вы рассказали Хорну о странном сне, который приснился вам незадолго до того, как вы проснулись.</t>
@@ -11512,7 +11512,7 @@
 That person should be in that place.</t>
         </is>
       </c>
-      <c r="H216" s="0" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t>ඞО! Мой хороший человек!
 Я думаю о семье на Норт-стрит.
@@ -11556,7 +11556,7 @@
           <t>Without further ado, let's meet her at North Street now.</t>
         </is>
       </c>
-      <c r="H217" s="0" t="inlineStr">
+      <c r="H217" t="inlineStr">
         <is>
           <t>ඞБез дальнейших церемоний, давайте встретимся с ней на Норт-стрит прямо сейчас.</t>
         </is>
@@ -11598,7 +11598,7 @@
           <t>Horn shakes his head.</t>
         </is>
       </c>
-      <c r="H218" s="0" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>ඞХорн качает головой.</t>
         </is>
@@ -11652,7 +11652,7 @@
 And now it's time to go backtrack.</t>
         </is>
       </c>
-      <c r="H219" s="0" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t>ඞМы не можем сразу отправиться на Северную улицу.
 Райан охраняет дом, и он разорвет любого на куски.
@@ -11696,7 +11696,7 @@
           <t>Backtracking?!</t>
         </is>
       </c>
-      <c r="H220" s="0" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>ඞОтступаем?!</t>
         </is>
@@ -11756,7 +11756,7 @@
 Except for Merry, don't talk to anyone else casually… because…</t>
         </is>
       </c>
-      <c r="H221" s="0" t="inlineStr">
+      <c r="H221" t="inlineStr">
         <is>
           <t>ඞПожалуйста, подожди меня на Саут-стрит, когда проснешься.
 Кстати, ты не знаешь, где находится Саут-стрит.
@@ -11801,7 +11801,7 @@
           <t>Eerie songs were heard, and the space around shattered like glass.</t>
         </is>
       </c>
-      <c r="H222" s="0" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>ඞПослышались жуткие песни, и пространство вокруг разлетелось вдребезги, как стекло.</t>
         </is>
@@ -11843,7 +11843,7 @@
           <t>When Horn is not looking, you will launch a surprise attack on him.</t>
         </is>
       </c>
-      <c r="H223" s="0" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t>ඞКогда Хорн отвернется, вы совершите неожиданную атаку на него.</t>
         </is>
@@ -11885,7 +11885,7 @@
           <t>Launch a surprise attack</t>
         </is>
       </c>
-      <c r="H224" s="0" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t>ඞНачать внезапную атаку</t>
         </is>
@@ -11933,7 +11933,7 @@
 Tonson tried to get up at this point, completely ignoring the bleeding wound on his body.</t>
         </is>
       </c>
-      <c r="H225" s="0" t="inlineStr">
+      <c r="H225" t="inlineStr">
         <is>
           <t>ඞХотя Хорн был начеку, он не ожидал, что вы окажетесь лучше, чем он предполагал. Вы сбили его с ног, и он потерял сознание.
 В этот момент Тонсон попытался встать, полностью игнорируя кровоточащую рану на своем теле.</t>
@@ -11976,7 +11976,7 @@
           <t>Take a breather, aren't you scared of death?</t>
         </is>
       </c>
-      <c r="H226" s="0" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t>ඞСделай передышку, разве ты не боишься смерти?</t>
         </is>
@@ -12042,7 +12042,7 @@
 Otherwise, you'll end up like Merry...</t>
         </is>
       </c>
-      <c r="H227" s="0" t="inlineStr">
+      <c r="H227" t="inlineStr">
         <is>
           <t>ඞЭто исключительный случай... и вот вам фантастическая возможность.
 Хорн наконец-то попался.
@@ -12088,7 +12088,7 @@
           <t>…OK</t>
         </is>
       </c>
-      <c r="H228" s="0" t="inlineStr">
+      <c r="H228" t="inlineStr">
         <is>
           <t>ඞ...ХОРОШО</t>
         </is>
@@ -12148,7 +12148,7 @@
 But, in the end, you didn't wake up from your nightmare. Instead, you felt severe pain all over your body and saw yourself distorted into an inhuman appearance.</t>
         </is>
       </c>
-      <c r="H229" s="0" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t>ඞТонсон произнес заклинание, вызывающее зрачок дурного глаза, а затем указал на вас пальцем.
 Вам крайне не по себе, и через некоторое время ужасающий страх охватывает все ваше тело.
@@ -12193,7 +12193,7 @@
           <t>You intend to launch a surprise attack on him, but he has already taken precautions, and your attack has failed.</t>
         </is>
       </c>
-      <c r="H230" s="0" t="inlineStr">
+      <c r="H230" t="inlineStr">
         <is>
           <t>ඞВы намереваетесь неожиданно напасть на него, но он уже принял меры предосторожности, и ваша атака провалилась.</t>
         </is>
@@ -12235,7 +12235,7 @@
           <t>Can we save our friendly communication for later, dude?</t>
         </is>
       </c>
-      <c r="H231" s="0" t="inlineStr">
+      <c r="H231" t="inlineStr">
         <is>
           <t>ඞМы можем оставить наше дружеское общение на потом, чувак?</t>
         </is>
@@ -12277,7 +12277,7 @@
           <t>But he is about to be tortured to die by you!</t>
         </is>
       </c>
-      <c r="H232" s="0" t="inlineStr">
+      <c r="H232" t="inlineStr">
         <is>
           <t>ඞНо вы собираетесь замучить его до смерти!</t>
         </is>
@@ -12319,7 +12319,7 @@
           <t>Eh, he even swallowed the poison first.</t>
         </is>
       </c>
-      <c r="H233" s="0" t="inlineStr">
+      <c r="H233" t="inlineStr">
         <is>
           <t>ඞЭх, он даже проглотил яд первым.</t>
         </is>
@@ -12397,7 +12397,7 @@
 We might even cooperate.</t>
         </is>
       </c>
-      <c r="H234" s="0" t="inlineStr">
+      <c r="H234" t="inlineStr">
         <is>
           <t>ඞВидите ли, он покончил с собой.
 Хотя это немного неприятно, как насчет того, чтобы мы как следует поболтали?
@@ -12451,7 +12451,7 @@
 I really don't know what I have to do with this place.</t>
         </is>
       </c>
-      <c r="H235" s="0" t="inlineStr">
+      <c r="H235" t="inlineStr">
         <is>
           <t>ඞЯ не знаю. Я проснулся и оказался здесь.
 Я действительно не знаю, какое отношение я имею к этому месту.</t>
@@ -12494,7 +12494,7 @@
           <t>You see him frown.</t>
         </is>
       </c>
-      <c r="H236" s="0" t="inlineStr">
+      <c r="H236" t="inlineStr">
         <is>
           <t>ඞТы видишь, как он хмурится.</t>
         </is>
@@ -12548,7 +12548,7 @@
 I have many ways to make people feel worse than death</t>
         </is>
       </c>
-      <c r="H237" s="0" t="inlineStr">
+      <c r="H237" t="inlineStr">
         <is>
           <t>ඞЯ долгое время был безработным.
 Но тебе лучше не врать мне.
@@ -12592,7 +12592,7 @@
           <t>He's threatening you for more information, but you really don't know anything right now…</t>
         </is>
       </c>
-      <c r="H238" s="0" t="inlineStr">
+      <c r="H238" t="inlineStr">
         <is>
           <t>ඞОн угрожает тебе, требуя больше информации, но ты действительно сейчас ничего не знаешь…</t>
         </is>
@@ -12634,7 +12634,7 @@
           <t>[Think About Missing Information]</t>
         </is>
       </c>
-      <c r="H239" s="0" t="inlineStr">
+      <c r="H239" t="inlineStr">
         <is>
           <t>ඞ[Подумайте о Недостающей Информации]</t>
         </is>
@@ -12676,7 +12676,7 @@
           <t>[A Show of Force]</t>
         </is>
       </c>
-      <c r="H240" s="0" t="inlineStr">
+      <c r="H240" t="inlineStr">
         <is>
           <t>ඞ[Демонстрация силы]</t>
         </is>
@@ -12718,7 +12718,7 @@
           <t>Before you wake up...</t>
         </is>
       </c>
-      <c r="H241" s="0" t="inlineStr">
+      <c r="H241" t="inlineStr">
         <is>
           <t>ඞДо того, как ты проснешься...</t>
         </is>
@@ -12767,7 +12767,7 @@
 Are you hungry? I have some breakfast for you...</t>
         </is>
       </c>
-      <c r="H242" s="0" t="inlineStr">
+      <c r="H242" t="inlineStr">
         <is>
           <t>ඞЭм? Наконец-то ты здесь, мой гость.
 Ты голоден? У меня есть для тебя немного завтрака...</t>
@@ -12810,7 +12810,7 @@
           <t>Tonson sighed and shook his head.</t>
         </is>
       </c>
-      <c r="H243" s="0" t="inlineStr">
+      <c r="H243" t="inlineStr">
         <is>
           <t>ඞТонсон вздохнул и покачал головой.</t>
         </is>
@@ -12870,7 +12870,7 @@
 I've run out of patience completely.</t>
         </is>
       </c>
-      <c r="H244" s="0" t="inlineStr">
+      <c r="H244" t="inlineStr">
         <is>
           <t>ඞМерри, из всех, кого я видел, ты обладаешь самыми лучшими качествами.
 Однако я крайне разочарован тем, что ты не смогла обратиться.
@@ -12915,7 +12915,7 @@
           <t>Tonson takes out a candle, which was wrapped with mysterious runes on it.</t>
         </is>
       </c>
-      <c r="H245" s="0" t="inlineStr">
+      <c r="H245" t="inlineStr">
         <is>
           <t>ඞТонсон достает свечу, на которой были начертаны таинственные руны.</t>
         </is>
@@ -12963,7 +12963,7 @@
 But now I have no choice...</t>
         </is>
       </c>
-      <c r="H246" s="0" t="inlineStr">
+      <c r="H246" t="inlineStr">
         <is>
           <t>ඞЭто может их не удовлетворить.
 Но теперь у меня нет выбора...</t>
@@ -13013,7 +13013,7 @@
 A strange eye appeared in front of his eyes. Merry's eyes shed black tears and cried bitterly.</t>
         </is>
       </c>
-      <c r="H247" s="0" t="inlineStr">
+      <c r="H247" t="inlineStr">
         <is>
           <t>ඞТонсон произнес непонятное заклинание.
 Перед его глазами появился странный глаз. Из глаз Мерри полились черные слезы, и она горько заплакала.</t>
@@ -13062,7 +13062,7 @@
 However, there is a strange scent in the air that obscures the difference between reality and illusion and prevents you from inspiring any spirit of resistance.</t>
         </is>
       </c>
-      <c r="H248" s="0" t="inlineStr">
+      <c r="H248" t="inlineStr">
         <is>
           <t>ඞВы поспешили вперед, чтобы помешать Тонсону наслать на Мерри злые чары, после того как заметили, как он это делает.
 Однако в воздухе витает странный запах, который скрывает разницу между реальностью и иллюзией и не дает вам пробудить в себе дух сопротивления.</t>
@@ -13105,7 +13105,7 @@
           <t>Your soul seems to float away from your body.|When you regain consciousness, you have arrived at the gate of the police station.</t>
         </is>
       </c>
-      <c r="H249" s="0" t="inlineStr">
+      <c r="H249" t="inlineStr">
         <is>
           <t>ඞКажется, что ваша душа покидает тело.|Когда вы приходите в себя, вы оказываетесь у ворот полицейского участка.</t>
         </is>
@@ -13147,7 +13147,7 @@
           <t>As soon as you entered the hotel, you saw a wried scene.</t>
         </is>
       </c>
-      <c r="H250" s="0" t="inlineStr">
+      <c r="H250" t="inlineStr">
         <is>
           <t>ඞКак только вы вошли в отель, то увидели разыгравшуюся сцену.</t>
         </is>
@@ -13195,7 +13195,7 @@
 It hummed softly, and a blue viscous liquid emitted from the shell's edge dripped onto the floor incessantly, it is controlling the tentacles to grab the surrounding kitchen utensils, but it can't catch them.</t>
         </is>
       </c>
-      <c r="H251" s="0" t="inlineStr">
+      <c r="H251" t="inlineStr">
         <is>
           <t>ඞИз черного дыма появилось существо, покрытое щупальцами, из его массивной головы текли голубые слезы.
 Он тихо жужжал, и голубая вязкая жидкость, вытекающая из-за края раковины, непрерывно капала на пол, он управлял щупальцами, чтобы схватить окружающие кухонные принадлежности, но не мог их поймать.</t>
@@ -13238,7 +13238,7 @@
           <t>When you combine this with the previous vague image, you have an unacceptable but extremely certain inference in your mind.</t>
         </is>
       </c>
-      <c r="H252" s="0" t="inlineStr">
+      <c r="H252" t="inlineStr">
         <is>
           <t>ඞКогда вы объединяете это с предыдущим расплывчатым образом, у вас в голове возникает неприемлемый, но чрезвычайно определенный вывод.</t>
         </is>
@@ -13286,7 +13286,7 @@
 How did you become like this!</t>
         </is>
       </c>
-      <c r="H253" s="0" t="inlineStr">
+      <c r="H253" t="inlineStr">
         <is>
           <t>ඞ...Веселый?!
 Как ты стал таким!</t>
@@ -13329,7 +13329,7 @@
           <t>You sense the horrible creature's breath ahead of you and prepare to…</t>
         </is>
       </c>
-      <c r="H254" s="0" t="inlineStr">
+      <c r="H254" t="inlineStr">
         <is>
           <t>ඞВы чувствуете дыхание ужасного существа впереди себя и готовитесь к…</t>
         </is>
@@ -13371,7 +13371,7 @@
           <t>[Come forward to challenge]</t>
         </is>
       </c>
-      <c r="H255" s="0" t="inlineStr">
+      <c r="H255" t="inlineStr">
         <is>
           <t>ඞ[Выходи вперед, чтобы бросить вызов]</t>
         </is>
@@ -13413,7 +13413,7 @@
           <t>You watched Merry kneel on the ground and sob quietly as the black mist dissipated.</t>
         </is>
       </c>
-      <c r="H256" s="0" t="inlineStr">
+      <c r="H256" t="inlineStr">
         <is>
           <t>ඞТы видел, как Мерри опустилась на колени и тихо всхлипывала, когда черный туман рассеялся.</t>
         </is>
@@ -13455,7 +13455,7 @@
           <t>[Is not time]</t>
         </is>
       </c>
-      <c r="H257" s="0" t="inlineStr">
+      <c r="H257" t="inlineStr">
         <is>
           <t>ඞ[Еще не пришло время]</t>
         </is>
@@ -13497,7 +13497,7 @@
           <t>[Try to wake up Merry]</t>
         </is>
       </c>
-      <c r="H258" s="0" t="inlineStr">
+      <c r="H258" t="inlineStr">
         <is>
           <t>ඞ[Попробуй разбудить Мерри]</t>
         </is>
@@ -13545,7 +13545,7 @@
 How did you become like this…</t>
         </is>
       </c>
-      <c r="H259" s="0" t="inlineStr">
+      <c r="H259" t="inlineStr">
         <is>
           <t>ඞВеселый…
 Как ты стал таким…</t>
@@ -13588,7 +13588,7 @@
           <t>The monster whimpered, trying to answer you, but couldn't make a sound.</t>
         </is>
       </c>
-      <c r="H260" s="0" t="inlineStr">
+      <c r="H260" t="inlineStr">
         <is>
           <t>ඞМонстр заскулил, пытаясь ответить тебе, но не смог издать ни звука.</t>
         </is>
@@ -13630,7 +13630,7 @@
           <t>Don't be afraid. I will try to help you.</t>
         </is>
       </c>
-      <c r="H261" s="0" t="inlineStr">
+      <c r="H261" t="inlineStr">
         <is>
           <t>ඞНе бойся. Я постараюсь вам помочь.</t>
         </is>
@@ -13672,7 +13672,7 @@
           <t>Just then, those strange tentacles entangled you.</t>
         </is>
       </c>
-      <c r="H262" s="0" t="inlineStr">
+      <c r="H262" t="inlineStr">
         <is>
           <t>ඞИменно в этот момент эти странные щупальца опутали тебя.</t>
         </is>
@@ -13720,7 +13720,7 @@
 You see the tentacles on the monster gradually fade away.</t>
         </is>
       </c>
-      <c r="H263" s="0" t="inlineStr">
+      <c r="H263" t="inlineStr">
         <is>
           <t>ඞАмулет на вашем теле загорается и излучает ослепительный свет. По всему телу разливается ощущение тепла и умиротворения.
 Вы видите, как щупальца монстра постепенно исчезают.</t>
@@ -13769,7 +13769,7 @@
 You suddenly remembered her happy expression when she received thanks from others, so you said slowly to her.</t>
         </is>
       </c>
-      <c r="H264" s="0" t="inlineStr">
+      <c r="H264" t="inlineStr">
         <is>
           <t>ඞТы не мог ничего сказать, потому что по ее лицу текли черные слезы.
 Ты вдруг вспомнил счастливое выражение ее лица, когда она получала благодарности от других, и медленно обратился к ней.</t>
@@ -13824,7 +13824,7 @@
 Let me have an unforgettable memory.</t>
         </is>
       </c>
-      <c r="H265" s="0" t="inlineStr">
+      <c r="H265" t="inlineStr">
         <is>
           <t>ඞМерри, спасибо тебе.
 Твой суп очень вкусный.
@@ -13874,7 +13874,7 @@
 Can you really feel... my regard?</t>
         </is>
       </c>
-      <c r="H266" s="0" t="inlineStr">
+      <c r="H266" t="inlineStr">
         <is>
           <t>ඞЭто правда?
 Ты действительно чувствуешь... мое уважение?</t>
@@ -13923,7 +13923,7 @@
 I can feel your heart.</t>
         </is>
       </c>
-      <c r="H267" s="0" t="inlineStr">
+      <c r="H267" t="inlineStr">
         <is>
           <t>ඞТы всегда искренне относишься ко всему, что тебя окружает.
 Я чувствую твое сердце.</t>
@@ -13978,7 +13978,7 @@
 This will make him more strength when working…</t>
         </is>
       </c>
-      <c r="H268" s="0" t="inlineStr">
+      <c r="H268" t="inlineStr">
         <is>
           <t>ඞТы можешь… действительно… почувствуй мое сердце…
 Райан любит тушеную говядину с орлиным рогом…
@@ -14040,7 +14040,7 @@
 I want to make a room off the storage room for his grandpa…</t>
         </is>
       </c>
-      <c r="H269" s="0" t="inlineStr">
+      <c r="H269" t="inlineStr">
         <is>
           <t>ඞНана любит цветы, но терпеть не может сильных ароматов…
 Я готовлю для нее тюльпаны…
@@ -14091,7 +14091,7 @@
 But they're all gone, am I letting them down?</t>
         </is>
       </c>
-      <c r="H270" s="0" t="inlineStr">
+      <c r="H270" t="inlineStr">
         <is>
           <t>ඞВсе они - люди, которые помогли мне…
 Но они все ушли, неужели я их подвожу?</t>
@@ -14145,7 +14145,7 @@
 After pondering for a long time, you spoke slowly.</t>
         </is>
       </c>
-      <c r="H271" s="0" t="inlineStr">
+      <c r="H271" t="inlineStr">
         <is>
           <t>ඞТы молчишь, ты знаешь, что в этот момент не стоит плести небылицы, чтобы обмануть, тебе нужно искренне говорить правду.
 И объяснение фактов может привести к тому, что ее психически слабая, которая и так уже психически слаба, упадет в обморок.
@@ -14195,7 +14195,7 @@
 But Merry, it is you who make me feel warm in this strange place.</t>
         </is>
       </c>
-      <c r="H272" s="0" t="inlineStr">
+      <c r="H272" t="inlineStr">
         <is>
           <t>ඞЯ понятия не имею...
 Но, Мерри, именно благодаря тебе мне становится тепло в этом странном месте.</t>
@@ -14244,7 +14244,7 @@
 She stood up slowly.</t>
         </is>
       </c>
-      <c r="H273" s="0" t="inlineStr">
+      <c r="H273" t="inlineStr">
         <is>
           <t>ඞВ этот момент ты, кажется, замечаешь блеск в глазах Мерри.
 Она медленно встала.</t>
@@ -14299,7 +14299,7 @@
 Today's dinner will be very delicious and will definitely satisfy you!</t>
         </is>
       </c>
-      <c r="H274" s="0" t="inlineStr">
+      <c r="H274" t="inlineStr">
         <is>
           <t>ඞАх, вот и настало это время.
 Поторопитесь приготовить ингредиенты для сегодняшнего ужина ~
@@ -14373,7 +14373,7 @@
 You'll forget about our conversation when you see Horn again.</t>
         </is>
       </c>
-      <c r="H275" s="0" t="inlineStr">
+      <c r="H275" t="inlineStr">
         <is>
           <t>ඞДаже если ты решишь сразиться со мной, я все равно дам тебе этот шанс.
 Я дам тебе задание и помогу выбраться отсюда, когда оно будет выполнено.
@@ -14426,7 +14426,7 @@
 You accepted his commission.</t>
         </is>
       </c>
-      <c r="H276" s="0" t="inlineStr">
+      <c r="H276" t="inlineStr">
         <is>
           <t>ඞНа мгновение вам кажется, что стоящий перед вами старик очень добр.
 Вы приняли его поручение.</t>
@@ -14475,7 +14475,7 @@
 I accept this commission.</t>
         </is>
       </c>
-      <c r="H277" s="0" t="inlineStr">
+      <c r="H277" t="inlineStr">
         <is>
           <t>ඞЯ понимаю……
 Я принимаю это поручение.</t>
@@ -14542,7 +14542,7 @@
 Your suffering will end as soon as the transformation is completed.</t>
         </is>
       </c>
-      <c r="H278" s="0" t="inlineStr">
+      <c r="H278" t="inlineStr">
         <is>
           <t>ඞВеселый…
 Вы знаете, что человек - это существо, которое умирает без желаний.
@@ -14600,7 +14600,7 @@
 Everyone will understand…</t>
         </is>
       </c>
-      <c r="H279" s="0" t="inlineStr">
+      <c r="H279" t="inlineStr">
         <is>
           <t>ඞЯ просто пытаюсь выразить свои чувства…
 Все поймут друг друга…
@@ -14650,7 +14650,7 @@
 It hummed softly, and a blue viscous liquid emitted from the shell's edge dripped onto the floor incessantly.</t>
         </is>
       </c>
-      <c r="H280" s="0" t="inlineStr">
+      <c r="H280" t="inlineStr">
         <is>
           <t>ඞИз черного дыма появилось существо, покрытое щупальцами, из его массивной головы текли голубые слезы.
 Оно тихо жужжало, и голубая вязкая жидкость, вытекавшая из края раковины, непрерывно капала на пол.</t>
@@ -14705,7 +14705,7 @@
 Obviously, you are capable of completing the ideal transformation.</t>
         </is>
       </c>
-      <c r="H281" s="0" t="inlineStr">
+      <c r="H281" t="inlineStr">
         <is>
           <t>ඞЭто! Что именно это такое?
 Мерри, ты меня действительно подвела!
@@ -14749,7 +14749,7 @@
           <t>Forget it, now we must put the final arrangement into action…</t>
         </is>
       </c>
-      <c r="H282" s="0" t="inlineStr">
+      <c r="H282" t="inlineStr">
         <is>
           <t>ඞЗабудь об этом, теперь мы должны привести в действие окончательную договоренность…</t>
         </is>
@@ -14791,7 +14791,7 @@
           <t>Merry</t>
         </is>
       </c>
-      <c r="H283" s="0" t="inlineStr">
+      <c r="H283" t="inlineStr">
         <is>
           <t>ඞВеселый</t>
         </is>
@@ -14833,7 +14833,7 @@
           <t>Tonson</t>
         </is>
       </c>
-      <c r="H284" s="0" t="inlineStr">
+      <c r="H284" t="inlineStr">
         <is>
           <t>ඞТонсон</t>
         </is>
@@ -14875,7 +14875,7 @@
           <t>Horn</t>
         </is>
       </c>
-      <c r="H285" s="0" t="inlineStr">
+      <c r="H285" t="inlineStr">
         <is>
           <t>ඞРог</t>
         </is>
@@ -14917,7 +14917,7 @@
           <t>Profanador</t>
         </is>
       </c>
-      <c r="H286" s="0" t="inlineStr">
+      <c r="H286" t="inlineStr">
         <is>
           <t>ඞОсквернитель</t>
         </is>
@@ -14959,7 +14959,7 @@
           <t>Corridor</t>
         </is>
       </c>
-      <c r="H287" s="0" t="inlineStr">
+      <c r="H287" t="inlineStr">
         <is>
           <t>ඞКоридор</t>
         </is>
@@ -15004,7 +15004,7 @@
           <t>You listen carefully to the room. Only the wind blows the paper's sound. There should be a window open inside. In addition, it is very quiet. You can smell the scent of the paint and blood when you near the door.</t>
         </is>
       </c>
-      <c r="H288" s="0" t="inlineStr">
+      <c r="H288" t="inlineStr">
         <is>
           <t>ඞВы внимательно прислушиваетесь к комнате. Только ветер шуршит бумагой. Внутри должно быть открыто окно. Кроме того, здесь очень тихо. Когда вы подходите к двери, вы чувствуете запах краски и крови.</t>
         </is>
@@ -15046,7 +15046,7 @@
           <t>The room is very quiet. You can smell the scent of the paint and blood when you near the door.</t>
         </is>
       </c>
-      <c r="H289" s="0" t="inlineStr">
+      <c r="H289" t="inlineStr">
         <is>
           <t>ඞВ комнате очень тихо. Подходя к двери, вы чувствуете запах краски и крови.</t>
         </is>
@@ -15088,7 +15088,7 @@
           <t>The smell of cooking from downstairs lifts your spirits.</t>
         </is>
       </c>
-      <c r="H290" s="0" t="inlineStr">
+      <c r="H290" t="inlineStr">
         <is>
           <t>ඞДоносящийся снизу запах готовящейся пищи поднимает вам настроение.</t>
         </is>
@@ -15130,7 +15130,7 @@
           <t>It's the smell of meat!</t>
         </is>
       </c>
-      <c r="H291" s="0" t="inlineStr">
+      <c r="H291" t="inlineStr">
         <is>
           <t>ඞЭто запах мяса!</t>
         </is>
@@ -15172,7 +15172,7 @@
           <t>That's when you hear a scream of pain from downstairs.</t>
         </is>
       </c>
-      <c r="H292" s="0" t="inlineStr">
+      <c r="H292" t="inlineStr">
         <is>
           <t>ඞВ этот момент ты слышишь крик боли, доносящийся снизу.</t>
         </is>
@@ -15220,7 +15220,7 @@
 What happened to Merry?</t>
         </is>
       </c>
-      <c r="H293" s="0" t="inlineStr">
+      <c r="H293" t="inlineStr">
         <is>
           <t>ඞЭтот звук!?
 Что случилось с Мерри?</t>
@@ -15263,7 +15263,7 @@
           <t>Guest room</t>
         </is>
       </c>
-      <c r="H294" s="0" t="inlineStr">
+      <c r="H294" t="inlineStr">
         <is>
           <t>ඞКомната для гостей</t>
         </is>
@@ -15305,7 +15305,7 @@
           <t>A beautiful desk calendar with butterflies and flowers, dated Jan. 1920.</t>
         </is>
       </c>
-      <c r="H295" s="0" t="inlineStr">
+      <c r="H295" t="inlineStr">
         <is>
           <t>ඞКрасивый настольный календарь с бабочками и цветами, датированный январем 1920 года.</t>
         </is>
@@ -15347,7 +15347,7 @@
           <t>View the Desk Calendar</t>
         </is>
       </c>
-      <c r="H296" s="0" t="inlineStr">
+      <c r="H296" t="inlineStr">
         <is>
           <t>ඞПросмотр настольного календаря</t>
         </is>
@@ -15389,7 +15389,7 @@
           <t>The Sticky Note</t>
         </is>
       </c>
-      <c r="H297" s="0" t="inlineStr">
+      <c r="H297" t="inlineStr">
         <is>
           <t>ඞЗаписка на липучке</t>
         </is>
@@ -15437,7 +15437,7 @@
 Also, you found a note.</t>
         </is>
       </c>
-      <c r="H298" s="0" t="inlineStr">
+      <c r="H298" t="inlineStr">
         <is>
           <t>ඞВ ящике стола есть свеча и коробок спичек.
 Кроме того, вы нашли записку.</t>
@@ -15498,7 +15498,7 @@
 "I hope you have a good dream and relieve your fatigue during the journey."</t>
         </is>
       </c>
-      <c r="H299" s="0" t="inlineStr">
+      <c r="H299" t="inlineStr">
         <is>
           <t>ඞ"Комната маленькая, и в ней не был проведен капитальный ремонт. Пожалуйста, простите меня".
 "Не стесняйтесь обращаться ко мне, если вам понадобится помощь".
@@ -15567,7 +15567,7 @@
 "Wishing you a good night's sleep to ease the fatigue of your journey — Merry.'</t>
         </is>
       </c>
-      <c r="H300" s="0" t="inlineStr">
+      <c r="H300" t="inlineStr">
         <is>
           <t>ඞВнутри ящика вы найдете записку. 
 "Номер небольшой, а в комнате для гостей все еще идет ремонт, пожалуйста, простите нас".
@@ -15613,7 +15613,7 @@
           <t>Open the drawer</t>
         </is>
       </c>
-      <c r="H301" s="0" t="inlineStr">
+      <c r="H301" t="inlineStr">
         <is>
           <t>ඞОткрыть ящик</t>
         </is>
@@ -15655,7 +15655,7 @@
           <t>You can see the white fog on the west side of the hotel with no edge.</t>
         </is>
       </c>
-      <c r="H302" s="0" t="inlineStr">
+      <c r="H302" t="inlineStr">
         <is>
           <t>ඞВы можете видеть белый туман с западной стороны отеля, не имеющий границ.</t>
         </is>
@@ -15703,7 +15703,7 @@
 You look to the north, and there's a huge white beast standing on the north side of the street, and behind it are two fancy mansions, and the beast is like a security guard here.</t>
         </is>
       </c>
-      <c r="H303" s="0" t="inlineStr">
+      <c r="H303" t="inlineStr">
         <is>
           <t>ඞС западной стороны отеля виден белый туман, не имеющий границ.
 Вы смотрите на север и видите огромного белого зверя, стоящего на северной стороне улицы, а за ним - два роскошных особняка, и этот зверь здесь вроде охранника.</t>
@@ -15746,7 +15746,7 @@
           <t>What is that? Is it a statue?</t>
         </is>
       </c>
-      <c r="H304" s="0" t="inlineStr">
+      <c r="H304" t="inlineStr">
         <is>
           <t>ඞЧто это такое? Это статуя?</t>
         </is>
@@ -15788,7 +15788,7 @@
           <t>View Window</t>
         </is>
       </c>
-      <c r="H305" s="0" t="inlineStr">
+      <c r="H305" t="inlineStr">
         <is>
           <t>ඞСмотровое окно</t>
         </is>
@@ -15836,7 +15836,7 @@
 You open your eyes, the sun shines through the glass on the floor, and the air is cold and dull.</t>
         </is>
       </c>
-      <c r="H306" s="0" t="inlineStr">
+      <c r="H306" t="inlineStr">
         <is>
           <t>ඞСтранный потолок, странная кровать, странный подоконник, рядом со столом распускаются бледно-желтые тюльпаны.
 Ты открываешь глаза, солнце светит сквозь стекло на полу, а воздух холодный и унылый.</t>
@@ -15879,7 +15879,7 @@
           <t>Where am I?</t>
         </is>
       </c>
-      <c r="H307" s="0" t="inlineStr">
+      <c r="H307" t="inlineStr">
         <is>
           <t>ඞгде я?</t>
         </is>
@@ -15921,7 +15921,7 @@
           <t>Familiar ceiling, familiar bed, familiar windowsill, pale yellow tulips beside the table.</t>
         </is>
       </c>
-      <c r="H308" s="0" t="inlineStr">
+      <c r="H308" t="inlineStr">
         <is>
           <t>ඞЗнакомый потолок, знакомая кровать, знакомый подоконник, бледно-желтые тюльпаны на столе.</t>
         </is>
@@ -15969,7 +15969,7 @@
 The loop thing is true.</t>
         </is>
       </c>
-      <c r="H309" s="0" t="inlineStr">
+      <c r="H309" t="inlineStr">
         <is>
           <t>ඞВернемся сюда еще раз…
 Идея с циклом верна.</t>
@@ -16012,7 +16012,7 @@
           <t>Let's go find Horn first.</t>
         </is>
       </c>
-      <c r="H310" s="0" t="inlineStr">
+      <c r="H310" t="inlineStr">
         <is>
           <t>ඞДавай сначала найдем Хорна.</t>
         </is>
@@ -16060,7 +16060,7 @@
 You swear to yourself that you must find the source of the disaster.</t>
         </is>
       </c>
-      <c r="H311" s="0" t="inlineStr">
+      <c r="H311" t="inlineStr">
         <is>
           <t>ඞВы привыкли к ощущению, что возвращаетесь назад. Все вокруг вас в норме, только вчерашние события запечатлелись в вашем сознании.
 Вы клянетесь себе, что должны найти источник катастрофы.</t>
@@ -16103,7 +16103,7 @@
           <t>Storage Room</t>
         </is>
       </c>
-      <c r="H312" s="0" t="inlineStr">
+      <c r="H312" t="inlineStr">
         <is>
           <t>ඞСкладское помещение</t>
         </is>
@@ -16145,7 +16145,7 @@
           <t>The paint bucket lid next to the scaffolding seems not to be properly closed.</t>
         </is>
       </c>
-      <c r="H313" s="0" t="inlineStr">
+      <c r="H313" t="inlineStr">
         <is>
           <t>ඞКрышка ведра для краски, стоящего рядом со строительными лесами, по-видимому, закрыта неправильно.</t>
         </is>
@@ -16187,7 +16187,7 @@
           <t>You found there is something have fallen in the it and you decided to make it out.</t>
         </is>
       </c>
-      <c r="H314" s="0" t="inlineStr">
+      <c r="H314" t="inlineStr">
         <is>
           <t>ඞВы обнаружили, что в нем что-то упало, и решили разобраться с этим.</t>
         </is>
@@ -16229,7 +16229,7 @@
           <t>You find that the paint cap has been blocked by dripping paint, there is no useful information.</t>
         </is>
       </c>
-      <c r="H315" s="0" t="inlineStr">
+      <c r="H315" t="inlineStr">
         <is>
           <t>ඞЕсли вы обнаружите, что колпачок для краски заблокирован из-за капающей краски, никакой полезной информации не будет.</t>
         </is>
@@ -16277,7 +16277,7 @@
 You pick a fruit you like to eat.</t>
         </is>
       </c>
-      <c r="H316" s="0" t="inlineStr">
+      <c r="H316" t="inlineStr">
         <is>
           <t>ඞЗдесь есть большая корзина с овощами и фруктами, которые выглядят очень свежими.
 Вы выбираете те фрукты, которые вам нравятся.</t>
@@ -16320,7 +16320,7 @@
           <t>Edible Fruit</t>
         </is>
       </c>
-      <c r="H317" s="0" t="inlineStr">
+      <c r="H317" t="inlineStr">
         <is>
           <t>ඞСъедобные фрукты</t>
         </is>
@@ -16374,7 +16374,7 @@
 The paint on the left has dried, and it can be seen that someone left the window open to avoid the smell of paint contaminating the food.</t>
         </is>
       </c>
-      <c r="H318" s="0" t="inlineStr">
+      <c r="H318" t="inlineStr">
         <is>
           <t>ඞВнутри есть помещение для временного хранения, а в правой части полно ингредиентов.
 Свежее мясо на полке издает слабый запах крови, а рядом с ним стоят несколько цветочных горшков.
@@ -16418,7 +16418,7 @@
           <t>Can't tell what kind of flower pot it is.</t>
         </is>
       </c>
-      <c r="H319" s="0" t="inlineStr">
+      <c r="H319" t="inlineStr">
         <is>
           <t>ඞНе могу сказать, что это за цветочный горшок.</t>
         </is>
@@ -16466,7 +16466,7 @@
 Miss something...</t>
         </is>
       </c>
-      <c r="H320" s="0" t="inlineStr">
+      <c r="H320" t="inlineStr">
         <is>
           <t>ඞЧего-то не хватает.
 Чего-то не хватает...</t>
@@ -16509,7 +16509,7 @@
           <t>Isn't here...</t>
         </is>
       </c>
-      <c r="H321" s="0" t="inlineStr">
+      <c r="H321" t="inlineStr">
         <is>
           <t>ඞЕго здесь нет...</t>
         </is>
@@ -16551,7 +16551,7 @@
           <t>Didn't grow out...</t>
         </is>
       </c>
-      <c r="H322" s="0" t="inlineStr">
+      <c r="H322" t="inlineStr">
         <is>
           <t>ඞТак и не вырос...</t>
         </is>
@@ -16593,7 +16593,7 @@
           <t>You see her look a little sad.</t>
         </is>
       </c>
-      <c r="H323" s="0" t="inlineStr">
+      <c r="H323" t="inlineStr">
         <is>
           <t>ඞТы видишь, что она выглядит немного грустной.</t>
         </is>
@@ -16635,7 +16635,7 @@
           <t>What is Merry doing?</t>
         </is>
       </c>
-      <c r="H324" s="0" t="inlineStr">
+      <c r="H324" t="inlineStr">
         <is>
           <t>ඞЧто делает Мерри?</t>
         </is>
@@ -16683,7 +16683,7 @@
 One of them even grew to the size of an egg.</t>
         </is>
       </c>
-      <c r="H325" s="0" t="inlineStr">
+      <c r="H325" t="inlineStr">
         <is>
           <t>ඞВ горшочке вы обнаружите несколько черных очищенных семечек.
 Одно из них даже выросло до размера яйца.</t>
@@ -16732,7 +16732,7 @@
 Why does it feel like the size isn't what I expected…</t>
         </is>
       </c>
-      <c r="H326" s="0" t="inlineStr">
+      <c r="H326" t="inlineStr">
         <is>
           <t>ඞЭто те самые черные семечки, которые Райан дал Мерри?
 Почему у меня такое чувство, что размер не такой, как я ожидала…</t>
@@ -16781,7 +16781,7 @@
 If you didn't feel like there was something conceived inside, you'd think it was a metal iron ball.</t>
         </is>
       </c>
-      <c r="H327" s="0" t="inlineStr">
+      <c r="H327" t="inlineStr">
         <is>
           <t>ඞВы держите в руках черное яйцо с более твердой скорлупой, чем вы ожидали.
 Если бы вы не чувствовали, что внутри что-то задумано, вы бы подумали, что это металлический шарик.</t>
@@ -16824,7 +16824,7 @@
           <t>Take this, it is time to meet up with Horn.</t>
         </is>
       </c>
-      <c r="H328" s="0" t="inlineStr">
+      <c r="H328" t="inlineStr">
         <is>
           <t>ඞВозьми это, пришло время встретиться с Рогом.</t>
         </is>
@@ -16866,7 +16866,7 @@
           <t>Investigate the Flower Pot</t>
         </is>
       </c>
-      <c r="H329" s="0" t="inlineStr">
+      <c r="H329" t="inlineStr">
         <is>
           <t>ඞИсследуйте цветочный горшок</t>
         </is>
@@ -16908,7 +16908,7 @@
           <t>Merry's Room</t>
         </is>
       </c>
-      <c r="H330" s="0" t="inlineStr">
+      <c r="H330" t="inlineStr">
         <is>
           <t>ඞКомната Мерри</t>
         </is>
@@ -16950,7 +16950,7 @@
           <t>Merry's Notebook</t>
         </is>
       </c>
-      <c r="H331" s="0" t="inlineStr">
+      <c r="H331" t="inlineStr">
         <is>
           <t>ඞЗаписная книжка Мерри</t>
         </is>
@@ -17016,7 +17016,7 @@
 There is a list of items that need to build a hotel and the largest cost of funds is the lease of the land.</t>
         </is>
       </c>
-      <c r="H332" s="0" t="inlineStr">
+      <c r="H332" t="inlineStr">
         <is>
           <t>ඞВы читали этот блокнот.
 Следы указывают на то, что блокнотом часто пользовались.
@@ -17068,7 +17068,7 @@
 "Ryan said he would put something with me temporarily and I left it in the storage room on the second floor."</t>
         </is>
       </c>
-      <c r="H333" s="0" t="inlineStr">
+      <c r="H333" t="inlineStr">
         <is>
           <t>ඞ...Вы продолжаете читать заметку, и в ежедневнике есть строчка, которая привлекает ваше внимание——
 "Райан сказал, что временно передаст мне кое-что, и я оставила это в кладовке на втором этаже".</t>
@@ -17117,7 +17117,7 @@
 And "Happy Birthday" is written on the picture with a lovely face drawn beside it.</t>
         </is>
       </c>
-      <c r="H334" s="0" t="inlineStr">
+      <c r="H334" t="inlineStr">
         <is>
           <t>ඞКогда вы уже собирались закрыть блокнот, вы увидели в нем картинку.
 На картинке написано "С днем рождения", а рядом нарисовано милое личико.</t>
@@ -17160,7 +17160,7 @@
           <t>Read the Notebook</t>
         </is>
       </c>
-      <c r="H335" s="0" t="inlineStr">
+      <c r="H335" t="inlineStr">
         <is>
           <t>ඞПрочтите записную книжку</t>
         </is>
@@ -17208,7 +17208,7 @@
 You found a key inside.</t>
         </is>
       </c>
-      <c r="H336" s="0" t="inlineStr">
+      <c r="H336" t="inlineStr">
         <is>
           <t>ඞВ ящике есть кое-какие косметические принадлежности, сувенирные открытки и старые детские игрушки.
 Внутри вы нашли ключ.</t>
@@ -17251,7 +17251,7 @@
           <t>Inside the drawer are some grooming items, souvenir cards, and some old children's toys.</t>
         </is>
       </c>
-      <c r="H337" s="0" t="inlineStr">
+      <c r="H337" t="inlineStr">
         <is>
           <t>ඞВ ящике лежат кое-какие принадлежности для ухода за собой, сувенирные открытки и несколько старых детских игрушек.</t>
         </is>
@@ -17293,7 +17293,7 @@
           <t>Clean and tidy wardrobe with women's clothes neatly arranged.</t>
         </is>
       </c>
-      <c r="H338" s="0" t="inlineStr">
+      <c r="H338" t="inlineStr">
         <is>
           <t>ඞЧистый и опрятный гардероб с аккуратно разложенной женской одеждой.</t>
         </is>
@@ -17335,7 +17335,7 @@
           <t>The grocery store</t>
         </is>
       </c>
-      <c r="H339" s="0" t="inlineStr">
+      <c r="H339" t="inlineStr">
         <is>
           <t>ඞПродуктовый магазин</t>
         </is>
@@ -17377,7 +17377,7 @@
           <t>Townsend Morning</t>
         </is>
       </c>
-      <c r="H340" s="0" t="inlineStr">
+      <c r="H340" t="inlineStr">
         <is>
           <t>ඞДоброе утро в Таунсенде</t>
         </is>
@@ -17425,7 +17425,7 @@
 However, the layout of news events about pharmacies being robbed occupies a large position.</t>
         </is>
       </c>
-      <c r="H341" s="0" t="inlineStr">
+      <c r="H341" t="inlineStr">
         <is>
           <t>ඞВ городе не так много новостей. В основном это пикантные новости и забавные анекдоты.
 Однако большое место в новостях занимают события, связанные с ограблениями аптек.</t>
@@ -17474,7 +17474,7 @@
 It is reported that the man broke into a pharmacy on East Street and took away some deposited medicines.</t>
         </is>
       </c>
-      <c r="H342" s="0" t="inlineStr">
+      <c r="H342" t="inlineStr">
         <is>
           <t>ඞДнем 13 января 1920 года в доме № 7 по Ист-стрит в Таунсенде произошло ограбление. Полиция быстро выехала на Саут-стрит, чтобы арестовать мужчину.
 Сообщается, что мужчина вломился в аптеку на Ист-стрит и забрал несколько хранившихся там лекарств.</t>
@@ -17535,7 +17535,7 @@
 Judging by the dress, it was a worker in the factory in the town.</t>
         </is>
       </c>
-      <c r="H343" s="0" t="inlineStr">
+      <c r="H343" t="inlineStr">
         <is>
           <t>ඞПо воспоминаниям продавца, мужчина казался очень нервным и сказал ему::
 "Не двигайтесь, я не хочу этого делать".
@@ -17580,7 +17580,7 @@
           <t>Read the Newspaper</t>
         </is>
       </c>
-      <c r="H344" s="0" t="inlineStr">
+      <c r="H344" t="inlineStr">
         <is>
           <t>ඞПочитайте газету</t>
         </is>
@@ -17628,7 +17628,7 @@
 In addition you alse found a pocket of  the pistol tape to the top in the drawer, probably used by the clerk for self-defence.</t>
         </is>
       </c>
-      <c r="H345" s="0" t="inlineStr">
+      <c r="H345" t="inlineStr">
         <is>
           <t>ඞВ выдвижном ящике есть кое-что из мелочей, газета для разгадывания кроссворда и коробка для ланча.
 Кроме того, вы также нашли в ящике кассету для пистолета, которая, вероятно, использовалась продавцом для самообороны.</t>
@@ -17671,7 +17671,7 @@
           <t>Inisde the drawer there are some changes, newspaper for corssword puzzle and lunch box.</t>
         </is>
       </c>
-      <c r="H346" s="0" t="inlineStr">
+      <c r="H346" t="inlineStr">
         <is>
           <t>ඞВ выдвижном ящике лежат кое-какие мелочи, газета для разгадывания кроссворда и коробка для ланча.</t>
         </is>
@@ -17713,7 +17713,7 @@
           <t>Investigate the Cashier Desk</t>
         </is>
       </c>
-      <c r="H347" s="0" t="inlineStr">
+      <c r="H347" t="inlineStr">
         <is>
           <t>ඞИсследуйте кассу</t>
         </is>
@@ -17755,7 +17755,7 @@
           <t>Ledger</t>
         </is>
       </c>
-      <c r="H348" s="0" t="inlineStr">
+      <c r="H348" t="inlineStr">
         <is>
           <t>ඞГроссбух</t>
         </is>
@@ -17809,7 +17809,7 @@
 In the previous six months, the hardware store barely broke even.</t>
         </is>
       </c>
-      <c r="H349" s="0" t="inlineStr">
+      <c r="H349" t="inlineStr">
         <is>
           <t>ඞБухгалтерская книга очень подробная, и по ней можно проследить доходы и отследить детали за последние 10 месяцев.
 В ней плотно прописаны платежи за покупку и приобретение инструментов.
@@ -17871,7 +17871,7 @@
 The government's procurement department purchased a matching lock mold.</t>
         </is>
       </c>
-      <c r="H350" s="0" t="inlineStr">
+      <c r="H350" t="inlineStr">
         <is>
           <t>ඞВы заметили, что после октября 1919 года резко возрос спрос на современные противоугонные замки в магазинах?
 Основными источниками спроса являются пользователи с Ист-стрит и Норт-стрит.
@@ -17916,7 +17916,7 @@
           <t>Read the ledgers</t>
         </is>
       </c>
-      <c r="H351" s="0" t="inlineStr">
+      <c r="H351" t="inlineStr">
         <is>
           <t>ඞПочитайте бухгалтерские книги</t>
         </is>
@@ -17958,7 +17958,7 @@
           <t>Take away Cleanser</t>
         </is>
       </c>
-      <c r="H352" s="0" t="inlineStr">
+      <c r="H352" t="inlineStr">
         <is>
           <t>ඞУбирайте моющее средство</t>
         </is>
@@ -18000,7 +18000,7 @@
           <t>This is the shelf for daily items. There is some cleanser on it.</t>
         </is>
       </c>
-      <c r="H353" s="0" t="inlineStr">
+      <c r="H353" t="inlineStr">
         <is>
           <t>ඞЭто полка для ежедневных принадлежностей. На ней есть немного моющего средства.</t>
         </is>
@@ -18042,7 +18042,7 @@
           <t>The Lottery Rules</t>
         </is>
       </c>
-      <c r="H354" s="0" t="inlineStr">
+      <c r="H354" t="inlineStr">
         <is>
           <t>ඞПравила лотереи</t>
         </is>
@@ -18114,7 +18114,7 @@
 "(Note: The lottery ticket is vaild only if it is stamped with a seal on the perforation)"</t>
         </is>
       </c>
-      <c r="H355" s="0" t="inlineStr">
+      <c r="H355" t="inlineStr">
         <is>
           <t>ඞВ нем говорится:
 "Таунсенд будет выпускать 5000 лотерейных билетов каждый месяц, каждый из которых будет стоить 5 долларов, чтобы собрать средства на содержание общественных объектов в городе".
@@ -18161,7 +18161,7 @@
           <t>Isn't the lottery prohibited by law?</t>
         </is>
       </c>
-      <c r="H356" s="0" t="inlineStr">
+      <c r="H356" t="inlineStr">
         <is>
           <t>ඞРазве лотерея не запрещена законом?</t>
         </is>
@@ -18203,7 +18203,7 @@
           <t>This is a coin-operated lottery machine. Are you going to spend 5 bucks to buy a bet…</t>
         </is>
       </c>
-      <c r="H357" s="0" t="inlineStr">
+      <c r="H357" t="inlineStr">
         <is>
           <t>ඞЭто лотерейный автомат с монетным управлением. Собираетесь ли вы потратить 5 баксов на покупку ставки…</t>
         </is>
@@ -18245,7 +18245,7 @@
           <t>[Buy Lottery]</t>
         </is>
       </c>
-      <c r="H358" s="0" t="inlineStr">
+      <c r="H358" t="inlineStr">
         <is>
           <t>ඞ[Купить лотерею]</t>
         </is>
@@ -18287,7 +18287,7 @@
           <t>[Don't Buy]</t>
         </is>
       </c>
-      <c r="H359" s="0" t="inlineStr">
+      <c r="H359" t="inlineStr">
         <is>
           <t>ඞ[Не покупай]</t>
         </is>
@@ -18329,7 +18329,7 @@
           <t>View the lottery machine</t>
         </is>
       </c>
-      <c r="H360" s="0" t="inlineStr">
+      <c r="H360" t="inlineStr">
         <is>
           <t>ඞПосмотрите на лотерейный автомат</t>
         </is>
@@ -18371,7 +18371,7 @@
           <t>Take the money</t>
         </is>
       </c>
-      <c r="H361" s="0" t="inlineStr">
+      <c r="H361" t="inlineStr">
         <is>
           <t>ඞВозьми деньги</t>
         </is>
@@ -18413,7 +18413,7 @@
           <t>What flover dose Nana like to eat...</t>
         </is>
       </c>
-      <c r="H362" s="0" t="inlineStr">
+      <c r="H362" t="inlineStr">
         <is>
           <t>ඞКакую дозу фловера любит есть Нана?..</t>
         </is>
@@ -18455,7 +18455,7 @@
           <t>Then choose this one...</t>
         </is>
       </c>
-      <c r="H363" s="0" t="inlineStr">
+      <c r="H363" t="inlineStr">
         <is>
           <t>ඞТогда выбери вот это...</t>
         </is>
@@ -18497,7 +18497,7 @@
           <t>She took out some money and put it on the counter.</t>
         </is>
       </c>
-      <c r="H364" s="0" t="inlineStr">
+      <c r="H364" t="inlineStr">
         <is>
           <t>ඞОна достала немного денег и положила их на прилавок.</t>
         </is>
@@ -18539,7 +18539,7 @@
           <t>Monstro aranha</t>
         </is>
       </c>
-      <c r="H365" s="0" t="inlineStr">
+      <c r="H365" t="inlineStr">
         <is>
           <t>ඞМонстр-паук</t>
         </is>
@@ -18581,7 +18581,7 @@
           <t>Customer</t>
         </is>
       </c>
-      <c r="H366" s="0" t="inlineStr">
+      <c r="H366" t="inlineStr">
         <is>
           <t>ඞПокупатель</t>
         </is>
@@ -18623,7 +18623,7 @@
           <t>The skin and flesh on his body faded and the black sticky blood covered his whole body. Soon you saw that he turned into a terrible monster.</t>
         </is>
       </c>
-      <c r="H367" s="0" t="inlineStr">
+      <c r="H367" t="inlineStr">
         <is>
           <t>ඞКожа и плоть на его теле поблекли, и черная липкая кровь покрыла все его тело. Вскоре вы увидели, что он превратился в ужасного монстра.</t>
         </is>
@@ -18665,7 +18665,7 @@
           <t>Give him this "Win" lottery ticket.</t>
         </is>
       </c>
-      <c r="H368" s="0" t="inlineStr">
+      <c r="H368" t="inlineStr">
         <is>
           <t>ඞДайте ему этот "Выигрышный" лотерейный билет.</t>
         </is>
@@ -18719,7 +18719,7 @@
 At this time, you pointed to his pocket and when he took out the lottery ticket in his pocket…</t>
         </is>
       </c>
-      <c r="H369" s="0" t="inlineStr">
+      <c r="H369" t="inlineStr">
         <is>
           <t>ඞВы положили выигрышный лотерейный билет ему в карман, а затем вставили уведомление в автомат.
 Вы видели, как заблестели его глаза, и он, тяжело дыша, сравнивал номера лотерейных билетов, которые держал в руках. Когда он обнаружил, что все номера не совпадают, его настроение начало выходить из-под контроля.
@@ -18769,7 +18769,7 @@
 EH! GREAT!! I WON!!</t>
         </is>
       </c>
-      <c r="H370" s="0" t="inlineStr">
+      <c r="H370" t="inlineStr">
         <is>
           <t>ඞЭх! - отлично! Я ПОБЕДИЛ!
 ЭХ! - отлично!! Я ПОБЕДИЛ!!</t>
@@ -18812,7 +18812,7 @@
           <t>He talked to himself for a long time as if he had lost his mind.</t>
         </is>
       </c>
-      <c r="H371" s="0" t="inlineStr">
+      <c r="H371" t="inlineStr">
         <is>
           <t>ඞОн долго разговаривал сам с собой, как будто сошел с ума.</t>
         </is>
@@ -18860,7 +18860,7 @@
 The rest of the money still can buy a house…</t>
         </is>
       </c>
-      <c r="H372" s="0" t="inlineStr">
+      <c r="H372" t="inlineStr">
         <is>
           <t>ඞЯ могу погасить долг.
 На оставшиеся деньги еще можно купить дом…</t>
@@ -18903,7 +18903,7 @@
           <t>But his body seemed to collapse and began to fade.</t>
         </is>
       </c>
-      <c r="H373" s="0" t="inlineStr">
+      <c r="H373" t="inlineStr">
         <is>
           <t>ඞНо его тело, казалось, обмякло и начало исчезать.</t>
         </is>
@@ -18951,7 +18951,7 @@
 You see a black seed falling on the ground.</t>
         </is>
       </c>
-      <c r="H374" s="0" t="inlineStr">
+      <c r="H374" t="inlineStr">
         <is>
           <t>ඞЕго фигура таяла и, наконец, исчезла у вас на глазах,
 Вы видите, как на землю падает черное семечко.</t>
@@ -18994,7 +18994,7 @@
           <t>The man's eye is glassy and he holds a lot of lottery tickets in his hand and keeps talking…</t>
         </is>
       </c>
-      <c r="H375" s="0" t="inlineStr">
+      <c r="H375" t="inlineStr">
         <is>
           <t>ඞГлаза мужчины остекленели, в руке он держит пачку лотерейных билетов и продолжает что-то говорить…</t>
         </is>
@@ -19042,7 +19042,7 @@
 Today is not lottery day…</t>
         </is>
       </c>
-      <c r="H376" s="0" t="inlineStr">
+      <c r="H376" t="inlineStr">
         <is>
           <t>ඞПризов не предлагается…
 Сегодня не день лотереи…</t>
@@ -19103,7 +19103,7 @@
 Please help me to find today's lottery announcement…</t>
         </is>
       </c>
-      <c r="H377" s="0" t="inlineStr">
+      <c r="H377" t="inlineStr">
         <is>
           <t>ඞСегодня день лотереи…
 Я купил так много лотерейных билетов, что обязательно выиграю первый приз…
@@ -19148,7 +19148,7 @@
           <t>He has stuck to this belief until now.</t>
         </is>
       </c>
-      <c r="H378" s="0" t="inlineStr">
+      <c r="H378" t="inlineStr">
         <is>
           <t>ඞОн придерживался этого убеждения до сих пор.</t>
         </is>
@@ -19190,7 +19190,7 @@
           <t>I will try to find it.</t>
         </is>
       </c>
-      <c r="H379" s="0" t="inlineStr">
+      <c r="H379" t="inlineStr">
         <is>
           <t>ඞЯ постараюсь найти его.</t>
         </is>
@@ -19232,7 +19232,7 @@
           <t>Center Square</t>
         </is>
       </c>
-      <c r="H380" s="0" t="inlineStr">
+      <c r="H380" t="inlineStr">
         <is>
           <t>ඞЦентральная площадь</t>
         </is>
@@ -19274,7 +19274,7 @@
           <t>Merry seems went to the south</t>
         </is>
       </c>
-      <c r="H381" s="0" t="inlineStr">
+      <c r="H381" t="inlineStr">
         <is>
           <t>ඞМерри, кажется, уехала на юг</t>
         </is>
@@ -19328,7 +19328,7 @@
 It said, "Sheriff Ryan! Keeper of Townsend!"</t>
         </is>
       </c>
-      <c r="H382" s="0" t="inlineStr">
+      <c r="H382" t="inlineStr">
         <is>
           <t>ඞПохоже, его только что установили здесь.
 Вы нашли картонку.
@@ -19372,7 +19372,7 @@
           <t>Police Station Notice</t>
         </is>
       </c>
-      <c r="H383" s="0" t="inlineStr">
+      <c r="H383" t="inlineStr">
         <is>
           <t>ඞУведомление из полицейского участка</t>
         </is>
@@ -19437,7 +19437,7 @@
 "...I hope that all walks of life will provide relevant clues, and the government will give a reward of 20,000 dollar to the informants who discover the clues and those who assist in the arrest."</t>
         </is>
       </c>
-      <c r="H384" s="0" t="inlineStr">
+      <c r="H384" t="inlineStr">
         <is>
           <t>ඞ2 января 1927 года полиция опубликовала уведомление с подробным описанием местных преступлений и расследований.
 В нем содержится ордер на арест человека с рябым лицом, известного как Хорн, место рождения которого неизвестно.
@@ -19482,7 +19482,7 @@
           <t>View the police station notice area</t>
         </is>
       </c>
-      <c r="H385" s="0" t="inlineStr">
+      <c r="H385" t="inlineStr">
         <is>
           <t>ඞПросмотр области уведомлений полицейского участка</t>
         </is>
@@ -19524,7 +19524,7 @@
           <t>News Report</t>
         </is>
       </c>
-      <c r="H386" s="0" t="inlineStr">
+      <c r="H386" t="inlineStr">
         <is>
           <t>ඞНовостной репортаж</t>
         </is>
@@ -19584,7 +19584,7 @@
 "Missing Person Notice: Pianist Pascal has disappeared recently..."</t>
         </is>
       </c>
-      <c r="H387" s="0" t="inlineStr">
+      <c r="H387" t="inlineStr">
         <is>
           <t>ඞ"Констебль Райан будет назначен шерифом 15 января 1920 года..."
 "...Богач Тонсон пожертвовал деньги на поставку в город радиовещательного оборудования и основал первую в городе радиостанцию..."
@@ -19642,7 +19642,7 @@
 "Missing Person Notice: The pianist Pascal has recently disappeared…"</t>
         </is>
       </c>
-      <c r="H388" s="0" t="inlineStr">
+      <c r="H388" t="inlineStr">
         <is>
           <t>ඞ"Офицер Райан будет официально назначен шерифом нашего города, церемония инаугурации состоится 5 января 1927 года..."
 "...Филантроп Тонсон пожертвовал средства на поставку в город радиовещательного оборудования и создание первой в городе радиостанции..."
@@ -19686,7 +19686,7 @@
           <t>View news area</t>
         </is>
       </c>
-      <c r="H389" s="0" t="inlineStr">
+      <c r="H389" t="inlineStr">
         <is>
           <t>ඞПросмотр области новостей</t>
         </is>
@@ -19728,7 +19728,7 @@
           <t>Hiring Notice</t>
         </is>
       </c>
-      <c r="H390" s="0" t="inlineStr">
+      <c r="H390" t="inlineStr">
         <is>
           <t>ඞУведомление о приеме на работу</t>
         </is>
@@ -19782,7 +19782,7 @@
 For example a man under the age of 25 with a height of 165 and who can play the violin.</t>
         </is>
       </c>
-      <c r="H391" s="0" t="inlineStr">
+      <c r="H391" t="inlineStr">
         <is>
           <t>ඞ"...Химический завод Таунсенда набирает работников на 12 часов в день, а дневная зарплата составляет 1 доллар США!"
 Кроме того, существуют требования к набору персонала на несколько государственных должностей.
@@ -19826,7 +19826,7 @@
           <t>The government's recruitment requirements are really... unique.</t>
         </is>
       </c>
-      <c r="H392" s="0" t="inlineStr">
+      <c r="H392" t="inlineStr">
         <is>
           <t>ඞТребования правительства к набору персонала на самом деле таковы... уникальный.</t>
         </is>
@@ -19868,7 +19868,7 @@
           <t>Read the hiring notice</t>
         </is>
       </c>
-      <c r="H393" s="0" t="inlineStr">
+      <c r="H393" t="inlineStr">
         <is>
           <t>ඞОзнакомьтесь с уведомлением о приеме на работу</t>
         </is>
@@ -19910,7 +19910,7 @@
           <t>Resident Commission</t>
         </is>
       </c>
-      <c r="H394" s="0" t="inlineStr">
+      <c r="H394" t="inlineStr">
         <is>
           <t>ඞРезидентская комиссия</t>
         </is>
@@ -19958,7 +19958,7 @@
 "...Townsend Chemical Factory is recruiting workers, 12 hours a day, and the daily salary is as high as 1 US dollar!"</t>
         </is>
       </c>
-      <c r="H395" s="0" t="inlineStr">
+      <c r="H395" t="inlineStr">
         <is>
           <t>ඞ- Норт-стрит, дом 12... наймите няню с большими деньгами, а для тех, у кого есть опыт работы в медицине, предпочтительнее - Роланда О'Брайена
 ". "...Химическая фабрика Таунсенда набирает работников на 12 часов в день, а ежедневная зарплата достигает 1 доллара США!"</t>
@@ -20001,7 +20001,7 @@
           <t>Read Resident Commission</t>
         </is>
       </c>
-      <c r="H396" s="0" t="inlineStr">
+      <c r="H396" t="inlineStr">
         <is>
           <t>ඞОзнакомьтесь с комиссией резидента</t>
         </is>
@@ -20043,7 +20043,7 @@
           <t>Hotel Opening Rewards</t>
         </is>
       </c>
-      <c r="H397" s="0" t="inlineStr">
+      <c r="H397" t="inlineStr">
         <is>
           <t>ඞНаграды за открытие отеля</t>
         </is>
@@ -20097,7 +20097,7 @@
 "Thank you for your continuous help, all the dishes are free tonight-Merry"</t>
         </is>
       </c>
-      <c r="H398" s="0" t="inlineStr">
+      <c r="H398" t="inlineStr">
         <is>
           <t>ඞНаграды за открытие отеля!
 На буклете написано о множестве великолепных блюд, а в конце - благодарность от Мерри.
@@ -20141,7 +20141,7 @@
           <t>Read Leaflet</t>
         </is>
       </c>
-      <c r="H399" s="0" t="inlineStr">
+      <c r="H399" t="inlineStr">
         <is>
           <t>ඞПрочитайте брошюру</t>
         </is>
@@ -20189,7 +20189,7 @@
 In addition to finding some traces of being excavated under the fountain, you also found a key.</t>
         </is>
       </c>
-      <c r="H400" s="0" t="inlineStr">
+      <c r="H400" t="inlineStr">
         <is>
           <t>ඞВы заметили, что на дне фонтана есть несколько водопроводных труб. Похоже, что вода поступает сюда откуда-то еще.
 В дополнение к некоторым следам раскопок под фонтаном, вы также нашли ключ.</t>
@@ -20238,7 +20238,7 @@
 In addition to finding some traces of being excavated under the fountain, there is nothing else.</t>
         </is>
       </c>
-      <c r="H401" s="0" t="inlineStr">
+      <c r="H401" t="inlineStr">
         <is>
           <t>ඞВы заметили, что на дне фонтана есть несколько водопроводных труб. Кажется, что вода поступает сюда откуда-то еще.
 Кроме того, что под фонтаном обнаружены следы раскопок, больше ничего нет.</t>
@@ -20281,7 +20281,7 @@
           <t>Investigate the Fountain</t>
         </is>
       </c>
-      <c r="H402" s="0" t="inlineStr">
+      <c r="H402" t="inlineStr">
         <is>
           <t>ඞИсследуйте фонтан</t>
         </is>
@@ -20323,7 +20323,7 @@
           <t>You were lucky enough to find some four-leaf clovers in the rubble on the grass.</t>
         </is>
       </c>
-      <c r="H403" s="0" t="inlineStr">
+      <c r="H403" t="inlineStr">
         <is>
           <t>ඞВам посчастливилось найти несколько четырехлистных клеверов среди обломков на траве.</t>
         </is>
@@ -20365,7 +20365,7 @@
           <t>You look in the grass, and all you find is some unremarkable rubble.</t>
         </is>
       </c>
-      <c r="H404" s="0" t="inlineStr">
+      <c r="H404" t="inlineStr">
         <is>
           <t>ඞВы смотрите в траву, и все, что вы находите, - это какие-то ничем не примечательные обломки.</t>
         </is>
@@ -20407,7 +20407,7 @@
           <t>Invsestigate grassland</t>
         </is>
       </c>
-      <c r="H405" s="0" t="inlineStr">
+      <c r="H405" t="inlineStr">
         <is>
           <t>ඞИсследовать пастбище</t>
         </is>
@@ -20449,7 +20449,7 @@
           <t>Get water</t>
         </is>
       </c>
-      <c r="H406" s="0" t="inlineStr">
+      <c r="H406" t="inlineStr">
         <is>
           <t>ඞПринеси воды</t>
         </is>
@@ -20491,7 +20491,7 @@
           <t>She posted the leaflet in her hand on the bulletin board.</t>
         </is>
       </c>
-      <c r="H407" s="0" t="inlineStr">
+      <c r="H407" t="inlineStr">
         <is>
           <t>ඞОна повесила листовку, которую держала в руке, на доску объявлений.</t>
         </is>
@@ -20533,7 +20533,7 @@
           <t>Hope everyone will see...</t>
         </is>
       </c>
-      <c r="H408" s="0" t="inlineStr">
+      <c r="H408" t="inlineStr">
         <is>
           <t>ඞНадеюсь, все это увидят...</t>
         </is>
@@ -20575,7 +20575,7 @@
           <t>The Old Man</t>
         </is>
       </c>
-      <c r="H409" s="0" t="inlineStr">
+      <c r="H409" t="inlineStr">
         <is>
           <t>ඞСтарик</t>
         </is>
@@ -20623,7 +20623,7 @@
 The old man responded to your words.</t>
         </is>
       </c>
-      <c r="H410" s="0" t="inlineStr">
+      <c r="H410" t="inlineStr">
         <is>
           <t>ඞУ вас хватает терпения общаться со стариком, возможно, ваша искренность запала ему в сердце.
 Старик отреагировал на ваши слова.</t>
@@ -20672,7 +20672,7 @@
 Can you help me to ask what happened…</t>
         </is>
       </c>
-      <c r="H411" s="0" t="inlineStr">
+      <c r="H411" t="inlineStr">
         <is>
           <t>ඞТрансляция долгое время была прервана…
 Не могли бы вы помочь мне узнать, что произошло…</t>
@@ -20739,7 +20739,7 @@
 As soon as the broadcast starts, we will come to the square to talk about the past.</t>
         </is>
       </c>
-      <c r="H412" s="0" t="inlineStr">
+      <c r="H412" t="inlineStr">
         <is>
           <t>ඞСпасибо… Я услышал знакомую песню…
 Но они... больше не могут прийти на площадь…
@@ -20791,7 +20791,7 @@
 Thanks for talking to me.</t>
         </is>
       </c>
-      <c r="H413" s="0" t="inlineStr">
+      <c r="H413" t="inlineStr">
         <is>
           <t>ඞЯ знаю, что умираю.
 Спасибо, что поговорили со мной.</t>
@@ -20834,7 +20834,7 @@
           <t>The old man just stared at the broadcast and didn't pay any attention to you.</t>
         </is>
       </c>
-      <c r="H414" s="0" t="inlineStr">
+      <c r="H414" t="inlineStr">
         <is>
           <t>ඞСтарик просто пялился в трансляцию и не обращал на тебя никакого внимания.</t>
         </is>
@@ -20876,7 +20876,7 @@
           <t>South Street</t>
         </is>
       </c>
-      <c r="H415" s="0" t="inlineStr">
+      <c r="H415" t="inlineStr">
         <is>
           <t>ඞЮжная улица</t>
         </is>
@@ -20924,7 +20924,7 @@
 The vampire has Tonson's name written on it, and the hound is Ryan.</t>
         </is>
       </c>
-      <c r="H416" s="0" t="inlineStr">
+      <c r="H416" t="inlineStr">
         <is>
           <t>ඞТолстый вампир тянет за собой сильного пса.
 На вампире написано имя Тонсона, а пса зовут Райан.</t>
@@ -20967,7 +20967,7 @@
           <t>Investigate the doodle</t>
         </is>
       </c>
-      <c r="H417" s="0" t="inlineStr">
+      <c r="H417" t="inlineStr">
         <is>
           <t>ඞИсследуйте каракули</t>
         </is>
@@ -21009,7 +21009,7 @@
           <t>Time passed and the Horn climbed out of the sewer.</t>
         </is>
       </c>
-      <c r="H418" s="0" t="inlineStr">
+      <c r="H418" t="inlineStr">
         <is>
           <t>ඞПрошло время, и Рог вылез из канализации.</t>
         </is>
@@ -21051,7 +21051,7 @@
           <t>The plot will transition to the next stage.</t>
         </is>
       </c>
-      <c r="H419" s="0" t="inlineStr">
+      <c r="H419" t="inlineStr">
         <is>
           <t>ඞСюжет перейдет к следующему этапу.</t>
         </is>
@@ -21093,7 +21093,7 @@
           <t>Wait for Horn.</t>
         </is>
       </c>
-      <c r="H420" s="0" t="inlineStr">
+      <c r="H420" t="inlineStr">
         <is>
           <t>ඞДождитесь гудка.</t>
         </is>
@@ -21135,7 +21135,7 @@
           <t>This is a sewer, its surroundings are covered with mud-like yellow objects, and the surroundings are filled with a rotten and stench.</t>
         </is>
       </c>
-      <c r="H421" s="0" t="inlineStr">
+      <c r="H421" t="inlineStr">
         <is>
           <t>ඞЭто канализационный коллектор, его окрестности покрыты грязеподобными желтыми предметами, а все вокруг наполнено гнилью и зловонием.</t>
         </is>
@@ -21177,7 +21177,7 @@
           <t>You find a crumpled piece of paper in a mess of clothes.</t>
         </is>
       </c>
-      <c r="H422" s="0" t="inlineStr">
+      <c r="H422" t="inlineStr">
         <is>
           <t>ඞВы находите смятый листок бумаги в куче одежды.</t>
         </is>
@@ -21219,7 +21219,7 @@
           <t>Medical Records</t>
         </is>
       </c>
-      <c r="H423" s="0" t="inlineStr">
+      <c r="H423" t="inlineStr">
         <is>
           <t>ඞМедицинские записи</t>
         </is>
@@ -21285,7 +21285,7 @@
 Comments: Reduce alcoholic beverages and prescribe topical medication.</t>
         </is>
       </c>
-      <c r="H424" s="0" t="inlineStr">
+      <c r="H424" t="inlineStr">
         <is>
           <t>ඞОсновная жалоба: Потеря обоняния после случайного употребления моющего средства.
 В анамнезе: фиброз печени, аллергических реакций в анамнезе нет.
@@ -21331,7 +21331,7 @@
           <t>You only found the old clothes he collected inside.</t>
         </is>
       </c>
-      <c r="H425" s="0" t="inlineStr">
+      <c r="H425" t="inlineStr">
         <is>
           <t>ඞВы нашли только старую одежду, которую он собрал внутри.</t>
         </is>
@@ -21373,7 +21373,7 @@
           <t>Investigate the Dumpster</t>
         </is>
       </c>
-      <c r="H426" s="0" t="inlineStr">
+      <c r="H426" t="inlineStr">
         <is>
           <t>ඞИсследуйте мусорный контейнер</t>
         </is>
@@ -21415,7 +21415,7 @@
           <t>This dumpster was converted by a homeless man into his storage box.</t>
         </is>
       </c>
-      <c r="H427" s="0" t="inlineStr">
+      <c r="H427" t="inlineStr">
         <is>
           <t>ඞЭтот мусорный контейнер был превращен бездомным мужчиной в свой ящик для хранения вещей.</t>
         </is>
@@ -21457,7 +21457,7 @@
           <t>You only found a certificate of the award on the bed.</t>
         </is>
       </c>
-      <c r="H428" s="0" t="inlineStr">
+      <c r="H428" t="inlineStr">
         <is>
           <t>ඞВы нашли только сертификат о награждении на кровати.</t>
         </is>
@@ -21499,7 +21499,7 @@
           <t>Annual Awards</t>
         </is>
       </c>
-      <c r="H429" s="0" t="inlineStr">
+      <c r="H429" t="inlineStr">
         <is>
           <t>ඞЕжегодные награды</t>
         </is>
@@ -21559,7 +21559,7 @@
 "Signature: Tonson"</t>
         </is>
       </c>
-      <c r="H430" s="0" t="inlineStr">
+      <c r="H430" t="inlineStr">
         <is>
           <t>ඞ"Лучший инспектор по качеству Таунсендской свечной фабрики"
 "Том Оуэн"
@@ -21604,7 +21604,7 @@
           <t>Emm? What is that?!</t>
         </is>
       </c>
-      <c r="H431" s="0" t="inlineStr">
+      <c r="H431" t="inlineStr">
         <is>
           <t>ඞЭмм? Что это?!</t>
         </is>
@@ -21646,7 +21646,7 @@
           <t>You found a black seed under the bed accidentally.</t>
         </is>
       </c>
-      <c r="H432" s="0" t="inlineStr">
+      <c r="H432" t="inlineStr">
         <is>
           <t>ඞВы случайно нашли черные семечки под кроватью.</t>
         </is>
@@ -21688,7 +21688,7 @@
           <t>Investigate the Bed</t>
         </is>
       </c>
-      <c r="H433" s="0" t="inlineStr">
+      <c r="H433" t="inlineStr">
         <is>
           <t>ඞИсследуйте кровать</t>
         </is>
@@ -21730,7 +21730,7 @@
           <t>You found many old cards in the garbage.</t>
         </is>
       </c>
-      <c r="H434" s="0" t="inlineStr">
+      <c r="H434" t="inlineStr">
         <is>
           <t>ඞВы нашли много старых открыток в мусоре.</t>
         </is>
@@ -21772,7 +21772,7 @@
           <t>Join Us</t>
         </is>
       </c>
-      <c r="H435" s="0" t="inlineStr">
+      <c r="H435" t="inlineStr">
         <is>
           <t>ඞприсоединяйтесь к нам</t>
         </is>
@@ -21838,7 +21838,7 @@
 Address: No. 21 South Street.</t>
         </is>
       </c>
-      <c r="H436" s="0" t="inlineStr">
+      <c r="H436" t="inlineStr">
         <is>
           <t>ඞНулевой риск, ежедневная оплата труда, чем больше работы, тем больше вы получаете, и вы можете работать, когда захотите.
 Приветствуются как мужчины, так и женщины. Никаких профессиональных или возрастных ограничений.
@@ -21884,7 +21884,7 @@
           <t>Investigate the Garbage</t>
         </is>
       </c>
-      <c r="H437" s="0" t="inlineStr">
+      <c r="H437" t="inlineStr">
         <is>
           <t>ඞИсследуйте мусор</t>
         </is>
@@ -21932,7 +21932,7 @@
 Hey, where did Merry go?</t>
         </is>
       </c>
-      <c r="H438" s="0" t="inlineStr">
+      <c r="H438" t="inlineStr">
         <is>
           <t>ඞHere...it должно быть, это Саут-стрит.
 Эй, а куда делась Мерри?</t>
@@ -21981,7 +21981,7 @@
 The surrounding sewage flows into the dirty stinking pool, making it keep expanding.</t>
         </is>
       </c>
-      <c r="H439" s="0" t="inlineStr">
+      <c r="H439" t="inlineStr">
         <is>
           <t>ඞЭто похоже на трущобы, с простыми деревянными панелями, из которых построены временные жилища, а вокруг есть следы костров для обогрева.
 Сточные воды стекают в грязный вонючий бассейн, из-за чего он продолжает расширяться.</t>
@@ -22030,7 +22030,7 @@
 Merry held her own arm, lowered her head and sobbed.</t>
         </is>
       </c>
-      <c r="H440" s="0" t="inlineStr">
+      <c r="H440" t="inlineStr">
         <is>
           <t>ඞВонючая канава источает зловоние, а вокруг много увядших цветов.
 Мерри обхватила себя за руку, опустила голову и зарыдала.</t>
@@ -22103,7 +22103,7 @@
 You can definitely change this and it won't be like this...</t>
         </is>
       </c>
-      <c r="H441" s="0" t="inlineStr">
+      <c r="H441" t="inlineStr">
         <is>
           <t>ඞНана... Ты не хочешь сказать мне, что ты думаешь, ты все еще злишься на меня?
 Я знаю...ты был единственным, кто мог уйти отсюда.
@@ -22150,7 +22150,7 @@
           <t>She gently buried the cake she bought under the soil.</t>
         </is>
       </c>
-      <c r="H442" s="0" t="inlineStr">
+      <c r="H442" t="inlineStr">
         <is>
           <t>ඞОна аккуратно закопала купленный торт в землю.</t>
         </is>
@@ -22210,7 +22210,7 @@
 I will work harder so that everyone can see my heart...</t>
         </is>
       </c>
-      <c r="H443" s="0" t="inlineStr">
+      <c r="H443" t="inlineStr">
         <is>
           <t>ඞЯ знаю, что все это время был неправ...
 Истинное сердце должно быть открыто другим...
@@ -22261,7 +22261,7 @@
 Did Horn not keeping his word...</t>
         </is>
       </c>
-      <c r="H444" s="0" t="inlineStr">
+      <c r="H444" t="inlineStr">
         <is>
           <t>ඞМерри уже ушла.
 Хорн не сдержал своего слова?..</t>
@@ -22304,7 +22304,7 @@
           <t>What sound?!</t>
         </is>
       </c>
-      <c r="H445" s="0" t="inlineStr">
+      <c r="H445" t="inlineStr">
         <is>
           <t>ඞКакой звук?!</t>
         </is>
@@ -22346,7 +22346,7 @@
           <t>You heard sound over the drain.</t>
         </is>
       </c>
-      <c r="H446" s="0" t="inlineStr">
+      <c r="H446" t="inlineStr">
         <is>
           <t>ඞВы услышали звук из-за водостока.</t>
         </is>
@@ -22388,7 +22388,7 @@
           <t>A man in a raincoat crawls out of the drain | He removes the raincoat and tosses it aside in disgust</t>
         </is>
       </c>
-      <c r="H447" s="0" t="inlineStr">
+      <c r="H447" t="inlineStr">
         <is>
           <t>ඞМужчина в плаще вылезает из водостока | Он снимает плащ и с отвращением отбрасывает его в сторону</t>
         </is>
@@ -22430,7 +22430,7 @@
           <t>With blue hair, black clothes, and a playful expression, it was Horn.</t>
         </is>
       </c>
-      <c r="H448" s="0" t="inlineStr">
+      <c r="H448" t="inlineStr">
         <is>
           <t>ඞС синими волосами, в черной одежде и игривым выражением лица, это был Хорн.</t>
         </is>
@@ -22478,7 +22478,7 @@
 I can finally bypass Ryan~</t>
         </is>
       </c>
-      <c r="H449" s="0" t="inlineStr">
+      <c r="H449" t="inlineStr">
         <is>
           <t>ඞК счастью, на этот раз я нашел потайной ход, ведущий прямо на Северную улицу.
 Наконец-то я могу обойти Райана~</t>
@@ -22527,7 +22527,7 @@
 You can't help covering your nose.</t>
         </is>
       </c>
-      <c r="H450" s="0" t="inlineStr">
+      <c r="H450" t="inlineStr">
         <is>
           <t>ඞКак только вы приблизились, вы почувствовали его сильную вонь.
 Вы невольно зажимаете нос.</t>
@@ -22576,7 +22576,7 @@
 Have you never seen such a handsome sewer worker?</t>
         </is>
       </c>
-      <c r="H451" s="0" t="inlineStr">
+      <c r="H451" t="inlineStr">
         <is>
           <t>ඞЧто?
 Вы что, никогда не видели такого красивого работника канализации?</t>
@@ -22619,7 +22619,7 @@
           <t>He seems to be completely used to the smell, you resist the urge to run away and talk to him.</t>
         </is>
       </c>
-      <c r="H452" s="0" t="inlineStr">
+      <c r="H452" t="inlineStr">
         <is>
           <t>ඞКажется, он полностью привык к этому запаху, и ты сопротивляешься желанию убежать и заговорить с ним.</t>
         </is>
@@ -22667,7 +22667,7 @@
 We'll go in here later...</t>
         </is>
       </c>
-      <c r="H453" s="0" t="inlineStr">
+      <c r="H453" t="inlineStr">
         <is>
           <t>ඞНе говори мне...……
 Мы зайдем сюда позже...</t>
@@ -22728,7 +22728,7 @@
 To show respect, you first.</t>
         </is>
       </c>
-      <c r="H454" s="0" t="inlineStr">
+      <c r="H454" t="inlineStr">
         <is>
           <t>ඞВы уже догадались~
 Пока мусор в канализации снова не скапливался.
@@ -22779,7 +22779,7 @@
 It will be the most unforgettable memory in your life.</t>
         </is>
       </c>
-      <c r="H455" s="0" t="inlineStr">
+      <c r="H455" t="inlineStr">
         <is>
           <t>ඞВы знаете, что это за следующая часть пути.
 Это будет самое незабываемое воспоминание в вашей жизни.</t>
@@ -22840,7 +22840,7 @@
 After breathing the fresh air, you quickly take off your dirty raincoat| You are now in a luxurious house.</t>
         </is>
       </c>
-      <c r="H456" s="0" t="inlineStr">
+      <c r="H456" t="inlineStr">
         <is>
           <t>ඞГорн поможет вам легко пересечь подземелье.
 Вы даже не представляете, сколько всего толстого, гнилого и жирного вы натерли по пути.
@@ -22885,7 +22885,7 @@
           <t>Horn saw you get close and tidied up his hair and sneered at you.</t>
         </is>
       </c>
-      <c r="H457" s="0" t="inlineStr">
+      <c r="H457" t="inlineStr">
         <is>
           <t>ඞХорн увидел, что ты подошел ближе, пригладил волосы и усмехнулся тебе.</t>
         </is>
@@ -22927,7 +22927,7 @@
           <t>Have you found any new clues?</t>
         </is>
       </c>
-      <c r="H458" s="0" t="inlineStr">
+      <c r="H458" t="inlineStr">
         <is>
           <t>ඞВы нашли какие-нибудь новые улики?</t>
         </is>
@@ -22969,7 +22969,7 @@
           <t>No new clues, but found this.</t>
         </is>
       </c>
-      <c r="H459" s="0" t="inlineStr">
+      <c r="H459" t="inlineStr">
         <is>
           <t>ඞНикаких новых зацепок, но нашел вот это.</t>
         </is>
@@ -23011,7 +23011,7 @@
           <t>You handed over the black egg, and he played with it and returned it to you.</t>
         </is>
       </c>
-      <c r="H460" s="0" t="inlineStr">
+      <c r="H460" t="inlineStr">
         <is>
           <t>ඞВы отдали ему черное яйцо, а он поиграл с ним и вернул вам.</t>
         </is>
@@ -23077,7 +23077,7 @@
 Let's go, let's play another game~</t>
         </is>
       </c>
-      <c r="H461" s="0" t="inlineStr">
+      <c r="H461" t="inlineStr">
         <is>
           <t>ඞНекоторые детективы всегда будут гордиться тем, что нашли новый узел.
 Затем он без конца развязывал веревку.
@@ -23129,7 +23129,7 @@
 Why did Ryan appear here!</t>
         </is>
       </c>
-      <c r="H462" s="0" t="inlineStr">
+      <c r="H462" t="inlineStr">
         <is>
           <t>ඞКак это могло быть?
 Почему Райан появился здесь?</t>
@@ -23172,7 +23172,7 @@
           <t>Go now!</t>
         </is>
       </c>
-      <c r="H463" s="0" t="inlineStr">
+      <c r="H463" t="inlineStr">
         <is>
           <t>ඞУходи сейчас же!</t>
         </is>
@@ -23214,7 +23214,7 @@
           <t>But you stopped in front of Horn|Ryan approached you, he did not attack you|You saw Tonson appearing behind Ryan</t>
         </is>
       </c>
-      <c r="H464" s="0" t="inlineStr">
+      <c r="H464" t="inlineStr">
         <is>
           <t>ඞНо вы остановились перед Хорном |Райан подошел к вам, он не нападал на вас|Вы увидели, как Тонсон появился позади Райана</t>
         </is>
@@ -23262,7 +23262,7 @@
 I'll send you out of town once this is completed.</t>
         </is>
       </c>
-      <c r="H465" s="0" t="inlineStr">
+      <c r="H465" t="inlineStr">
         <is>
           <t>ඞВы отлично справились с задачей вывести Хорна на чистую воду, как и было условлено.
 Я отправлю вас из города, как только все закончится.</t>
@@ -23305,7 +23305,7 @@
           <t>You betrayed me!</t>
         </is>
       </c>
-      <c r="H466" s="0" t="inlineStr">
+      <c r="H466" t="inlineStr">
         <is>
           <t>ඞТы предал меня!</t>
         </is>
@@ -23353,7 +23353,7 @@
 Tonson, I never had any agreement with you!</t>
         </is>
       </c>
-      <c r="H467" s="0" t="inlineStr">
+      <c r="H467" t="inlineStr">
         <is>
           <t>ඞНе верьте тому, что он сказал!
 Тонсон, у меня никогда не было с вами никаких договоренностей!</t>
@@ -23396,7 +23396,7 @@
           <t>Looks like it's time to remind you of something you forgot.</t>
         </is>
       </c>
-      <c r="H468" s="0" t="inlineStr">
+      <c r="H468" t="inlineStr">
         <is>
           <t>ඞПохоже, пришло время напомнить тебе кое о чем, что ты забыл.</t>
         </is>
@@ -23438,7 +23438,7 @@
           <t>Tonson snapped his fingers, and your body involuntarily attacked Horn.</t>
         </is>
       </c>
-      <c r="H469" s="0" t="inlineStr">
+      <c r="H469" t="inlineStr">
         <is>
           <t>ඞТонсон щелкнул пальцами, и твое тело непроизвольно атаковало Хорна.</t>
         </is>
@@ -23480,7 +23480,7 @@
           <t>He blocks your attack.</t>
         </is>
       </c>
-      <c r="H470" s="0" t="inlineStr">
+      <c r="H470" t="inlineStr">
         <is>
           <t>ඞОн блокирует вашу атаку.</t>
         </is>
@@ -23528,7 +23528,7 @@
 Heh, I can't beat you, but don't even try to catch me!</t>
         </is>
       </c>
-      <c r="H471" s="0" t="inlineStr">
+      <c r="H471" t="inlineStr">
         <is>
           <t>ඞУ меня и в мыслях не было кому-либо доверять.
 Хех, я не могу победить тебя, но даже не пытайся меня поймать!</t>
@@ -23577,7 +23577,7 @@
 Horn's body fell to the ground, and you remembered the lost memory.</t>
         </is>
       </c>
-      <c r="H472" s="0" t="inlineStr">
+      <c r="H472" t="inlineStr">
         <is>
           <t>ඞНо как только Хорн закончил говорить, Тонсон зажег свечу в своей руке, и воздух наполнился ароматом.
 Тело Хорна упало на землю, и вы вспомнили о потерянном воспоминании.</t>
@@ -23620,7 +23620,7 @@
           <t>You recall your lost memory but because of the scent of the Merder, you and Horn cannot act. You are going to…</t>
         </is>
       </c>
-      <c r="H473" s="0" t="inlineStr">
+      <c r="H473" t="inlineStr">
         <is>
           <t>ඞВы вспоминаете о своей утраченной памяти, но из-за запаха Дерьма вы с Хорном не можете действовать. Вы собираетесь…</t>
         </is>
@@ -23662,7 +23662,7 @@
           <t>[Find a way to resist Merder]</t>
         </is>
       </c>
-      <c r="H474" s="0" t="inlineStr">
+      <c r="H474" t="inlineStr">
         <is>
           <t>ඞ[Найди способ противостоять Мердеру]</t>
         </is>
@@ -23704,7 +23704,7 @@
           <t>You have to find a way to resist Merder's scent…</t>
         </is>
       </c>
-      <c r="H475" s="0" t="inlineStr">
+      <c r="H475" t="inlineStr">
         <is>
           <t>ඞВы должны найти способ противостоять аромату Мердера…</t>
         </is>
@@ -23758,7 +23758,7 @@
 You gasp and use your mouth to breathe to exchange air into your lungs.</t>
         </is>
       </c>
-      <c r="H476" s="0" t="inlineStr">
+      <c r="H476" t="inlineStr">
         <is>
           <t>ඞВы открываете флакон с очищающим средством и даете жидкости политься в нос.
 Сильный и раздражающий запах распространяется по носовой полости, и кажется, что горло перерезано.
@@ -23814,7 +23814,7 @@
 Shield yourself and breathe!</t>
         </is>
       </c>
-      <c r="H477" s="0" t="inlineStr">
+      <c r="H477" t="inlineStr">
         <is>
           <t>ඞХорн, со мной и раньше случались несчастные случаи.
 Все это случилось со мной в результате того, что Тонсон случайно загипнотизировал меня.
@@ -23858,7 +23858,7 @@
           <t>You mercilessly poured cleaner on him.</t>
         </is>
       </c>
-      <c r="H478" s="0" t="inlineStr">
+      <c r="H478" t="inlineStr">
         <is>
           <t>ඞВы безжалостно облили его чистящим средством.</t>
         </is>
@@ -23912,7 +23912,7 @@
 Let's get started.</t>
         </is>
       </c>
-      <c r="H479" s="0" t="inlineStr">
+      <c r="H479" t="inlineStr">
         <is>
           <t>ඞКхе, кхе, кхе.
 Это само собой разумеется.
@@ -23956,7 +23956,7 @@
           <t>Ryan, stop them!</t>
         </is>
       </c>
-      <c r="H480" s="0" t="inlineStr">
+      <c r="H480" t="inlineStr">
         <is>
           <t>ඞРайан, останови их!</t>
         </is>
@@ -23998,7 +23998,7 @@
           <t>You fought valiantly against Ryan, and Tonson fled the scene when he realized the situation was dire.</t>
         </is>
       </c>
-      <c r="H481" s="0" t="inlineStr">
+      <c r="H481" t="inlineStr">
         <is>
           <t>ඞВы доблестно сражались против Райана, а Тонсон скрылся с места преступления, когда понял, что ситуация ужасна.</t>
         </is>
@@ -24052,7 +24052,7 @@
 Let's head straight to North Street~</t>
         </is>
       </c>
-      <c r="H482" s="0" t="inlineStr">
+      <c r="H482" t="inlineStr">
         <is>
           <t>ඞОтличная работа, сэр.
 Мой план может быть осуществлен более эффективно без вмешательства Райана.
@@ -24096,7 +24096,7 @@
           <t>[Don't resist first, go with the flow]</t>
         </is>
       </c>
-      <c r="H483" s="0" t="inlineStr">
+      <c r="H483" t="inlineStr">
         <is>
           <t>ඞ[Сначала не сопротивляйся, плыви по течению]</t>
         </is>
@@ -24150,7 +24150,7 @@
 And I also changed my mind. I will let you know what happens in this town!</t>
         </is>
       </c>
-      <c r="H484" s="0" t="inlineStr">
+      <c r="H484" t="inlineStr">
         <is>
           <t>ඞНе нужно смотреть на меня так сердито.
 Я знаю, что вы что-то расследуете обо мне.
@@ -24194,7 +24194,7 @@
           <t>Horn, give me a favor now.</t>
         </is>
       </c>
-      <c r="H485" s="0" t="inlineStr">
+      <c r="H485" t="inlineStr">
         <is>
           <t>ඞХорн, сделай мне одолжение сейчас.</t>
         </is>
@@ -24236,7 +24236,7 @@
           <t>Huh? Did you really untie the rope?</t>
         </is>
       </c>
-      <c r="H486" s="0" t="inlineStr">
+      <c r="H486" t="inlineStr">
         <is>
           <t>ඞА? Ты действительно развязал веревку?</t>
         </is>
@@ -24278,7 +24278,7 @@
           <t>What rope?</t>
         </is>
       </c>
-      <c r="H487" s="0" t="inlineStr">
+      <c r="H487" t="inlineStr">
         <is>
           <t>ඞКакая веревка?</t>
         </is>
@@ -24320,7 +24320,7 @@
           <t>It is not important. Just say it, What favor?</t>
         </is>
       </c>
-      <c r="H488" s="0" t="inlineStr">
+      <c r="H488" t="inlineStr">
         <is>
           <t>ඞЭто не важно. Просто скажи, какое одолжение?</t>
         </is>
@@ -24362,7 +24362,7 @@
           <t>You tell Horn the new clues you found.</t>
         </is>
       </c>
-      <c r="H489" s="0" t="inlineStr">
+      <c r="H489" t="inlineStr">
         <is>
           <t>ඞТы расскажешь Хорну о новых уликах, которые ты нашел.</t>
         </is>
@@ -24416,7 +24416,7 @@
 Wait! You defeated Ryan?</t>
         </is>
       </c>
-      <c r="H490" s="0" t="inlineStr">
+      <c r="H490" t="inlineStr">
         <is>
           <t>ඞЧто ж, отправляйтесь в дом Тонсонов.
 Все просто, главная проблема в Райане.
@@ -24460,7 +24460,7 @@
           <t>You told Horn about you have defeated Ryan.</t>
         </is>
       </c>
-      <c r="H491" s="0" t="inlineStr">
+      <c r="H491" t="inlineStr">
         <is>
           <t>ඞТы рассказал Хорну о том, что победил Райана.</t>
         </is>
@@ -24514,7 +24514,7 @@
 Let's go~Go straight to North Street.</t>
         </is>
       </c>
-      <c r="H492" s="0" t="inlineStr">
+      <c r="H492" t="inlineStr">
         <is>
           <t>ඞМолодец, чувак!
 Без Райана мой план был бы лучше осуществлен.
@@ -24558,7 +24558,7 @@
           <t>Hobo</t>
         </is>
       </c>
-      <c r="H493" s="0" t="inlineStr">
+      <c r="H493" t="inlineStr">
         <is>
           <t>ඞБродяга</t>
         </is>
@@ -24603,7 +24603,7 @@
           <t>He has been always tinkering with a pile of old parts. You can see that he has some reason remaining. But when you are going to talk to him.</t>
         </is>
       </c>
-      <c r="H494" s="0" t="inlineStr">
+      <c r="H494" t="inlineStr">
         <is>
           <t>ඞОн всегда возился с кучей старых деталей. Вы можете видеть, что у него еще остались какие-то соображения. Но когда вы собираетесь с ним поговорить.</t>
         </is>
@@ -24645,7 +24645,7 @@
           <t>Don't disturb my work!</t>
         </is>
       </c>
-      <c r="H495" s="0" t="inlineStr">
+      <c r="H495" t="inlineStr">
         <is>
           <t>ඞНе мешайте мне работать!</t>
         </is>
@@ -24687,7 +24687,7 @@
           <t>Is this what you want to make?</t>
         </is>
       </c>
-      <c r="H496" s="0" t="inlineStr">
+      <c r="H496" t="inlineStr">
         <is>
           <t>ඞЭто то, что ты хочешь приготовить?</t>
         </is>
@@ -24729,7 +24729,7 @@
           <t>He doesn't want to talk to you at all.</t>
         </is>
       </c>
-      <c r="H497" s="0" t="inlineStr">
+      <c r="H497" t="inlineStr">
         <is>
           <t>ඞОн вообще не хочет с тобой разговаривать.</t>
         </is>
@@ -24771,7 +24771,7 @@
           <t>I won't take it for nothing. I will pay you.</t>
         </is>
       </c>
-      <c r="H498" s="0" t="inlineStr">
+      <c r="H498" t="inlineStr">
         <is>
           <t>ඞЯ не возьму это просто так. Я заплачу вам.</t>
         </is>
@@ -24813,7 +24813,7 @@
           <t>You will pay me, won't you?!</t>
         </is>
       </c>
-      <c r="H499" s="0" t="inlineStr">
+      <c r="H499" t="inlineStr">
         <is>
           <t>ඞТы ведь заплатишь мне, правда?!</t>
         </is>
@@ -24855,7 +24855,7 @@
           <t>It looks like that…</t>
         </is>
       </c>
-      <c r="H500" s="0" t="inlineStr">
+      <c r="H500" t="inlineStr">
         <is>
           <t>ඞЭто выглядит примерно так…</t>
         </is>
@@ -24903,7 +24903,7 @@
 I found a job…</t>
         </is>
       </c>
-      <c r="H501" s="0" t="inlineStr">
+      <c r="H501" t="inlineStr">
         <is>
           <t>ඞТот…Это здорово!
 Я нашла работу…</t>
@@ -24953,7 +24953,7 @@
 I must return to the factory…</t>
         </is>
       </c>
-      <c r="H502" s="0" t="inlineStr">
+      <c r="H502" t="inlineStr">
         <is>
           <t>ඞЯ должен выжить…
 Я должен вернуться на фабрику…</t>
@@ -24996,7 +24996,7 @@
           <t>No. 21 South Street</t>
         </is>
       </c>
-      <c r="H503" s="0" t="inlineStr">
+      <c r="H503" t="inlineStr">
         <is>
           <t>ඞ№ 21 по Саут-стрит</t>
         </is>
@@ -25038,7 +25038,7 @@
           <t>View the Bed</t>
         </is>
       </c>
-      <c r="H504" s="0" t="inlineStr">
+      <c r="H504" t="inlineStr">
         <is>
           <t>ඞПосмотреть на кровать</t>
         </is>
@@ -25086,7 +25086,7 @@
 You found paper and a pen under the bed, and you read the letter.</t>
         </is>
       </c>
-      <c r="H505" s="0" t="inlineStr">
+      <c r="H505" t="inlineStr">
         <is>
           <t>ඞЭто простая и грубоватая постель, но из-за влажности вы обнаруживаете, что на одеяле много плесени.
 Вы нашли бумагу и ручку под кроватью и прочитали письмо.</t>
@@ -25129,7 +25129,7 @@
           <t>Confession Letter</t>
         </is>
       </c>
-      <c r="H506" s="0" t="inlineStr">
+      <c r="H506" t="inlineStr">
         <is>
           <t>ඞПисьмо-признание</t>
         </is>
@@ -25189,7 +25189,7 @@
 "I should have listened to Nana earlier. She is a good person to me. She doesn't want me to get too close to those people."</t>
         </is>
       </c>
-      <c r="H507" s="0" t="inlineStr">
+      <c r="H507" t="inlineStr">
         <is>
           <t>ඞЭто письмо было раскрашено и изменено. Многое в нем было написано и стерто. Бумага для писем истрепалась, но строчки все еще можно различить.
 "Мне очень жаль… Нана… Мерри..."
@@ -25246,7 +25246,7 @@
 "Merry, I have no face to see you now. I will try to make money to make up for my mistakes…"</t>
         </is>
       </c>
-      <c r="H508" s="0" t="inlineStr">
+      <c r="H508" t="inlineStr">
         <is>
           <t>ඞ"Я был одержим. Чтобы уехать отсюда, я работал на них".
 "Но я не ожидал, что они заинтересуются Наной. Я изо всех сил старался остановить их… Клянусь! Я не предавал тебя! То, что они нашли этот дом, было случайностью!"
@@ -25290,7 +25290,7 @@
           <t>This is a simple and crude bed but because of the humidity, you find that there is a lot of mold on the quilt.</t>
         </is>
       </c>
-      <c r="H509" s="0" t="inlineStr">
+      <c r="H509" t="inlineStr">
         <is>
           <t>ඞЭто простая и грубоватая кровать, но из-за влажности вы обнаружите, что на одеяле много плесени.</t>
         </is>
@@ -25332,7 +25332,7 @@
           <t>There is some metal garbage in the drawer, such as finished cans, discarded cans, metal bottle caps, and some unfinished cables, which are their prized possessions.</t>
         </is>
       </c>
-      <c r="H510" s="0" t="inlineStr">
+      <c r="H510" t="inlineStr">
         <is>
           <t>ඞВ ящике есть какой-то металлический мусор, например, готовые консервные банки, выброшенные консервные банки, металлические крышки от бутылок и несколько незаконченных кабелей, которые являются их ценным имуществом.</t>
         </is>
@@ -25374,7 +25374,7 @@
           <t>Land Exchange Agreement</t>
         </is>
       </c>
-      <c r="H511" s="0" t="inlineStr">
+      <c r="H511" t="inlineStr">
         <is>
           <t>ඞСоглашение об обмене землей</t>
         </is>
@@ -25434,7 +25434,7 @@
 And promised to complete the construction of supporting house after 5 years.</t>
         </is>
       </c>
-      <c r="H512" s="0" t="inlineStr">
+      <c r="H512" t="inlineStr">
         <is>
           <t>ඞВы нашли соглашение от 1899 года.
 В нем говорилось, что из-за катастрофического схода селей правительству необходимо объединить все оставшиеся земли, чтобы восстановить прилегающую территорию.
@@ -25503,7 +25503,7 @@
 There is a man lying in the bed quietly.</t>
         </is>
       </c>
-      <c r="H513" s="0" t="inlineStr">
+      <c r="H513" t="inlineStr">
         <is>
           <t>ඞВоздух вокруг наполнен гнилостными и влажными запахами.
 В узкой комнате есть несколько предметов мебели.
@@ -25555,7 +25555,7 @@
 I will get justice for you!</t>
         </is>
       </c>
-      <c r="H514" s="0" t="inlineStr">
+      <c r="H514" t="inlineStr">
         <is>
           <t>ඞДедушка…
 Я добьюсь справедливости для тебя!</t>
@@ -25598,7 +25598,7 @@
           <t>You can feel his sadness and resentment.</t>
         </is>
       </c>
-      <c r="H515" s="0" t="inlineStr">
+      <c r="H515" t="inlineStr">
         <is>
           <t>ඞВы можете почувствовать его печаль и негодование.</t>
         </is>
@@ -25640,7 +25640,7 @@
           <t>He took out the contract from the cabinet.</t>
         </is>
       </c>
-      <c r="H516" s="0" t="inlineStr">
+      <c r="H516" t="inlineStr">
         <is>
           <t>ඞОн достал контракт из шкафа.</t>
         </is>
@@ -25682,7 +25682,7 @@
           <t>Investigate the old man</t>
         </is>
       </c>
-      <c r="H517" s="0" t="inlineStr">
+      <c r="H517" t="inlineStr">
         <is>
           <t>ඞИсследуйте старика</t>
         </is>
@@ -25736,7 +25736,7 @@
 However, given its shriveled belly, it is also possible that it will die of starvation.</t>
         </is>
       </c>
-      <c r="H518" s="0" t="inlineStr">
+      <c r="H518" t="inlineStr">
         <is>
           <t>ඞОн был мертв, и, судя по степени окоченения, можно предположить, что он умер более 24 часов назад.
 Он умер в результате сильного обезвоживания, вызванного инфекцией и лихорадкой.
@@ -25780,7 +25780,7 @@
           <t>Have a good rest...</t>
         </is>
       </c>
-      <c r="H519" s="0" t="inlineStr">
+      <c r="H519" t="inlineStr">
         <is>
           <t>ඞЖелаю вам хорошо отдохнуть...</t>
         </is>
@@ -25822,7 +25822,7 @@
           <t>You find a folded amulet in the old man's gripped hand.</t>
         </is>
       </c>
-      <c r="H520" s="0" t="inlineStr">
+      <c r="H520" t="inlineStr">
         <is>
           <t>ඞВы находите сложенный амулет в сжатой руке старика.</t>
         </is>
@@ -25864,7 +25864,7 @@
           <t>He has been dead for a long time.</t>
         </is>
       </c>
-      <c r="H521" s="0" t="inlineStr">
+      <c r="H521" t="inlineStr">
         <is>
           <t>ඞОн уже давно мертв.</t>
         </is>
@@ -25906,7 +25906,7 @@
           <t>Dilapidated house</t>
         </is>
       </c>
-      <c r="H522" s="0" t="inlineStr">
+      <c r="H522" t="inlineStr">
         <is>
           <t>ඞПолуразрушенный дом</t>
         </is>
@@ -25954,7 +25954,7 @@
 Merry's name is much lower than Nana's, and the height mark for Nana's name remains at 152cm.</t>
         </is>
       </c>
-      <c r="H523" s="0" t="inlineStr">
+      <c r="H523" t="inlineStr">
         <is>
           <t>ඞВы замечаете на столбике кровати несколько выемок с именами Мерри и Наны, написанными на них.
 Имя Мерри намного ниже, чем Нана, и высота имени Наны остается на уровне 152 см.</t>
@@ -25997,7 +25997,7 @@
           <t>What is this?</t>
         </is>
       </c>
-      <c r="H524" s="0" t="inlineStr">
+      <c r="H524" t="inlineStr">
         <is>
           <t>ඞЧто это?</t>
         </is>
@@ -26065,7 +26065,7 @@
 Then there are a few big words: "Merry will always love Nana!"</t>
         </is>
       </c>
-      <c r="H525" s="0" t="inlineStr">
+      <c r="H525" t="inlineStr">
         <is>
           <t>ඞТы порылась под кроватью и обнаружила розовую поздравительную открытку с несколькими корявыми строчками, написанными на ней.
 Бабуля, сестренка, с днем рождения!
@@ -26111,7 +26111,7 @@
           <t>Investigate the Bed</t>
         </is>
       </c>
-      <c r="H526" s="0" t="inlineStr">
+      <c r="H526" t="inlineStr">
         <is>
           <t>ඞИсследуйте кровать</t>
         </is>
@@ -26153,7 +26153,7 @@
           <t>You look at the wall and find there are various shapes drawn on the wall, there are cats, rainbows, whales, and stars…</t>
         </is>
       </c>
-      <c r="H527" s="0" t="inlineStr">
+      <c r="H527" t="inlineStr">
         <is>
           <t>ඞВы смотрите на стену и обнаруживаете, что на ней нарисованы различные фигуры: кошки, радуги, киты и звезды…</t>
         </is>
@@ -26195,7 +26195,7 @@
           <t>Investigate the wall painting</t>
         </is>
       </c>
-      <c r="H528" s="0" t="inlineStr">
+      <c r="H528" t="inlineStr">
         <is>
           <t>ඞИсследуйте настенную роспись</t>
         </is>
@@ -26237,7 +26237,7 @@
           <t>She stared at the wall painting quietly for a long time and finally came back to her senses.</t>
         </is>
       </c>
-      <c r="H529" s="0" t="inlineStr">
+      <c r="H529" t="inlineStr">
         <is>
           <t>ඞОна долго молча смотрела на настенную роспись и наконец пришла в себя.</t>
         </is>
@@ -26279,7 +26279,7 @@
           <t>Can't make Nana wait too long…</t>
         </is>
       </c>
-      <c r="H530" s="0" t="inlineStr">
+      <c r="H530" t="inlineStr">
         <is>
           <t>ඞЯ не могу заставлять бабушку ждать слишком долго.…</t>
         </is>
@@ -26321,7 +26321,7 @@
           <t>You see a dagger under the pillow.</t>
         </is>
       </c>
-      <c r="H531" s="0" t="inlineStr">
+      <c r="H531" t="inlineStr">
         <is>
           <t>ඞТы видишь кинжал под подушкой.</t>
         </is>
@@ -26363,7 +26363,7 @@
           <t>North Street</t>
         </is>
       </c>
-      <c r="H532" s="0" t="inlineStr">
+      <c r="H532" t="inlineStr">
         <is>
           <t>ඞСеверная улица</t>
         </is>
@@ -26405,7 +26405,7 @@
           <t>We should look at Wende's situation first.</t>
         </is>
       </c>
-      <c r="H533" s="0" t="inlineStr">
+      <c r="H533" t="inlineStr">
         <is>
           <t>ඞСначала мы должны рассмотреть ситуацию с Венде.</t>
         </is>
@@ -26447,7 +26447,7 @@
           <t>This is Tonson's mansion, and you're at a loss for what to do when you see the heavy steel gate.</t>
         </is>
       </c>
-      <c r="H534" s="0" t="inlineStr">
+      <c r="H534" t="inlineStr">
         <is>
           <t>ඞЭто особняк Тонсона, и вы не знаете, что делать, когда видите тяжелые стальные ворота.</t>
         </is>
@@ -26489,7 +26489,7 @@
           <t>Ah, this... is this?</t>
         </is>
       </c>
-      <c r="H535" s="0" t="inlineStr">
+      <c r="H535" t="inlineStr">
         <is>
           <t>ඞАх, это... это и есть это?</t>
         </is>
@@ -26533,7 +26533,7 @@
           <t>The crazy white giant beast is stepping toward you and you cannot see any reason in its red eyes.</t>
         </is>
       </c>
-      <c r="H536" s="0" t="inlineStr">
+      <c r="H536" t="inlineStr">
         <is>
           <t>ඞБезумный белый гигантский зверь шагает к вам, и вы не видите никакого смысла в его красных глазах.</t>
         </is>
@@ -26575,7 +26575,7 @@
           <t>You see the spider monster and Ryan tearing at each other.</t>
         </is>
       </c>
-      <c r="H537" s="0" t="inlineStr">
+      <c r="H537" t="inlineStr">
         <is>
           <t>ඞВы видите, как паук-монстр и Райан рвут друг друга на части.</t>
         </is>
@@ -26618,7 +26618,7 @@
           <t>At last, Ryan killed the spider monster with an angry heavy blow. However, you can see that Ryan's strength was consumed a lot.</t>
         </is>
       </c>
-      <c r="H538" s="0" t="inlineStr">
+      <c r="H538" t="inlineStr">
         <is>
           <t>ඞВ конце концов, Райан убил монстра-паука сильным ударом. Однако вы можете видеть, что силы Райана были потрачены впустую.</t>
         </is>
@@ -26660,7 +26660,7 @@
           <t>The crazy white monster blocks in front of you. You are going to…</t>
         </is>
       </c>
-      <c r="H539" s="0" t="inlineStr">
+      <c r="H539" t="inlineStr">
         <is>
           <t>ඞБезумный белый монстр загораживает дорогу перед вами. Вы собираетесь…</t>
         </is>
@@ -26702,7 +26702,7 @@
           <t>[Run Away Quickly]</t>
         </is>
       </c>
-      <c r="H540" s="0" t="inlineStr">
+      <c r="H540" t="inlineStr">
         <is>
           <t>ඞ[Быстро убегай]</t>
         </is>
@@ -26744,7 +26744,7 @@
           <t>It didn't catch up…</t>
         </is>
       </c>
-      <c r="H541" s="0" t="inlineStr">
+      <c r="H541" t="inlineStr">
         <is>
           <t>ඞОн меня не догнал…</t>
         </is>
@@ -26786,7 +26786,7 @@
           <t>Ryan is weak now. You are going to…</t>
         </is>
       </c>
-      <c r="H542" s="0" t="inlineStr">
+      <c r="H542" t="inlineStr">
         <is>
           <t>ඞРайан сейчас слаб. Ты собираешься…</t>
         </is>
@@ -26828,7 +26828,7 @@
           <t>[Seize the chance and challenge]</t>
         </is>
       </c>
-      <c r="H543" s="0" t="inlineStr">
+      <c r="H543" t="inlineStr">
         <is>
           <t>ඞ[Воспользуйся шансом и брось вызов]</t>
         </is>
@@ -26870,7 +26870,7 @@
           <t>You followed Horn to North Street, where he came to a halt in front of a mansion | You noticed a heavy steel gate in front of you.</t>
         </is>
       </c>
-      <c r="H544" s="0" t="inlineStr">
+      <c r="H544" t="inlineStr">
         <is>
           <t>ඞВы последовали за Хорном на Северную улицу, где он остановился перед особняком, и заметили перед собой тяжелые стальные ворота.</t>
         </is>
@@ -26926,7 +26926,7 @@
 What a cute act, but his treasure will be wiped out today.</t>
         </is>
       </c>
-      <c r="H545" s="0" t="inlineStr">
+      <c r="H545" t="inlineStr">
         <is>
           <t>ඞТонсон - настоящий собственник и обожает коллекционировать предметы.
 Я также презираю чужие визиты, поэтому меры защиты от краж идеальны.
@@ -26970,7 +26970,7 @@
           <t>Horn took a remote control from his pocket.</t>
         </is>
       </c>
-      <c r="H546" s="0" t="inlineStr">
+      <c r="H546" t="inlineStr">
         <is>
           <t>ඞХорн достал из кармана пульт дистанционного управления.</t>
         </is>
@@ -27018,7 +27018,7 @@
 So I've been laying out some gifts for him before getting stuck in the cycle.</t>
         </is>
       </c>
-      <c r="H547" s="0" t="inlineStr">
+      <c r="H547" t="inlineStr">
         <is>
           <t>ඞТонсон всегда был для меня мишенью, которую я должен был привести в порядок.
 Поэтому я приготовил для него кое-какие подарки, пока не застрял в этом цикле.</t>
@@ -27061,7 +27061,7 @@
           <t>What you prepared were those stolen explosives!</t>
         </is>
       </c>
-      <c r="H548" s="0" t="inlineStr">
+      <c r="H548" t="inlineStr">
         <is>
           <t>ඞТо, что вы приготовили, было украденной взрывчаткой!</t>
         </is>
@@ -27151,7 +27151,7 @@
 Dude, cover your ears~</t>
         </is>
       </c>
-      <c r="H549" s="0" t="inlineStr">
+      <c r="H549" t="inlineStr">
         <is>
           <t>ඞВ конце концов, перед выходом на сцену обязательно должен быть эффектный фейерверк.
 Вечером 14-го я все спланировал.
@@ -27207,7 +27207,7 @@
 Everything around you is trembling, you can see tongues of fire erupting from Tonson's mansion, the screams of monsters in agony are interminable, and this thick gate is like a massive coffin covering the tomb.</t>
         </is>
       </c>
-      <c r="H550" s="0" t="inlineStr">
+      <c r="H550" t="inlineStr">
         <is>
           <t>ඞОн нажал на кнопку дистанционного управления, и вы услышали ужасный звук.
 Все вокруг вас дрожит, вы можете видеть языки пламени, вырывающиеся из особняка Тонсона, крики агонизирующих монстров бесконечны, а эти толстые ворота похожи на массивный гроб, закрывающий могилу.</t>
@@ -27250,7 +27250,7 @@
           <t>Horn looked at everything in front of him and said with emotion:</t>
         </is>
       </c>
-      <c r="H551" s="0" t="inlineStr">
+      <c r="H551" t="inlineStr">
         <is>
           <t>ඞХорн посмотрел на все, что было перед ним, и с чувством сказал:</t>
         </is>
@@ -27304,7 +27304,7 @@
 "I wish I could set off fireworks every day." </t>
         </is>
       </c>
-      <c r="H552" s="0" t="inlineStr">
+      <c r="H552" t="inlineStr">
         <is>
           <t>ඞ"Я не зря рисковал своей жизнью, чтобы раздобыть эти промышленные взрывчатые вещества". 
 "После того, как их так долго прятали, они наконец-то пригодились".
@@ -27348,7 +27348,7 @@
           <t>And while he was admiring the "beautiful scenery" in front of him, you noticed a lot of cracks in the ground, and you knew something was wrong.</t>
         </is>
       </c>
-      <c r="H553" s="0" t="inlineStr">
+      <c r="H553" t="inlineStr">
         <is>
           <t>ඞИ пока он любовался "прекрасным пейзажем" перед собой, вы заметили множество трещин в земле и поняли, что что-то не так.</t>
         </is>
@@ -27390,7 +27390,7 @@
           <t>Horn! RUN! It is about to collapse! …</t>
         </is>
       </c>
-      <c r="H554" s="0" t="inlineStr">
+      <c r="H554" t="inlineStr">
         <is>
           <t>ඞГудок! беги! Он вот-вот рухнет! …</t>
         </is>
@@ -27432,7 +27432,7 @@
           <t>When he heard your words, Horn instantly ran away and the soil under your feet cracked like ice and you fell into the cracks.</t>
         </is>
       </c>
-      <c r="H555" s="0" t="inlineStr">
+      <c r="H555" t="inlineStr">
         <is>
           <t>ඞУслышав твои слова, Хорн мгновенно убежал, и почва у тебя под ногами треснула, как лед, и ты провалился в трещины.</t>
         </is>
@@ -27474,7 +27474,7 @@
           <t>Time is reshaped again, and this time you wake up not in the hotel.</t>
         </is>
       </c>
-      <c r="H556" s="0" t="inlineStr">
+      <c r="H556" t="inlineStr">
         <is>
           <t>ඞВремя снова меняется, и на этот раз вы просыпаетесь не в отеле.</t>
         </is>
@@ -27528,7 +27528,7 @@
 Horn appears to have vanished yesterday.</t>
         </is>
       </c>
-      <c r="H557" s="0" t="inlineStr">
+      <c r="H557" t="inlineStr">
         <is>
           <t>ඞКак могло это изменение формы попасть сюда…
 Белый туман исчез?! - отлично!
@@ -27572,7 +27572,7 @@
           <t>Let's go see how Wende is doing.</t>
         </is>
       </c>
-      <c r="H558" s="0" t="inlineStr">
+      <c r="H558" t="inlineStr">
         <is>
           <t>ඞПойдем посмотрим, как там Венде.</t>
         </is>
@@ -27614,7 +27614,7 @@
           <t>Ryan</t>
         </is>
       </c>
-      <c r="H559" s="0" t="inlineStr">
+      <c r="H559" t="inlineStr">
         <is>
           <t>ඞРайан</t>
         </is>
@@ -27662,7 +27662,7 @@
 You see a black seed falling on the ground.</t>
         </is>
       </c>
-      <c r="H560" s="0" t="inlineStr">
+      <c r="H560" t="inlineStr">
         <is>
           <t>ඞРайан побежден вами. И его фигура исчезает у вас на глазах.
 Вы видите, как на землю падает черное семечко.</t>
@@ -27705,7 +27705,7 @@
           <t>East Street</t>
         </is>
       </c>
-      <c r="H561" s="0" t="inlineStr">
+      <c r="H561" t="inlineStr">
         <is>
           <t>ඞВосточная улица</t>
         </is>
@@ -27747,7 +27747,7 @@
           <t>Punishment Ordinance</t>
         </is>
       </c>
-      <c r="H562" s="0" t="inlineStr">
+      <c r="H562" t="inlineStr">
         <is>
           <t>ඞПостановление о наказании</t>
         </is>
@@ -27808,7 +27808,7 @@
 ※If the violator cannot pay the fine, he or she can also choose to work in Tonson's factory to pay the fine, in addition, to going to prison.</t>
         </is>
       </c>
-      <c r="H563" s="0" t="inlineStr">
+      <c r="H563" t="inlineStr">
         <is>
           <t>ඞ"Полицейский участок Таунсенда, пожалуйста, не входите".
 На доске объявлений размещены некоторые правила о наказаниях.
@@ -27853,7 +27853,7 @@
           <t>The sign said that the landmarks are on the north and east. On the north side, go to the Silent Cliff, and on the east side, go to the Worker's Home.</t>
         </is>
       </c>
-      <c r="H564" s="0" t="inlineStr">
+      <c r="H564" t="inlineStr">
         <is>
           <t>ඞНа указателе было написано, что ориентиры находятся на севере и востоке. С северной стороны идите к Безмолвному утесу, а с восточной - к Дому рабочего.</t>
         </is>
@@ -27895,7 +27895,7 @@
           <t>Administration Hall</t>
         </is>
       </c>
-      <c r="H565" s="0" t="inlineStr">
+      <c r="H565" t="inlineStr">
         <is>
           <t>ඞАдминистративный зал</t>
         </is>
@@ -27937,7 +27937,7 @@
           <t>Need to find Ryan's profile first...</t>
         </is>
       </c>
-      <c r="H566" s="0" t="inlineStr">
+      <c r="H566" t="inlineStr">
         <is>
           <t>ඞСначала нужно найти профиль Райана...</t>
         </is>
@@ -27979,7 +27979,7 @@
           <t>Interrogation Notes</t>
         </is>
       </c>
-      <c r="H567" s="0" t="inlineStr">
+      <c r="H567" t="inlineStr">
         <is>
           <t>ඞЗаписи допроса</t>
         </is>
@@ -28043,7 +28043,7 @@
 Address: No. 21 South Street.</t>
         </is>
       </c>
-      <c r="H568" s="0" t="inlineStr">
+      <c r="H568" t="inlineStr">
         <is>
           <t>ඞВремя: с 19:30 13 января 1920 года по 19:54 13 января 1920 года.
 Местонахождение: Секция безопасности полицейского участка Таунсенд
@@ -28119,7 +28119,7 @@
 A: No. 21 South Street.</t>
         </is>
       </c>
-      <c r="H569" s="0" t="inlineStr">
+      <c r="H569" t="inlineStr">
         <is>
           <t>ඞВ: Мы следователи отдела безопасности полицейского участка (предъявите документы). Сегодня мы задаем вам вопросы в соответствии с законом, и вы должны отвечать правдиво.
 О: Конечно.
@@ -28184,7 +28184,7 @@
 A: No, except this time I always work in the factory.</t>
         </is>
       </c>
-      <c r="H570" s="0" t="inlineStr">
+      <c r="H570" t="inlineStr">
         <is>
           <t>ඞВ: Вы знаете, почему мы вас задержали?
 О: Да, я украл лекарство…
@@ -28252,7 +28252,7 @@
 A: Yes.</t>
         </is>
       </c>
-      <c r="H571" s="0" t="inlineStr">
+      <c r="H571" t="inlineStr">
         <is>
           <t>ඞВ: Не волнуйтесь, пожалуйста, объясните, чем вы занимались с 6:00 до 8:00 12 января.
 О: Вечером 12-го? В тот день я отдыхал на фабрике. Я вернулся домой в 5 часов вечера и обнаружил, что мой дедушка все это время лежал в постели. После этого я искал врача, но никто из них не захотел приехать на Саут-стрит.
@@ -28334,7 +28334,7 @@
 January 13, 1920</t>
         </is>
       </c>
-      <c r="H572" s="0" t="inlineStr">
+      <c r="H572" t="inlineStr">
         <is>
           <t>ඞВ: Вы знаете о пропаже пороха на складе фабрики?
 О: Я не знаю. Я отпросился в отпуск после того, как заболел мой дедушка.
@@ -28382,7 +28382,7 @@
           <t>Read the Record</t>
         </is>
       </c>
-      <c r="H573" s="0" t="inlineStr">
+      <c r="H573" t="inlineStr">
         <is>
           <t>ඞПрочтите запись</t>
         </is>
@@ -28424,7 +28424,7 @@
           <t>Use the crowbar</t>
         </is>
       </c>
-      <c r="H574" s="0" t="inlineStr">
+      <c r="H574" t="inlineStr">
         <is>
           <t>ඞИспользуй лом</t>
         </is>
@@ -28466,7 +28466,7 @@
           <t>Use Key</t>
         </is>
       </c>
-      <c r="H575" s="0" t="inlineStr">
+      <c r="H575" t="inlineStr">
         <is>
           <t>ඞИспользовать ключ</t>
         </is>
@@ -28508,7 +28508,7 @@
           <t>Go home… Take care of… Grandpa…</t>
         </is>
       </c>
-      <c r="H576" s="0" t="inlineStr">
+      <c r="H576" t="inlineStr">
         <is>
           <t>ඞПойти домой… Заботиться о… Дедушка…</t>
         </is>
@@ -28550,7 +28550,7 @@
           <t>Open the fence</t>
         </is>
       </c>
-      <c r="H577" s="0" t="inlineStr">
+      <c r="H577" t="inlineStr">
         <is>
           <t>ඞОткрой забор</t>
         </is>
@@ -28592,7 +28592,7 @@
           <t>The locked bars form a containment cell.</t>
         </is>
       </c>
-      <c r="H578" s="0" t="inlineStr">
+      <c r="H578" t="inlineStr">
         <is>
           <t>ඞЗапертые прутья образуют защитную камеру.</t>
         </is>
@@ -28634,7 +28634,7 @@
           <t>Signature List</t>
         </is>
       </c>
-      <c r="H579" s="0" t="inlineStr">
+      <c r="H579" t="inlineStr">
         <is>
           <t>ඞСписок подписей</t>
         </is>
@@ -28688,7 +28688,7 @@
 The start time is 10:00 am and the end time is 16:00.</t>
         </is>
       </c>
-      <c r="H580" s="0" t="inlineStr">
+      <c r="H580" t="inlineStr">
         <is>
           <t>ඞВы видите дюжину имен в списке.
 Но подпись сделана одним и тем же человеком.
@@ -28732,7 +28732,7 @@
           <t>Don't these people have to work?</t>
         </is>
       </c>
-      <c r="H581" s="0" t="inlineStr">
+      <c r="H581" t="inlineStr">
         <is>
           <t>ඞРазве этим людям не нужно работать?</t>
         </is>
@@ -28774,7 +28774,7 @@
           <t>Read the Roster</t>
         </is>
       </c>
-      <c r="H582" s="0" t="inlineStr">
+      <c r="H582" t="inlineStr">
         <is>
           <t>ඞОзнакомьтесь с составом</t>
         </is>
@@ -28816,7 +28816,7 @@
           <t>Slogan</t>
         </is>
       </c>
-      <c r="H583" s="0" t="inlineStr">
+      <c r="H583" t="inlineStr">
         <is>
           <t>ඞЛозунг</t>
         </is>
@@ -28876,7 +28876,7 @@
 "If you violate your oath, you will be punished severely! I vowed."</t>
         </is>
       </c>
-      <c r="H584" s="0" t="inlineStr">
+      <c r="H584" t="inlineStr">
         <is>
           <t>ඞ"Настоящим я клянусь, что буду выполнять свой долг"
 "Прилагать усилия, проявлять смирение, справедливость и следовать закону".
@@ -28921,7 +28921,7 @@
           <t>Read the Slogan</t>
         </is>
       </c>
-      <c r="H585" s="0" t="inlineStr">
+      <c r="H585" t="inlineStr">
         <is>
           <t>ඞПрочтите слоган</t>
         </is>
@@ -28969,7 +28969,7 @@
 With a leisurely look.</t>
         </is>
       </c>
-      <c r="H586" s="0" t="inlineStr">
+      <c r="H586" t="inlineStr">
         <is>
           <t>ඞВы видите, что Хорн спит на скамейке.
 С ленивым видом.</t>
@@ -29012,7 +29012,7 @@
           <t>Why are you here now?</t>
         </is>
       </c>
-      <c r="H587" s="0" t="inlineStr">
+      <c r="H587" t="inlineStr">
         <is>
           <t>ඞПочему ты сейчас здесь?</t>
         </is>
@@ -29054,7 +29054,7 @@
           <t>He stretched.</t>
         </is>
       </c>
-      <c r="H588" s="0" t="inlineStr">
+      <c r="H588" t="inlineStr">
         <is>
           <t>ඞОн потянулся.</t>
         </is>
@@ -29102,7 +29102,7 @@
 Don't expect me to find anything useful.</t>
         </is>
       </c>
-      <c r="H589" s="0" t="inlineStr">
+      <c r="H589" t="inlineStr">
         <is>
           <t>ඞЗдесь слишком много информации.
 Не ждите, что я найду что-то полезное.</t>
@@ -29145,7 +29145,7 @@
           <t>Move Now</t>
         </is>
       </c>
-      <c r="H590" s="0" t="inlineStr">
+      <c r="H590" t="inlineStr">
         <is>
           <t>ඞДвигайся сейчас же</t>
         </is>
@@ -29187,7 +29187,7 @@
           <t>You had just entered the police station's corridor when you noticed Horn about to leave and were stopped by a few spider monsters.</t>
         </is>
       </c>
-      <c r="H591" s="0" t="inlineStr">
+      <c r="H591" t="inlineStr">
         <is>
           <t>ඞВы только что вошли в коридор полицейского участка, когда заметили, что Хорн собирается уходить, и были остановлены несколькими паукообразными монстрами.</t>
         </is>
@@ -29229,7 +29229,7 @@
           <t>Just in time~just in time to use the new toy.</t>
         </is>
       </c>
-      <c r="H592" s="0" t="inlineStr">
+      <c r="H592" t="inlineStr">
         <is>
           <t>ඞКак раз вовремя - как раз вовремя, чтобы воспользоваться новой игрушкой.</t>
         </is>
@@ -29271,7 +29271,7 @@
           <t>Those monsters have become difficult to deal with</t>
         </is>
       </c>
-      <c r="H593" s="0" t="inlineStr">
+      <c r="H593" t="inlineStr">
         <is>
           <t>ඞС этими монстрами стало трудно иметь дело</t>
         </is>
@@ -29313,7 +29313,7 @@
           <t>For safety, should we act together?</t>
         </is>
       </c>
-      <c r="H594" s="0" t="inlineStr">
+      <c r="H594" t="inlineStr">
         <is>
           <t>ඞВ целях безопасности, должны ли мы действовать сообща?</t>
         </is>
@@ -29361,7 +29361,7 @@
 I am still good at dealing with problems alone.</t>
         </is>
       </c>
-      <c r="H595" s="0" t="inlineStr">
+      <c r="H595" t="inlineStr">
         <is>
           <t>ඞВсего несколько пауков в округе - это все равно что присматривать друг за другом.
 Я по-прежнему умею справляться с проблемами в одиночку.</t>
@@ -29416,7 +29416,7 @@
 By the way, how did these monsters come here…</t>
         </is>
       </c>
-      <c r="H596" s="0" t="inlineStr">
+      <c r="H596" t="inlineStr">
         <is>
           <t>ඞЗабудь об этом, не нужно заставлять.
 ...
@@ -29460,7 +29460,7 @@
           <t>Tayler</t>
         </is>
       </c>
-      <c r="H597" s="0" t="inlineStr">
+      <c r="H597" t="inlineStr">
         <is>
           <t>ඞТейлер</t>
         </is>
@@ -29502,7 +29502,7 @@
           <t>Office</t>
         </is>
       </c>
-      <c r="H598" s="0" t="inlineStr">
+      <c r="H598" t="inlineStr">
         <is>
           <t>ඞОфис</t>
         </is>
@@ -29544,7 +29544,7 @@
           <t>Tax Statement</t>
         </is>
       </c>
-      <c r="H599" s="0" t="inlineStr">
+      <c r="H599" t="inlineStr">
         <is>
           <t>ඞНалоговый отчет</t>
         </is>
@@ -29598,7 +29598,7 @@
 The cupboards were spotless and appeared to be cleaned regularly.</t>
         </is>
       </c>
-      <c r="H600" s="0" t="inlineStr">
+      <c r="H600" t="inlineStr">
         <is>
           <t>ඞСтопка документов была аккуратно уложена в шкаф, а сам шкаф был заперт на замок с изысканными узорами.
 По сравнению с другими шкафами, этот шкаф слишком роскошный. На передней панели шкафа имеется деревянная резная табличка с надписью "Налог Таунсенда".
@@ -29654,7 +29654,7 @@
 And there are huge taxes levied on other types of factories, and you see that none of these factories have been taxed for more than a year.</t>
         </is>
       </c>
-      <c r="H601" s="0" t="inlineStr">
+      <c r="H601" t="inlineStr">
         <is>
           <t>ඞЭто налоговые отчеты Таунсенда за последние несколько лет. Среди них самая крупная экспортная сделка приходится на фабрику Тонсона. Он заработал огромное состояние, экспортируя ароматические свечи "Мердер".
 Но крупным налогоплательщиком в городе является не сам Тонсон, он пользуется рядом налоговых льгот.
@@ -29698,7 +29698,7 @@
           <t>No wonder locals can only choose Tonson's factory</t>
         </is>
       </c>
-      <c r="H602" s="0" t="inlineStr">
+      <c r="H602" t="inlineStr">
         <is>
           <t>ඞНеудивительно, что местные жители могут выбрать только фабрику Тонсона</t>
         </is>
@@ -29740,7 +29740,7 @@
           <t>Read the Record</t>
         </is>
       </c>
-      <c r="H603" s="0" t="inlineStr">
+      <c r="H603" t="inlineStr">
         <is>
           <t>ඞПрочтите запись</t>
         </is>
@@ -29782,7 +29782,7 @@
           <t>Reconstruction Plan</t>
         </is>
       </c>
-      <c r="H604" s="0" t="inlineStr">
+      <c r="H604" t="inlineStr">
         <is>
           <t>ඞПлан реконструкции</t>
         </is>
@@ -29836,7 +29836,7 @@
 Most of the comments are objections.</t>
         </is>
       </c>
-      <c r="H605" s="0" t="inlineStr">
+      <c r="H605" t="inlineStr">
         <is>
           <t>ඞНа обложке написано: "План реконструкции Таунсенда".
 Вы видите множество комментариев, под каждым из которых стоит подпись "Тонсон".
@@ -29880,7 +29880,7 @@
           <t>Against the digging of deep wells! If there is a lack of water, we can build pipelines to connect water sources down the mountain.</t>
         </is>
       </c>
-      <c r="H606" s="0" t="inlineStr">
+      <c r="H606" t="inlineStr">
         <is>
           <t>ඞПротив рытья глубоких колодцев! Если возникнет нехватка воды, мы можем построить трубопроводы, чтобы соединить источники воды ниже по склону.</t>
         </is>
@@ -29922,7 +29922,7 @@
           <t>Against the reconstruction of South Street, the cost is too high, and proper conflict will facilitate the stability of the town structure.</t>
         </is>
       </c>
-      <c r="H607" s="0" t="inlineStr">
+      <c r="H607" t="inlineStr">
         <is>
           <t>ඞВ отличие от реконструкции Саут-стрит, затраты на нее слишком высоки, а надлежащий конфликт будет способствовать стабильности городской структуры.</t>
         </is>
@@ -29964,7 +29964,7 @@
           <t>Against the construction of welfare home, our town is the largest welfare home!</t>
         </is>
       </c>
-      <c r="H608" s="0" t="inlineStr">
+      <c r="H608" t="inlineStr">
         <is>
           <t>ඞНесмотря на строительство дома социального обеспечения, наш город является крупнейшим домом социального обеспечения!</t>
         </is>
@@ -30006,7 +30006,7 @@
           <t>There is a stack of cheques beside it. You are going to…</t>
         </is>
       </c>
-      <c r="H609" s="0" t="inlineStr">
+      <c r="H609" t="inlineStr">
         <is>
           <t>ඞРядом с ним лежит пачка чеков. Вы собираетесь…</t>
         </is>
@@ -30048,7 +30048,7 @@
           <t>[Take it away]</t>
         </is>
       </c>
-      <c r="H610" s="0" t="inlineStr">
+      <c r="H610" t="inlineStr">
         <is>
           <t>ඞ[Убери это]</t>
         </is>
@@ -30090,7 +30090,7 @@
           <t>[Give up taking it]</t>
         </is>
       </c>
-      <c r="H611" s="0" t="inlineStr">
+      <c r="H611" t="inlineStr">
         <is>
           <t>ඞ[Откажись от этого]</t>
         </is>
@@ -30132,7 +30132,7 @@
           <t>Read the Plan</t>
         </is>
       </c>
-      <c r="H612" s="0" t="inlineStr">
+      <c r="H612" t="inlineStr">
         <is>
           <t>ඞОзнакомьтесь с планом</t>
         </is>
@@ -30180,7 +30180,7 @@
 He appealed in legal form to establish the protection of children's rights and implement family assistance programs for orphans, children from single-parent families or families with disabled parents.</t>
         </is>
       </c>
-      <c r="H613" s="0" t="inlineStr">
+      <c r="H613" t="inlineStr">
         <is>
           <t>ඞВы находите проект Закона о социальном обеспечении от 1910 года, вы видите, что проект подписан Райаном.
 Он обратился в юридическом порядке с призывом обеспечить защиту прав детей и внедрить программы помощи семьям для сирот, детей из неполных семей или семей с родителями-инвалидами.</t>
@@ -30223,7 +30223,7 @@
           <t>The key content mentioned in it is that children's spiritual and mental health will have a profound impact on social development. If children's growth environment is protected, it will greatly improve the social environment and reduce social problems.</t>
         </is>
       </c>
-      <c r="H614" s="0" t="inlineStr">
+      <c r="H614" t="inlineStr">
         <is>
           <t>ඞОсновное содержание, упомянутое в нем, заключается в том, что духовное и психическое здоровье детей окажет глубокое влияние на социальное развитие. Если обеспечить защиту условий для роста детей, это значительно улучшит социальную среду и уменьшит социальные проблемы.</t>
         </is>
@@ -30271,7 +30271,7 @@
 However, only one adoption document was approved. The approval date was 1914. Merry was the object of funding and Ryan was the signatory.</t>
         </is>
       </c>
-      <c r="H615" s="0" t="inlineStr">
+      <c r="H615" t="inlineStr">
         <is>
           <t>ඞЗатем вы найдете бланк заявления на усыновление со списком Мерри, Наны и других сирот.
 Однако был одобрен только один документ об усыновлении. Дата утверждения - 1914 год. Мерри была объектом финансирования, а Райан - подписантом.</t>
@@ -30320,7 +30320,7 @@
 The purpose is to solve the problem of social conflict by improving the growth environment of children.</t>
         </is>
       </c>
-      <c r="H616" s="0" t="inlineStr">
+      <c r="H616" t="inlineStr">
         <is>
           <t>ඞЭто политический документ, который иллюстрирует ряд изменений в политике, касающихся детей.
 Цель - решить проблему социальных конфликтов путем улучшения условий для роста детей.</t>
@@ -30363,7 +30363,7 @@
           <t>Read the Files</t>
         </is>
       </c>
-      <c r="H617" s="0" t="inlineStr">
+      <c r="H617" t="inlineStr">
         <is>
           <t>ඞПрочитайте файлы</t>
         </is>
@@ -30405,7 +30405,7 @@
           <t>Historical Archives</t>
         </is>
       </c>
-      <c r="H618" s="0" t="inlineStr">
+      <c r="H618" t="inlineStr">
         <is>
           <t>ඞИсторические архивы</t>
         </is>
@@ -30453,7 +30453,7 @@
 In March 1890, a rare geological disaster caused a landslide to bury a large amount of land and houses. More than 90% of the town's population is dead or missing.</t>
         </is>
       </c>
-      <c r="H619" s="0" t="inlineStr">
+      <c r="H619" t="inlineStr">
         <is>
           <t>ඞИз-за редких геологических катастроф данные о городе до 1890 года больше недоступны.
 В марте 1890 года редкая геологическая катастрофа вызвала оползень, который уничтожил большое количество земель и домов. Более 90% населения города погибло или пропало без вести.</t>
@@ -30502,7 +30502,7 @@
 The town of Dunwich re-planned its land in November 1901.</t>
         </is>
       </c>
-      <c r="H620" s="0" t="inlineStr">
+      <c r="H620" t="inlineStr">
         <is>
           <t>ඞГород был восстановлен в сентябре 1899 года после того, как правительство собрало средства на земельных аукционах.
 В ноябре 1901 года Данвич перепланировал свои земли.</t>
@@ -30551,7 +30551,7 @@
 Townsend Town began a reconstruction plan in August 1915 to expand the town's functions and convert the original residential area into a factory...</t>
         </is>
       </c>
-      <c r="H621" s="0" t="inlineStr">
+      <c r="H621" t="inlineStr">
         <is>
           <t>ඞРеконструкция Данвич-Тауна была завершена в июне 1903 года. В это же время был построен первый жилой район на Норт-стрит, который был переименован в Таунсенд-Таун в честь поддержки, оказанной мистером Тонсоном работам по реконструкции.
 В августе 1915 года Таунсенд-Таун приступил к реализации плана реконструкции, направленного на расширение функций города и превращение первоначального жилого района в фабрику...</t>
@@ -30596,7 +30596,7 @@
           <t>There are many old files in the carton. You can look through some of them casually. They are useless files.</t>
         </is>
       </c>
-      <c r="H622" s="0" t="inlineStr">
+      <c r="H622" t="inlineStr">
         <is>
           <t>ඞВ картонной коробке много старых файлов. Вы можете просмотреть некоторые из них случайно. Это бесполезные файлы.</t>
         </is>
@@ -30638,7 +30638,7 @@
           <t>Read Archives</t>
         </is>
       </c>
-      <c r="H623" s="0" t="inlineStr">
+      <c r="H623" t="inlineStr">
         <is>
           <t>ඞЧитать архивы</t>
         </is>
@@ -30680,7 +30680,7 @@
           <t>"We need struggle"</t>
         </is>
       </c>
-      <c r="H624" s="0" t="inlineStr">
+      <c r="H624" t="inlineStr">
         <is>
           <t>ඞ"Нам нужна борьба"</t>
         </is>
@@ -30728,7 +30728,7 @@
 Every person in this world wishes to be successful, to live a better life, and to be respected. Let me ask you this: how can you achieve success if you don't put in more effort and time than others?</t>
         </is>
       </c>
-      <c r="H625" s="0" t="inlineStr">
+      <c r="H625" t="inlineStr">
         <is>
           <t>ඞТема борьбы в настоящее время является актуальной в городе.
 Каждый человек в этом мире хочет быть успешным, жить лучше и пользоваться уважением. Позвольте мне спросить вас: как вы можете добиться успеха, если не прилагаете больше усилий и времени, чем другие?</t>
@@ -30777,7 +30777,7 @@
 So today Townsend Town can be built like this, I think it is a fortune for us to work like this.</t>
         </is>
       </c>
-      <c r="H626" s="0" t="inlineStr">
+      <c r="H626" t="inlineStr">
         <is>
           <t>ඞМногие люди сталкиваются с трудностями в этом мире. Многие люди работают от 16 до 18 часов в день. Есть много людей, которые работают усерднее, дольше и умнее нас. Не у всех людей, которые борются за выживание, есть возможность сделать что-то значимое и результативное и ощутить чувство выполненного долга.
 Итак, сегодня Таунсенд-Таун может быть построен таким образом, и я думаю, что для нас большая удача работать таким образом.</t>
@@ -30822,7 +30822,7 @@
           <t>Think about the people who have no job, think about the people whose shops may close tomorrow, think about the people who have made a lot of efforts but are useless...Compared with them, we are very lucky.</t>
         </is>
       </c>
-      <c r="H627" s="0" t="inlineStr">
+      <c r="H627" t="inlineStr">
         <is>
           <t>ඞПодумайте о людях, у которых нет работы, подумайте о людях, чьи магазины завтра могут закрыться, подумайте о людях, которые приложили много усилий, но оказались бесполезными...По сравнению с ними нам очень повезло.</t>
         </is>
@@ -30870,7 +30870,7 @@
 This requires struggle.</t>
         </is>
       </c>
-      <c r="H628" s="0" t="inlineStr">
+      <c r="H628" t="inlineStr">
         <is>
           <t>ඞМногие люди просто хотят купить машину и дом для своих родителей, что очень важно, но я думаю, что у вас должен быть этот идеал. Вы проработали в Таунсенде 30 лет и можете заниматься тем, чем хотите. Это хорошо - помогать своим детям стать более удачливыми и помогать себе стать более удачливым.
 Это требует борьбы.</t>
@@ -30913,7 +30913,7 @@
           <t>Read the Brochure</t>
         </is>
       </c>
-      <c r="H629" s="0" t="inlineStr">
+      <c r="H629" t="inlineStr">
         <is>
           <t>ඞПрочтите брошюру</t>
         </is>
@@ -30961,7 +30961,7 @@
 However, on the notes besides, the lottery result is written in the marking column of the internal number.</t>
         </is>
       </c>
-      <c r="H630" s="0" t="inlineStr">
+      <c r="H630" t="inlineStr">
         <is>
           <t>ඞЭто объявление о лотерее еще не было опубликовано, и выигрышный номер не был указан.
 Однако, кроме того, в примечаниях результат лотереи указан в графе для обозначения внутреннего номера.</t>
@@ -31004,7 +31004,7 @@
           <t>It seems that I know why I have never won the prize.</t>
         </is>
       </c>
-      <c r="H631" s="0" t="inlineStr">
+      <c r="H631" t="inlineStr">
         <is>
           <t>ඞКажется, я знаю, почему я никогда не выигрывал приз.</t>
         </is>
@@ -31046,7 +31046,7 @@
           <t>You look at the number of the lottery in your pocket and fill it in the first prize column.</t>
         </is>
       </c>
-      <c r="H632" s="0" t="inlineStr">
+      <c r="H632" t="inlineStr">
         <is>
           <t>ඞВы смотрите на номер лотерейного билета у себя в кармане и вписываете его в графу первого приза.</t>
         </is>
@@ -31088,7 +31088,7 @@
           <t>Read Announcement</t>
         </is>
       </c>
-      <c r="H633" s="0" t="inlineStr">
+      <c r="H633" t="inlineStr">
         <is>
           <t>ඞПрочитать объявление</t>
         </is>
@@ -31130,7 +31130,7 @@
           <t>Broadcasting</t>
         </is>
       </c>
-      <c r="H634" s="0" t="inlineStr">
+      <c r="H634" t="inlineStr">
         <is>
           <t>ඞТрансляция</t>
         </is>
@@ -31184,7 +31184,7 @@
 You searched for a long time and finally put a tape marked as a concert to play.</t>
         </is>
       </c>
-      <c r="H635" s="0" t="inlineStr">
+      <c r="H635" t="inlineStr">
         <is>
           <t>ඞВы успешно активировали устройство и теперь готовы вставить кассету.
 Вы открываете коробку рядом с ним, в которой находятся кассеты с развлекательным контентом, таким как музыка, ток-шоу, выступления, а также некоторые жизненные навыки и научные данные.
@@ -31228,7 +31228,7 @@
           <t>You press a button, but then you hear a clicking sound and smell the burning smell.</t>
         </is>
       </c>
-      <c r="H636" s="0" t="inlineStr">
+      <c r="H636" t="inlineStr">
         <is>
           <t>ඞВы нажимаете на кнопку, но затем слышите щелчок и чувствуете запах гари.</t>
         </is>
@@ -31270,7 +31270,7 @@
           <t>Using the broadcast machine</t>
         </is>
       </c>
-      <c r="H637" s="0" t="inlineStr">
+      <c r="H637" t="inlineStr">
         <is>
           <t>ඞИспользование широковещательной машины</t>
         </is>
@@ -31324,7 +31324,7 @@
 "Don't touch anything! Or you should bear the consequences!"</t>
         </is>
       </c>
-      <c r="H638" s="0" t="inlineStr">
+      <c r="H638" t="inlineStr">
         <is>
           <t>ඞПохоже, это очень дорогой аппарат.
 Операция выглядит очень сложной, и ниже также есть примечание.
@@ -31368,7 +31368,7 @@
           <t>Police Officer Office</t>
         </is>
       </c>
-      <c r="H639" s="0" t="inlineStr">
+      <c r="H639" t="inlineStr">
         <is>
           <t>ඞОфис сотрудника полиции</t>
         </is>
@@ -31410,7 +31410,7 @@
           <t>Open safe</t>
         </is>
       </c>
-      <c r="H640" s="0" t="inlineStr">
+      <c r="H640" t="inlineStr">
         <is>
           <t>ඞОткрытый сейф</t>
         </is>
@@ -31452,7 +31452,7 @@
           <t>Thick safe with a mechanical lock that can only be opened with a specific key.</t>
         </is>
       </c>
-      <c r="H641" s="0" t="inlineStr">
+      <c r="H641" t="inlineStr">
         <is>
           <t>ඞМассивный сейф с механическим замком, который можно открыть только специальным ключом.</t>
         </is>
@@ -31500,7 +31500,7 @@
 Just like it is waiting for people to read.</t>
         </is>
       </c>
-      <c r="H642" s="0" t="inlineStr">
+      <c r="H642" t="inlineStr">
         <is>
           <t>ඞНа столе лежит старая записная книжка.
 Она как будто ждет, когда ее прочтут другие.</t>
@@ -31543,7 +31543,7 @@
           <t>Ryan's Notebook</t>
         </is>
       </c>
-      <c r="H643" s="0" t="inlineStr">
+      <c r="H643" t="inlineStr">
         <is>
           <t>ඞЗаписная книжка Райана</t>
         </is>
@@ -31603,7 +31603,7 @@
 This way I can apply for government benefits and my children can live better.</t>
         </is>
       </c>
-      <c r="H644" s="0" t="inlineStr">
+      <c r="H644" t="inlineStr">
         <is>
           <t>ඞX, X, 1912 г.
 Главным приоритетом при наборе государственных служащих в городе является "соответствие требованиям".
@@ -31668,7 +31668,7 @@
 The only requirement is that you be available on call and cannot leave town.</t>
         </is>
       </c>
-      <c r="H645" s="0" t="inlineStr">
+      <c r="H645" t="inlineStr">
         <is>
           <t>ඞX, X, 1912 год
 Боже! Условия жизни государственных служащих просто возмутительны!
@@ -31737,7 +31737,7 @@
 I will not abandon the children under any circumstances!</t>
         </is>
       </c>
-      <c r="H646" s="0" t="inlineStr">
+      <c r="H646" t="inlineStr">
         <is>
           <t>ඞX, X, 1913 год
 Окружающий порядок стремительно ухудшается.
@@ -31807,7 +31807,7 @@
 I can't let Merry stay with those bastards any longer.</t>
         </is>
       </c>
-      <c r="H647" s="0" t="inlineStr">
+      <c r="H647" t="inlineStr">
         <is>
           <t>ඞX, X, 1914 год
 Эти ублюдки заслуживают смерти!
@@ -31865,7 +31865,7 @@
 I swear, I'm going to clean up all the policing issues in town!</t>
         </is>
       </c>
-      <c r="H648" s="0" t="inlineStr">
+      <c r="H648" t="inlineStr">
         <is>
           <t>ඞX, X, 1914
 Сегодня наконец-то вступили в силу кадровые перестановки.
@@ -31921,7 +31921,7 @@
 However the notes changed in 1918.</t>
         </is>
       </c>
-      <c r="H649" s="0" t="inlineStr">
+      <c r="H649" t="inlineStr">
         <is>
           <t>ඞ1914-1918
 В блокноте подробно описан опыт Райана в ведении дел. Под каждым случаем есть анализ ситуации, а также исправления и обзоры неправильного поведения.
@@ -31983,7 +31983,7 @@
 Then he began to focus on the record of a criminal named Horn.</t>
         </is>
       </c>
-      <c r="H650" s="0" t="inlineStr">
+      <c r="H650" t="inlineStr">
         <is>
           <t>ඞ"В первый раз, когда я увидел такого сердитого Тонсона, он обвинил нас в том, что мы берем много зарплат, но все равно позволяем преступникам вламываться в его дом".
 "Я предложил ему пожить у него дома, но получил отказ".
@@ -32058,7 +32058,7 @@
 "I killed him."</t>
         </is>
       </c>
-      <c r="H651" s="0" t="inlineStr">
+      <c r="H651" t="inlineStr">
         <is>
           <t>ඞX, X, 1920 год
 "Я проследил за грабителем от продуктового магазина до Саут-стрит и наконец поймал его..."
@@ -32117,7 +32117,7 @@
 The intermediate dates are all blank, so you quickly turn to the following page.</t>
         </is>
       </c>
-      <c r="H652" s="0" t="inlineStr">
+      <c r="H652" t="inlineStr">
         <is>
           <t>ඞВидно, что он сильно пострадал.
 В строках чувствуются его сомнения в себе и неспособность что-либо защитить.
@@ -32191,7 +32191,7 @@
 "I must not let the scene described in that book happen!"</t>
         </is>
       </c>
-      <c r="H653" s="0" t="inlineStr">
+      <c r="H653" t="inlineStr">
         <is>
           <t>ඞX, X, 1920 год
 "Я нашел тех людей, которые уехали из города! Тонсон лгал всем нам!"
@@ -32268,7 +32268,7 @@
 "I will buy you more time…"</t>
         </is>
       </c>
-      <c r="H654" s="0" t="inlineStr">
+      <c r="H654" t="inlineStr">
         <is>
           <t>ඞX, X, 1920 год
 "Наконец-то я нашел эти черные семена под ямой".
@@ -32321,7 +32321,7 @@
 What is the black seed he finally found?</t>
         </is>
       </c>
-      <c r="H655" s="0" t="inlineStr">
+      <c r="H655" t="inlineStr">
         <is>
           <t>ඞРайан раскрыл тайну катастрофы и пытается остановить Тонсона?!
 Что это за черные семена, которые он наконец нашел?</t>
@@ -32364,7 +32364,7 @@
           <t>Not bad~ I found a lot of useful equipment.</t>
         </is>
       </c>
-      <c r="H656" s="0" t="inlineStr">
+      <c r="H656" t="inlineStr">
         <is>
           <t>ඞНеплохо~ Я нашел много полезного снаряжения.</t>
         </is>
@@ -32406,7 +32406,7 @@
           <t>You've been looking for weapons!</t>
         </is>
       </c>
-      <c r="H657" s="0" t="inlineStr">
+      <c r="H657" t="inlineStr">
         <is>
           <t>ඞВы искали оружие!</t>
         </is>
@@ -32448,7 +32448,7 @@
           <t>Yes, I'm not good at finding information.</t>
         </is>
       </c>
-      <c r="H658" s="0" t="inlineStr">
+      <c r="H658" t="inlineStr">
         <is>
           <t>ඞДа, я не силен в поиске информации.</t>
         </is>
@@ -32490,7 +32490,7 @@
           <t>Check this out!</t>
         </is>
       </c>
-      <c r="H659" s="0" t="inlineStr">
+      <c r="H659" t="inlineStr">
         <is>
           <t>ඞЗацените это!</t>
         </is>
@@ -32532,7 +32532,7 @@
           <t>Horn flipped through the diary, his expression became more and more serious just like yours.</t>
         </is>
       </c>
-      <c r="H660" s="0" t="inlineStr">
+      <c r="H660" t="inlineStr">
         <is>
           <t>ඞХорн пролистал дневник, выражение его лица становилось все более и более серьезным, совсем как у тебя.</t>
         </is>
@@ -32586,7 +32586,7 @@
 And what did Ryan gave to Merry?!</t>
         </is>
       </c>
-      <c r="H661" s="0" t="inlineStr">
+      <c r="H661" t="inlineStr">
         <is>
           <t>ඞЭмм, я что, была у Тонсона дома?
 Почему я не могу вспомнить?
@@ -32630,7 +32630,7 @@
           <t>I don't know, but I'm going to look for it.</t>
         </is>
       </c>
-      <c r="H662" s="0" t="inlineStr">
+      <c r="H662" t="inlineStr">
         <is>
           <t>ඞЯ не знаю, но я собираюсь это поискать.</t>
         </is>
@@ -32672,7 +32672,7 @@
           <t>Then I will leave this matter to you, I will prepare a big gift for Tonson first~</t>
         </is>
       </c>
-      <c r="H663" s="0" t="inlineStr">
+      <c r="H663" t="inlineStr">
         <is>
           <t>ඞТогда я оставлю это дело на ваше усмотрение, но сначала приготовлю большой подарок для Тонсона ~</t>
         </is>
@@ -32714,7 +32714,7 @@
           <t>Wait! Where can we meet if I make new progress here?</t>
         </is>
       </c>
-      <c r="H664" s="0" t="inlineStr">
+      <c r="H664" t="inlineStr">
         <is>
           <t>ඞЖдать! Где мы сможем встретиться, если я добьюсь здесь новых успехов?</t>
         </is>
@@ -32756,7 +32756,7 @@
           <t>Really persevering, isn't it easy to deal with it simply and rudely?</t>
         </is>
       </c>
-      <c r="H665" s="0" t="inlineStr">
+      <c r="H665" t="inlineStr">
         <is>
           <t>ඞДействительно настойчивый, разве не легко справиться с ним просто и грубо?</t>
         </is>
@@ -32816,7 +32816,7 @@
 I will take action on my own.</t>
         </is>
       </c>
-      <c r="H666" s="0" t="inlineStr">
+      <c r="H666" t="inlineStr">
         <is>
           <t>ඞНе имеет значения, найдете вы ключ к разгадке или нет.
 Я буду ждать вас у входа в канализацию на Саут-стрит вечером в течение четверти часа.
@@ -32861,7 +32861,7 @@
           <t>He waved his hand and left.</t>
         </is>
       </c>
-      <c r="H667" s="0" t="inlineStr">
+      <c r="H667" t="inlineStr">
         <is>
           <t>ඞОн махнул рукой и ушел.</t>
         </is>
@@ -32903,7 +32903,7 @@
           <t>Read the notebook</t>
         </is>
       </c>
-      <c r="H668" s="0" t="inlineStr">
+      <c r="H668" t="inlineStr">
         <is>
           <t>ඞПрочтите записную книжку</t>
         </is>
@@ -32947,7 +32947,7 @@
           <t>Here are some case-handling materials and some news reports. You pulled out a past news report to view.</t>
         </is>
       </c>
-      <c r="H669" s="0" t="inlineStr">
+      <c r="H669" t="inlineStr">
         <is>
           <t>ඞВот некоторые материалы по рассмотрению дел и несколько новостных сообщений. Вы выбрали для просмотра предыдущее сообщение.</t>
         </is>
@@ -32989,7 +32989,7 @@
           <t>Fake Recruitment, True Fraud</t>
         </is>
       </c>
-      <c r="H670" s="0" t="inlineStr">
+      <c r="H670" t="inlineStr">
         <is>
           <t>ඞФальшивый набор персонала, Настоящее мошенничество</t>
         </is>
@@ -33043,7 +33043,7 @@
 "The police launched an operation at 20 p.m. on X day X month took various measures to actively pursue fugitives and finally arrested 20 suspects involved in the case"</t>
         </is>
       </c>
-      <c r="H671" s="0" t="inlineStr">
+      <c r="H671" t="inlineStr">
         <is>
           <t>ඞВы нашли новостной репортаж за 1914 год.
 "Полиция арестовала в общей сложности 20 человек, причастных к мошенничеству с набором персонала, на сумму более 20 тысяч долларов".
@@ -33093,7 +33093,7 @@
 "According to the investigation, most of the disappearances in the town are related to this organization."</t>
         </is>
       </c>
-      <c r="H672" s="0" t="inlineStr">
+      <c r="H672" t="inlineStr">
         <is>
           <t>ඞ"По словам подозреваемых, они использовали высокую зарплату и низкие рабочие места в качестве приманки, чтобы выманить у них, жертв, деньги для медицинского осмотра. Те, кто не мог предоставить документы, удостоверяющие личность, становились объектами торговли с целью получения высокой прибыли".
 - По данным следствия, большинство исчезновений в городе связаны с этой организацией".</t>
@@ -33136,7 +33136,7 @@
           <t>Read the Files</t>
         </is>
       </c>
-      <c r="H673" s="0" t="inlineStr">
+      <c r="H673" t="inlineStr">
         <is>
           <t>ඞПрочитайте файлы</t>
         </is>
@@ -33178,7 +33178,7 @@
           <t>Open the cabinet</t>
         </is>
       </c>
-      <c r="H674" s="0" t="inlineStr">
+      <c r="H674" t="inlineStr">
         <is>
           <t>ඞОткройте шкаф</t>
         </is>
@@ -33220,7 +33220,7 @@
           <t>You found a key in a jumble of papers.</t>
         </is>
       </c>
-      <c r="H675" s="0" t="inlineStr">
+      <c r="H675" t="inlineStr">
         <is>
           <t>ඞВы нашли ключ в груде бумаг.</t>
         </is>
@@ -33262,7 +33262,7 @@
           <t>You rummaged through it and found only a bunch of blank file forms for employment.</t>
         </is>
       </c>
-      <c r="H676" s="0" t="inlineStr">
+      <c r="H676" t="inlineStr">
         <is>
           <t>ඞВы порылись в нем и нашли только кучу пустых формуляров для приема на работу.</t>
         </is>
@@ -33304,7 +33304,7 @@
           <t>Investigate the drawer.</t>
         </is>
       </c>
-      <c r="H677" s="0" t="inlineStr">
+      <c r="H677" t="inlineStr">
         <is>
           <t>ඞИсследуйте ящик стола.</t>
         </is>
@@ -33346,7 +33346,7 @@
           <t>You saw Horn rummaging around.</t>
         </is>
       </c>
-      <c r="H678" s="0" t="inlineStr">
+      <c r="H678" t="inlineStr">
         <is>
           <t>ඞВы видели, как Хорн рылся вокруг.</t>
         </is>
@@ -33388,7 +33388,7 @@
           <t>What are you doing?!</t>
         </is>
       </c>
-      <c r="H679" s="0" t="inlineStr">
+      <c r="H679" t="inlineStr">
         <is>
           <t>ඞЧто ты делаешь?!</t>
         </is>
@@ -33442,7 +33442,7 @@
 But it was really a heavy loss.</t>
         </is>
       </c>
-      <c r="H680" s="0" t="inlineStr">
+      <c r="H680" t="inlineStr">
         <is>
           <t>ඞСначала я должен вернуть свои вещи.
 Райан уже обыскивал один из моих домов.
@@ -33486,7 +33486,7 @@
           <t>Wende House</t>
         </is>
       </c>
-      <c r="H681" s="0" t="inlineStr">
+      <c r="H681" t="inlineStr">
         <is>
           <t>ඞДом Венде</t>
         </is>
@@ -33528,7 +33528,7 @@
           <t>And now going to North Street will be torn to pieces by Ryan.</t>
         </is>
       </c>
-      <c r="H682" s="0" t="inlineStr">
+      <c r="H682" t="inlineStr">
         <is>
           <t>ඞИ теперь, отправившись на Северную улицу, Райан будет разорван на куски.</t>
         </is>
@@ -33570,7 +33570,7 @@
           <t>There is a group photo of a little girl and her father. In the picture, the little girl looks six or seven years old. She holds her father's hand and they face the camera. The father looks a little old.</t>
         </is>
       </c>
-      <c r="H683" s="0" t="inlineStr">
+      <c r="H683" t="inlineStr">
         <is>
           <t>ඞЕсть групповая фотография маленькой девочки и ее отца. На снимке девочке на вид шесть или семь лет. Она держит отца за руку, и они смотрят в камеру. Отец выглядит немного постаревшим.</t>
         </is>
@@ -33612,7 +33612,7 @@
           <t>Letter</t>
         </is>
       </c>
-      <c r="H684" s="0" t="inlineStr">
+      <c r="H684" t="inlineStr">
         <is>
           <t>ඞПисьмо</t>
         </is>
@@ -33666,7 +33666,7 @@
 "In the afternoon of January 15, I will come back to you."</t>
         </is>
       </c>
-      <c r="H685" s="0" t="inlineStr">
+      <c r="H685" t="inlineStr">
         <is>
           <t>ඞ"Дорогая доченька, уже слишком поздно, и я не могу уснуть. Хотя я не с тобой, я всегда забочусь о тебе".
 "Я нашел способ вылечить твою болезнь и забронировал обратный билет".
@@ -33710,7 +33710,7 @@
           <t>Read Envelope</t>
         </is>
       </c>
-      <c r="H686" s="0" t="inlineStr">
+      <c r="H686" t="inlineStr">
         <is>
           <t>ඞПрочитайте конверт</t>
         </is>
@@ -33758,7 +33758,7 @@
 You can feel slight weightlessness and the whole ground is accelerating to sink and the weightlessness make you feel dazed.</t>
         </is>
       </c>
-      <c r="H687" s="0" t="inlineStr">
+      <c r="H687" t="inlineStr">
         <is>
           <t>ඞЗазвучала грустная песня, пространство рядом с вами сотрясается, и здание начинает рушиться.
 Вы можете почувствовать легкую невесомость, и вся земля стремительно уходит из-под ног, и от невесомости у вас кружится голова.</t>
@@ -33804,7 +33804,7 @@
           <t>You fell down for several seconds without actually hitting the ground, you saw the white mist cover the town gradually close but your fall stopped.</t>
         </is>
       </c>
-      <c r="H688" s="0" t="inlineStr">
+      <c r="H688" t="inlineStr">
         <is>
           <t>ඞВы падали несколько секунд, фактически не касаясь земли, вы видели, как белый туман постепенно окутывает город, но ваше падение прекратилось.</t>
         </is>
@@ -33852,7 +33852,7 @@
 And you noticed that there a countless corpses under the web and one of them just looks like you and the things stuck with the web are just your consciousness.</t>
         </is>
       </c>
-      <c r="H689" s="0" t="inlineStr">
+      <c r="H689" t="inlineStr">
         <is>
           <t>ඞВы, кажется, за что-то цепляетесь, но до сих пор обнаруживаете, что все, что вас окружает, - это гигантская паутина! Весь город построен на огромной паутине!
 И вы заметили, что под паутиной находится бесчисленное множество трупов, и один из них просто похож на вас, а то, что застряло в паутине, - это всего лишь ваше сознание.</t>
@@ -33901,7 +33901,7 @@
 At this moment, you can clearly see the horror on the giant net.</t>
         </is>
       </c>
-      <c r="H690" s="0" t="inlineStr">
+      <c r="H690" t="inlineStr">
         <is>
           <t>ඞТьма перед вами сгущается, и дыхание тьмы и страха распространяется по направлению к вам. Вокруг вас раздается бесчисленное количество шипящих звуков. Вы изо всех сил пытаетесь вырваться из гигантской сети, но у вас ничего не получается.
 В этот момент вы можете отчетливо видеть весь ужас в гигантской сети.</t>
@@ -33956,7 +33956,7 @@
 The face stared at you coldly and said to you…</t>
         </is>
       </c>
-      <c r="H691" s="0" t="inlineStr">
+      <c r="H691" t="inlineStr">
         <is>
           <t>ඞТемное тело, наполовину похожее на человеческое, но с длинными, как у паука, конечностями…
 Черное тело с бледным лицом, и при одном взгляде на это лицо страх проникает в каждый дюйм твоей кожи.
@@ -34000,7 +34000,7 @@
           <t>If you violate my contract, I will remove your seven souls. If this contract ends, I will continue to weave the eternal web.</t>
         </is>
       </c>
-      <c r="H692" s="0" t="inlineStr">
+      <c r="H692" t="inlineStr">
         <is>
           <t>ඞЕсли вы нарушите мой контракт, я заберу у вас семь душ. Если этот контракт закончится, я продолжу плести вечную паутину.</t>
         </is>
@@ -34042,7 +34042,7 @@
           <t>They gradually step back and disappear in front of you. And all of your emotions are absorbed by the spider web and become its nourishment.</t>
         </is>
       </c>
-      <c r="H693" s="0" t="inlineStr">
+      <c r="H693" t="inlineStr">
         <is>
           <t>ඞОни постепенно отступают и исчезают у вас на глазах. И все ваши эмоции поглощаются паутиной и становятся ее питательной средой.</t>
         </is>
@@ -34084,7 +34084,7 @@
           <t>Take the Medicine Bottle</t>
         </is>
       </c>
-      <c r="H694" s="0" t="inlineStr">
+      <c r="H694" t="inlineStr">
         <is>
           <t>ඞВозьми пузырек с лекарством</t>
         </is>
@@ -34129,7 +34129,7 @@
 and your medical knowledge is improved by the collision of memory retrieval and new knowledge.</t>
         </is>
       </c>
-      <c r="H695" s="0" t="inlineStr">
+      <c r="H695" t="inlineStr">
         <is>
           <t>ඞВы читали медицинские книги такого рода,
 и ваши медицинские знания улучшились благодаря сочетанию извлечения информации из памяти и новых знаний.</t>
@@ -34174,7 +34174,7 @@
           <t>The shelves are full of books about professional theories, and you haven't found anything that interests you.</t>
         </is>
       </c>
-      <c r="H696" s="0" t="inlineStr">
+      <c r="H696" t="inlineStr">
         <is>
           <t>ඞПолки полны книг о профессиональных теориях, и вы не нашли ничего, что вас бы заинтересовало.</t>
         </is>
@@ -34216,7 +34216,7 @@
           <t>View</t>
         </is>
       </c>
-      <c r="H697" s="0" t="inlineStr">
+      <c r="H697" t="inlineStr">
         <is>
           <t>ඞПосмотреть</t>
         </is>
@@ -34258,7 +34258,7 @@
           <t>You have read such encyclopedia, your Erudition skill has improved under the collision of memories and new knowledge</t>
         </is>
       </c>
-      <c r="H698" s="0" t="inlineStr">
+      <c r="H698" t="inlineStr">
         <is>
           <t>ඞВы прочитали такую энциклопедию, и ваша эрудиция улучшилась под воздействием воспоминаний и новых знаний</t>
         </is>
@@ -34306,7 +34306,7 @@
 Unexpectedly, Tonson would build such a luxurious house for other people to live in.</t>
         </is>
       </c>
-      <c r="H699" s="0" t="inlineStr">
+      <c r="H699" t="inlineStr">
         <is>
           <t>ඞЯ впервые посещаю этот дом.
 Неожиданно оказалось, что Тонсон построил такой роскошный дом, чтобы в нем могли жить другие люди.</t>
@@ -34349,7 +34349,7 @@
           <t>You see the person with his head bowed at the table, it is the girl you saw in your dream before.</t>
         </is>
       </c>
-      <c r="H700" s="0" t="inlineStr">
+      <c r="H700" t="inlineStr">
         <is>
           <t>ඞВы видите человека, склонившего голову за столом, это та самая девушка, которую вы видели раньше в своем сне.</t>
         </is>
@@ -34391,7 +34391,7 @@
           <t>Ah, the person I saw in my dream was her.</t>
         </is>
       </c>
-      <c r="H701" s="0" t="inlineStr">
+      <c r="H701" t="inlineStr">
         <is>
           <t>ඞАх, человек, которого я видел во сне, была она.</t>
         </is>
@@ -34439,7 +34439,7 @@
 Who knows if there will be a bomb buried in the cake.</t>
         </is>
       </c>
-      <c r="H702" s="0" t="inlineStr">
+      <c r="H702" t="inlineStr">
         <is>
           <t>ඞЧто ж, давайте сначала тщательно проверим.
 Кто знает, может быть, в торте спрятана бомба.</t>
@@ -34482,7 +34482,7 @@
           <t>A 10 years age girl is sleeping in a wheelchair, you are going to...</t>
         </is>
       </c>
-      <c r="H703" s="0" t="inlineStr">
+      <c r="H703" t="inlineStr">
         <is>
           <t>ඞ10-летняя девочка спит в инвалидном кресле, и вы собираетесь это сделать...</t>
         </is>
@@ -34524,7 +34524,7 @@
           <t>[Ready to wake her up]</t>
         </is>
       </c>
-      <c r="H704" s="0" t="inlineStr">
+      <c r="H704" t="inlineStr">
         <is>
           <t>ඞ[Готов разбудить ее]</t>
         </is>
@@ -34566,7 +34566,7 @@
           <t>[Wait]</t>
         </is>
       </c>
-      <c r="H705" s="0" t="inlineStr">
+      <c r="H705" t="inlineStr">
         <is>
           <t>ඞ[Подожди]</t>
         </is>
@@ -34620,7 +34620,7 @@
 I can hear your conversation from this distance.</t>
         </is>
       </c>
-      <c r="H706" s="0" t="inlineStr">
+      <c r="H706" t="inlineStr">
         <is>
           <t>ඞЯ не очень хорошо умею обращаться с маленькими девочками.
 Ты иди и поговори с ней.
@@ -34664,7 +34664,7 @@
           <t>Well, no problem.</t>
         </is>
       </c>
-      <c r="H707" s="0" t="inlineStr">
+      <c r="H707" t="inlineStr">
         <is>
           <t>ඞЧто ж, нет проблем.</t>
         </is>
@@ -34706,7 +34706,7 @@
           <t>You shook her arm, and she woke up in a daze. She looked at you with a bright smile, as if she had been waiting for a long time.</t>
         </is>
       </c>
-      <c r="H708" s="0" t="inlineStr">
+      <c r="H708" t="inlineStr">
         <is>
           <t>ඞТы потряс ее за руку, и она очнулась в изумлении. Она посмотрела на тебя с сияющей улыбкой, как будто ждала тебя долгое время.</t>
         </is>
@@ -34748,7 +34748,7 @@
           <t>I finally waited for you...</t>
         </is>
       </c>
-      <c r="H709" s="0" t="inlineStr">
+      <c r="H709" t="inlineStr">
         <is>
           <t>ඞНаконец-то я дождался тебя...</t>
         </is>
@@ -34790,7 +34790,7 @@
           <t>But her expression soon changed to disappointment.</t>
         </is>
       </c>
-      <c r="H710" s="0" t="inlineStr">
+      <c r="H710" t="inlineStr">
         <is>
           <t>ඞНо вскоре выражение ее лица сменилось разочарованием.</t>
         </is>
@@ -34832,7 +34832,7 @@
           <t>You... are not...</t>
         </is>
       </c>
-      <c r="H711" s="0" t="inlineStr">
+      <c r="H711" t="inlineStr">
         <is>
           <t>ඞТы... не такой...</t>
         </is>
@@ -34886,7 +34886,7 @@
 You feel guilty for no reason.</t>
         </is>
       </c>
-      <c r="H712" s="0" t="inlineStr">
+      <c r="H712" t="inlineStr">
         <is>
           <t>ඞДаже те, кто не способен к состраданию, могут почувствовать грусть прямо сейчас.
 Потому что девушка перед вами одновременно смеется и плачет.
@@ -34930,7 +34930,7 @@
           <t>Are you... alright?</t>
         </is>
       </c>
-      <c r="H713" s="0" t="inlineStr">
+      <c r="H713" t="inlineStr">
         <is>
           <t>ඞТы... в порядке?</t>
         </is>
@@ -34978,7 +34978,7 @@
 I didn't expect it to be out of control in the end.</t>
         </is>
       </c>
-      <c r="H714" s="0" t="inlineStr">
+      <c r="H714" t="inlineStr">
         <is>
           <t>ඞО, я, конечно, думал о многих сценах встреч.
 Я не ожидал, что в конце все выйдет из-под контроля.</t>
@@ -35021,7 +35021,7 @@
           <t>Can you tell me your name?</t>
         </is>
       </c>
-      <c r="H715" s="0" t="inlineStr">
+      <c r="H715" t="inlineStr">
         <is>
           <t>ඞНе могли бы вы назвать мне свое имя?</t>
         </is>
@@ -35069,7 +35069,7 @@
 After a while, she spoke slowly.</t>
         </is>
       </c>
-      <c r="H716" s="0" t="inlineStr">
+      <c r="H716" t="inlineStr">
         <is>
           <t>ඞОна немного успокоилась, а затем начала погружаться в воспоминания.
 Через некоторое время она медленно заговорила.</t>
@@ -35112,7 +35112,7 @@
           <t>My name is Wende, and my father's name is Roland...</t>
         </is>
       </c>
-      <c r="H717" s="0" t="inlineStr">
+      <c r="H717" t="inlineStr">
         <is>
           <t>ඞМеня зовут Венде, а моего отца зовут Роланд...</t>
         </is>
@@ -35154,7 +35154,7 @@
           <t>She looked to the side of the chair and was stunned for a while.</t>
         </is>
       </c>
-      <c r="H718" s="0" t="inlineStr">
+      <c r="H718" t="inlineStr">
         <is>
           <t>ඞОна посмотрела в сторону стула и на какое-то время остолбенела.</t>
         </is>
@@ -35202,7 +35202,7 @@
 Sometimes I can't tell which things belong to the past or which belong to the present.</t>
         </is>
       </c>
-      <c r="H719" s="0" t="inlineStr">
+      <c r="H719" t="inlineStr">
         <is>
           <t>ඞИзвините, иногда воспоминания о прошлом и события настоящего накладываются друг на друга...
 Иногда я не могу сказать, какие события относятся к прошлому, а какие - к настоящему.</t>
@@ -35245,7 +35245,7 @@
           <t>It's okay, I'll listen patiently.</t>
         </is>
       </c>
-      <c r="H720" s="0" t="inlineStr">
+      <c r="H720" t="inlineStr">
         <is>
           <t>ඞВсе в порядке, я буду терпеливо слушать.</t>
         </is>
@@ -35299,7 +35299,7 @@
 But what happened that night is still very clear.</t>
         </is>
       </c>
-      <c r="H721" s="0" t="inlineStr">
+      <c r="H721" t="inlineStr">
         <is>
           <t>ඞНеизвестно, сколько раз повторялся этот цикл.
 Я многого не помню.
@@ -35343,7 +35343,7 @@
           <t>That night?</t>
         </is>
       </c>
-      <c r="H722" s="0" t="inlineStr">
+      <c r="H722" t="inlineStr">
         <is>
           <t>ඞВ ту ночь?</t>
         </is>
@@ -35409,7 +35409,7 @@
 I opened the window, only to see that the people in the surrounding streets had disappeared.</t>
         </is>
       </c>
-      <c r="H723" s="0" t="inlineStr">
+      <c r="H723" t="inlineStr">
         <is>
           <t>ඞТак вот, в ночь на 14 января на небе появились густые темные тучи.
 Ночью мне приснился кошмар, я увидела, что нахожусь в огромной паутине.
@@ -35455,7 +35455,7 @@
           <t>Your family also...?</t>
         </is>
       </c>
-      <c r="H724" s="0" t="inlineStr">
+      <c r="H724" t="inlineStr">
         <is>
           <t>ඞВаша семья тоже...?</t>
         </is>
@@ -35497,7 +35497,7 @@
           <t>She shook her head.</t>
         </is>
       </c>
-      <c r="H725" s="0" t="inlineStr">
+      <c r="H725" t="inlineStr">
         <is>
           <t>ඞОна покачала головой.</t>
         </is>
@@ -35551,7 +35551,7 @@
 And because of this disaster, my illness did not get worse.</t>
         </is>
       </c>
-      <c r="H726" s="0" t="inlineStr">
+      <c r="H726" t="inlineStr">
         <is>
           <t>ඞЯ инвалид, и мой отец бегал по округе в поисках лекарств.
 И мой отец, таким образом, только что избежал катастрофы.
@@ -35597,7 +35597,7 @@
           <t>She smiled happily, but you can't imagine how Wende survived the unchanging days when she was physically unable to move, without the company of relatives</t>
         </is>
       </c>
-      <c r="H727" s="0" t="inlineStr">
+      <c r="H727" t="inlineStr">
         <is>
           <t>ඞОна счастливо улыбалась, но вы не можете себе представить, как Венде переживала те дни, когда она физически не могла двигаться, без общества родственников</t>
         </is>
@@ -35639,7 +35639,7 @@
           <t>Are you looking for a way out of the cycle?</t>
         </is>
       </c>
-      <c r="H728" s="0" t="inlineStr">
+      <c r="H728" t="inlineStr">
         <is>
           <t>ඞВы ищете выход из этого замкнутого круга?</t>
         </is>
@@ -35681,7 +35681,7 @@
           <t>Yes, please tell me!</t>
         </is>
       </c>
-      <c r="H729" s="0" t="inlineStr">
+      <c r="H729" t="inlineStr">
         <is>
           <t>ඞДа, пожалуйста, скажи мне!</t>
         </is>
@@ -35730,7 +35730,7 @@
 But I am worried that you will refuse, please promise me.</t>
         </is>
       </c>
-      <c r="H730" s="0" t="inlineStr">
+      <c r="H730" t="inlineStr">
         <is>
           <t>ඞТы определенно можешь сделать это таким образом.
 Но я боюсь, что ты откажешься, пожалуйста, пообещай мне.</t>
@@ -35773,7 +35773,7 @@
           <t>No problem, as long as I can do it.</t>
         </is>
       </c>
-      <c r="H731" s="0" t="inlineStr">
+      <c r="H731" t="inlineStr">
         <is>
           <t>ඞНет проблем, пока я могу это делать.</t>
         </is>
@@ -35815,7 +35815,7 @@
           <t>I want to ask you, kill me, kill me once and for all.</t>
         </is>
       </c>
-      <c r="H732" s="0" t="inlineStr">
+      <c r="H732" t="inlineStr">
         <is>
           <t>ඞЯ хочу попросить тебя, убей меня, убей раз и навсегда.</t>
         </is>
@@ -35857,7 +35857,7 @@
           <t>How is this possible?!</t>
         </is>
       </c>
-      <c r="H733" s="0" t="inlineStr">
+      <c r="H733" t="inlineStr">
         <is>
           <t>ඞКак такое возможно?!</t>
         </is>
@@ -35899,7 +35899,7 @@
           <t>She shook her head and stopped your words.</t>
         </is>
       </c>
-      <c r="H734" s="0" t="inlineStr">
+      <c r="H734" t="inlineStr">
         <is>
           <t>ඞОна покачала головой и оборвала твои слова.</t>
         </is>
@@ -36031,7 +36031,7 @@
 You will surely be saved by this. Because I'm to blame for this cycle...</t>
         </is>
       </c>
-      <c r="H735" s="0" t="inlineStr">
+      <c r="H735" t="inlineStr">
         <is>
           <t>ඞЯ не из тех, кто требует, чтобы вы убегали от реальности.
 В конце концов, я пришел к такому выводу!
@@ -36088,7 +36088,7 @@
           <t>But, but in this way you are really dead!</t>
         </is>
       </c>
-      <c r="H736" s="0" t="inlineStr">
+      <c r="H736" t="inlineStr">
         <is>
           <t>ඞНо, но в этом смысле ты действительно мертв!</t>
         </is>
@@ -36148,7 +36148,7 @@
 Despite the fact that I've been out of work for a while, I should be able to accommodate your request.</t>
         </is>
       </c>
-      <c r="H737" s="0" t="inlineStr">
+      <c r="H737" t="inlineStr">
         <is>
           <t>ඞКажется, я услышал что-то интересное.
 Прошу прощения, но мне все же нужно представиться.
@@ -36199,7 +36199,7 @@
 Then, please.</t>
         </is>
       </c>
-      <c r="H738" s="0" t="inlineStr">
+      <c r="H738" t="inlineStr">
         <is>
           <t>ඞРад был вас видеть, "Мистер Уборщик". 
 Тогда, пожалуйста.</t>
@@ -36242,7 +36242,7 @@
           <t>My pleasure!</t>
         </is>
       </c>
-      <c r="H739" s="0" t="inlineStr">
+      <c r="H739" t="inlineStr">
         <is>
           <t>ඞС удовольствием!</t>
         </is>
@@ -36284,7 +36284,7 @@
           <t>Horn is going to kill Wende, are you going to...</t>
         </is>
       </c>
-      <c r="H740" s="0" t="inlineStr">
+      <c r="H740" t="inlineStr">
         <is>
           <t>ඞХорн собирается убить Венде, а ты собираешься это сделать?..</t>
         </is>
@@ -36326,7 +36326,7 @@
           <t>[Stop Horn]</t>
         </is>
       </c>
-      <c r="H741" s="0" t="inlineStr">
+      <c r="H741" t="inlineStr">
         <is>
           <t>ඞ[Стоп-сигнал]</t>
         </is>
@@ -36368,7 +36368,7 @@
           <t>[Let Horn Do It]</t>
         </is>
       </c>
-      <c r="H742" s="0" t="inlineStr">
+      <c r="H742" t="inlineStr">
         <is>
           <t>ඞ[Пусть Хорн Сделает Это]</t>
         </is>
@@ -36428,7 +36428,7 @@
 Please calm down and speak up first, Horn.</t>
         </is>
       </c>
-      <c r="H743" s="0" t="inlineStr">
+      <c r="H743" t="inlineStr">
         <is>
           <t>ඞВенде, я помогу тебе.
 Однако я не верю, что то, что ты сказала, соответствует действительности.
@@ -36473,7 +36473,7 @@
           <t>Um? Are you trying to stop me?</t>
         </is>
       </c>
-      <c r="H744" s="0" t="inlineStr">
+      <c r="H744" t="inlineStr">
         <is>
           <t>ඞЭм? Ты пытаешься меня остановить?</t>
         </is>
@@ -36521,7 +36521,7 @@
 I just want to have a private communication with you first.</t>
         </is>
       </c>
-      <c r="H745" s="0" t="inlineStr">
+      <c r="H745" t="inlineStr">
         <is>
           <t>ඞХорн, я не буду тебя останавливать.
 Я просто хочу сначала поговорить с тобой наедине.</t>
@@ -36570,7 +36570,7 @@
 You must now look for opportunities to lead the conversation.</t>
         </is>
       </c>
-      <c r="H746" s="0" t="inlineStr">
+      <c r="H746" t="inlineStr">
         <is>
           <t>ඞВы чувствуете, что ситуация усложняется и что собеседнику не хватает сострадания.
 Теперь вы должны искать возможности поддержать беседу.</t>
@@ -36613,7 +36613,7 @@
           <t>He lit the candle just now, Wende fell asleep after smelling the candle.</t>
         </is>
       </c>
-      <c r="H747" s="0" t="inlineStr">
+      <c r="H747" t="inlineStr">
         <is>
           <t>ඞОн только что зажег свечу, и Венде заснула, понюхав ее аромат.</t>
         </is>
@@ -36655,7 +36655,7 @@
           <t>In this way, you won't suffer any pain.</t>
         </is>
       </c>
-      <c r="H748" s="0" t="inlineStr">
+      <c r="H748" t="inlineStr">
         <is>
           <t>ඞТаким образом, вы не будете испытывать никакой боли.</t>
         </is>
@@ -36697,7 +36697,7 @@
           <t>He stab the dagger into Wende's chest.</t>
         </is>
       </c>
-      <c r="H749" s="0" t="inlineStr">
+      <c r="H749" t="inlineStr">
         <is>
           <t>ඞОн вонзил кинжал в грудь Венде.</t>
         </is>
@@ -36745,7 +36745,7 @@
 Your body appears to dissolve into the ground.</t>
         </is>
       </c>
-      <c r="H750" s="0" t="inlineStr">
+      <c r="H750" t="inlineStr">
         <is>
           <t>ඞВы почувствовали странный аромат и почувствовали легкое оживление, как будто выпили большое количество спиртного.
 Ваше тело, кажется, растворяется в земле.</t>
@@ -36800,7 +36800,7 @@
 Good stuff, I took it.</t>
         </is>
       </c>
-      <c r="H751" s="0" t="inlineStr">
+      <c r="H751" t="inlineStr">
         <is>
           <t>ඞЭто действительно высококачественный продукт.
 Тонсон на самом деле использовал бы его для своей семьи.
@@ -36850,7 +36850,7 @@
 Your body quickly returns to normal.</t>
         </is>
       </c>
-      <c r="H752" s="0" t="inlineStr">
+      <c r="H752" t="inlineStr">
         <is>
           <t>ඞОн погасил свечу, и аромат постепенно исчез, возможно, из-за того, что он вдыхал его в небольшом количестве.
 Ваше тело быстро приходит в норму.</t>
@@ -36893,7 +36893,7 @@
           <t>What is this and why is it making me lose my strength?</t>
         </is>
       </c>
-      <c r="H753" s="0" t="inlineStr">
+      <c r="H753" t="inlineStr">
         <is>
           <t>ඞЧто это такое и почему из-за этого я теряю силы?</t>
         </is>
@@ -36953,7 +36953,7 @@
 That kind of wonderful feeling, I also want to try it very much.</t>
         </is>
       </c>
-      <c r="H754" s="0" t="inlineStr">
+      <c r="H754" t="inlineStr">
         <is>
           <t>ඞЭта свеча называется Merder.
 Именно на этом веществе Тонсон сколотил свое состояние.
@@ -36998,7 +36998,7 @@
           <t>Why are you all right?</t>
         </is>
       </c>
-      <c r="H755" s="0" t="inlineStr">
+      <c r="H755" t="inlineStr">
         <is>
           <t>ඞПочему с тобой все в порядке?</t>
         </is>
@@ -37040,7 +37040,7 @@
           <t>He pointed to his nose.</t>
         </is>
       </c>
-      <c r="H756" s="0" t="inlineStr">
+      <c r="H756" t="inlineStr">
         <is>
           <t>ඞОн указал на свой нос.</t>
         </is>
@@ -37082,7 +37082,7 @@
           <t>Maybe it's because I've been in the sewer for so long that I can't smell anything.</t>
         </is>
       </c>
-      <c r="H757" s="0" t="inlineStr">
+      <c r="H757" t="inlineStr">
         <is>
           <t>ඞМожет быть, это потому, что я так долго пробыл в канализации, что ничего не чувствую.</t>
         </is>
@@ -37124,7 +37124,7 @@
           <t>When you took away the candle, he became interested and began to search for other things.</t>
         </is>
       </c>
-      <c r="H758" s="0" t="inlineStr">
+      <c r="H758" t="inlineStr">
         <is>
           <t>ඞКогда вы забрали свечу, он заинтересовался и начал искать другие вещи.</t>
         </is>
@@ -37178,7 +37178,7 @@
 We can gather more information before making a decision!</t>
         </is>
       </c>
-      <c r="H759" s="0" t="inlineStr">
+      <c r="H759" t="inlineStr">
         <is>
           <t>ඞТо, что только что сказала Венде, - всего лишь предположение.
 Если бы мы сделали это напрямую, то, возможно, упустили бы шанс на реальное решение проблемы.
@@ -37234,7 +37234,7 @@
 Do you know what it's like to be in prison for life?</t>
         </is>
       </c>
-      <c r="H760" s="0" t="inlineStr">
+      <c r="H760" t="inlineStr">
         <is>
           <t>ඞЛегко сказать!
 Ты знаешь, каково это - бесконечно сталкиваться с одним и тем же?
@@ -37278,7 +37278,7 @@
           <t>You feel Horn's killing intent and the madness in his eyes, are you going to...</t>
         </is>
       </c>
-      <c r="H761" s="0" t="inlineStr">
+      <c r="H761" t="inlineStr">
         <is>
           <t>ඞТы чувствуешь намерение Хорна убить и безумие в его глазах, ты собираешься это сделать?..</t>
         </is>
@@ -37320,7 +37320,7 @@
           <t>[Convince Him]</t>
         </is>
       </c>
-      <c r="H762" s="0" t="inlineStr">
+      <c r="H762" t="inlineStr">
         <is>
           <t>ඞ[Убеди Его]</t>
         </is>
@@ -37362,7 +37362,7 @@
           <t>Attempt to persuade Horn</t>
         </is>
       </c>
-      <c r="H763" s="0" t="inlineStr">
+      <c r="H763" t="inlineStr">
         <is>
           <t>ඞПопытайтесь убедить Хорна</t>
         </is>
@@ -37404,7 +37404,7 @@
           <t>He's completely impatient with what you're saying.</t>
         </is>
       </c>
-      <c r="H764" s="0" t="inlineStr">
+      <c r="H764" t="inlineStr">
         <is>
           <t>ඞОн совершенно не в восторге от того, что ты говоришь.</t>
         </is>
@@ -37446,7 +37446,7 @@
           <t>It is useless to talk too much!</t>
         </is>
       </c>
-      <c r="H765" s="0" t="inlineStr">
+      <c r="H765" t="inlineStr">
         <is>
           <t>ඞБесполезно слишком много говорить!</t>
         </is>
@@ -37488,7 +37488,7 @@
           <t>[Stop him with force]</t>
         </is>
       </c>
-      <c r="H766" s="0" t="inlineStr">
+      <c r="H766" t="inlineStr">
         <is>
           <t>ඞ[Остановите его силой]</t>
         </is>
@@ -37560,7 +37560,7 @@
 Try some changes, it won't be hard for you!</t>
         </is>
       </c>
-      <c r="H767" s="0" t="inlineStr">
+      <c r="H767" t="inlineStr">
         <is>
           <t>ඞТы сказал, что застрял здесь надолго.
 Но ты только сегодня узнал о существовании Венде.
@@ -37625,7 +37625,7 @@
 As long as it doesn't affect the final result, I will continue to cooperate</t>
         </is>
       </c>
-      <c r="H768" s="0" t="inlineStr">
+      <c r="H768" t="inlineStr">
         <is>
           <t>ඞХорошо, хорошо.
 Пока это не доставляет особых хлопот.
@@ -37700,7 +37700,7 @@
 Do you guys remember anything nonordinary the day the cycle happened?</t>
         </is>
       </c>
-      <c r="H769" s="0" t="inlineStr">
+      <c r="H769" t="inlineStr">
         <is>
           <t>ඞЯ хочу, чтобы вы объяснили, что вам известно на данный момент.
 Желательно, чтобы эта информация не была прямым выводом.
@@ -37753,7 +37753,7 @@
 I seem to remember Tonson leaving the mansion dressed as a missionary.</t>
         </is>
       </c>
-      <c r="H770" s="0" t="inlineStr">
+      <c r="H770" t="inlineStr">
         <is>
           <t>ඞHmmm...it прошло слишком много времени.
 Кажется, я помню, как Тонсон выходил из особняка в костюме миссионера.</t>
@@ -37814,7 +37814,7 @@
 Wait, Ryan seems to have turned into a monster that day.</t>
         </is>
       </c>
-      <c r="H771" s="0" t="inlineStr">
+      <c r="H771" t="inlineStr">
         <is>
           <t>ඞОн всегда так одевался.
 Я точно помню, что в тот день это был мой старый враг——
@@ -37877,7 +37877,7 @@
 He seemed to tell me to... beware of Tonson.</t>
         </is>
       </c>
-      <c r="H772" s="0" t="inlineStr">
+      <c r="H772" t="inlineStr">
         <is>
           <t>ඞРайан, кажется, однажды нашел меня.
 Он хотел отослать меня из города, сказав, что оставаться здесь опасно.
@@ -37934,7 +37934,7 @@
 Horn, do you know what way this is?</t>
         </is>
       </c>
-      <c r="H773" s="0" t="inlineStr">
+      <c r="H773" t="inlineStr">
         <is>
           <t>ඞЗнать о Тонсоне?
 Тонсон сказал мне, что есть выход, когда я приехал сюда...
@@ -38002,7 +38002,7 @@
 Because Ryan guards there day and night.it</t>
         </is>
       </c>
-      <c r="H774" s="0" t="inlineStr">
+      <c r="H774" t="inlineStr">
         <is>
           <t>ඞЯ последовал за ним~
 Это лекарство превращает людей в идиотов,
@@ -38060,7 +38060,7 @@
 I think we can start by investigating where Ryan used to work.</t>
         </is>
       </c>
-      <c r="H775" s="0" t="inlineStr">
+      <c r="H775" t="inlineStr">
         <is>
           <t>ඞТонсон, должно быть, владеет секретом этого цикла.
 Поскольку попасть прямо к дому Тонсона невозможно.
@@ -38104,7 +38104,7 @@
           <t>Horn's face lit up when he heard Ryan's name.</t>
         </is>
       </c>
-      <c r="H776" s="0" t="inlineStr">
+      <c r="H776" t="inlineStr">
         <is>
           <t>ඞЛицо Хорна просветлело, когда он услышал имя Райана.</t>
         </is>
@@ -38158,7 +38158,7 @@
 Wende, no matter what, I will come to fulfill your request tomorrow night~</t>
         </is>
       </c>
-      <c r="H777" s="0" t="inlineStr">
+      <c r="H777" t="inlineStr">
         <is>
           <t>ඞЧто ж, тогда завтра я пойду в полицейский участок на Ист-стрит и буду ждать тебя.
 У меня также есть большой подарок для Тонсон, прежде чем я уеду~
@@ -38208,7 +38208,7 @@
 This man still wants to kill you!</t>
         </is>
       </c>
-      <c r="H778" s="0" t="inlineStr">
+      <c r="H778" t="inlineStr">
         <is>
           <t>ඞНеужели этот человек неразумен?
 Этот человек все еще хочет убить тебя!</t>
@@ -38263,7 +38263,7 @@
 I've enjoyed life long enough...</t>
         </is>
       </c>
-      <c r="H779" s="0" t="inlineStr">
+      <c r="H779" t="inlineStr">
         <is>
           <t>ඞСпасибо……
 Но на самом деле это мое желание.
@@ -38307,7 +38307,7 @@
           <t>The bell rings and it is backtracking time now.</t>
         </is>
       </c>
-      <c r="H780" s="0" t="inlineStr">
+      <c r="H780" t="inlineStr">
         <is>
           <t>ඞРаздается звонок, и начинается обратный отсчет времени.</t>
         </is>
@@ -38355,7 +38355,7 @@
 Can I have one more rude request?</t>
         </is>
       </c>
-      <c r="H781" s="0" t="inlineStr">
+      <c r="H781" t="inlineStr">
         <is>
           <t>ඞВремя на исходе.
 Можно еще одну грубую просьбу?</t>
@@ -38398,7 +38398,7 @@
           <t>Of course.</t>
         </is>
       </c>
-      <c r="H782" s="0" t="inlineStr">
+      <c r="H782" t="inlineStr">
         <is>
           <t>ඞКонечно.</t>
         </is>
@@ -38440,7 +38440,7 @@
           <t>Please come closer to me...</t>
         </is>
       </c>
-      <c r="H783" s="0" t="inlineStr">
+      <c r="H783" t="inlineStr">
         <is>
           <t>ඞПожалуйста, подойди ко мне поближе...</t>
         </is>
@@ -38482,7 +38482,7 @@
           <t>Thanks……</t>
         </is>
       </c>
-      <c r="H784" s="0" t="inlineStr">
+      <c r="H784" t="inlineStr">
         <is>
           <t>ඞСпасибо……</t>
         </is>
@@ -38524,7 +38524,7 @@
           <t>She stretched out her hands and hugged you|Like embracing a person who has not returned for a long time| Time backtracking…</t>
         </is>
       </c>
-      <c r="H785" s="0" t="inlineStr">
+      <c r="H785" t="inlineStr">
         <is>
           <t>ඞОна протянула руки и обняла тебя|Как будто обнимаешь человека, который долго не возвращался| Время возвращается вспять…</t>
         </is>
@@ -38572,7 +38572,7 @@
 The sound hammer is driven by the delicate coordination between gears and it strikes different sound springs.</t>
         </is>
       </c>
-      <c r="H786" s="0" t="inlineStr">
+      <c r="H786" t="inlineStr">
         <is>
           <t>ඞБольшой вертикальный колокол из массива дерева выглядит очень благородно.
 Звуковой молоток приводится в действие благодаря тонкой координации между шестеренками и ударяет по различным звуковым пружинам.</t>
@@ -38615,7 +38615,7 @@
           <t>You see that he is searching quickly. It seems that he is looking for a concealed slot.</t>
         </is>
       </c>
-      <c r="H787" s="0" t="inlineStr">
+      <c r="H787" t="inlineStr">
         <is>
           <t>ඞВы видите, что он быстро ищет. Кажется, что он ищет скрытую щель.</t>
         </is>
@@ -38663,7 +38663,7 @@
 I prefer guns to roses.</t>
         </is>
       </c>
-      <c r="H788" s="0" t="inlineStr">
+      <c r="H788" t="inlineStr">
         <is>
           <t>ඞПочему богатые люди хранят такие броские вещи?
 Я предпочитаю оружие розам.</t>
@@ -38712,7 +38712,7 @@
 Unfortunately, I have no chance to get sick here.</t>
         </is>
       </c>
-      <c r="H789" s="0" t="inlineStr">
+      <c r="H789" t="inlineStr">
         <is>
           <t>ඞЭти лекарства немного дорогие.
 К сожалению, у меня здесь нет возможности заболеть.</t>
@@ -38755,7 +38755,7 @@
           <t>You shook her arm and she woke up in a daze.</t>
         </is>
       </c>
-      <c r="H790" s="0" t="inlineStr">
+      <c r="H790" t="inlineStr">
         <is>
           <t>ඞТы потряс ее за руку, и она очнулась в оцепенении.</t>
         </is>
@@ -38803,7 +38803,7 @@
 Eh, the cleaner isn't here this time?</t>
         </is>
       </c>
-      <c r="H791" s="0" t="inlineStr">
+      <c r="H791" t="inlineStr">
         <is>
           <t>ඞРад снова вас видеть.
 А, на этот раз уборщицы здесь нет?</t>
@@ -38864,7 +38864,7 @@
 Forget about him, I found something.</t>
         </is>
       </c>
-      <c r="H792" s="0" t="inlineStr">
+      <c r="H792" t="inlineStr">
         <is>
           <t>ඞОн привык действовать по-своему.
 Нет смысла проводить расследование вместе.
@@ -38909,7 +38909,7 @@
           <t>You told Wende all the information about the current investigation.</t>
         </is>
       </c>
-      <c r="H793" s="0" t="inlineStr">
+      <c r="H793" t="inlineStr">
         <is>
           <t>ඞВы рассказали Венде всю информацию о текущем расследовании.</t>
         </is>
@@ -38957,7 +38957,7 @@
 But he failed to stop Tonson.</t>
         </is>
       </c>
-      <c r="H794" s="0" t="inlineStr">
+      <c r="H794" t="inlineStr">
         <is>
           <t>ඞРайан раскрыл тайну катастрофы. 
 Но ему не удалось остановить Тонсона.</t>
@@ -39000,7 +39000,7 @@
           <t>I am going to Merry's home to see if I can find anything.</t>
         </is>
       </c>
-      <c r="H795" s="0" t="inlineStr">
+      <c r="H795" t="inlineStr">
         <is>
           <t>ඞЯ иду к Мерри домой, посмотреть, смогу ли я что-нибудь найти.</t>
         </is>
@@ -39042,7 +39042,7 @@
           <t>I am sorry. I can't help you…</t>
         </is>
       </c>
-      <c r="H796" s="0" t="inlineStr">
+      <c r="H796" t="inlineStr">
         <is>
           <t>ඞМне жаль. Я ничем не могу вам помочь…</t>
         </is>
@@ -39084,7 +39084,7 @@
           <t>I found this at Merry's house.</t>
         </is>
       </c>
-      <c r="H797" s="0" t="inlineStr">
+      <c r="H797" t="inlineStr">
         <is>
           <t>ඞЯ нашел это в доме Мерри.</t>
         </is>
@@ -39126,7 +39126,7 @@
           <t>You gave Wende the black egg but she shook her head.</t>
         </is>
       </c>
-      <c r="H798" s="0" t="inlineStr">
+      <c r="H798" t="inlineStr">
         <is>
           <t>ඞТы дал Венде черное яйцо, но она покачала головой.</t>
         </is>
@@ -39180,7 +39180,7 @@
 This is the same place I went to in my dream.</t>
         </is>
       </c>
-      <c r="H799" s="0" t="inlineStr">
+      <c r="H799" t="inlineStr">
         <is>
           <t>ඞЯ не знаю, что это.
 Но... этот аромат должен быть подходящим.
@@ -39224,7 +39224,7 @@
           <t>The place you live in the dream?</t>
         </is>
       </c>
-      <c r="H800" s="0" t="inlineStr">
+      <c r="H800" t="inlineStr">
         <is>
           <t>ඞМесто, где ты живешь во сне?</t>
         </is>
@@ -39296,7 +39296,7 @@
 This breath is the same as what I felt in my dream.</t>
         </is>
       </c>
-      <c r="H801" s="0" t="inlineStr">
+      <c r="H801" t="inlineStr">
         <is>
           <t>ඞЯ не знаю почему.
 В моем сне я, кажется, изменил свое тело.
@@ -39343,7 +39343,7 @@
           <t>What exactly does Ryan want us to do?</t>
         </is>
       </c>
-      <c r="H802" s="0" t="inlineStr">
+      <c r="H802" t="inlineStr">
         <is>
           <t>ඞЧто именно Райан хочет, чтобы мы сделали?</t>
         </is>
@@ -39415,7 +39415,7 @@
 None of us can get rid of the agreed rules…</t>
         </is>
       </c>
-      <c r="H803" s="0" t="inlineStr">
+      <c r="H803" t="inlineStr">
         <is>
           <t>ඞЯ думаю... возможно, это согласованный пункт.
 Какое соглашение заключил с ними Тонсон?
@@ -39468,7 +39468,7 @@
 So you decided to encourage her courage.</t>
         </is>
       </c>
-      <c r="H804" s="0" t="inlineStr">
+      <c r="H804" t="inlineStr">
         <is>
           <t>ඞВам кажется, что Венде грустна, и, возможно, у вас тоже возникло это чувство беспомощности.
 И вы решили подбодрить ее смелостью.</t>
@@ -39535,7 +39535,7 @@
 Oath waved with greed is used to be broken!</t>
         </is>
       </c>
-      <c r="H805" s="0" t="inlineStr">
+      <c r="H805" t="inlineStr">
         <is>
           <t>ඞЯ вижу…
 Венде, весь город связан их контрактом.
@@ -39587,7 +39587,7 @@
 She slowly wiped away her tears as if she had regained her confidence.</t>
         </is>
       </c>
-      <c r="H806" s="0" t="inlineStr">
+      <c r="H806" t="inlineStr">
         <is>
           <t>ඞВенде услышала ваши слова, и у нее невольно потекли слезы.
 Она медленно вытерла слезы, как будто к ней вернулась уверенность.</t>
@@ -39660,7 +39660,7 @@
 Because only through the altar can give them things.</t>
         </is>
       </c>
-      <c r="H807" s="0" t="inlineStr">
+      <c r="H807" t="inlineStr">
         <is>
           <t>ඞИстинное соглашение?
 Я вижу…Ммм...…
@@ -39713,7 +39713,7 @@
 I will meet Horn first to see how to sneak into Tonson's house.</t>
         </is>
       </c>
-      <c r="H808" s="0" t="inlineStr">
+      <c r="H808" t="inlineStr">
         <is>
           <t>ඞЧто ж, понятно.
 Сначала я встречусь с Хорном, чтобы узнать, как проникнуть в дом Тонсона.</t>
@@ -39762,7 +39762,7 @@
 So if you encounter those monsters they should not attack you.</t>
         </is>
       </c>
-      <c r="H809" s="0" t="inlineStr">
+      <c r="H809" t="inlineStr">
         <is>
           <t>ඞАх, да, вот и вы.
 Так что, если вы столкнетесь с этими монстрами, они не должны нападать на вас.</t>
@@ -39805,7 +39805,7 @@
           <t>Wende gave you a signet pendant.</t>
         </is>
       </c>
-      <c r="H810" s="0" t="inlineStr">
+      <c r="H810" t="inlineStr">
         <is>
           <t>ඞВенде подарила тебе кулон с печаткой.</t>
         </is>
@@ -39853,7 +39853,7 @@
 I should have no use for it…</t>
         </is>
       </c>
-      <c r="H811" s="0" t="inlineStr">
+      <c r="H811" t="inlineStr">
         <is>
           <t>ඞЭто то, что они мне дали.
 Я не должен был этим пользоваться…</t>
@@ -39902,7 +39902,7 @@
 If there are any clues, I will come back and tell you as soon as possible.</t>
         </is>
       </c>
-      <c r="H812" s="0" t="inlineStr">
+      <c r="H812" t="inlineStr">
         <is>
           <t>ඞЧто ж, это мне очень помогло.
 Если будут какие-то подсказки, я вернусь и расскажу вам как можно скорее.</t>
@@ -39945,7 +39945,7 @@
           <t>This may useful later.</t>
         </is>
       </c>
-      <c r="H813" s="0" t="inlineStr">
+      <c r="H813" t="inlineStr">
         <is>
           <t>ඞЭто может пригодиться позже.</t>
         </is>
@@ -39987,7 +39987,7 @@
           <t>Take Merder</t>
         </is>
       </c>
-      <c r="H814" s="0" t="inlineStr">
+      <c r="H814" t="inlineStr">
         <is>
           <t>ඞВозьмем Мердера</t>
         </is>
@@ -40029,7 +40029,7 @@
           <t>Too close to Merder will be affected by its scent.</t>
         </is>
       </c>
-      <c r="H815" s="0" t="inlineStr">
+      <c r="H815" t="inlineStr">
         <is>
           <t>ඞЕсли вы будете находиться слишком близко к Мердеру, это повлияет на его запах.</t>
         </is>
@@ -40071,7 +40071,7 @@
           <t>You have to find a way to resist Merder's scent.</t>
         </is>
       </c>
-      <c r="H816" s="0" t="inlineStr">
+      <c r="H816" t="inlineStr">
         <is>
           <t>ඞВы должны найти способ противостоять аромату Мердера.</t>
         </is>
@@ -40131,7 +40131,7 @@
 Then you approached Merder and this time the scent did not invade your consciousness.</t>
         </is>
       </c>
-      <c r="H817" s="0" t="inlineStr">
+      <c r="H817" t="inlineStr">
         <is>
           <t>ඞВы открываете флакон с очищающим средством и даете жидкости политься в нос.
 Сильный и раздражающий запах распространяется по носовой полости, и кажется, что горло перерезано.
@@ -40182,7 +40182,7 @@
 There are twisted tentacles under it, cruel and dangerous.</t>
         </is>
       </c>
-      <c r="H818" s="0" t="inlineStr">
+      <c r="H818" t="inlineStr">
         <is>
           <t>ඞВы можете видеть, что Венде одет в поношенный халат, который, кажется, связан с его плотью и кровью.
 Под ним видны скрученные щупальца, жестокие и опасные.</t>
@@ -40225,7 +40225,7 @@
           <t>Wende… How did you become like this…</t>
         </is>
       </c>
-      <c r="H819" s="0" t="inlineStr">
+      <c r="H819" t="inlineStr">
         <is>
           <t>ඞВенде… Как ты стала такой…</t>
         </is>
@@ -40289,7 +40289,7 @@
 It's time to accompany them…</t>
         </is>
       </c>
-      <c r="H820" s="0" t="inlineStr">
+      <c r="H820" t="inlineStr">
         <is>
           <t>ඞНе беспокойтесь обо мне.……
 Из-за своего эгоизма я позволил всем попасть в ловушку замкнутого круга.…
@@ -40334,7 +40334,7 @@
           <t>But is this really the result you want?!</t>
         </is>
       </c>
-      <c r="H821" s="0" t="inlineStr">
+      <c r="H821" t="inlineStr">
         <is>
           <t>ඞНо действительно ли это тот результат, которого вы хотите?!</t>
         </is>
@@ -40376,7 +40376,7 @@
           <t>Wende fell silent, and finally said slowly.</t>
         </is>
       </c>
-      <c r="H822" s="0" t="inlineStr">
+      <c r="H822" t="inlineStr">
         <is>
           <t>ඞВенде замолчала и наконец медленно произнесла:</t>
         </is>
@@ -40426,7 +40426,7 @@
 Loneliness… Isn't it also a kind of freedom…?</t>
         </is>
       </c>
-      <c r="H823" s="0" t="inlineStr">
+      <c r="H823" t="inlineStr">
         <is>
           <t>ඞХотя я не могу двигаться, у меня было много свободного времени.
 Одиночество… Разве это тоже не своего рода свобода?..</t>
@@ -40469,7 +40469,7 @@
           <t>Don't you want to wait for your father to come back?</t>
         </is>
       </c>
-      <c r="H824" s="0" t="inlineStr">
+      <c r="H824" t="inlineStr">
         <is>
           <t>ඞРазве ты не хочешь дождаться возвращения своего отца?</t>
         </is>
@@ -40583,7 +40583,7 @@
 But I can still feel happiness after our reunion.</t>
         </is>
       </c>
-      <c r="H825" s="0" t="inlineStr">
+      <c r="H825" t="inlineStr">
         <is>
           <t>ඞЯ... я хочу дождаться, когда он вернется.
 Но в то же время мне страшно…
@@ -40637,7 +40637,7 @@
           <t>This wish can still become true.</t>
         </is>
       </c>
-      <c r="H826" s="0" t="inlineStr">
+      <c r="H826" t="inlineStr">
         <is>
           <t>ඞЭто желание все еще может сбыться.</t>
         </is>
@@ -40709,7 +40709,7 @@
 In this way, you can all live well in the real world…</t>
         </is>
       </c>
-      <c r="H827" s="0" t="inlineStr">
+      <c r="H827" t="inlineStr">
         <is>
           <t>ඞНет… это желание никогда не сбудется…
 Я обещал договориться с ними, и вы все вернетесь к реальности.
@@ -40756,7 +40756,7 @@
           <t>Wende has reached an agreement with the mysterious existence; she will sacrifice herself to end the cycle, and you are prepared to…</t>
         </is>
       </c>
-      <c r="H828" s="0" t="inlineStr">
+      <c r="H828" t="inlineStr">
         <is>
           <t>ඞВенде заключила соглашение с таинственным существом; она пожертвует собой, чтобы положить конец циклу, и вы готовы к этому.…</t>
         </is>
@@ -40798,7 +40798,7 @@
           <t>[Let the Wende leave and respect Wende's sacrifice]</t>
         </is>
       </c>
-      <c r="H829" s="0" t="inlineStr">
+      <c r="H829" t="inlineStr">
         <is>
           <t>ඞ[Позволь Венде уйти и уважь жертву Венде]</t>
         </is>
@@ -40840,7 +40840,7 @@
           <t>[Kill Wende, grant wind's wish]</t>
         </is>
       </c>
-      <c r="H830" s="0" t="inlineStr">
+      <c r="H830" t="inlineStr">
         <is>
           <t>ඞ[Убей Венде, исполни желание ветра]</t>
         </is>
@@ -40882,7 +40882,7 @@
           <t>The plot will come to the end.</t>
         </is>
       </c>
-      <c r="H831" s="0" t="inlineStr">
+      <c r="H831" t="inlineStr">
         <is>
           <t>ඞСюжет подойдет к концу.</t>
         </is>
@@ -40936,7 +40936,7 @@
 I will not let anyone forget about you!</t>
         </is>
       </c>
-      <c r="H832" s="0" t="inlineStr">
+      <c r="H832" t="inlineStr">
         <is>
           <t>ඞПозволь невинным людям принести себя в жертву, а потом спокойно наслаждаться урожаем.
 Я не смогу этого сделать!
@@ -40986,7 +40986,7 @@
 You will die for sure…</t>
         </is>
       </c>
-      <c r="H833" s="0" t="inlineStr">
+      <c r="H833" t="inlineStr">
         <is>
           <t>ඞНет, это они контролируют это тело сейчас…
 Ты точно умрешь…</t>
@@ -41029,7 +41029,7 @@
           <t>I've been aware of this for a long time.</t>
         </is>
       </c>
-      <c r="H834" s="0" t="inlineStr">
+      <c r="H834" t="inlineStr">
         <is>
           <t>ඞЯ знал об этом уже давно.</t>
         </is>
@@ -41071,7 +41071,7 @@
           <t>Wende regained human form and fell down.</t>
         </is>
       </c>
-      <c r="H835" s="0" t="inlineStr">
+      <c r="H835" t="inlineStr">
         <is>
           <t>ඞВенде вновь обрела человеческий облик и упала.</t>
         </is>
@@ -41113,7 +41113,7 @@
           <t>How it could be? Reshape phenomenon is still!</t>
         </is>
       </c>
-      <c r="H836" s="0" t="inlineStr">
+      <c r="H836" t="inlineStr">
         <is>
           <t>ඞКак это могло быть? Феномен изменения формы существует до сих пор!</t>
         </is>
@@ -41155,7 +41155,7 @@
           <t>This backtrack… Is different from the previous one…</t>
         </is>
       </c>
-      <c r="H837" s="0" t="inlineStr">
+      <c r="H837" t="inlineStr">
         <is>
           <t>ඞЭтот обратный путь… Отличается от предыдущего…</t>
         </is>
@@ -41197,7 +41197,7 @@
           <t>Your body gradually becomes transparent.</t>
         </is>
       </c>
-      <c r="H838" s="0" t="inlineStr">
+      <c r="H838" t="inlineStr">
         <is>
           <t>ඞВаше тело постепенно становится прозрачным.</t>
         </is>
@@ -41239,7 +41239,7 @@
           <t>The surrounding scene disappears again as the water curtain falls.|You find yourself on a huge blank canvas.|New shapes gradually appear on the canvas.|And you see different changes in the story as if you were watching the story.</t>
         </is>
       </c>
-      <c r="H839" s="0" t="inlineStr">
+      <c r="H839" t="inlineStr">
         <is>
           <t>ඞОкружающий пейзаж снова исчезает, когда опускается водяная завеса.|Вы оказываетесь на огромном чистом холсте.|На холсте постепенно появляются новые фигуры.|И вы видите различные изменения в сюжете, как будто смотрите его сами.</t>
         </is>
@@ -41281,7 +41281,7 @@
           <t>I understand…</t>
         </is>
       </c>
-      <c r="H840" s="0" t="inlineStr">
+      <c r="H840" t="inlineStr">
         <is>
           <t>ඞЯ понимаю…</t>
         </is>
@@ -41323,7 +41323,7 @@
           <t>You hesitated several times, but in the end, you chose to grant Wende's wish.</t>
         </is>
       </c>
-      <c r="H841" s="0" t="inlineStr">
+      <c r="H841" t="inlineStr">
         <is>
           <t>ඞТы несколько раз колебался, но в конце концов решил исполнить желание Венде.</t>
         </is>
@@ -41365,7 +41365,7 @@
           <t>Thank you…</t>
         </is>
       </c>
-      <c r="H842" s="0" t="inlineStr">
+      <c r="H842" t="inlineStr">
         <is>
           <t>ඞСпасибо…</t>
         </is>
@@ -41407,7 +41407,7 @@
           <t>Wende</t>
         </is>
       </c>
-      <c r="H843" s="0" t="inlineStr">
+      <c r="H843" t="inlineStr">
         <is>
           <t>ඞПоворот</t>
         </is>
@@ -41449,7 +41449,7 @@
           <t>Lair</t>
         </is>
       </c>
-      <c r="H844" s="0" t="inlineStr">
+      <c r="H844" t="inlineStr">
         <is>
           <t>ඞLair</t>
         </is>
@@ -41491,7 +41491,7 @@
           <t xml:space="preserve"> "Pact of Kadath"</t>
         </is>
       </c>
-      <c r="H845" s="0" t="inlineStr">
+      <c r="H845" t="inlineStr">
         <is>
           <t>ඞ"Пакт Кадата"</t>
         </is>
@@ -41551,7 +41551,7 @@
 "I hope you will repay me and let me have a healthy body, the authority of the king, and endless wealth."</t>
         </is>
       </c>
-      <c r="H846" s="0" t="inlineStr">
+      <c r="H846" t="inlineStr">
         <is>
           <t>ඞЭто английская копия свитка. Свиток называется "Пакт Кадата".
 Когда вы перепишете его, то увидите следующий текст договора::
@@ -41608,7 +41608,7 @@
 "Signature: Tonson"</t>
         </is>
       </c>
-      <c r="H847" s="0" t="inlineStr">
+      <c r="H847" t="inlineStr">
         <is>
           <t>ඞ"Каждый год я буду дарить вам подходящую душу. Я позволю людям здесь думать только о работе и стану лучшим помощником в создании вечной паутины".
 "Пока подарки продолжают поступать, этот контракт будет действовать вечно".
@@ -41652,7 +41652,7 @@
           <t>This is a scroll recording verious evil contracts. You choose…</t>
         </is>
       </c>
-      <c r="H848" s="0" t="inlineStr">
+      <c r="H848" t="inlineStr">
         <is>
           <t>ඞЭто свиток, в котором записаны подлинные злые контракты. Вы выбираете…</t>
         </is>
@@ -41694,7 +41694,7 @@
           <t>[Take the Book]</t>
         </is>
       </c>
-      <c r="H849" s="0" t="inlineStr">
+      <c r="H849" t="inlineStr">
         <is>
           <t>ඞ[Возьми книгу]</t>
         </is>
@@ -41736,7 +41736,7 @@
           <t>[Do nothing]</t>
         </is>
       </c>
-      <c r="H850" s="0" t="inlineStr">
+      <c r="H850" t="inlineStr">
         <is>
           <t>ඞ[Ничего не делать]</t>
         </is>
@@ -41778,7 +41778,7 @@
           <t>Read the book</t>
         </is>
       </c>
-      <c r="H851" s="0" t="inlineStr">
+      <c r="H851" t="inlineStr">
         <is>
           <t>ඞПрочтите эту книгу</t>
         </is>
@@ -41826,7 +41826,7 @@
 You begin to sing obstinate incantations and pray to the altar.</t>
         </is>
       </c>
-      <c r="H852" s="0" t="inlineStr">
+      <c r="H852" t="inlineStr">
         <is>
           <t>ඞВы прочитали заклинание, записанное в книге, и научились пользоваться алтарем.
 Вы начинаете упорно произносить заклинания и молиться алтарю.</t>
@@ -41875,7 +41875,7 @@
 Your eyes become scarlet. After a long time, the balderdash tide gradually fades and your eyes regain their clarity.</t>
         </is>
       </c>
-      <c r="H853" s="0" t="inlineStr">
+      <c r="H853" t="inlineStr">
         <is>
           <t>ඞУжасная чепуха вырвалась из твоих ушей, и примитивные и безумные эмоции охватили твое сердце.
 Твои глаза становятся алыми. Спустя долгое время прилив чепухи постепенно проходит, и твои глаза вновь обретают ясность.</t>
@@ -41918,7 +41918,7 @@
           <t>You have a short connection with the Elder Gods and you have learned [Evil Eye].</t>
         </is>
       </c>
-      <c r="H854" s="0" t="inlineStr">
+      <c r="H854" t="inlineStr">
         <is>
           <t>ඞУ вас короткая связь со Старшими Богами, и вы научились [Сглазу].</t>
         </is>
@@ -41960,7 +41960,7 @@
           <t>You have a short connection with the Elder Gods and you have learned [Evil Eye] and [Implant Fear].</t>
         </is>
       </c>
-      <c r="H855" s="0" t="inlineStr">
+      <c r="H855" t="inlineStr">
         <is>
           <t>ඞУ вас короткая связь со Старшими Богами, и вы научились [Сглазу] и [Внушению страха].</t>
         </is>
@@ -42002,7 +42002,7 @@
           <t>You have a short connection with the Elder Gods and you have learned [Evil Eye], [Implant Fear], and [Dominate].</t>
         </is>
       </c>
-      <c r="H856" s="0" t="inlineStr">
+      <c r="H856" t="inlineStr">
         <is>
           <t>ඞУ вас короткая связь со Старшими Богами, и вы научились [Сглазу], [Внушать страх] и [Властвовать].</t>
         </is>
@@ -42050,7 +42050,7 @@
 The gray lines spread to you layer by layer and the altar in front of you seems to be alive.</t>
         </is>
       </c>
-      <c r="H857" s="0" t="inlineStr">
+      <c r="H857" t="inlineStr">
         <is>
           <t>ඞВам кажется, что вы попали в кошмар, и все вокруг становится серым.
 Серые линии проступают перед вами слой за слоем, и алтарь перед вами кажется живым.</t>
@@ -42093,7 +42093,7 @@
           <t>The illusion disappears and you feel cold sweat. You do not know when you have knelt down in front of the altar.</t>
         </is>
       </c>
-      <c r="H858" s="0" t="inlineStr">
+      <c r="H858" t="inlineStr">
         <is>
           <t>ඞИллюзия исчезает, и вы покрываетесь холодным потом. Вы не осознаете, что опустились на колени перед алтарем.</t>
         </is>
@@ -42135,7 +42135,7 @@
           <t>Offer Black Seeds</t>
         </is>
       </c>
-      <c r="H859" s="0" t="inlineStr">
+      <c r="H859" t="inlineStr">
         <is>
           <t>ඞПредлагайте Черные семечки</t>
         </is>
@@ -42177,7 +42177,7 @@
           <t>This action will lead to a change in the plot.</t>
         </is>
       </c>
-      <c r="H860" s="0" t="inlineStr">
+      <c r="H860" t="inlineStr">
         <is>
           <t>ඞЭто действие приведет к изменению сюжета.</t>
         </is>
@@ -42219,7 +42219,7 @@
           <t>Offer the Unknown Egg</t>
         </is>
       </c>
-      <c r="H861" s="0" t="inlineStr">
+      <c r="H861" t="inlineStr">
         <is>
           <t>ඞПредложите неизвестное яйцо</t>
         </is>
@@ -42261,7 +42261,7 @@
           <t>You reached out to touch the spider web, but there is nothing.</t>
         </is>
       </c>
-      <c r="H862" s="0" t="inlineStr">
+      <c r="H862" t="inlineStr">
         <is>
           <t>ඞВы протянули руку, чтобы дотронуться до паутины, но там ничего нет.</t>
         </is>
@@ -42303,7 +42303,7 @@
           <t>These spider webs are not physical…</t>
         </is>
       </c>
-      <c r="H863" s="0" t="inlineStr">
+      <c r="H863" t="inlineStr">
         <is>
           <t>ඞЭти паутины не являются физическими…</t>
         </is>
@@ -42345,7 +42345,7 @@
           <t>Investigate spider web</t>
         </is>
       </c>
-      <c r="H864" s="0" t="inlineStr">
+      <c r="H864" t="inlineStr">
         <is>
           <t>ඞИсследуйте паутину</t>
         </is>
@@ -42393,7 +42393,7 @@
 You can see that the black egg is gradually splitting and a little spider breaks its shell and comes out. It easily climbs onto the spider web and looks at you with eight eyes as if waiting for your order.</t>
         </is>
       </c>
-      <c r="H865" s="0" t="inlineStr">
+      <c r="H865" t="inlineStr">
         <is>
           <t>ඞНеизвестное яйцо, которое вы приносите, вибрирует.
 Вы можете видеть, как черное яйцо постепенно раскалывается, и маленький паучок пробивает скорлупу и вылезает наружу. Он легко взбирается по паутине и смотрит на вас восемью глазами, как будто ждет вашего заказа.</t>
@@ -42436,7 +42436,7 @@
           <t>Just when you were thinking about how to communicate with it, this little guy bit you——</t>
         </is>
       </c>
-      <c r="H866" s="0" t="inlineStr">
+      <c r="H866" t="inlineStr">
         <is>
           <t>ඞКак раз в тот момент, когда вы думали о том, как с ним связаться, этот маленький человечек укусил вас——</t>
         </is>
@@ -42478,7 +42478,7 @@
           <t>Extreme joy, anger, sorrow, fear, love, and evil all invaded your heart in an instant, and you noticed that all of your meridians appeared to be connected to a giant net, and your consciousness was being absorbed in the giant net.</t>
         </is>
       </c>
-      <c r="H867" s="0" t="inlineStr">
+      <c r="H867" t="inlineStr">
         <is>
           <t>ඞКрайняя радость, гнев, печаль, страх, любовь и зло - все это охватило ваше сердце в одно мгновение, и вы заметили, что все ваши меридианы, казалось, были соединены с гигантской сетью, и ваше сознание было поглощено этой гигантской сетью.</t>
         </is>
@@ -42520,7 +42520,7 @@
           <t>The darkness in front of you is surging and the dark and fearful breath is spreading toward you. There are countless "hissing" sounds around you. You try your best to break free from the giant net which generate by your emotions but still failed.</t>
         </is>
       </c>
-      <c r="H868" s="0" t="inlineStr">
+      <c r="H868" t="inlineStr">
         <is>
           <t>ඞТьма перед вами сгущается, и дыхание тьмы и страха распространяется по направлению к вам. Вокруг вас раздается бесчисленное множество "шипящих" звуков. Вы изо всех сил пытаетесь вырваться из гигантской сети, которую создают ваши эмоции, но все равно терпите неудачу.</t>
         </is>
@@ -42580,7 +42580,7 @@
 The face stared at you coldly and said to you…</t>
         </is>
       </c>
-      <c r="H869" s="0" t="inlineStr">
+      <c r="H869" t="inlineStr">
         <is>
           <t>ඞВ этот момент вы можете отчетливо видеть ужас в гигантской сети.
 Темное тело, наполовину похожее на человека, но с длинными паукообразными конечностями…
@@ -42631,7 +42631,7 @@
 "However, the contract has been complete, I will continue to weave the eternal web and you have to go quickly."</t>
         </is>
       </c>
-      <c r="H870" s="0" t="inlineStr">
+      <c r="H870" t="inlineStr">
         <is>
           <t>ඞ"Ты не тот, кто воспитал моих наследников, поэтому ты не можешь быть одарен".
 "Тем не менее, контракт выполнен, я продолжу плести вечную паутину, и тебе нужно поторопиться".</t>
@@ -42674,7 +42674,7 @@
           <t>They gradually step back and disappear in front of you.</t>
         </is>
       </c>
-      <c r="H871" s="0" t="inlineStr">
+      <c r="H871" t="inlineStr">
         <is>
           <t>ඞОни постепенно отступают назад и исчезают у вас на глазах.</t>
         </is>
@@ -42716,7 +42716,7 @@
           <t>The surrounding spider webs disappeared, your consciousness quickly began to accelerate upwards, your whole body was finally thrown up, and you escaped from the abyss, and were thrown into the sky above the town.</t>
         </is>
       </c>
-      <c r="H872" s="0" t="inlineStr">
+      <c r="H872" t="inlineStr">
         <is>
           <t>ඞОкружающая вас паутина исчезла, ваше сознание быстро начало ускоряться вверх, все ваше тело, наконец, было подброшено вверх, и вы вырвались из пропасти и были выброшены в небо над городом.</t>
         </is>
@@ -42758,7 +42758,7 @@
           <t>As the white mist around town dissipated, in the sky, you saw a blue-haired figure run to West Street in a panic, and he slipped out of town immediately after the white mist dissipated.</t>
         </is>
       </c>
-      <c r="H873" s="0" t="inlineStr">
+      <c r="H873" t="inlineStr">
         <is>
           <t>ඞКогда белый туман вокруг города рассеялся, в небе вы увидели синеволосую фигуру, в панике выбежавшую на Западную улицу, и он выскользнул из города сразу же после того, как белый туман рассеялся.</t>
         </is>
@@ -42800,7 +42800,7 @@
           <t>A sad song came on just as you fell to the ground in fear, and time reversed.</t>
         </is>
       </c>
-      <c r="H874" s="0" t="inlineStr">
+      <c r="H874" t="inlineStr">
         <is>
           <t>ඞЗазвучала грустная песня как раз в тот момент, когда ты в страхе упал на землю, и время повернулось вспять.</t>
         </is>
@@ -42842,7 +42842,7 @@
           <t>You muster your courage and jump into the abyss. You fell down for several seconds without actually hitting the ground, but your fall stopped.</t>
         </is>
       </c>
-      <c r="H875" s="0" t="inlineStr">
+      <c r="H875" t="inlineStr">
         <is>
           <t>ඞВы набираетесь храбрости и прыгаете в пропасть. Вы падали вниз несколько секунд, не достигая земли, но затем ваше падение прекратилось.</t>
         </is>
@@ -42890,7 +42890,7 @@
 And you noticed that there a countless corpses under the web and one of them just looks like you and the things stuck with the web are just your consciousness.</t>
         </is>
       </c>
-      <c r="H876" s="0" t="inlineStr">
+      <c r="H876" t="inlineStr">
         <is>
           <t>ඞВы, кажется, за что-то цепляетесь, но до сих пор обнаруживаете, что все, что вас окружает, - это гигантская паутина! Весь город построен на огромной паутине!
 И вы заметили, что под паутиной находится бесчисленное множество трупов, и один из них просто похож на вас, а то, что застряло в паутине, - это всего лишь ваше сознание.</t>
@@ -42933,7 +42933,7 @@
           <t>The darkness in front of you is surging and the dark and fearful breath is spreading toward you. There are countless "hissing" sounds around you. You try your best to break free from the giant net but still failed.</t>
         </is>
       </c>
-      <c r="H877" s="0" t="inlineStr">
+      <c r="H877" t="inlineStr">
         <is>
           <t>ඞТьма перед вами сгущается, и дыхание тьмы и страха распространяется по направлению к вам. Вокруг вас раздается бесчисленное количество шипящих звуков. Вы изо всех сил пытаетесь вырваться из гигантской сети, но у вас ничего не получается.</t>
         </is>
@@ -42993,7 +42993,7 @@
 The face stared at you coldly and said to you…</t>
         </is>
       </c>
-      <c r="H878" s="0" t="inlineStr">
+      <c r="H878" t="inlineStr">
         <is>
           <t>ඞВ этот момент вы можете отчетливо видеть ужас в гигантской сети.
 Темное тело, наполовину похожее на человека, но с длинными паукообразными конечностями…
@@ -43038,7 +43038,7 @@
           <t>"You are not the one who disobeys my agreement. I will not commit your sin. You should go quickly."</t>
         </is>
       </c>
-      <c r="H879" s="0" t="inlineStr">
+      <c r="H879" t="inlineStr">
         <is>
           <t>ඞ- Не ты нарушаешь мое соглашение. Я не совершу твоего греха. Тебе следует поторопиться.</t>
         </is>
@@ -43080,7 +43080,7 @@
           <t>They gradually step back and disappear in front of you, and then the light appears before your eyes gradually…</t>
         </is>
       </c>
-      <c r="H880" s="0" t="inlineStr">
+      <c r="H880" t="inlineStr">
         <is>
           <t>ඞОни постепенно отступают назад и исчезают у вас на глазах, а затем перед вашими глазами постепенно появляется свет…</t>
         </is>
@@ -43122,7 +43122,7 @@
           <t>The abyss in front of you cannot detect its bottom, it seems to go straight to the center of the earth.</t>
         </is>
       </c>
-      <c r="H881" s="0" t="inlineStr">
+      <c r="H881" t="inlineStr">
         <is>
           <t>ඞУ пропасти перед вами не видно дна, кажется, что она тянется прямо к центру земли.</t>
         </is>
@@ -43170,7 +43170,7 @@
 Since death can be traced back, I might try it.</t>
         </is>
       </c>
-      <c r="H882" s="0" t="inlineStr">
+      <c r="H882" t="inlineStr">
         <is>
           <t>ඞВнизу нет белого тумана…
 Поскольку смерть можно проследить, я мог бы попробовать.</t>
@@ -43213,7 +43213,7 @@
           <t>The bottomless abyss in front of you is not covered by a white mist. You are going to…</t>
         </is>
       </c>
-      <c r="H883" s="0" t="inlineStr">
+      <c r="H883" t="inlineStr">
         <is>
           <t>ඞБездонная пропасть перед вами не покрыта белым туманом. Вы собираетесь…</t>
         </is>
@@ -43255,7 +43255,7 @@
           <t>[Jump into Abyss]</t>
         </is>
       </c>
-      <c r="H884" s="0" t="inlineStr">
+      <c r="H884" t="inlineStr">
         <is>
           <t>ඞ[Прыжок в пропасть]</t>
         </is>
@@ -43297,7 +43297,7 @@
           <t>[Think Again]</t>
         </is>
       </c>
-      <c r="H885" s="0" t="inlineStr">
+      <c r="H885" t="inlineStr">
         <is>
           <t>ඞ[Подумай еще раз]</t>
         </is>
@@ -43339,7 +43339,7 @@
           <t>Investigate the Abyss</t>
         </is>
       </c>
-      <c r="H886" s="0" t="inlineStr">
+      <c r="H886" t="inlineStr">
         <is>
           <t>ඞИсследуйте бездну</t>
         </is>
@@ -43381,7 +43381,7 @@
           <t>Perhaps it was a stroke of luck that you fell into an underground tunnel | Landed on a massive spider web and awoke unharmed.</t>
         </is>
       </c>
-      <c r="H887" s="0" t="inlineStr">
+      <c r="H887" t="inlineStr">
         <is>
           <t>ඞВозможно, вам просто повезло, что вы упали в подземный туннель | приземлились на огромную паутину и проснулись целыми и невредимыми.</t>
         </is>
@@ -43423,7 +43423,7 @@
           <t>This is a huge nest under it!</t>
         </is>
       </c>
-      <c r="H888" s="0" t="inlineStr">
+      <c r="H888" t="inlineStr">
         <is>
           <t>ඞЭто огромное гнездо под ним!</t>
         </is>
@@ -43471,7 +43471,7 @@
 Instead, they quickly climbed to the edge of the abyss and left.</t>
         </is>
       </c>
-      <c r="H889" s="0" t="inlineStr">
+      <c r="H889" t="inlineStr">
         <is>
           <t>ඞОкружающие паукообразные монстры почувствовали ваше присутствие и не стали нападать на вас.
 Вместо этого они быстро вскарабкались на край пропасти и ушли.</t>
@@ -43514,7 +43514,7 @@
           <t>You were taken by Tonson to a huge underground nest.</t>
         </is>
       </c>
-      <c r="H890" s="0" t="inlineStr">
+      <c r="H890" t="inlineStr">
         <is>
           <t>ඞТонсон привел вас в огромное подземное гнездо.</t>
         </is>
@@ -43562,7 +43562,7 @@
 Horn on the other side is in the same situation as you but he is being tied up. It seems that Tonson is taking good care of him.</t>
         </is>
       </c>
-      <c r="H891" s="0" t="inlineStr">
+      <c r="H891" t="inlineStr">
         <is>
           <t>ඞВы чувствуете, что ваше тело не может двигаться. Хотя вы можете видеть, слышать и осязать все вокруг, вы не можете пошевелиться.
 Хорн с другой стороны находится в такой же ситуации, как и вы, но он связан. Кажется, что Тонсон хорошо о нем заботится.</t>
@@ -43605,7 +43605,7 @@
           <t>And to your surprise, Wende and Merry were also brought here.</t>
         </is>
       </c>
-      <c r="H892" s="0" t="inlineStr">
+      <c r="H892" t="inlineStr">
         <is>
           <t>ඞИ, к вашему удивлению, Венде и Мерри тоже были доставлены сюда.</t>
         </is>
@@ -43647,7 +43647,7 @@
           <t>And to your surprise, Wende was also brought here.</t>
         </is>
       </c>
-      <c r="H893" s="0" t="inlineStr">
+      <c r="H893" t="inlineStr">
         <is>
           <t>ඞИ, к вашему удивлению, Венде тоже привезли сюда.</t>
         </is>
@@ -43701,7 +43701,7 @@
 He turned around and said to you.</t>
         </is>
       </c>
-      <c r="H894" s="0" t="inlineStr">
+      <c r="H894" t="inlineStr">
         <is>
           <t>ඞВы видите, как Тонсон молится статуе.
 Он произносит непонятное заклинание. Через некоторое время его молитва закончилась.
@@ -43763,7 +43763,7 @@
 But I promise you will understand everything I do when you know the truth!</t>
         </is>
       </c>
-      <c r="H895" s="0" t="inlineStr">
+      <c r="H895" t="inlineStr">
         <is>
           <t>ඞНаконец-то у меня появилась возможность поговорить с вами.
 Чтобы избежать несчастных случаев, я ограничил ваше передвижение.
@@ -43850,7 +43850,7 @@
 If you really want to change the rules here, you need to exchange more valuable things.</t>
         </is>
       </c>
-      <c r="H896" s="0" t="inlineStr">
+      <c r="H896" t="inlineStr">
         <is>
           <t>ඞРайан сделал свой выбор.
 Он был человеком правил.
@@ -43929,7 +43929,7 @@
 Everything would have been back on track!</t>
         </is>
       </c>
-      <c r="H897" s="0" t="inlineStr">
+      <c r="H897" t="inlineStr">
         <is>
           <t>ඞЯ восхищаюсь действиями Райана.
 Он отдал все свои эмоции Атлаху и хотел расторгнуть последний контракт.
@@ -43988,7 +43988,7 @@
 You will let everyone bury with you!</t>
         </is>
       </c>
-      <c r="H898" s="0" t="inlineStr">
+      <c r="H898" t="inlineStr">
         <is>
           <t>ඞНо ты взорвался здесь!
 Твое поведение задевает всех нас!
@@ -44032,7 +44032,7 @@
           <t>Tonson is too angry to speak, but Horn is indifferent.</t>
         </is>
       </c>
-      <c r="H899" s="0" t="inlineStr">
+      <c r="H899" t="inlineStr">
         <is>
           <t>ඞТонсон слишком зол, чтобы говорить, но Хорну все равно.</t>
         </is>
@@ -44092,7 +44092,7 @@
 I am really disappointed!</t>
         </is>
       </c>
-      <c r="H900" s="0" t="inlineStr">
+      <c r="H900" t="inlineStr">
         <is>
           <t>ඞК счастью, наступил черед, давший мне шанс успокоить их гнев.
 Мелле обладает всеми качествами, присущими их радости. Я думал, что нашел выход.
@@ -44155,7 +44155,7 @@
 If you promise me to let the cycle continue, I will never let you down.</t>
         </is>
       </c>
-      <c r="H901" s="0" t="inlineStr">
+      <c r="H901" t="inlineStr">
         <is>
           <t>ඞВенде, я действительно думаю, что ты согласишься со мной.
 Мы должны различать эффективность и вред, когда что-то делаем.
@@ -44200,7 +44200,7 @@
           <t>Wende gasped as if to say something. Tonson flicked his fingers and released the control so Wende could speak.</t>
         </is>
       </c>
-      <c r="H902" s="0" t="inlineStr">
+      <c r="H902" t="inlineStr">
         <is>
           <t>ඞВенде ахнула, словно собираясь что-то сказать. Тонсон щелкнул пальцами и отпустил пульт, чтобы Венде могла говорить.</t>
         </is>
@@ -44254,7 +44254,7 @@
 Don't you think it is a cruel act toward others?</t>
         </is>
       </c>
-      <c r="H903" s="0" t="inlineStr">
+      <c r="H903" t="inlineStr">
         <is>
           <t>ඞМистер Тонсон… действительно…
 с давних пор мне нравится манипулировать другими людьми…
@@ -44346,7 +44346,7 @@
 And I just let them share the same heart, the same home, the same glorious destiny.</t>
         </is>
       </c>
-      <c r="H904" s="0" t="inlineStr">
+      <c r="H904" t="inlineStr">
         <is>
           <t>ඞЭто ваше предубеждение.
 Я правлю здесь с наиболее эффективной точки зрения.
@@ -44396,7 +44396,7 @@
           <t>Oh, Mr. Tonson, I think I figure out one thing.</t>
         </is>
       </c>
-      <c r="H905" s="0" t="inlineStr">
+      <c r="H905" t="inlineStr">
         <is>
           <t>ඞО, мистер Тонсон, мне кажется, я кое-что понял.</t>
         </is>
@@ -44438,7 +44438,7 @@
           <t>Huh?!</t>
         </is>
       </c>
-      <c r="H906" s="0" t="inlineStr">
+      <c r="H906" t="inlineStr">
         <is>
           <t>ඞА?!</t>
         </is>
@@ -44498,7 +44498,7 @@
 You have completely lost yourself and your bigotry has replaced the heart that used to be human.</t>
         </is>
       </c>
-      <c r="H907" s="0" t="inlineStr">
+      <c r="H907" t="inlineStr">
         <is>
           <t>ඞМеня всегда удивляло, почему мистер Тонсон упорствует в своих зацикленных мечтах.
 Пока вы не сказали, что у нас общее сердце, я понимал.
@@ -44579,7 +44579,7 @@
 We all share this laudable freedom.</t>
         </is>
       </c>
-      <c r="H908" s="0" t="inlineStr">
+      <c r="H908" t="inlineStr">
         <is>
           <t>ඞВенде, почему ты смеешься надо мной сейчас?
 Чтобы вернуть семью, которая у тебя когда-то была, ты должна сделать так, чтобы это место никогда не менялось.
@@ -44651,7 +44651,7 @@
 But that is all we need to embrace tomorrow.</t>
         </is>
       </c>
-      <c r="H909" s="0" t="inlineStr">
+      <c r="H909" t="inlineStr">
         <is>
           <t>ඞКакой смысл в долгой бессмысленной жизни?
 Просто потому, что я знаю, что у меня мало времени, я особенно дорожу временем, проведенным со мной моим отцом.
@@ -44727,7 +44727,7 @@
 Since you are unwilling to maintain the cycle, I can only take you all to another eternal world with no choice.!</t>
         </is>
       </c>
-      <c r="H910" s="0" t="inlineStr">
+      <c r="H910" t="inlineStr">
         <is>
           <t>ඞВенде, ты уже не маленькая девочка!
 Я не позволю тебе изменить здешние правила!
@@ -44804,7 +44804,7 @@
 Please come and have a try this time. It will relieve your pressure.</t>
         </is>
       </c>
-      <c r="H911" s="0" t="inlineStr">
+      <c r="H911" t="inlineStr">
         <is>
           <t>ඞРайан, это действительно ты!
 Как ты мог стать таким?…
@@ -44857,7 +44857,7 @@
 Maybe she thinks that what is standing in front of her is just a person who has been overwhelmed by pressure and becomes haggard.</t>
         </is>
       </c>
-      <c r="H912" s="0" t="inlineStr">
+      <c r="H912" t="inlineStr">
         <is>
           <t>ඞМерри, похоже, не понимает, насколько ужасен монстр, стоящий перед ней.
 Возможно, она думает, что стоящий перед ней - это просто человек, который был подавлен давлением и стал изможденным.</t>
@@ -44900,7 +44900,7 @@
           <t>Event</t>
         </is>
       </c>
-      <c r="H913" s="0" t="inlineStr">
+      <c r="H913" t="inlineStr">
         <is>
           <t>ඞСобытие</t>
         </is>
@@ -44942,7 +44942,7 @@
           <t>The monster holds his head and the scarlet breath in his eyes begins to fade.</t>
         </is>
       </c>
-      <c r="H914" s="0" t="inlineStr">
+      <c r="H914" t="inlineStr">
         <is>
           <t>ඞЧудовище схватилось за голову, и алое дыхание в его глазах начало исчезать.</t>
         </is>
@@ -44996,7 +44996,7 @@
 "Seems like… I killed a lot of people…"</t>
         </is>
       </c>
-      <c r="H915" s="0" t="inlineStr">
+      <c r="H915" t="inlineStr">
         <is>
           <t>ඞ"Мерри... это ты...?"
 "Как... я стал таким?.."
@@ -45064,7 +45064,7 @@
 You have to come here too.</t>
         </is>
       </c>
-      <c r="H916" s="0" t="inlineStr">
+      <c r="H916" t="inlineStr">
         <is>
           <t>ඞВсе будут в порядке.
 Они должны быть заняты своими делами.
@@ -45110,7 +45110,7 @@
           <t>At this time, Tonson sensed something was wrong.</t>
         </is>
       </c>
-      <c r="H917" s="0" t="inlineStr">
+      <c r="H917" t="inlineStr">
         <is>
           <t>ඞВ это время Тонсон почувствовал, что что-то не так.</t>
         </is>
@@ -45152,7 +45152,7 @@
           <t>That's not good, stop him!</t>
         </is>
       </c>
-      <c r="H918" s="0" t="inlineStr">
+      <c r="H918" t="inlineStr">
         <is>
           <t>ඞЭто нехорошо, остановите его!</t>
         </is>
@@ -45194,7 +45194,7 @@
           <t>Merry…hide behind me…</t>
         </is>
       </c>
-      <c r="H919" s="0" t="inlineStr">
+      <c r="H919" t="inlineStr">
         <is>
           <t>ඞМерри... спрячься за моей спиной.…</t>
         </is>
@@ -45236,7 +45236,7 @@
           <t>Town! Send!</t>
         </is>
       </c>
-      <c r="H920" s="0" t="inlineStr">
+      <c r="H920" t="inlineStr">
         <is>
           <t>ඞГород! Отправить!</t>
         </is>
@@ -45278,7 +45278,7 @@
           <t>Ryan flapped the monster around and the candles on the altar went out. You now regain control of your body.</t>
         </is>
       </c>
-      <c r="H921" s="0" t="inlineStr">
+      <c r="H921" t="inlineStr">
         <is>
           <t>ඞРайан развернул монстра, и свечи на алтаре погасли. Теперь вы восстанавливаете контроль над своим телом.</t>
         </is>
@@ -45320,7 +45320,7 @@
           <t>Hey man! Help me untie the rope!</t>
         </is>
       </c>
-      <c r="H922" s="0" t="inlineStr">
+      <c r="H922" t="inlineStr">
         <is>
           <t>ඞЭй, парень! Помоги мне развязать веревку!</t>
         </is>
@@ -45362,7 +45362,7 @@
           <t>You quickly untie Horn's rope.</t>
         </is>
       </c>
-      <c r="H923" s="0" t="inlineStr">
+      <c r="H923" t="inlineStr">
         <is>
           <t>ඞТы быстро развязываешь веревку Хорна.</t>
         </is>
@@ -45404,7 +45404,7 @@
           <t>You cannout stop me!</t>
         </is>
       </c>
-      <c r="H924" s="0" t="inlineStr">
+      <c r="H924" t="inlineStr">
         <is>
           <t>ඞТы меня не остановишь!</t>
         </is>
@@ -45446,7 +45446,7 @@
           <t>Tonson was defeated by you and you prevented Horn from continuing his violence.</t>
         </is>
       </c>
-      <c r="H925" s="0" t="inlineStr">
+      <c r="H925" t="inlineStr">
         <is>
           <t>ඞТонсон был побежден вами, и вы помешали Хорну продолжить его насилие.</t>
         </is>
@@ -45488,7 +45488,7 @@
           <t>You approach Tonson and prepare to ask Townsend how to remove the dream restrictions. But you only see him muttering, cutting his arm skin and throwing the blood to the statue, and then kneeling and praying with his hand raised.</t>
         </is>
       </c>
-      <c r="H926" s="0" t="inlineStr">
+      <c r="H926" t="inlineStr">
         <is>
           <t>ඞВы подходите к Тонсону и готовитесь спросить Таунсенда, как снять ограничения на сновидения. Но вы видите только, как он бормочет, надрезает кожу на руке и брызгает кровью на статую, а затем опускается на колени и молится с поднятой рукой.</t>
         </is>
@@ -45530,7 +45530,7 @@
           <t>"Great Atlach! I offer everything I have to you, in hopes of becoming your faithful servant."</t>
         </is>
       </c>
-      <c r="H927" s="0" t="inlineStr">
+      <c r="H927" t="inlineStr">
         <is>
           <t>ඞ"Великий Атлах! Я предлагаю тебе все, что у меня есть, в надежде стать твоим верным слугой".</t>
         </is>
@@ -45572,7 +45572,7 @@
           <t>You see his eyes turn scarlet, like a fierce beast. He did not attack you but jumped into the abyss instead. And you heard his crazy hiss.</t>
         </is>
       </c>
-      <c r="H928" s="0" t="inlineStr">
+      <c r="H928" t="inlineStr">
         <is>
           <t>ඞТы видишь, как его глаза становятся алыми, как у свирепого зверя. Он не напал на тебя, а вместо этого прыгнул в пропасть. И ты слышишь его безумное шипение.</t>
         </is>
@@ -45620,7 +45620,7 @@
 "I will watch you fall into the eternal dream net!"</t>
         </is>
       </c>
-      <c r="H929" s="0" t="inlineStr">
+      <c r="H929" t="inlineStr">
         <is>
           <t>ඞ"Тебе никогда не сбежать отсюда!"
 "Я буду смотреть, как ты попадаешь в сеть вечного сна!"</t>
@@ -45663,7 +45663,7 @@
           <t>You can see the spider web stretched out from the abyss and connected to the spider statue emitting a dark light. And the ground starts to shake. You can feel slight weightlessness and the whole ground is accelerating to sink.</t>
         </is>
       </c>
-      <c r="H930" s="0" t="inlineStr">
+      <c r="H930" t="inlineStr">
         <is>
           <t>ඞВы можете видеть паутину, протянутую из бездны и соединенную со статуей паука, излучающую темный свет. И земля начинает дрожать. Вы можете почувствовать легкую невесомость, и вся земля ускоряется, чтобы погрузиться.</t>
         </is>
@@ -45705,7 +45705,7 @@
           <t>Cliff</t>
         </is>
       </c>
-      <c r="H931" s="0" t="inlineStr">
+      <c r="H931" t="inlineStr">
         <is>
           <t>ඞОбрыв</t>
         </is>
@@ -45747,7 +45747,7 @@
           <t>Musician</t>
         </is>
       </c>
-      <c r="H932" s="0" t="inlineStr">
+      <c r="H932" t="inlineStr">
         <is>
           <t>ඞМузыкант</t>
         </is>
@@ -45801,7 +45801,7 @@
 Forgive me…</t>
         </is>
       </c>
-      <c r="H933" s="0" t="inlineStr">
+      <c r="H933" t="inlineStr">
         <is>
           <t>ඞНэнси…
 Пожалуйста, прости меня…
@@ -45845,7 +45845,7 @@
           <t>You told him the information behind the portrait frame</t>
         </is>
       </c>
-      <c r="H934" s="0" t="inlineStr">
+      <c r="H934" t="inlineStr">
         <is>
           <t>ඞВы сообщили ему информацию, спрятанную за рамкой портрета</t>
         </is>
@@ -45887,7 +45887,7 @@
           <t>So, that's the reason…</t>
         </is>
       </c>
-      <c r="H935" s="0" t="inlineStr">
+      <c r="H935" t="inlineStr">
         <is>
           <t>ඞТак вот в чем причина…</t>
         </is>
@@ -45965,7 +45965,7 @@
 It is all my fault…</t>
         </is>
       </c>
-      <c r="H936" s="0" t="inlineStr">
+      <c r="H936" t="inlineStr">
         <is>
           <t>ඞЯ очень люблю Нэнси…
 Мне всегда хочется дарить ей самую красивую музыку.
@@ -46013,7 +46013,7 @@
           <t>Did you remember these music scores?</t>
         </is>
       </c>
-      <c r="H937" s="0" t="inlineStr">
+      <c r="H937" t="inlineStr">
         <is>
           <t>ඞВы помните эти музыкальные партитуры?</t>
         </is>
@@ -46061,7 +46061,7 @@
 I will never forget the emotion that the opera brought to me.</t>
         </is>
       </c>
-      <c r="H938" s="0" t="inlineStr">
+      <c r="H938" t="inlineStr">
         <is>
           <t>ඞОн был создан после того, как мы с Нэнси сходили в оперу.
 Я никогда не забуду те эмоции, которые вызвала у меня опера.</t>
@@ -46104,7 +46104,7 @@
           <t>He took out his harmonica and began to play.</t>
         </is>
       </c>
-      <c r="H939" s="0" t="inlineStr">
+      <c r="H939" t="inlineStr">
         <is>
           <t>ඞОн достал губную гармошку и заиграл.</t>
         </is>
@@ -46146,7 +46146,7 @@
           <t>Take note of the melody</t>
         </is>
       </c>
-      <c r="H940" s="0" t="inlineStr">
+      <c r="H940" t="inlineStr">
         <is>
           <t>ඞОбратите внимание на мелодию</t>
         </is>
@@ -46188,7 +46188,7 @@
           <t>You have recorded this moving music and you can play it with instruments.</t>
         </is>
       </c>
-      <c r="H941" s="0" t="inlineStr">
+      <c r="H941" t="inlineStr">
         <is>
           <t>ඞВы записали эту трогательную музыку и можете воспроизводить ее на музыкальных инструментах.</t>
         </is>
@@ -46230,7 +46230,7 @@
           <t>This music moves you but it is improvised and you have not mastered it.</t>
         </is>
       </c>
-      <c r="H942" s="0" t="inlineStr">
+      <c r="H942" t="inlineStr">
         <is>
           <t>ඞЭта музыка трогает вас, но она импровизирована, и вы еще не овладели ею в совершенстве.</t>
         </is>
@@ -46278,7 +46278,7 @@
 I have already done it at the very beginning…</t>
         </is>
       </c>
-      <c r="H943" s="0" t="inlineStr">
+      <c r="H943" t="inlineStr">
         <is>
           <t>ඞТак… идеальная мелодия…
 Я уже делал это в самом начале…</t>
@@ -46321,7 +46321,7 @@
           <t>Musical Home</t>
         </is>
       </c>
-      <c r="H944" s="0" t="inlineStr">
+      <c r="H944" t="inlineStr">
         <is>
           <t>ඞМузыкальный дом</t>
         </is>
@@ -46369,7 +46369,7 @@
 When you touch the keys, you find some letters under your feet.</t>
         </is>
       </c>
-      <c r="H945" s="0" t="inlineStr">
+      <c r="H945" t="inlineStr">
         <is>
           <t>ඞЭто высококачественное пианино из дерева Бродвуд с прямыми струнами.
 Когда вы прикасаетесь к клавишам, вы обнаруживаете какие-то буквы у себя под ногами.</t>
@@ -46412,7 +46412,7 @@
           <t>Returned Letter</t>
         </is>
       </c>
-      <c r="H946" s="0" t="inlineStr">
+      <c r="H946" t="inlineStr">
         <is>
           <t>ඞВозвращенное письмо</t>
         </is>
@@ -46470,7 +46470,7 @@
 It is the love for Nancy between the lines.</t>
         </is>
       </c>
-      <c r="H947" s="0" t="inlineStr">
+      <c r="H947" t="inlineStr">
         <is>
           <t>ඞВы нашли много возвращенных писем. Отправителя зовут Джо, а получательницу - Нэнси.
 С 1919 по 1920 год в толстой пачке лежат десятки писем.
@@ -46521,7 +46521,7 @@
 "My dear Nancy, why don't you look at me? You are just like the star in the sky, neither friendly nor aloof."</t>
         </is>
       </c>
-      <c r="H948" s="0" t="inlineStr">
+      <c r="H948" t="inlineStr">
         <is>
           <t>ඞПисьмо:
 "Моя дорогая Нэнси, почему ты не смотришь на меня? Ты прямо как звезда на небе, ни дружелюбная, ни отчужденная".</t>
@@ -46570,7 +46570,7 @@
 "My dear Nancy, since I saw you, my life has been full of meaning and just like the starry sky where you are the shining stars. Without you, my sky will be dark."</t>
         </is>
       </c>
-      <c r="H949" s="0" t="inlineStr">
+      <c r="H949" t="inlineStr">
         <is>
           <t>ඞПисьмо:
 "Моя дорогая Нэнси, с тех пор как я увидел тебя, моя жизнь наполнилась смыслом и стала похожа на звездное небо, где ты - сияющие звезды. Без тебя мое небо будет темным".</t>
@@ -46625,7 +46625,7 @@
 "Nancy, I will wait for you to come back and I will show you the starry sky again…"</t>
         </is>
       </c>
-      <c r="H950" s="0" t="inlineStr">
+      <c r="H950" t="inlineStr">
         <is>
           <t>ඞПисьмо:
 "Нэнси, ты, должно быть, заболела".
@@ -46669,7 +46669,7 @@
           <t>Investigate the Piano</t>
         </is>
       </c>
-      <c r="H951" s="0" t="inlineStr">
+      <c r="H951" t="inlineStr">
         <is>
           <t>ඞИсследуйте пианино</t>
         </is>
@@ -46723,7 +46723,7 @@
 You have searched for a long time and finally found a piece of music that can be seen but only half of it has been written.</t>
         </is>
       </c>
-      <c r="H952" s="0" t="inlineStr">
+      <c r="H952" t="inlineStr">
         <is>
           <t>ඞТам полно музыкальных партитур.
 Некоторые из них были порваны, а некоторые ноты испачканы кровью.
@@ -46773,7 +46773,7 @@
 Some of them were torn and some of the notes were stained with blood which was unreadable.</t>
         </is>
       </c>
-      <c r="H953" s="0" t="inlineStr">
+      <c r="H953" t="inlineStr">
         <is>
           <t>ඞВ нем полно музыкальных партитур.
 Некоторые из них были порваны, а на некоторых нотах были пятна крови, которые невозможно было прочитать.</t>
@@ -46816,7 +46816,7 @@
           <t>Investigate the manuscript pile</t>
         </is>
       </c>
-      <c r="H954" s="0" t="inlineStr">
+      <c r="H954" t="inlineStr">
         <is>
           <t>ඞИсследуйте стопку рукописей</t>
         </is>
@@ -46858,7 +46858,7 @@
           <t>Hidden Note</t>
         </is>
       </c>
-      <c r="H955" s="0" t="inlineStr">
+      <c r="H955" t="inlineStr">
         <is>
           <t>ඞСкрытая записка</t>
         </is>
@@ -46906,7 +46906,7 @@
 You find that the edge of the portrait is not that smooth. When you press the edge, a piece of note falls from behind the portrait.</t>
         </is>
       </c>
-      <c r="H956" s="0" t="inlineStr">
+      <c r="H956" t="inlineStr">
         <is>
           <t>ඞНа стене висит портрет, на котором красивая женщина танцует на цветочном поле.
 Вы обнаруживаете, что края портрета не совсем ровные. Когда вы нажимаете на край, из-за портрета выпадает листок бумаги.</t>
@@ -46973,7 +46973,7 @@
 "How long have you not danced with me?"</t>
         </is>
       </c>
-      <c r="H957" s="0" t="inlineStr">
+      <c r="H957" t="inlineStr">
         <is>
           <t>ඞ"Я нравлюсь тебе только в мыслях, но не на самом деле".
 "Мне не нужно, чтобы ты сочинял для меня красивую музыку".
@@ -47025,7 +47025,7 @@
 You look at the portrait carefully and you found that although the composition of the painting is simple, great efforts have been made in color.</t>
         </is>
       </c>
-      <c r="H958" s="0" t="inlineStr">
+      <c r="H958" t="inlineStr">
         <is>
           <t>ඞНа стене висит портрет, на котором прекрасная женщина танцует на цветочном поле.
 Вы внимательно смотрите на портрет и обнаруживаете, что, хотя композиция картины проста, в цветовой гамме были приложены большие усилия.</t>
@@ -47068,7 +47068,7 @@
           <t>View portrait</t>
         </is>
       </c>
-      <c r="H959" s="0" t="inlineStr">
+      <c r="H959" t="inlineStr">
         <is>
           <t>ඞПосмотреть на портрет</t>
         </is>
@@ -47110,7 +47110,7 @@
           <t>Back here again…</t>
         </is>
       </c>
-      <c r="H960" s="0" t="inlineStr">
+      <c r="H960" t="inlineStr">
         <is>
           <t>ඞВозвращаюсь сюда снова…</t>
         </is>
@@ -47158,7 +47158,7 @@
 ...There is a picture inside the nodte, with the words "Happy Birthday" written on it and a human face is drawn in the picture.</t>
         </is>
       </c>
-      <c r="H961" s="0" t="inlineStr">
+      <c r="H961" t="inlineStr">
         <is>
           <t>ඞКак только вы собрались закрыть гроссбух, вы увидели картинку в блокноте.
 ...Внутри блокнота есть картинка, на которой написано "С днем рождения", а на картинке нарисовано человеческое лицо.</t>
@@ -47201,7 +47201,7 @@
           <t>[Ready to shake him up]</t>
         </is>
       </c>
-      <c r="H962" s="0" t="inlineStr">
+      <c r="H962" t="inlineStr">
         <is>
           <t>ඞ(Готовая встряхнуть его)</t>
         </is>
@@ -47243,7 +47243,7 @@
           <t>Inside the fire were some newspaper ashes and some charred wood.</t>
         </is>
       </c>
-      <c r="H963" s="0" t="inlineStr">
+      <c r="H963" t="inlineStr">
         <is>
           <t>ඞВ камине было немного пепла от газет и немного обугленного дерева.</t>
         </is>
@@ -47285,7 +47285,7 @@
           <t>Investigate the fire pit</t>
         </is>
       </c>
-      <c r="H964" s="0" t="inlineStr">
+      <c r="H964" t="inlineStr">
         <is>
           <t>ඞИсследуйте яму для костра</t>
         </is>
@@ -47327,7 +47327,7 @@
           <t>Notice</t>
         </is>
       </c>
-      <c r="H965" s="0" t="inlineStr">
+      <c r="H965" t="inlineStr">
         <is>
           <t>ඞУведомление</t>
         </is>
@@ -47393,7 +47393,7 @@
 In order to prevent the scope of the conflict from expanding, the government agreed to the application.</t>
         </is>
       </c>
-      <c r="H966" s="0" t="inlineStr">
+      <c r="H966" t="inlineStr">
         <is>
           <t>ඞВ нем говорится, почему была построена стена.
 Перечислены различные насильственные преступления, совершенные жителями города за последние 30 лет.
@@ -47439,7 +47439,7 @@
           <t>Investigate the candle</t>
         </is>
       </c>
-      <c r="H967" s="0" t="inlineStr">
+      <c r="H967" t="inlineStr">
         <is>
           <t>ඞИсследуйте свечу</t>
         </is>
@@ -47493,7 +47493,7 @@
 I will have no more mercy for you anymore.</t>
         </is>
       </c>
-      <c r="H968" s="0" t="inlineStr">
+      <c r="H968" t="inlineStr">
         <is>
           <t>ඞГм...
 Что ж, вы все восстаете против меня!
@@ -47537,7 +47537,7 @@
           <t>A spider monster appeared on the roof, carried Tonson away and fled the hotel</t>
         </is>
       </c>
-      <c r="H969" s="0" t="inlineStr">
+      <c r="H969" t="inlineStr">
         <is>
           <t>ඞНа крыше появился монстр-паук, унес Тонсона и сбежал из отеля</t>
         </is>
@@ -47579,7 +47579,7 @@
           <t>Feels like Tonson is going to take a huge revenge...</t>
         </is>
       </c>
-      <c r="H970" s="0" t="inlineStr">
+      <c r="H970" t="inlineStr">
         <is>
           <t>ඞТакое чувство, что Тонсон собирается жестоко отомстить...</t>
         </is>
@@ -47621,7 +47621,7 @@
           <t>Police Station</t>
         </is>
       </c>
-      <c r="H971" s="0" t="inlineStr">
+      <c r="H971" t="inlineStr">
         <is>
           <t>ඞполицейский участок</t>
         </is>
@@ -47663,7 +47663,7 @@
           <t>Read the Statement</t>
         </is>
       </c>
-      <c r="H972" s="0" t="inlineStr">
+      <c r="H972" t="inlineStr">
         <is>
           <t>ඞПрочтите заявление</t>
         </is>
@@ -47725,7 +47725,7 @@
 These are the tax reports of Townsend in the past few years. The town's income is not high, and the big taxpayer in the town is Tonson himself. There are also many factories and shops under his own name and he enjoys a series of preferential tax policies.</t>
         </is>
       </c>
-      <c r="H973" s="0" t="inlineStr">
+      <c r="H973" t="inlineStr">
         <is>
           <t>ඞСтопка документов была аккуратно уложена в шкаф, а сам шкаф был заперт на замок с изысканными узорами.
 По сравнению с другими шкафами, этот шкаф слишком роскошный. На передней панели шкафа имеется деревянная табличка с надписью "Налог Таунсенда".
@@ -47770,7 +47770,7 @@
           <t>Never take it lightly in order to survive.</t>
         </is>
       </c>
-      <c r="H974" s="0" t="inlineStr">
+      <c r="H974" t="inlineStr">
         <is>
           <t>ඞНикогда не относись к этому легкомысленно, чтобы выжить.</t>
         </is>
@@ -47812,7 +47812,7 @@
           <t>Clean up spider webs</t>
         </is>
       </c>
-      <c r="H975" s="0" t="inlineStr">
+      <c r="H975" t="inlineStr">
         <is>
           <t>ඞУбирайте паутину</t>
         </is>
@@ -47854,7 +47854,7 @@
           <t>True ending name to be added</t>
         </is>
       </c>
-      <c r="H976" s="0" t="inlineStr">
+      <c r="H976" t="inlineStr">
         <is>
           <t>ඞИстинное конечное имя, которое будет добавлено</t>
         </is>
@@ -47896,7 +47896,7 @@
           <t>The true ending needs to be added.</t>
         </is>
       </c>
-      <c r="H977" s="0" t="inlineStr">
+      <c r="H977" t="inlineStr">
         <is>
           <t>ඞНужно добавить настоящую концовку.</t>
         </is>
@@ -47944,7 +47944,7 @@
 I am not a worthless person…</t>
         </is>
       </c>
-      <c r="H978" s="0" t="inlineStr">
+      <c r="H978" t="inlineStr">
         <is>
           <t>ඞЯ нашел работу…
 Я не такой уж никчемный человек…</t>
@@ -47987,7 +47987,7 @@
           <t>Purchase rope net</t>
         </is>
       </c>
-      <c r="H979" s="0" t="inlineStr">
+      <c r="H979" t="inlineStr">
         <is>
           <t>ඞПриобретите веревочную сетку</t>
         </is>
@@ -48029,7 +48029,7 @@
           <t>It will cost 10 bucks.</t>
         </is>
       </c>
-      <c r="H980" s="0" t="inlineStr">
+      <c r="H980" t="inlineStr">
         <is>
           <t>ඞЭто будет стоить 10 баксов.</t>
         </is>
@@ -48071,7 +48071,7 @@
           <t>You told him the information behind the portrait frame</t>
         </is>
       </c>
-      <c r="H981" s="0" t="inlineStr">
+      <c r="H981" t="inlineStr">
         <is>
           <t>ඞВы сообщили ему информацию, спрятанную за рамкой портрета</t>
         </is>
@@ -48125,7 +48125,7 @@
 But every time the monster gets hurt, it can stabilize itself and bite Ryan.</t>
         </is>
       </c>
-      <c r="H982" s="0" t="inlineStr">
+      <c r="H982" t="inlineStr">
         <is>
           <t>ඞВы видите, как паук-монстр и Райан рвут друг друга.
 Атака Райана оторвала монстру конечности, и по всему его телу потекла иссиня-черная кровь.
@@ -48169,7 +48169,7 @@
           <t>You tried all kinds of ways to communicate with him, but there was no response. When you asked him about lottery tickets, he became interested.</t>
         </is>
       </c>
-      <c r="H983" s="0" t="inlineStr">
+      <c r="H983" t="inlineStr">
         <is>
           <t>ඞВы перепробовали все возможные способы общения с ним, но ответа не последовало. Когда вы спросили его о лотерейных билетах, он заинтересовался.</t>
         </is>
@@ -48211,7 +48211,7 @@
           <t>You found some traces of being excavated under the fountain</t>
         </is>
       </c>
-      <c r="H984" s="0" t="inlineStr">
+      <c r="H984" t="inlineStr">
         <is>
           <t>ඞВы обнаружили какие-то следы раскопок под фонтаном</t>
         </is>
@@ -48259,7 +48259,7 @@
 "Ryan said he would put something with me temporarily and I left it in the storage room."</t>
         </is>
       </c>
-      <c r="H985" s="0" t="inlineStr">
+      <c r="H985" t="inlineStr">
         <is>
           <t>ඞ...Вы продолжаете читать заметку, и в ежедневнике есть строчка, которая привлекает ваше внимание——
 "Райан сказал, что временно передаст мне кое-что, и я оставил это в камере хранения".</t>
@@ -48302,7 +48302,7 @@
           <t>You look for something in the grass, but after searching for it, all you find is a few humble plants</t>
         </is>
       </c>
-      <c r="H986" s="0" t="inlineStr">
+      <c r="H986" t="inlineStr">
         <is>
           <t>ඞВы ищете что-то в траве, но после долгих поисков все, что вы находите, - это несколько скромных растений</t>
         </is>

--- a/GameModules/SHANGSENZHEN/Localization_SHANGSENZHEN.xlsx
+++ b/GameModules/SHANGSENZHEN/Localization_SHANGSENZHEN.xlsx
@@ -1280,7 +1280,7 @@
           <t>Português-Chirriro</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>Русский</t>
         </is>
@@ -1322,7 +1322,7 @@
           <t>Welcome to Townsend</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>ඞДобро пожаловать в Таунсенд</t>
         </is>
@@ -1374,7 +1374,7 @@
 You boarded this long-distance train to get faster to the sunny seaside for vacation...</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>ඞПоезд до Аркхэма возобновил движение после восьмилетнего перерыва.
 Этот поезд значительно сократил первоначальное время в пути, ради которого вы уже давно планировали поездку в отпуск.
@@ -1418,7 +1418,7 @@
           <t>Inimigos Encontrados</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>ඞВстречные Враги</t>
         </is>
@@ -1460,7 +1460,7 @@
           <t>Exploração</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>ඞИсследование5</t>
         </is>
@@ -1502,7 +1502,7 @@
           <t>Inf. da Comissão</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>ඞИнформация о комиссии</t>
         </is>
@@ -1544,7 +1544,7 @@
           <t>Registros</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>ඞЗаписи</t>
         </is>
@@ -1586,7 +1586,7 @@
           <t>Monster in the fence</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>ඞМонстр в заборе</t>
         </is>
@@ -1628,7 +1628,7 @@
           <t>Find Horn</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="0" t="inlineStr">
         <is>
           <t>ඞНайди Хорна</t>
         </is>
@@ -1676,7 +1676,7 @@
 If you don't know where South Street is, you could follow Merry.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="0" t="inlineStr">
         <is>
           <t>ඞВы заключили сделку с Хорном, он сказал вам встретиться с ним на Саут-стрит после пробуждения.
 Если вы не знаете, где находится Саут-стрит, вы можете пойти за Мерри.</t>
@@ -1719,7 +1719,7 @@
           <t>Investigate Ryan</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>ඞРасследовать дело Райана</t>
         </is>
@@ -1761,7 +1761,7 @@
           <t>Flowers Blooming in Mud</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="0" t="inlineStr">
         <is>
           <t>ඞЦветы, распускающиеся в грязи</t>
         </is>
@@ -1803,7 +1803,7 @@
           <t>Townsend Historical Archives</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="0" t="inlineStr">
         <is>
           <t>ඞИсторический архив Таунсенда</t>
         </is>
@@ -1875,7 +1875,7 @@
 Townsend Town began a reconstruction plan in August 1905 to expand the town's functions and convert the original residential area into a factory...</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" s="0" t="inlineStr">
         <is>
           <t>ඞИз-за стихийного бедствия, вызванного проливными дождями десять лет назад, данные за период до 1890 года больше недоступны.
 В марте 1890 года редкая геологическая катастрофа вызвала оползень, который погреб под собой большое количество земли и домов. Более 90% населения города погибло или пропало без вести.
@@ -1922,7 +1922,7 @@
           <t>Orphan Adoption Policy</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>ඞПолитика усыновления сирот</t>
         </is>
@@ -1988,7 +1988,7 @@
 However, only one adoption document was approved. Merry was the object of funding and Ryan was the signatory.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>ඞВы находите проект Закона о социальном обеспечении от 1910 года, вы видите, что проект подписан Райаном.
 Он обратился в юридическом порядке с призывом обеспечить защиту прав детей и внедрить программы помощи семьям для сирот, детей из неполных семей или семей с родителями-инвалидами.
@@ -2034,7 +2034,7 @@
           <t>Ryan's investigation</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="0" t="inlineStr">
         <is>
           <t>ඞРасследование Райана</t>
         </is>
@@ -2076,7 +2076,7 @@
           <t>Ryan seems to have discovered some secret, he handed over important items to Merry for safekeeping.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" s="0" t="inlineStr">
         <is>
           <t>ඞРайан, похоже, раскрыл какой-то секрет, он передал важные вещи Мерри на хранение.</t>
         </is>
@@ -2118,7 +2118,7 @@
           <t>Merder's Scent</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" s="0" t="inlineStr">
         <is>
           <t>ඞАромат Мердера</t>
         </is>
@@ -2160,7 +2160,7 @@
           <t>Hobo who lost smell</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" s="0" t="inlineStr">
         <is>
           <t>ඞБродяга, потерявший обоняние</t>
         </is>
@@ -2202,7 +2202,7 @@
           <t>Lottery Announce</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="0" t="inlineStr">
         <is>
           <t>ඞОбъявление о проведении лотереи</t>
         </is>
@@ -2244,7 +2244,7 @@
           <t>Concert Broadcasting</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" s="0" t="inlineStr">
         <is>
           <t>ඞТрансляция концерта</t>
         </is>
@@ -2286,7 +2286,7 @@
           <t>Nancy's Answer</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" s="0" t="inlineStr">
         <is>
           <t>ඞОтвет Нэнси</t>
         </is>
@@ -2358,7 +2358,7 @@
 "How long have you not danced with me?"</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" s="0" t="inlineStr">
         <is>
           <t>ඞСодержание заметки:
 "Я нравлюсь тебе только в мыслях, но не на самом деле".
@@ -2405,7 +2405,7 @@
           <t>The confession letter never given</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" s="0" t="inlineStr">
         <is>
           <t>ඞПисьмо с признанием, которое так и не было передано</t>
         </is>
@@ -2483,7 +2483,7 @@
 "Merry, I have no face to see you now. I will try to make money to make up for my mistakes…"</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" s="0" t="inlineStr">
         <is>
           <t>ඞЭто письмо было раскрашено и изменено. Многое в нем было написано и стерто. Бумага для писем истрепалась, но строчки все еще можно различить.
 "Прости меня"… Мне жаль тебя, Нана… Мерри..."
@@ -2531,7 +2531,7 @@
           <t>Agreed Item</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" s="0" t="inlineStr">
         <is>
           <t>ඞСогласованный пункт</t>
         </is>
@@ -2585,7 +2585,7 @@
 You are going to join Horn and find a way to sneak into Tonson's house.</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" s="0" t="inlineStr">
         <is>
           <t>ඞВенде считает, что, судя по запаху черного яйца,
 Тонсон подписал контракт с неизвестным, и для выполнения контракта необходимо установить алтарь, связанный с ними.
@@ -2629,7 +2629,7 @@
           <t>Request from the old man in the square</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" s="0" t="inlineStr">
         <is>
           <t>ඞПросьба старика на площади</t>
         </is>
@@ -2677,7 +2677,7 @@
 He wants you to help him to find out why the broadcast is silent.</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" s="0" t="inlineStr">
         <is>
           <t>ඞВы нашли старика на площади. Он ждал вас под трансляцией.
 Он хочет, чтобы вы помогли ему выяснить, почему трансляция не работает.</t>
@@ -2720,7 +2720,7 @@
           <t>Customer waiting for lottery</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" s="0" t="inlineStr">
         <is>
           <t>ඞКлиент, ожидающий лотереи</t>
         </is>
@@ -2768,7 +2768,7 @@
 He seems to have been waiting for the government to release the lottery information.</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" s="0" t="inlineStr">
         <is>
           <t>ඞВы застали молодого человека в магазине, и его глаза остекленели от множества лотерейных билетов.
 Похоже, он ждал, когда правительство опубликует информацию о лотерее.</t>
@@ -2811,7 +2811,7 @@
           <t>Defeat Defiler</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" s="0" t="inlineStr">
         <is>
           <t>ඞПобеди осквернителя</t>
         </is>
@@ -2853,7 +2853,7 @@
           <t>Defeat Ryan</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" s="0" t="inlineStr">
         <is>
           <t>ඞПобедить Райана</t>
         </is>
@@ -2895,7 +2895,7 @@
           <t>Defeat Wende</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" s="0" t="inlineStr">
         <is>
           <t>ඞПобедить Венде</t>
         </is>
@@ -2937,7 +2937,7 @@
           <t>Train</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" s="0" t="inlineStr">
         <is>
           <t>ඞПоезд</t>
         </is>
@@ -2979,7 +2979,7 @@
           <t>Ryan had decided to take office and became a sheriff to fight crime.</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" s="0" t="inlineStr">
         <is>
           <t>ඞРайан решил вступить в должность и стал шерифом, чтобы бороться с преступностью.</t>
         </is>
@@ -3021,7 +3021,7 @@
           <t>Crimes since then was few and far between.</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H38" s="0" t="inlineStr">
         <is>
           <t>ඞПреступлений с тех пор было немного, и случались они очень редко.</t>
         </is>
@@ -3063,7 +3063,7 @@
           <t xml:space="preserve">The children of the town would beg him everday to tell stories of him protecting the weak. </t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" s="0" t="inlineStr">
         <is>
           <t>ඞГородские дети каждый день умоляли его рассказать истории о том, как он защищал слабых.</t>
         </is>
@@ -3105,7 +3105,7 @@
           <t>Ryan was always dedicated to the job even when the office was understaffed, continuing to do the usual patrols and even helping out with maintenance.</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" s="0" t="inlineStr">
         <is>
           <t>ඞРайан всегда был предан своей работе, даже когда в офисе не хватало персонала, продолжая выполнять обычные патрульные работы и даже помогая с техническим обслуживанием.</t>
         </is>
@@ -3153,7 +3153,7 @@
 On days like today, he wipes his badge and shuts the door of the office to begin his daily patrols on the streets.</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H41" s="0" t="inlineStr">
         <is>
           <t>ඞНесмотря на все это, он был доволен своей работой и с энтузиазмом приступил к ней. 
 В такие дни, как сегодня, он протирает свой значок и закрывает дверь офиса, чтобы начать ежедневное патрулирование улиц.</t>
@@ -3202,7 +3202,7 @@
 When night fell, he awoke sluggishly…</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H42" s="0" t="inlineStr">
         <is>
           <t>ඞМужчина с синими волосами безнаказанно спит на своем рабочем столе.
 Когда наступила ночь, он вяло проснулся…</t>
@@ -3251,7 +3251,7 @@
 "I have to leave my work behind before I leave."</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" s="0" t="inlineStr">
         <is>
           <t>ඞ"Я плохо выспался здесь, пора отправляться в отпуск куда-нибудь еще".
 "Перед отъездом я должен оставить свою работу".</t>
@@ -3294,7 +3294,7 @@
           <t>He took a long-handled key from the cabinet, turned it with his fingers, and walked shakily towards an opulent mansion.</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" s="0" t="inlineStr">
         <is>
           <t>ඞОн достал из шкафа ключ с длинной ручкой, повернул его пальцами и, пошатываясь, направился к роскошному особняку.</t>
         </is>
@@ -3336,7 +3336,7 @@
           <t>Merry's hotel has more and more things to buy. She has many better plans.</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H45" s="0" t="inlineStr">
         <is>
           <t>ඞВ отеле Мерри можно купить все больше и больше вещей. У нее много планов получше.</t>
         </is>
@@ -3378,7 +3378,7 @@
           <t>Because the town is so small, everyone has agreed that the hotel is the best place for gatherings in town.</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H46" s="0" t="inlineStr">
         <is>
           <t>ඞПоскольку городок очень маленький, все сошлись во мнении, что отель - лучшее место для встреч в городе.</t>
         </is>
@@ -3420,7 +3420,7 @@
           <t>Today is no different. The hotel is still extremely busy. Merry enjoys watching the lively scene.</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H47" s="0" t="inlineStr">
         <is>
           <t>ඞСегодняшний день ничем не отличается от других. В отеле по-прежнему очень оживленно. Мерри с удовольствием наблюдает за оживленной сценой.</t>
         </is>
@@ -3462,7 +3462,7 @@
           <t>Nana, our wish will come true…</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" s="0" t="inlineStr">
         <is>
           <t>ඞНана, наше желание сбудется…</t>
         </is>
@@ -3504,7 +3504,7 @@
           <t>If you can currently see that the town has changed into this…</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H49" s="0" t="inlineStr">
         <is>
           <t>ඞЕсли вы сейчас видите, что город превратился в это…</t>
         </is>
@@ -3546,7 +3546,7 @@
           <t>You must be very happy…</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" s="0" t="inlineStr">
         <is>
           <t>ඞВы, должно быть, очень счастливы…</t>
         </is>
@@ -3588,7 +3588,7 @@
           <t>Take it</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" s="0" t="inlineStr">
         <is>
           <t>ඞВзять</t>
         </is>
@@ -3630,7 +3630,7 @@
           <t>Bored by the repetition of the scene outside as the train speeds along, you pull out the newspaper you just bought at the station and start reading.</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H52" s="0" t="inlineStr">
         <is>
           <t>ඞКогда поезд набирает скорость, вам надоедает наблюдать за повторяющейся сценой за окном, и вы достаете газету, которую только что купили на станции, и начинаете читать.</t>
         </is>
@@ -3672,7 +3672,7 @@
           <t>The News Today</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" s="0" t="inlineStr">
         <is>
           <t>ඞСегодняшние новости</t>
         </is>
@@ -3726,7 +3726,7 @@
 Due to natural disasters, line construction and other reasons, the line was changed several times, and it took eight years to resume the original route and schedule of operation.</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" s="0" t="inlineStr">
         <is>
           <t>ඞКрупный заголовок на обложке гласит: "Поезд Строителей вновь открывается спустя восемь лет".
 15 января 1928 года поезда из Кливленда в Аркхэм и обратно снова начали курсировать.
@@ -3776,7 +3776,7 @@
 According to the person in charge of the railway, the daily passenger volume can reach about 1285 people per day. The railway has complete line maintenance to ensure normal operation even in the event of tornadoes.</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" s="0" t="inlineStr">
         <is>
           <t>ඞЭтот поезд был перестроен, и в его состав были добавлены три смотровых вагона и "обзорный вагон" для пассажиров первого класса.
 По словам ответственного за железную дорогу лица, ежедневный пассажиропоток может достигать примерно 1285 человек в день. Железная дорога полностью обслуживает линии, чтобы обеспечить нормальную работу даже в случае торнадо.</t>
@@ -3825,7 +3825,7 @@
 Let's move around.</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" s="0" t="inlineStr">
         <is>
           <t>ඞДо терминала еще довольно много времени.
 Давайте пройдемся по городу.</t>
@@ -3868,7 +3868,7 @@
           <t>The conversations around you gradually ceased, most likely because the tedious journey had exhausted everyone, and you, too, closed your eyes and rested in your seat| Time passed, the train accelerated, and when it entered a cave, the carriage was immediately plunged into darkness.</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" s="0" t="inlineStr">
         <is>
           <t>ඞРазговоры вокруг вас постепенно прекратились, скорее всего, потому, что утомительная поездка всех утомила, и вы тоже закрыли глаза и откинулись на спинку сиденья| Время шло, поезд набирал скорость, и когда он въехал в пещеру, вагон сразу погрузился в темноту.</t>
         </is>
@@ -3910,7 +3910,7 @@
           <t>What's going on?</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H58" s="0" t="inlineStr">
         <is>
           <t>ඞЧто происходит?</t>
         </is>
@@ -3958,7 +3958,7 @@
 The centrifugal force throws you out, and you fall to the ground and pass out.</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" s="0" t="inlineStr">
         <is>
           <t>ඞВы просыпаетесь от сильной тряски и криков людей вокруг, земля под вами, кажется, уходит из-под ног.
 Центробежная сила выбрасывает вас, вы падаете на землю и теряете сознание.</t>
@@ -4007,7 +4007,7 @@
 The light enters the house through the gap, dissipating the darkness, and the entire house shines brightly, making you feel very safe, as if there is a warm refuge in front of you.</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H60" s="0" t="inlineStr">
         <is>
           <t>ඞВ оцепенении вы чувствуете, как ваше тело отрывается от земли, и замечаете впереди желтый дом.
 Свет проникает в дом через щель, рассеивая темноту, и весь дом ярко сияет, заставляя вас чувствовать себя в полной безопасности, как будто перед вами теплое убежище.</t>
@@ -4056,7 +4056,7 @@
 You see a figure in a mottled ragged robe drawing something at the long table in the center of the room.</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" s="0" t="inlineStr">
         <is>
           <t>ඞВы толкаете дверь и входите, интерьер внутри очень роскошный: белые настенные панели, старинные портреты, висящие на стенах, цельная деревянная мебель и книжные полки, полные книг, в дополнение к мягким креслам с изящным рисунком, классическим настольным лампам с тканевыми кисточками, элегантным пианино.
 Вы видите фигуру в пестром рваном одеянии, которая что-то рисует за длинным столом в центре комнаты.</t>
@@ -4112,7 +4112,7 @@
 Just as you were about to panic and flee, you discovered that you couldn't move no matter how hard you tried. At this point, that figure appeared to be aware of your presence and turned to face you...</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы приближаетесь к нему, вы замечаете, что он рисует картину.
 Когда вы видите содержание картины, у вас возникает сильное чувство нереальности происходящего, потому что она написана на том самом доме, в который вы вошли.
@@ -4162,7 +4162,7 @@
 She looked at you with panicked eyes and then extended her hand...</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" s="0" t="inlineStr">
         <is>
           <t>ඞТолько сейчас вы можете разглядеть, что это миниатюрная фигурка, все ее тело скрыто массивным одеянием, а из-под полей шляпы видно лицо молодой девушки.
 Она посмотрела на вас испуганными глазами, а затем протянула руку...</t>
@@ -4211,7 +4211,7 @@
 The colors in front of your eyes began to fade, the ground beneath your feet cracked, and you continued to fall. She wished she could hold you, but all she could do was watch your form dwindle.</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H64" s="0" t="inlineStr">
         <is>
           <t>ඞГрустная песня зазвучала в твоих ушах, как раз когда она собиралась прикоснуться к тебе, ее губы слегка шевельнулись, но ты не смог расслышать ни слова.
 Краски перед твоими глазами начали меркнуть, земля под ногами пошла трещинами, а ты продолжал падать. Она хотела бы обнять тебя, но все, что она могла сделать, это наблюдать, как ты таешь на глазах.</t>
@@ -4254,7 +4254,7 @@
           <t>You lose consciousness as darkness engulfs you.</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H65" s="0" t="inlineStr">
         <is>
           <t>ඞВы теряете сознание, когда вас окутывает тьма.</t>
         </is>
@@ -4296,7 +4296,7 @@
           <t>Take a Break</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H66" s="0" t="inlineStr">
         <is>
           <t>ඞсделать перерыв</t>
         </is>
@@ -4338,7 +4338,7 @@
           <t>We're about to go home. Why are you so unhappy?</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H67" s="0" t="inlineStr">
         <is>
           <t>ඞМы собираемся ехать домой. Почему ты такой несчастный?</t>
         </is>
@@ -4404,7 +4404,7 @@
 They're gonna disqualify me if I don't go back this time.</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" s="0" t="inlineStr">
         <is>
           <t>ඞАх…
 Моя семья организовала для меня свадьбу…
@@ -4456,7 +4456,7 @@
 Are you a wedlock?</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H69" s="0" t="inlineStr">
         <is>
           <t>ඞСвадьба? Разве это не здорово?
 Вы состоите в браке?</t>
@@ -4541,7 +4541,7 @@
 I was afraid of how she looked, so I ran away.</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" s="0" t="inlineStr">
         <is>
           <t>ඞНет. Хотя это трудно сказать…
 Забудь это… Я скажу вам, в чем дело.
@@ -4596,7 +4596,7 @@
 neither end the relationship.</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" s="0" t="inlineStr">
         <is>
           <t>ඞЯ понял. Ты не можешь ни принять ее,
 ни прекратить отношения.</t>
@@ -4645,7 +4645,7 @@
 I didn't dare refuse her, so I hade to excuse myself by saying I had to pursue my dream first.</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H72" s="0" t="inlineStr">
         <is>
           <t>ඞДа, она дочь местного мафиози.
 Я не посмел отказать ей, поэтому вынужден извиниться, сказав, что сначала должен осуществить свою мечту.</t>
@@ -4688,7 +4688,7 @@
           <t>But now, you're going back for the inheritance?</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" s="0" t="inlineStr">
         <is>
           <t>ඞНо теперь ты возвращаешься за наследством?</t>
         </is>
@@ -4748,7 +4748,7 @@
 I really hate who I am.</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H74" s="0" t="inlineStr">
         <is>
           <t>ඞНа самом деле это не так…
 Я не могу принять решение. Я думаю о ней все эти годы вдали от нее.
@@ -4799,7 +4799,7 @@
 You just need to have the courage to make a choice.</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H75" s="0" t="inlineStr">
         <is>
           <t>ඞ- ну и что? Ты уже в этой машине.
 Тебе просто нужно набраться смелости, чтобы сделать выбор.</t>
@@ -4842,7 +4842,7 @@
           <t>Listen</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H76" s="0" t="inlineStr">
         <is>
           <t>ඞПослушать</t>
         </is>
@@ -4884,7 +4884,7 @@
           <t>And you? Go home or travel?</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H77" s="0" t="inlineStr">
         <is>
           <t>ඞА вы? Вернуться домой или попутешествовать?</t>
         </is>
@@ -4938,7 +4938,7 @@
 So they also prepared a lot of things.</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H78" s="0" t="inlineStr">
         <is>
           <t>ඞКонечно, путешествовать.
 На самом деле, это первый раз, когда я путешествую далеко в своей жизни.
@@ -4982,7 +4982,7 @@
           <t>It seems that you have been preparing to travel for a long time.</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H79" s="0" t="inlineStr">
         <is>
           <t>ඞПохоже, что вы долго готовились к путешествию.</t>
         </is>
@@ -5060,7 +5060,7 @@
 Of course, this is something that makes me feel excited, so I resolutely bought the ticket.</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H80" s="0" t="inlineStr">
         <is>
           <t>ඞНе совсем…
 На самом деле, эта поездка также направлена на удовлетворение пожеланий семьи.
@@ -5114,7 +5114,7 @@
 Time cannot pass away regret. I wish you a wonderful journey.</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H81" s="0" t="inlineStr">
         <is>
           <t>ඞЭто здорово!
 Время не может изгнать сожаления. Желаю вам приятного путешествия.</t>
@@ -5157,7 +5157,7 @@
           <t>Thanks</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H82" s="0" t="inlineStr">
         <is>
           <t>ඞСпасибо</t>
         </is>
@@ -5199,7 +5199,7 @@
           <t>View the Nameplate</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H83" s="0" t="inlineStr">
         <is>
           <t>ඞПосмотрите на заводскую табличку</t>
         </is>
@@ -5241,7 +5241,7 @@
           <t>Commemorative Nameplate</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H84" s="0" t="inlineStr">
         <is>
           <t>ඞПамятная табличка с именем</t>
         </is>
@@ -5283,7 +5283,7 @@
           <t>In 1920, following the train collision accident, two trains of Buider" were driven out one after the other to meet the peak of wartime transportation." As a result, the rear train collided with the observation car at the end of the parked front train in Rochester, 11 people dead and leaving one person missing."</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H85" s="0" t="inlineStr">
         <is>
           <t>ඞВ 1920 году, после столкновения поездов, два поезда Buider "были отправлены один за другим, чтобы соответствовать пику перевозок военного времени". В результате задний состав столкнулся со смотровым вагоном в конце припаркованного переднего состава в Рочестере, в результате чего 11 человек погибли и один человек пропал без вести."</t>
         </is>
@@ -5325,7 +5325,7 @@
           <t>The names of over a dozen people who died are engraved below.</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H86" s="0" t="inlineStr">
         <is>
           <t>ඞНиже выгравированы имена более дюжины погибших людей.</t>
         </is>
@@ -5367,7 +5367,7 @@
           <t>The train is moving fast, you slowly wake up from your seat.</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="H87" s="0" t="inlineStr">
         <is>
           <t>ඞПоезд мчится быстро, вы медленно поднимаетесь со своего места.</t>
         </is>
@@ -5409,7 +5409,7 @@
           <t>It feels like a long dream…</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H88" s="0" t="inlineStr">
         <is>
           <t>ඞЭто похоже на долгий сон…</t>
         </is>
@@ -5463,7 +5463,7 @@
 "Dear passengers, the train has arrived at Townsend train station. Passengers who get off at Townsend please get off the train in time."</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H89" s="0" t="inlineStr">
         <is>
           <t>ඞКак раз в тот момент, когда вы теряетесь в догадках о том, что произошло раньше,
 вы услышали голос диктора в поезде.
@@ -5507,7 +5507,7 @@
           <t>It seems that this trip has to change its destination midway…</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H90" s="0" t="inlineStr">
         <is>
           <t>ඞПохоже, что на полпути этой поездке придется сменить пункт назначения…</t>
         </is>
@@ -5549,7 +5549,7 @@
           <t>At the same time, in a richly decorated mansion.</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H91" s="0" t="inlineStr">
         <is>
           <t>ඞВ то же время в богато украшенном особняке.</t>
         </is>
@@ -5591,7 +5591,7 @@
           <t>In the afternoon, the girl was painting in the room.</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H92" s="0" t="inlineStr">
         <is>
           <t>ඞВо второй половине дня девушка рисовала в своей комнате.</t>
         </is>
@@ -5633,7 +5633,7 @@
           <t>The room door opened as she was writing.</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H93" s="0" t="inlineStr">
         <is>
           <t>ඞКогда она писала, дверь в комнату открылась.</t>
         </is>
@@ -5675,7 +5675,7 @@
           <t>Wende, I am home~</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H94" s="0" t="inlineStr">
         <is>
           <t>ඞВенде, я дома~</t>
         </is>
@@ -5717,7 +5717,7 @@
           <t>The moment the man threw down the bag he was holding, Wende joyfully flew in his direction.</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H95" s="0" t="inlineStr">
         <is>
           <t>ඞКак только мужчина бросил сумку, которую держал в руках, Венде радостно бросилась в его сторону.</t>
         </is>
@@ -5759,7 +5759,7 @@
           <t>There is a straightforward watercolor picture on the wall:</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H96" s="0" t="inlineStr">
         <is>
           <t>ඞНа стене висит простая акварельная картина:</t>
         </is>
@@ -5807,7 +5807,7 @@
 The pale blue lake next to the castle joins the stream to the area around it.</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H97" s="0" t="inlineStr">
         <is>
           <t>ඞВысокий замок возвышается под звездным небом над бескрайним морем.
 Бледно-голубое озеро рядом с замком впадает в ручей, который течет по окрестностям.</t>
@@ -5856,7 +5856,7 @@
 He seemed to be playing an unknown ballad sadly…</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="H98" s="0" t="inlineStr">
         <is>
           <t>ඞВ замке человек, нарисованный желтым карандашом, стоит перед старинным струнным инструментом…
 Казалось, он печально наигрывает неизвестную балладу…</t>
@@ -5899,7 +5899,7 @@
           <t>At the same time, in a dark abyss.</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="H99" s="0" t="inlineStr">
         <is>
           <t>ඞВ то же время, в темной бездне.</t>
         </is>
@@ -5941,7 +5941,7 @@
           <t>The other side is hidden in the deep dark valley. A huge spider web is tied over the deep valley and the rope-like spider silk interlaces with each other, binding the whole valley.</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H100" s="0" t="inlineStr">
         <is>
           <t>ඞДругая сторона скрыта в глубокой темной долине. Над глубокой долиной раскинута огромная паутина, и похожие на веревки нити паутинного шелка переплетаются друг с другом, опутывая всю долину.</t>
         </is>
@@ -5989,7 +5989,7 @@
 This black thing has a human head but the lower part is a broken spider body. Its broken limbs make its movement slowly and it is struggling to repair some broken web holes.</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H101" s="0" t="inlineStr">
         <is>
           <t>ඞВ отдалении, на краю паутины, видна тень размером с присевшего на корточки человека.
 У этого черного существа человеческая голова, но нижняя часть представляет собой сломанное паучье туловище. Его сломанные конечности двигаются медленно, и оно изо всех сил пытается заделать несколько дыр в паутине.</t>
@@ -6038,7 +6038,7 @@
 His facial was distorted and he kept wailing in pain as if he wanted to stop and rest, but his body was out of control. Every movement of his incomplete limbs brought him great pain.</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H102" s="0" t="inlineStr">
         <is>
           <t>ඞБлагодаря голове мы можем почти распознать его первоначальный человеческий облик - Тонсона!
 Его лицо было искажено, и он продолжал выть от боли, как будто хотел остановиться и отдохнуть, но его тело было неуправляемо. Каждое движение его неполноценных конечностей причиняло ему сильную боль.</t>
@@ -6081,7 +6081,7 @@
           <t>Together with Atlach, he will never stop weaving a huge net far away from the world.</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H103" s="0" t="inlineStr">
         <is>
           <t>ඞВместе с Атлахом он никогда не перестанет плести огромную сеть вдали от всего мира.</t>
         </is>
@@ -6123,7 +6123,7 @@
           <t>You pack your luggages and get ready to get off.</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H104" s="0" t="inlineStr">
         <is>
           <t>ඞВы собираете свой багаж и готовитесь к отъезду.</t>
         </is>
@@ -6165,7 +6165,7 @@
           <t>Faded Eternity</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H105" s="0" t="inlineStr">
         <is>
           <t>ඞУгасшая Вечность</t>
         </is>
@@ -6219,7 +6219,7 @@
 As time goes on, Townsend has changed quietly. It has developed into a prosperous town. The magnificent pastoral view has attracted a lot of tourists to visit, but no one has remembered the origin of the town's name.</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H106" s="0" t="inlineStr">
         <is>
           <t>ඞВы разрываете порочный круг Таунсенда, и чудесным образом все возвращается на круги своя.
 Исчезнувшие люди вернулись в город. Это было похоже на вечный сон. После пробуждения их воспоминания постепенно тускнели, пока не исчезли совсем.
@@ -6281,7 +6281,7 @@
 At the other end of the crack, a spider web gradually spreads to you…</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="H107" s="0" t="inlineStr">
         <is>
           <t>ඞНо вы знаете, что в неизведанных глубинах или в забытых уголках истории все еще скрыты большие тайны.
 Вы страдаете от периодической бессонницы. Всякий раз, когда планеты звездного скопления Плеяд сияют, в ваших ушах звучит странная песня.
@@ -6332,7 +6332,7 @@
 "Dear passengers, the train has arrived at Arkham train station. Passengers who get off at Arkham please get off the train in time."</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="H108" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы все еще были в оцепенении, по радио объявили:
 "Уважаемые пассажиры, поезд прибыл на железнодорожную станцию Аркхэм. Пассажиры, которые выходят в Аркхэме, пожалуйста, сойдите с поезда вовремя".</t>
@@ -6375,7 +6375,7 @@
           <t>Sunshine beach~ here I am~</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="H109" s="0" t="inlineStr">
         <is>
           <t>ඞСаншайн-бич~ вот и я~</t>
         </is>
@@ -6417,7 +6417,7 @@
           <t>Life is like a dream</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="H110" s="0" t="inlineStr">
         <is>
           <t>ඞЖизнь похожа на сон.</t>
         </is>
@@ -6465,7 +6465,7 @@
 Your life is constantly changing and you can meet new people or things every day, there is no need to let regrets affect your current life, you comfort yourself.</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="H111" s="0" t="inlineStr">
         <is>
           <t>ඞВремена идут быстро, никто не будет интересоваться историей без каких-либо записей, и вы никогда не будете мечтать о Таунсенде.
 Ваша жизнь постоянно меняется, и вы можете каждый день знакомиться с новыми людьми или вещами, не нужно позволять сожалениям влиять на вашу текущую жизнь, вы успокаиваете себя.</t>
@@ -6514,7 +6514,7 @@
 Under the unknown underground, or in the gaps of history which have been forgotten, there are still big secrets hidden there.</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="H112" s="0" t="inlineStr">
         <is>
           <t>ඞНо вы же знаете, что…
 В неизведанном подземелье или в забытых уголках истории все еще скрыты большие тайны.</t>
@@ -6557,7 +6557,7 @@
           <t>Passenger</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H113" s="0" t="inlineStr">
         <is>
           <t>ඞПассажир</t>
         </is>
@@ -6599,7 +6599,7 @@
           <t>Listen to the conversation</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H114" s="0" t="inlineStr">
         <is>
           <t>ඞПрислушивайтесь к разговору</t>
         </is>
@@ -6641,7 +6641,7 @@
           <t>West Street</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H115" s="0" t="inlineStr">
         <is>
           <t>ඞЗападная улица</t>
         </is>
@@ -6683,7 +6683,7 @@
           <t>You tried to get through the mist but eventually, you returned to your original position.</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="H116" s="0" t="inlineStr">
         <is>
           <t>ඞВы пытались пробраться сквозь туман, но в конце концов вернулись на свое прежнее место.</t>
         </is>
@@ -6728,7 +6728,7 @@
           <t>I don't know the way, we have to wait Merry comes out first.</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H117" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не знаю дороги, мы должны подождать, пока Мерри выйдет первой.</t>
         </is>
@@ -6770,7 +6770,7 @@
           <t>It was painted with big words in white paint —— "Welcome to Townsend"</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="H118" s="0" t="inlineStr">
         <is>
           <t>ඞНа нем белой краской было написано крупными буквами: "Добро пожаловать в Таунсенд".</t>
         </is>
@@ -6812,7 +6812,7 @@
           <t>You realize that there are traces of being rummaged on this grassland, but you only find some useless gravels</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="H119" s="0" t="inlineStr">
         <is>
           <t>ඞВы понимаете, что на этом лугу есть следы того, что кто-то рылся, но находите только несколько бесполезных камешков</t>
         </is>
@@ -6854,7 +6854,7 @@
           <t>View</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="H120" s="0" t="inlineStr">
         <is>
           <t>ඞПосмотреть</t>
         </is>
@@ -6896,7 +6896,7 @@
           <t>You search the grass carefully, and luckily you find two four-leaf clovers</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="H121" s="0" t="inlineStr">
         <is>
           <t>ඞВы тщательно обыскиваете траву и, к счастью, находите два четырехлистных клевера</t>
         </is>
@@ -6938,7 +6938,7 @@
           <t>Climb</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="H122" s="0" t="inlineStr">
         <is>
           <t>ඞВзобраться</t>
         </is>
@@ -6986,7 +6986,7 @@
 Please come and try.</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="H123" s="0" t="inlineStr">
         <is>
           <t>ඞСегодня есть еще больше вкусных блюд, которые вам точно понравятся,
 Пожалуйста, приходите и попробуйте.</t>
@@ -7029,7 +7029,7 @@
           <t>You see Merry is going door to door to distribute the leaflets.</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="H124" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите, что Мерри ходит от двери к двери, чтобы раздавать листовки.</t>
         </is>
@@ -7071,7 +7071,7 @@
           <t>She ended up in a general store.</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="H125" s="0" t="inlineStr">
         <is>
           <t>ඞВ конце концов она оказалась в универсальном магазине.</t>
         </is>
@@ -7113,7 +7113,7 @@
           <t>Hurrp up and follower Merry.</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="H126" s="0" t="inlineStr">
         <is>
           <t>ඞПоднимайся и следуй за Мерри.</t>
         </is>
@@ -7155,7 +7155,7 @@
           <t>The Hotel</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="H127" s="0" t="inlineStr">
         <is>
           <t>ඞОтель</t>
         </is>
@@ -7197,7 +7197,7 @@
           <t>Take the Bread</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="H128" s="0" t="inlineStr">
         <is>
           <t>ඞВозьми хлеб</t>
         </is>
@@ -7239,7 +7239,7 @@
           <t>Take away the broom</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="H129" s="0" t="inlineStr">
         <is>
           <t>ඞУбери метлу</t>
         </is>
@@ -7281,7 +7281,7 @@
           <t>Take the kerosene lamp</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="H130" s="0" t="inlineStr">
         <is>
           <t>ඞВозьми керосиновую лампу</t>
         </is>
@@ -7323,7 +7323,7 @@
           <t>Is anyone there?</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="H131" s="0" t="inlineStr">
         <is>
           <t>ඞЕсть здесь кто-нибудь?</t>
         </is>
@@ -7365,7 +7365,7 @@
           <t>A young woman is cooking behind the table with bandages around her shoulders.</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="H132" s="0" t="inlineStr">
         <is>
           <t>ඞМолодая женщина с бинтами на плечах готовит за столом.</t>
         </is>
@@ -7413,7 +7413,7 @@
 Where is this? Did you save my life?</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="H133" s="0" t="inlineStr">
         <is>
           <t>ඞМадам, извините меня.
 Где это? Вы спасли мне жизнь?</t>
@@ -7468,7 +7468,7 @@
 So you turn up the volume --</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="H134" s="0" t="inlineStr">
         <is>
           <t>ඞЖенщина перед вами невозмутима, и вы вспоминаете, что не потревожили ее, когда спускались вниз.
 У вас возникает ощущение, что либо у нее значительный дефицит слуха, либо у нее серьезные когнитивные нарушения.
@@ -7512,7 +7512,7 @@
           <t>Land! Lady!</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="H135" s="0" t="inlineStr">
         <is>
           <t>ඞПриземляйтесь! Леди!</t>
         </is>
@@ -7584,7 +7584,7 @@
 You will be satisfied…</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="H136" s="0" t="inlineStr">
         <is>
           <t>ඞДорогой гость!
 Вы все-таки пришли!
@@ -7649,7 +7649,7 @@
 You can't help but feel a little queasy.</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H137" s="0" t="inlineStr">
         <is>
           <t>ඞПод вашим внимательным наблюдением содержимое кастрюли наконец-то становится понятно - это рагу из нута.
 Вы можете сказать, что это сочная смесь овощей, таких как горох, морковь, картофель и капуста, с говядиной и свининой.
@@ -7694,7 +7694,7 @@
           <t>Is this soup… really drinkable?</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="H138" s="0" t="inlineStr">
         <is>
           <t>ඞЭтот суп… действительно питьевая?</t>
         </is>
@@ -7736,7 +7736,7 @@
           <t>The lady gives you an expectant look, hope you can accept…</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="H139" s="0" t="inlineStr">
         <is>
           <t>ඞДама выжидающе смотрит на вас, надеясь, что вы сможете принять…</t>
         </is>
@@ -7778,7 +7778,7 @@
           <t>[Accept the Stew]</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="H140" s="0" t="inlineStr">
         <is>
           <t>ඞ[Прими рагу]</t>
         </is>
@@ -7820,7 +7820,7 @@
           <t>[Refuse the Stew]</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="H141" s="0" t="inlineStr">
         <is>
           <t>ඞ[Откажись от рагу]</t>
         </is>
@@ -7862,7 +7862,7 @@
           <t>Conversar</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="H142" s="0" t="inlineStr">
         <is>
           <t>Поговорить</t>
         </is>
@@ -7916,7 +7916,7 @@
 I'd rather… Give it a try.</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="H143" s="0" t="inlineStr">
         <is>
           <t>ඞЯ только что видел, как мадам пробовала суп.
 Если с ней все в порядке, ммм...…
@@ -7978,7 +7978,7 @@
 You just have to suck it up.</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="H144" s="0" t="inlineStr">
         <is>
           <t>ඞДама аккуратно наполняет тарелку тушеным мясом.
 Ты смотришь на тарелку с тушеным мясом, стоящую перед тобой, и видишь, что оно густое и странного цвета.
@@ -8031,7 +8031,7 @@
 There's an incredibly beautiful texture, and you feel the exhaustion of your body giving away to a rich sense of happiness.</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="H145" s="0" t="inlineStr">
         <is>
           <t>ඞВы с удивлением обнаружите, что, хотя это блюдо выглядит очень отвратительно и неприемлемо, но когда вы его едите, оно становится очень вкусным!
 У него невероятно красивая текстура, и вы чувствуете, как усталость вашего тела сменяется глубоким чувством счастья.</t>
@@ -8074,7 +8074,7 @@
           <t>… Thank you, this is the best stew I've ever tasted.</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="H146" s="0" t="inlineStr">
         <is>
           <t>ඞ...Спасибо, это лучшее рагу, которое я когда-либо пробовал.</t>
         </is>
@@ -8134,7 +8134,7 @@
 The guest room on the second floor has been cleared out…</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H147" s="0" t="inlineStr">
         <is>
           <t>ඞЯвляется… Вам это по вкусу?
 Это действительно мило.
@@ -8179,7 +8179,7 @@
           <t>Thanks… But where exactly is this?</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H148" s="0" t="inlineStr">
         <is>
           <t>ඞСпасибо… Но где именно это находится?</t>
         </is>
@@ -8233,7 +8233,7 @@
 But I already processed it. I don't think any blood could be smelled.</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="H149" s="0" t="inlineStr">
         <is>
           <t>ඞО, доступные номера относительно небольшие…
 В номерах для гостей все еще ведутся ремонтные работы…
@@ -8283,7 +8283,7 @@
 you hear the door open, and in comes an old man dressed like a preacher.</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H150" s="0" t="inlineStr">
         <is>
           <t>ඞОна не отвечает вам прямо. Пока вы размышляете над последним предложением,
 вы слышите, как открывается дверь и входит старик, одетый как проповедник.</t>
@@ -8332,7 +8332,7 @@
 But I don't really have an appetite right now.</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="H151" s="0" t="inlineStr">
         <is>
           <t>ඞБольшое вам спасибо за то, что приняли меня у себя.
 Но сейчас у меня действительно нет аппетита.</t>
@@ -8393,7 +8393,7 @@
 I'll try my best to make it even more delicious.</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H152" s="0" t="inlineStr">
         <is>
           <t>ඞА? Моя гостья,
 Вы уверены, что не хотите попробовать?
@@ -8444,7 +8444,7 @@
 Her face grew pale as the blood from her arms poured into the pot.</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="H153" s="0" t="inlineStr">
         <is>
           <t>ඞВы видели, как она разрезала ножом повязку на левой руке.
 Ее лицо побледнело, когда кровь из ее рук полилась в горшок.</t>
@@ -8499,7 +8499,7 @@
 You'll be happy after you taste it.</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="H154" s="0" t="inlineStr">
         <is>
           <t>ඞМоя гостья…
 Теперь это блюдо стало еще вкуснее.
@@ -8555,7 +8555,7 @@
 My refusal has nothing to do with the food.</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="H155" s="0" t="inlineStr">
         <is>
           <t>ඞТы! Почему?
 Ты с ума сошел?
@@ -8599,7 +8599,7 @@
           <t>You feel regret after you say it out, because she didn't react to what you said.</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="H156" s="0" t="inlineStr">
         <is>
           <t>ඞВы чувствуете сожаление после того, как произносите это вслух, потому что она никак не отреагировала на ваши слова.</t>
         </is>
@@ -8641,7 +8641,7 @@
           <t>The lady just looks at you with hopeful eyes, expecting that you can accept her hospitality…</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="H157" s="0" t="inlineStr">
         <is>
           <t>ඞДама просто смотрит на вас с надеждой, ожидая, что вы сможете воспользоваться ее гостеприимством…</t>
         </is>
@@ -8683,7 +8683,7 @@
           <t>[Still Refuse the Stew]</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="H158" s="0" t="inlineStr">
         <is>
           <t>ඞ(Все еще отказывается от рагу)</t>
         </is>
@@ -8727,7 +8727,7 @@
           <t>Even if you look at me like this,I can't accept it…</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="H159" s="0" t="inlineStr">
         <is>
           <t>ඞДаже если ты будешь так смотреть на меня, я не смогу этого принять…</t>
         </is>
@@ -8775,7 +8775,7 @@
 I'd better get out of here.</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="H160" s="0" t="inlineStr">
         <is>
           <t>ඞЭтот человек в критическом состоянии,
 Мне лучше уйти отсюда.</t>
@@ -8824,7 +8824,7 @@
 you hear the door open, and in comes an old man dressed like a preacher.</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="H161" s="0" t="inlineStr">
         <is>
           <t>ඞКак раз в тот момент, когда вы собирались уходить,
 вы услышали, как открылась дверь и вошел старик, одетый как проповедник.</t>
@@ -8867,7 +8867,7 @@
           <t>The old man, upon seeing you, could hardly conceal his surprise.</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="H162" s="0" t="inlineStr">
         <is>
           <t>ඞСтарик, увидев вас, с трудом скрыл свое удивление.</t>
         </is>
@@ -8909,7 +8909,7 @@
           <t>The old man couldn't hide his surprise when he sees you.</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="H163" s="0" t="inlineStr">
         <is>
           <t>ඞСтарик не смог скрыть своего удивления, когда увидел тебя.</t>
         </is>
@@ -8951,7 +8951,7 @@
           <t>He helps himself to a bowl of soup and begins to drink.</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="H164" s="0" t="inlineStr">
         <is>
           <t>ඞОн накладывает себе тарелку супа и начинает пить.</t>
         </is>
@@ -8999,7 +8999,7 @@
 Merry, I will wait for you to complete the final transformation.</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="H165" s="0" t="inlineStr">
         <is>
           <t>ඞУ него все еще такой восхитительный аромат…
 Мерри, я подожду, пока ты завершишь окончательное преображение.</t>
@@ -9042,7 +9042,7 @@
           <t>Then he looks at you.</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="H166" s="0" t="inlineStr">
         <is>
           <t>ඞЗатем он смотрит на тебя.</t>
         </is>
@@ -9090,7 +9090,7 @@
 A face of fresh.</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="H167" s="0" t="inlineStr">
         <is>
           <t>ඞЭто место уже много лет не видело ничего нового…
 Свежее лицо.</t>
@@ -9133,7 +9133,7 @@
           <t>Looks like this is a local guy who can communicate.</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="H168" s="0" t="inlineStr">
         <is>
           <t>ඞПохоже, это местный парень, который умеет общаться.</t>
         </is>
@@ -9175,7 +9175,7 @@
           <t>You tell him what happened to you.</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="H169" s="0" t="inlineStr">
         <is>
           <t>ඞТы расскажешь ему, что с тобой случилось.</t>
         </is>
@@ -9217,7 +9217,7 @@
           <t>So you're here today?</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="H170" s="0" t="inlineStr">
         <is>
           <t>ඞТак ты сегодня здесь?</t>
         </is>
@@ -9265,7 +9265,7 @@
 Can you tell me what's going on here first?</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="H171" s="0" t="inlineStr">
         <is>
           <t>ඞДа, я уже рассказал вам все, что знаю.
 Не могли бы вы сначала рассказать мне, что здесь происходит?</t>
@@ -9308,7 +9308,7 @@
           <t>The old man thought for a moment.</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="H172" s="0" t="inlineStr">
         <is>
           <t>ඞСтарик на мгновение задумался.</t>
         </is>
@@ -9374,7 +9374,7 @@
 Do you know you can't get out of that white fog no matter what?</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="H173" s="0" t="inlineStr">
         <is>
           <t>ඞЛадно, можете называть меня просто Тонсон.
 Это город, который я построил.
@@ -9426,7 +9426,7 @@
 If it's not offensive, could you please inform us about the local customs and taboos?</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="H174" s="0" t="inlineStr">
         <is>
           <t>ඞХм... Мы здесь недавно.
 Если это не покажется вам оскорбительным, не могли бы вы рассказать нам о местных обычаях и табу?</t>
@@ -9469,7 +9469,7 @@
           <t>Excuse me!</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="H175" s="0" t="inlineStr">
         <is>
           <t>ඞИзвините меня!</t>
         </is>
@@ -9517,7 +9517,7 @@
 But no matter how many times you try, every time the fog lifts you return to the town.</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="H176" s="0" t="inlineStr">
         <is>
           <t>ඞВы вышли из отеля и оказались в белом тумане.
 Но сколько бы вы ни пытались, каждый раз, когда туман рассеивается, вы возвращаетесь в город.</t>
@@ -9560,7 +9560,7 @@
           <t>What the hell is going on here, Mr. Tonson?</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="H177" s="0" t="inlineStr">
         <is>
           <t>ඞЧто, черт возьми, здесь происходит, мистер Тонсон?</t>
         </is>
@@ -9626,7 +9626,7 @@
 When this is done, I'm gonna get you out of here.</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="H178" s="0" t="inlineStr">
         <is>
           <t>ඞЭто тюремная клетка.
 Я не могу выйти и не в состоянии что-либо изменить. Это сводит многих людей с ума.
@@ -9672,7 +9672,7 @@
           <t>What is the specific content of the mission?</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="H179" s="0" t="inlineStr">
         <is>
           <t>ඞВ чем заключается конкретное содержание миссии?</t>
         </is>
@@ -9744,7 +9744,7 @@
 This mission won't be too hard for you, and it won't cost you anything.</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="H180" s="0" t="inlineStr">
         <is>
           <t>ඞЭто на благо людей.
 Помогите мне разобраться с убийцей, скрывающимся в этом городе.
@@ -9791,7 +9791,7 @@
           <t>Let me see…</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="H181" s="0" t="inlineStr">
         <is>
           <t>ඞДайте-ка подумать…</t>
         </is>
@@ -9851,7 +9851,7 @@
 Either his pay wasn't real, or Tonson lied about the difficulty of the investigation.</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="H182" s="0" t="inlineStr">
         <is>
           <t>ඞСпокойные и серьезные слова Тонсона заставляют вас почувствовать, что вы разговариваете с бизнесменом, на лице которого надета маска безмятежной профессиональной ухмылки, словно он торгуется на улице за продукты.
 В отсутствие конфликта интересов у него не должно быть причин обманывать вас, если речь идет о поручении.
@@ -9908,7 +9908,7 @@
 Yes, it's better to have an extra lead and a "partner" to provide information than to pursue it alone.</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="H183" s="0" t="inlineStr">
         <is>
           <t>ඞВам не терпится получить информацию прямо сейчас, и вы немного подумали о поручении и не видите большой проблемы.
 Потому что вы поступили бы точно так же, расследуя дело о его предполагаемом убийце или исследуя место самостоятельно.
@@ -9958,7 +9958,7 @@
 I don't even know how to find you when I'm done with the commission.</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="H184" s="0" t="inlineStr">
         <is>
           <t>ඞМистер Тонсон, я пока ничего не знаю об этом месте.
 Я даже не знаю, как вас найти, когда закончу с заказом.</t>
@@ -10031,7 +10031,7 @@
 The least valuable thing here is time, and I'm sure you'll get used to it yourself.</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="H185" s="0" t="inlineStr">
         <is>
           <t>ඞПосле того, как комиссия будет завершена, все, что вам нужно сделать, это вернуться в отель, и я встречу вас здесь вечером.
 Я дам вам несколько советов на случай, если вы доставите мне неприятности.
@@ -10084,7 +10084,7 @@
 I want information about the killer…</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="H186" s="0" t="inlineStr">
         <is>
           <t>ඞЛадно, последний вопрос.
 Мне нужна информация об убийце…</t>
@@ -10127,7 +10127,7 @@
           <t>You could see Tonson's impatience.</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="H187" s="0" t="inlineStr">
         <is>
           <t>ඞБыло видно нетерпение Тонсона.</t>
         </is>
@@ -10169,7 +10169,7 @@
           <t>His name is Horn…</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="H188" s="0" t="inlineStr">
         <is>
           <t>ඞЕго зовут Хорн…</t>
         </is>
@@ -10211,7 +10211,7 @@
           <t>A man dressed in black rolls over the window in. | With blue hair, black clothes, and a playboy expression.</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="H189" s="0" t="inlineStr">
         <is>
           <t>ඞМужчина, одетый в черное, перелезает через окно. | У него синие волосы, черная одежда и выражение лица плейбоя.</t>
         </is>
@@ -10265,7 +10265,7 @@
 How can I torture you?</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="H190" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон, это прекрасная встреча.
 Что ты будешь делать без Райана?
@@ -10309,7 +10309,7 @@
           <t>You see Tonson begin to tremble.</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="H191" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите, что Тонсон начинает дрожать.</t>
         </is>
@@ -10363,7 +10363,7 @@
 You can get out of here after taking care of him!</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="H192" s="0" t="inlineStr">
         <is>
           <t>ඞЭто Хорн!
 Помогите мне поймать его!
@@ -10414,7 +10414,7 @@
 He saw you with a smile and tidy his hair.</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="H193" s="0" t="inlineStr">
         <is>
           <t>ඞВ это время этот человек тоже смотрит на вас.
 Он увидел, что вы улыбаетесь и приводите в порядок свои волосы.</t>
@@ -10481,7 +10481,7 @@
 I'm long gone from this hellhole.</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="H194" s="0" t="inlineStr">
         <is>
           <t>ඞВ чем дело?
 Вы когда-нибудь видели такого красивого убийцу?
@@ -10533,7 +10533,7 @@
 Do you believe the word of the mayor or a murderer?!!</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
+      <c r="H195" s="0" t="inlineStr">
         <is>
           <t>ඞЯ определенно могу вытащить вас отсюда!
 Вы верите слову мэра или убийцы?!!</t>
@@ -10576,7 +10576,7 @@
           <t>Just make you don't run away like you did last time.</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
+      <c r="H196" s="0" t="inlineStr">
         <is>
           <t>ඞПросто сделай так, чтобы ты не убежала, как в прошлый раз.</t>
         </is>
@@ -10618,7 +10618,7 @@
           <t>Tonson fell to the ground, gasping for air, his bones broken.</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="H197" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон упал на землю, хватая ртом воздух, его кости были сломаны.</t>
         </is>
@@ -10660,7 +10660,7 @@
           <t>Tonson was knocked to the ground, and now Horn has his back to you, and you are going to…</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="H198" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон был сбит с ног, и теперь Хорн стоит к тебе спиной, и ты собираешься…</t>
         </is>
@@ -10702,7 +10702,7 @@
           <t>[Wait and See]</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="H199" s="0" t="inlineStr">
         <is>
           <t>ඞ[Подожди и увидишь]</t>
         </is>
@@ -10744,7 +10744,7 @@
           <t>[Help Tonson]</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="H200" s="0" t="inlineStr">
         <is>
           <t>ඞ[Помоги Тонсону]</t>
         </is>
@@ -10786,7 +10786,7 @@
           <t>I know you want to call those troublesome things.</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="H201" s="0" t="inlineStr">
         <is>
           <t>ඞЯ знаю, ты хочешь назвать это неприятными вещами.</t>
         </is>
@@ -10828,7 +10828,7 @@
           <t>Three shots rang out, and Tonson was completely incapacitated.</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="H202" s="0" t="inlineStr">
         <is>
           <t>ඞРаздались три выстрела, и Тонсон был полностью выведен из строя.</t>
         </is>
@@ -10876,7 +10876,7 @@
 Okay, that's a bit of a strech.</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="H203" s="0" t="inlineStr">
         <is>
           <t>ඞТсс, он проглотил яд первым.
 Ладно, это уже перебор.</t>
@@ -10919,7 +10919,7 @@
           <t>He turns and looks at you.</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="H204" s="0" t="inlineStr">
         <is>
           <t>ඞОн поворачивается и смотрит на тебя.</t>
         </is>
@@ -10979,7 +10979,7 @@
 If you can tell me some information, we might cooperate.</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="H205" s="0" t="inlineStr">
         <is>
           <t>ඞВы меня заинтересовали.
 Вы первый человек, который смог попасть в это место с начала цикла.
@@ -11024,7 +11024,7 @@
           <t>I really don't know what's going on!</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="H206" s="0" t="inlineStr">
         <is>
           <t>ඞЯ действительно не понимаю, что происходит!</t>
         </is>
@@ -11066,7 +11066,7 @@
           <t>You're ready for a fight.</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="H207" s="0" t="inlineStr">
         <is>
           <t>ඞТы готов к бою.</t>
         </is>
@@ -11108,7 +11108,7 @@
           <t>Well, I'm gonna have to make you think.</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="H208" s="0" t="inlineStr">
         <is>
           <t>ඞЧто ж, мне придется заставить тебя задуматься.</t>
         </is>
@@ -11150,7 +11150,7 @@
           <t>You knocked Horn down, but you still got him up for a clue.</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="H209" s="0" t="inlineStr">
         <is>
           <t>ඞТы сбил Хорна с ног, но все равно заставил его подняться, чтобы получить подсказку.</t>
         </is>
@@ -11216,7 +11216,7 @@
 We should be building basic trust, not using threats, right?</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="H210" s="0" t="inlineStr">
         <is>
           <t>ඞУ меня нет причин лгать тебе.
 Если бы я действительно знал, что здесь происходит.
@@ -11262,7 +11262,7 @@
           <t>Well, just occupational habits.</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="H211" s="0" t="inlineStr">
         <is>
           <t>ඞНу, просто профессиональные привычки.</t>
         </is>
@@ -11310,7 +11310,7 @@
 And then to you in a serious way.</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="H212" s="0" t="inlineStr">
         <is>
           <t>ඞОн провел рукой по волосам, словно пытаясь избавиться от смущения.
 А потом серьезно обратился к тебе.</t>
@@ -11365,7 +11365,7 @@
 Think about it, did anything special happen to you?</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="H213" s="0" t="inlineStr">
         <is>
           <t>ඞЯ тоже ищу способ выбраться отсюда.
 Ты единственный посторонний человек за многие годы!
@@ -11409,7 +11409,7 @@
           <t>Let's see…</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="H214" s="0" t="inlineStr">
         <is>
           <t>ඞДавайте посмотрим…</t>
         </is>
@@ -11457,7 +11457,7 @@
 You told Horn about the weird dream you had just before you woke up.</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="H215" s="0" t="inlineStr">
         <is>
           <t>ඞВы вдруг понимаете, что пропустили несколько образов из вашего сна.
 Вы рассказали Хорну о странном сне, который приснился вам незадолго до того, как вы проснулись.</t>
@@ -11512,7 +11512,7 @@
 That person should be in that place.</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="H216" s="0" t="inlineStr">
         <is>
           <t>ඞО! Мой хороший человек!
 Я думаю о семье на Норт-стрит.
@@ -11556,7 +11556,7 @@
           <t>Without further ado, let's meet her at North Street now.</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="H217" s="0" t="inlineStr">
         <is>
           <t>ඞБез дальнейших церемоний, давайте встретимся с ней на Норт-стрит прямо сейчас.</t>
         </is>
@@ -11598,7 +11598,7 @@
           <t>Horn shakes his head.</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="H218" s="0" t="inlineStr">
         <is>
           <t>ඞХорн качает головой.</t>
         </is>
@@ -11652,7 +11652,7 @@
 And now it's time to go backtrack.</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="H219" s="0" t="inlineStr">
         <is>
           <t>ඞМы не можем сразу отправиться на Северную улицу.
 Райан охраняет дом, и он разорвет любого на куски.
@@ -11696,7 +11696,7 @@
           <t>Backtracking?!</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="H220" s="0" t="inlineStr">
         <is>
           <t>ඞОтступаем?!</t>
         </is>
@@ -11756,7 +11756,7 @@
 Except for Merry, don't talk to anyone else casually… because…</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
+      <c r="H221" s="0" t="inlineStr">
         <is>
           <t>ඞПожалуйста, подожди меня на Саут-стрит, когда проснешься.
 Кстати, ты не знаешь, где находится Саут-стрит.
@@ -11801,7 +11801,7 @@
           <t>Eerie songs were heard, and the space around shattered like glass.</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="H222" s="0" t="inlineStr">
         <is>
           <t>ඞПослышались жуткие песни, и пространство вокруг разлетелось вдребезги, как стекло.</t>
         </is>
@@ -11843,7 +11843,7 @@
           <t>When Horn is not looking, you will launch a surprise attack on him.</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="H223" s="0" t="inlineStr">
         <is>
           <t>ඞКогда Хорн отвернется, вы совершите неожиданную атаку на него.</t>
         </is>
@@ -11885,7 +11885,7 @@
           <t>Launch a surprise attack</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="H224" s="0" t="inlineStr">
         <is>
           <t>ඞНачать внезапную атаку</t>
         </is>
@@ -11933,7 +11933,7 @@
 Tonson tried to get up at this point, completely ignoring the bleeding wound on his body.</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="H225" s="0" t="inlineStr">
         <is>
           <t>ඞХотя Хорн был начеку, он не ожидал, что вы окажетесь лучше, чем он предполагал. Вы сбили его с ног, и он потерял сознание.
 В этот момент Тонсон попытался встать, полностью игнорируя кровоточащую рану на своем теле.</t>
@@ -11976,7 +11976,7 @@
           <t>Take a breather, aren't you scared of death?</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="H226" s="0" t="inlineStr">
         <is>
           <t>ඞСделай передышку, разве ты не боишься смерти?</t>
         </is>
@@ -12042,7 +12042,7 @@
 Otherwise, you'll end up like Merry...</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="H227" s="0" t="inlineStr">
         <is>
           <t>ඞЭто исключительный случай... и вот вам фантастическая возможность.
 Хорн наконец-то попался.
@@ -12088,7 +12088,7 @@
           <t>…OK</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="H228" s="0" t="inlineStr">
         <is>
           <t>ඞ...ХОРОШО</t>
         </is>
@@ -12148,7 +12148,7 @@
 But, in the end, you didn't wake up from your nightmare. Instead, you felt severe pain all over your body and saw yourself distorted into an inhuman appearance.</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="H229" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон произнес заклинание, вызывающее зрачок дурного глаза, а затем указал на вас пальцем.
 Вам крайне не по себе, и через некоторое время ужасающий страх охватывает все ваше тело.
@@ -12193,7 +12193,7 @@
           <t>You intend to launch a surprise attack on him, but he has already taken precautions, and your attack has failed.</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="H230" s="0" t="inlineStr">
         <is>
           <t>ඞВы намереваетесь неожиданно напасть на него, но он уже принял меры предосторожности, и ваша атака провалилась.</t>
         </is>
@@ -12235,7 +12235,7 @@
           <t>Can we save our friendly communication for later, dude?</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="H231" s="0" t="inlineStr">
         <is>
           <t>ඞМы можем оставить наше дружеское общение на потом, чувак?</t>
         </is>
@@ -12277,7 +12277,7 @@
           <t>But he is about to be tortured to die by you!</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
+      <c r="H232" s="0" t="inlineStr">
         <is>
           <t>ඞНо вы собираетесь замучить его до смерти!</t>
         </is>
@@ -12319,7 +12319,7 @@
           <t>Eh, he even swallowed the poison first.</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="H233" s="0" t="inlineStr">
         <is>
           <t>ඞЭх, он даже проглотил яд первым.</t>
         </is>
@@ -12397,7 +12397,7 @@
 We might even cooperate.</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="H234" s="0" t="inlineStr">
         <is>
           <t>ඞВидите ли, он покончил с собой.
 Хотя это немного неприятно, как насчет того, чтобы мы как следует поболтали?
@@ -12451,7 +12451,7 @@
 I really don't know what I have to do with this place.</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
+      <c r="H235" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не знаю. Я проснулся и оказался здесь.
 Я действительно не знаю, какое отношение я имею к этому месту.</t>
@@ -12494,7 +12494,7 @@
           <t>You see him frown.</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
+      <c r="H236" s="0" t="inlineStr">
         <is>
           <t>ඞТы видишь, как он хмурится.</t>
         </is>
@@ -12548,7 +12548,7 @@
 I have many ways to make people feel worse than death</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
+      <c r="H237" s="0" t="inlineStr">
         <is>
           <t>ඞЯ долгое время был безработным.
 Но тебе лучше не врать мне.
@@ -12592,7 +12592,7 @@
           <t>He's threatening you for more information, but you really don't know anything right now…</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
+      <c r="H238" s="0" t="inlineStr">
         <is>
           <t>ඞОн угрожает тебе, требуя больше информации, но ты действительно сейчас ничего не знаешь…</t>
         </is>
@@ -12634,7 +12634,7 @@
           <t>[Think About Missing Information]</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
+      <c r="H239" s="0" t="inlineStr">
         <is>
           <t>ඞ[Подумайте о Недостающей Информации]</t>
         </is>
@@ -12676,7 +12676,7 @@
           <t>[A Show of Force]</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
+      <c r="H240" s="0" t="inlineStr">
         <is>
           <t>ඞ[Демонстрация силы]</t>
         </is>
@@ -12718,7 +12718,7 @@
           <t>Before you wake up...</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
+      <c r="H241" s="0" t="inlineStr">
         <is>
           <t>ඞДо того, как ты проснешься...</t>
         </is>
@@ -12767,7 +12767,7 @@
 Are you hungry? I have some breakfast for you...</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="H242" s="0" t="inlineStr">
         <is>
           <t>ඞЭм? Наконец-то ты здесь, мой гость.
 Ты голоден? У меня есть для тебя немного завтрака...</t>
@@ -12810,7 +12810,7 @@
           <t>Tonson sighed and shook his head.</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
+      <c r="H243" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон вздохнул и покачал головой.</t>
         </is>
@@ -12870,7 +12870,7 @@
 I've run out of patience completely.</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="H244" s="0" t="inlineStr">
         <is>
           <t>ඞМерри, из всех, кого я видел, ты обладаешь самыми лучшими качествами.
 Однако я крайне разочарован тем, что ты не смогла обратиться.
@@ -12915,7 +12915,7 @@
           <t>Tonson takes out a candle, which was wrapped with mysterious runes on it.</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
+      <c r="H245" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон достает свечу, на которой были начертаны таинственные руны.</t>
         </is>
@@ -12963,7 +12963,7 @@
 But now I have no choice...</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
+      <c r="H246" s="0" t="inlineStr">
         <is>
           <t>ඞЭто может их не удовлетворить.
 Но теперь у меня нет выбора...</t>
@@ -13013,7 +13013,7 @@
 A strange eye appeared in front of his eyes. Merry's eyes shed black tears and cried bitterly.</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
+      <c r="H247" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон произнес непонятное заклинание.
 Перед его глазами появился странный глаз. Из глаз Мерри полились черные слезы, и она горько заплакала.</t>
@@ -13062,7 +13062,7 @@
 However, there is a strange scent in the air that obscures the difference between reality and illusion and prevents you from inspiring any spirit of resistance.</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
+      <c r="H248" s="0" t="inlineStr">
         <is>
           <t>ඞВы поспешили вперед, чтобы помешать Тонсону наслать на Мерри злые чары, после того как заметили, как он это делает.
 Однако в воздухе витает странный запах, который скрывает разницу между реальностью и иллюзией и не дает вам пробудить в себе дух сопротивления.</t>
@@ -13105,7 +13105,7 @@
           <t>Your soul seems to float away from your body.|When you regain consciousness, you have arrived at the gate of the police station.</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
+      <c r="H249" s="0" t="inlineStr">
         <is>
           <t>ඞКажется, что ваша душа покидает тело.|Когда вы приходите в себя, вы оказываетесь у ворот полицейского участка.</t>
         </is>
@@ -13147,7 +13147,7 @@
           <t>As soon as you entered the hotel, you saw a wried scene.</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
+      <c r="H250" s="0" t="inlineStr">
         <is>
           <t>ඞКак только вы вошли в отель, то увидели разыгравшуюся сцену.</t>
         </is>
@@ -13195,7 +13195,7 @@
 It hummed softly, and a blue viscous liquid emitted from the shell's edge dripped onto the floor incessantly, it is controlling the tentacles to grab the surrounding kitchen utensils, but it can't catch them.</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
+      <c r="H251" s="0" t="inlineStr">
         <is>
           <t>ඞИз черного дыма появилось существо, покрытое щупальцами, из его массивной головы текли голубые слезы.
 Он тихо жужжал, и голубая вязкая жидкость, вытекающая из-за края раковины, непрерывно капала на пол, он управлял щупальцами, чтобы схватить окружающие кухонные принадлежности, но не мог их поймать.</t>
@@ -13238,7 +13238,7 @@
           <t>When you combine this with the previous vague image, you have an unacceptable but extremely certain inference in your mind.</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="H252" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы объединяете это с предыдущим расплывчатым образом, у вас в голове возникает неприемлемый, но чрезвычайно определенный вывод.</t>
         </is>
@@ -13286,7 +13286,7 @@
 How did you become like this!</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="H253" s="0" t="inlineStr">
         <is>
           <t>ඞ...Веселый?!
 Как ты стал таким!</t>
@@ -13329,7 +13329,7 @@
           <t>You sense the horrible creature's breath ahead of you and prepare to…</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
+      <c r="H254" s="0" t="inlineStr">
         <is>
           <t>ඞВы чувствуете дыхание ужасного существа впереди себя и готовитесь к…</t>
         </is>
@@ -13371,7 +13371,7 @@
           <t>[Come forward to challenge]</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
+      <c r="H255" s="0" t="inlineStr">
         <is>
           <t>ඞ[Выходи вперед, чтобы бросить вызов]</t>
         </is>
@@ -13413,7 +13413,7 @@
           <t>You watched Merry kneel on the ground and sob quietly as the black mist dissipated.</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
+      <c r="H256" s="0" t="inlineStr">
         <is>
           <t>ඞТы видел, как Мерри опустилась на колени и тихо всхлипывала, когда черный туман рассеялся.</t>
         </is>
@@ -13455,7 +13455,7 @@
           <t>[Is not time]</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
+      <c r="H257" s="0" t="inlineStr">
         <is>
           <t>ඞ[Еще не пришло время]</t>
         </is>
@@ -13497,7 +13497,7 @@
           <t>[Try to wake up Merry]</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
+      <c r="H258" s="0" t="inlineStr">
         <is>
           <t>ඞ[Попробуй разбудить Мерри]</t>
         </is>
@@ -13545,7 +13545,7 @@
 How did you become like this…</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
+      <c r="H259" s="0" t="inlineStr">
         <is>
           <t>ඞВеселый…
 Как ты стал таким…</t>
@@ -13588,7 +13588,7 @@
           <t>The monster whimpered, trying to answer you, but couldn't make a sound.</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
+      <c r="H260" s="0" t="inlineStr">
         <is>
           <t>ඞМонстр заскулил, пытаясь ответить тебе, но не смог издать ни звука.</t>
         </is>
@@ -13630,7 +13630,7 @@
           <t>Don't be afraid. I will try to help you.</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
+      <c r="H261" s="0" t="inlineStr">
         <is>
           <t>ඞНе бойся. Я постараюсь вам помочь.</t>
         </is>
@@ -13672,7 +13672,7 @@
           <t>Just then, those strange tentacles entangled you.</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
+      <c r="H262" s="0" t="inlineStr">
         <is>
           <t>ඞИменно в этот момент эти странные щупальца опутали тебя.</t>
         </is>
@@ -13720,7 +13720,7 @@
 You see the tentacles on the monster gradually fade away.</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
+      <c r="H263" s="0" t="inlineStr">
         <is>
           <t>ඞАмулет на вашем теле загорается и излучает ослепительный свет. По всему телу разливается ощущение тепла и умиротворения.
 Вы видите, как щупальца монстра постепенно исчезают.</t>
@@ -13769,7 +13769,7 @@
 You suddenly remembered her happy expression when she received thanks from others, so you said slowly to her.</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
+      <c r="H264" s="0" t="inlineStr">
         <is>
           <t>ඞТы не мог ничего сказать, потому что по ее лицу текли черные слезы.
 Ты вдруг вспомнил счастливое выражение ее лица, когда она получала благодарности от других, и медленно обратился к ней.</t>
@@ -13824,7 +13824,7 @@
 Let me have an unforgettable memory.</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
+      <c r="H265" s="0" t="inlineStr">
         <is>
           <t>ඞМерри, спасибо тебе.
 Твой суп очень вкусный.
@@ -13874,7 +13874,7 @@
 Can you really feel... my regard?</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
+      <c r="H266" s="0" t="inlineStr">
         <is>
           <t>ඞЭто правда?
 Ты действительно чувствуешь... мое уважение?</t>
@@ -13923,7 +13923,7 @@
 I can feel your heart.</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
+      <c r="H267" s="0" t="inlineStr">
         <is>
           <t>ඞТы всегда искренне относишься ко всему, что тебя окружает.
 Я чувствую твое сердце.</t>
@@ -13978,7 +13978,7 @@
 This will make him more strength when working…</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
+      <c r="H268" s="0" t="inlineStr">
         <is>
           <t>ඞТы можешь… действительно… почувствуй мое сердце…
 Райан любит тушеную говядину с орлиным рогом…
@@ -14040,7 +14040,7 @@
 I want to make a room off the storage room for his grandpa…</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
+      <c r="H269" s="0" t="inlineStr">
         <is>
           <t>ඞНана любит цветы, но терпеть не может сильных ароматов…
 Я готовлю для нее тюльпаны…
@@ -14091,7 +14091,7 @@
 But they're all gone, am I letting them down?</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
+      <c r="H270" s="0" t="inlineStr">
         <is>
           <t>ඞВсе они - люди, которые помогли мне…
 Но они все ушли, неужели я их подвожу?</t>
@@ -14145,7 +14145,7 @@
 After pondering for a long time, you spoke slowly.</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
+      <c r="H271" s="0" t="inlineStr">
         <is>
           <t>ඞТы молчишь, ты знаешь, что в этот момент не стоит плести небылицы, чтобы обмануть, тебе нужно искренне говорить правду.
 И объяснение фактов может привести к тому, что ее психически слабая, которая и так уже психически слаба, упадет в обморок.
@@ -14195,7 +14195,7 @@
 But Merry, it is you who make me feel warm in this strange place.</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
+      <c r="H272" s="0" t="inlineStr">
         <is>
           <t>ඞЯ понятия не имею...
 Но, Мерри, именно благодаря тебе мне становится тепло в этом странном месте.</t>
@@ -14244,7 +14244,7 @@
 She stood up slowly.</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
+      <c r="H273" s="0" t="inlineStr">
         <is>
           <t>ඞВ этот момент ты, кажется, замечаешь блеск в глазах Мерри.
 Она медленно встала.</t>
@@ -14299,7 +14299,7 @@
 Today's dinner will be very delicious and will definitely satisfy you!</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
+      <c r="H274" s="0" t="inlineStr">
         <is>
           <t>ඞАх, вот и настало это время.
 Поторопитесь приготовить ингредиенты для сегодняшнего ужина ~
@@ -14373,7 +14373,7 @@
 You'll forget about our conversation when you see Horn again.</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
+      <c r="H275" s="0" t="inlineStr">
         <is>
           <t>ඞДаже если ты решишь сразиться со мной, я все равно дам тебе этот шанс.
 Я дам тебе задание и помогу выбраться отсюда, когда оно будет выполнено.
@@ -14426,7 +14426,7 @@
 You accepted his commission.</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
+      <c r="H276" s="0" t="inlineStr">
         <is>
           <t>ඞНа мгновение вам кажется, что стоящий перед вами старик очень добр.
 Вы приняли его поручение.</t>
@@ -14475,7 +14475,7 @@
 I accept this commission.</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
+      <c r="H277" s="0" t="inlineStr">
         <is>
           <t>ඞЯ понимаю……
 Я принимаю это поручение.</t>
@@ -14542,7 +14542,7 @@
 Your suffering will end as soon as the transformation is completed.</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
+      <c r="H278" s="0" t="inlineStr">
         <is>
           <t>ඞВеселый…
 Вы знаете, что человек - это существо, которое умирает без желаний.
@@ -14600,7 +14600,7 @@
 Everyone will understand…</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
+      <c r="H279" s="0" t="inlineStr">
         <is>
           <t>ඞЯ просто пытаюсь выразить свои чувства…
 Все поймут друг друга…
@@ -14650,7 +14650,7 @@
 It hummed softly, and a blue viscous liquid emitted from the shell's edge dripped onto the floor incessantly.</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
+      <c r="H280" s="0" t="inlineStr">
         <is>
           <t>ඞИз черного дыма появилось существо, покрытое щупальцами, из его массивной головы текли голубые слезы.
 Оно тихо жужжало, и голубая вязкая жидкость, вытекавшая из края раковины, непрерывно капала на пол.</t>
@@ -14705,7 +14705,7 @@
 Obviously, you are capable of completing the ideal transformation.</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
+      <c r="H281" s="0" t="inlineStr">
         <is>
           <t>ඞЭто! Что именно это такое?
 Мерри, ты меня действительно подвела!
@@ -14749,7 +14749,7 @@
           <t>Forget it, now we must put the final arrangement into action…</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
+      <c r="H282" s="0" t="inlineStr">
         <is>
           <t>ඞЗабудь об этом, теперь мы должны привести в действие окончательную договоренность…</t>
         </is>
@@ -14791,7 +14791,7 @@
           <t>Merry</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
+      <c r="H283" s="0" t="inlineStr">
         <is>
           <t>ඞВеселый</t>
         </is>
@@ -14833,7 +14833,7 @@
           <t>Tonson</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
+      <c r="H284" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон</t>
         </is>
@@ -14875,7 +14875,7 @@
           <t>Horn</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
+      <c r="H285" s="0" t="inlineStr">
         <is>
           <t>ඞРог</t>
         </is>
@@ -14917,7 +14917,7 @@
           <t>Profanador</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
+      <c r="H286" s="0" t="inlineStr">
         <is>
           <t>ඞОсквернитель</t>
         </is>
@@ -14959,7 +14959,7 @@
           <t>Corridor</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
+      <c r="H287" s="0" t="inlineStr">
         <is>
           <t>ඞКоридор</t>
         </is>
@@ -15004,7 +15004,7 @@
           <t>You listen carefully to the room. Only the wind blows the paper's sound. There should be a window open inside. In addition, it is very quiet. You can smell the scent of the paint and blood when you near the door.</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
+      <c r="H288" s="0" t="inlineStr">
         <is>
           <t>ඞВы внимательно прислушиваетесь к комнате. Только ветер шуршит бумагой. Внутри должно быть открыто окно. Кроме того, здесь очень тихо. Когда вы подходите к двери, вы чувствуете запах краски и крови.</t>
         </is>
@@ -15046,7 +15046,7 @@
           <t>The room is very quiet. You can smell the scent of the paint and blood when you near the door.</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
+      <c r="H289" s="0" t="inlineStr">
         <is>
           <t>ඞВ комнате очень тихо. Подходя к двери, вы чувствуете запах краски и крови.</t>
         </is>
@@ -15088,7 +15088,7 @@
           <t>The smell of cooking from downstairs lifts your spirits.</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
+      <c r="H290" s="0" t="inlineStr">
         <is>
           <t>ඞДоносящийся снизу запах готовящейся пищи поднимает вам настроение.</t>
         </is>
@@ -15130,7 +15130,7 @@
           <t>It's the smell of meat!</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
+      <c r="H291" s="0" t="inlineStr">
         <is>
           <t>ඞЭто запах мяса!</t>
         </is>
@@ -15172,7 +15172,7 @@
           <t>That's when you hear a scream of pain from downstairs.</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
+      <c r="H292" s="0" t="inlineStr">
         <is>
           <t>ඞВ этот момент ты слышишь крик боли, доносящийся снизу.</t>
         </is>
@@ -15220,7 +15220,7 @@
 What happened to Merry?</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
+      <c r="H293" s="0" t="inlineStr">
         <is>
           <t>ඞЭтот звук!?
 Что случилось с Мерри?</t>
@@ -15263,7 +15263,7 @@
           <t>Guest room</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
+      <c r="H294" s="0" t="inlineStr">
         <is>
           <t>ඞКомната для гостей</t>
         </is>
@@ -15305,7 +15305,7 @@
           <t>A beautiful desk calendar with butterflies and flowers, dated Jan. 1920.</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
+      <c r="H295" s="0" t="inlineStr">
         <is>
           <t>ඞКрасивый настольный календарь с бабочками и цветами, датированный январем 1920 года.</t>
         </is>
@@ -15347,7 +15347,7 @@
           <t>View the Desk Calendar</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
+      <c r="H296" s="0" t="inlineStr">
         <is>
           <t>ඞПросмотр настольного календаря</t>
         </is>
@@ -15389,7 +15389,7 @@
           <t>The Sticky Note</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
+      <c r="H297" s="0" t="inlineStr">
         <is>
           <t>ඞЗаписка на липучке</t>
         </is>
@@ -15437,7 +15437,7 @@
 Also, you found a note.</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
+      <c r="H298" s="0" t="inlineStr">
         <is>
           <t>ඞВ ящике стола есть свеча и коробок спичек.
 Кроме того, вы нашли записку.</t>
@@ -15498,7 +15498,7 @@
 "I hope you have a good dream and relieve your fatigue during the journey."</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
+      <c r="H299" s="0" t="inlineStr">
         <is>
           <t>ඞ"Комната маленькая, и в ней не был проведен капитальный ремонт. Пожалуйста, простите меня".
 "Не стесняйтесь обращаться ко мне, если вам понадобится помощь".
@@ -15567,7 +15567,7 @@
 "Wishing you a good night's sleep to ease the fatigue of your journey — Merry.'</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
+      <c r="H300" s="0" t="inlineStr">
         <is>
           <t>ඞВнутри ящика вы найдете записку. 
 "Номер небольшой, а в комнате для гостей все еще идет ремонт, пожалуйста, простите нас".
@@ -15613,7 +15613,7 @@
           <t>Open the drawer</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
+      <c r="H301" s="0" t="inlineStr">
         <is>
           <t>ඞОткрыть ящик</t>
         </is>
@@ -15655,7 +15655,7 @@
           <t>You can see the white fog on the west side of the hotel with no edge.</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
+      <c r="H302" s="0" t="inlineStr">
         <is>
           <t>ඞВы можете видеть белый туман с западной стороны отеля, не имеющий границ.</t>
         </is>
@@ -15703,7 +15703,7 @@
 You look to the north, and there's a huge white beast standing on the north side of the street, and behind it are two fancy mansions, and the beast is like a security guard here.</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
+      <c r="H303" s="0" t="inlineStr">
         <is>
           <t>ඞС западной стороны отеля виден белый туман, не имеющий границ.
 Вы смотрите на север и видите огромного белого зверя, стоящего на северной стороне улицы, а за ним - два роскошных особняка, и этот зверь здесь вроде охранника.</t>
@@ -15746,7 +15746,7 @@
           <t>What is that? Is it a statue?</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
+      <c r="H304" s="0" t="inlineStr">
         <is>
           <t>ඞЧто это такое? Это статуя?</t>
         </is>
@@ -15788,7 +15788,7 @@
           <t>View Window</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
+      <c r="H305" s="0" t="inlineStr">
         <is>
           <t>ඞСмотровое окно</t>
         </is>
@@ -15836,7 +15836,7 @@
 You open your eyes, the sun shines through the glass on the floor, and the air is cold and dull.</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
+      <c r="H306" s="0" t="inlineStr">
         <is>
           <t>ඞСтранный потолок, странная кровать, странный подоконник, рядом со столом распускаются бледно-желтые тюльпаны.
 Ты открываешь глаза, солнце светит сквозь стекло на полу, а воздух холодный и унылый.</t>
@@ -15879,7 +15879,7 @@
           <t>Where am I?</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
+      <c r="H307" s="0" t="inlineStr">
         <is>
           <t>ඞгде я?</t>
         </is>
@@ -15921,7 +15921,7 @@
           <t>Familiar ceiling, familiar bed, familiar windowsill, pale yellow tulips beside the table.</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
+      <c r="H308" s="0" t="inlineStr">
         <is>
           <t>ඞЗнакомый потолок, знакомая кровать, знакомый подоконник, бледно-желтые тюльпаны на столе.</t>
         </is>
@@ -15969,7 +15969,7 @@
 The loop thing is true.</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
+      <c r="H309" s="0" t="inlineStr">
         <is>
           <t>ඞВернемся сюда еще раз…
 Идея с циклом верна.</t>
@@ -16012,7 +16012,7 @@
           <t>Let's go find Horn first.</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
+      <c r="H310" s="0" t="inlineStr">
         <is>
           <t>ඞДавай сначала найдем Хорна.</t>
         </is>
@@ -16060,7 +16060,7 @@
 You swear to yourself that you must find the source of the disaster.</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
+      <c r="H311" s="0" t="inlineStr">
         <is>
           <t>ඞВы привыкли к ощущению, что возвращаетесь назад. Все вокруг вас в норме, только вчерашние события запечатлелись в вашем сознании.
 Вы клянетесь себе, что должны найти источник катастрофы.</t>
@@ -16103,7 +16103,7 @@
           <t>Storage Room</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
+      <c r="H312" s="0" t="inlineStr">
         <is>
           <t>ඞСкладское помещение</t>
         </is>
@@ -16145,7 +16145,7 @@
           <t>The paint bucket lid next to the scaffolding seems not to be properly closed.</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
+      <c r="H313" s="0" t="inlineStr">
         <is>
           <t>ඞКрышка ведра для краски, стоящего рядом со строительными лесами, по-видимому, закрыта неправильно.</t>
         </is>
@@ -16187,7 +16187,7 @@
           <t>You found there is something have fallen in the it and you decided to make it out.</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
+      <c r="H314" s="0" t="inlineStr">
         <is>
           <t>ඞВы обнаружили, что в нем что-то упало, и решили разобраться с этим.</t>
         </is>
@@ -16229,7 +16229,7 @@
           <t>You find that the paint cap has been blocked by dripping paint, there is no useful information.</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
+      <c r="H315" s="0" t="inlineStr">
         <is>
           <t>ඞЕсли вы обнаружите, что колпачок для краски заблокирован из-за капающей краски, никакой полезной информации не будет.</t>
         </is>
@@ -16277,7 +16277,7 @@
 You pick a fruit you like to eat.</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
+      <c r="H316" s="0" t="inlineStr">
         <is>
           <t>ඞЗдесь есть большая корзина с овощами и фруктами, которые выглядят очень свежими.
 Вы выбираете те фрукты, которые вам нравятся.</t>
@@ -16320,7 +16320,7 @@
           <t>Edible Fruit</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
+      <c r="H317" s="0" t="inlineStr">
         <is>
           <t>ඞСъедобные фрукты</t>
         </is>
@@ -16374,7 +16374,7 @@
 The paint on the left has dried, and it can be seen that someone left the window open to avoid the smell of paint contaminating the food.</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
+      <c r="H318" s="0" t="inlineStr">
         <is>
           <t>ඞВнутри есть помещение для временного хранения, а в правой части полно ингредиентов.
 Свежее мясо на полке издает слабый запах крови, а рядом с ним стоят несколько цветочных горшков.
@@ -16418,7 +16418,7 @@
           <t>Can't tell what kind of flower pot it is.</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
+      <c r="H319" s="0" t="inlineStr">
         <is>
           <t>ඞНе могу сказать, что это за цветочный горшок.</t>
         </is>
@@ -16466,7 +16466,7 @@
 Miss something...</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
+      <c r="H320" s="0" t="inlineStr">
         <is>
           <t>ඞЧего-то не хватает.
 Чего-то не хватает...</t>
@@ -16509,7 +16509,7 @@
           <t>Isn't here...</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
+      <c r="H321" s="0" t="inlineStr">
         <is>
           <t>ඞЕго здесь нет...</t>
         </is>
@@ -16551,7 +16551,7 @@
           <t>Didn't grow out...</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
+      <c r="H322" s="0" t="inlineStr">
         <is>
           <t>ඞТак и не вырос...</t>
         </is>
@@ -16593,7 +16593,7 @@
           <t>You see her look a little sad.</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
+      <c r="H323" s="0" t="inlineStr">
         <is>
           <t>ඞТы видишь, что она выглядит немного грустной.</t>
         </is>
@@ -16635,7 +16635,7 @@
           <t>What is Merry doing?</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
+      <c r="H324" s="0" t="inlineStr">
         <is>
           <t>ඞЧто делает Мерри?</t>
         </is>
@@ -16683,7 +16683,7 @@
 One of them even grew to the size of an egg.</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
+      <c r="H325" s="0" t="inlineStr">
         <is>
           <t>ඞВ горшочке вы обнаружите несколько черных очищенных семечек.
 Одно из них даже выросло до размера яйца.</t>
@@ -16732,7 +16732,7 @@
 Why does it feel like the size isn't what I expected…</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
+      <c r="H326" s="0" t="inlineStr">
         <is>
           <t>ඞЭто те самые черные семечки, которые Райан дал Мерри?
 Почему у меня такое чувство, что размер не такой, как я ожидала…</t>
@@ -16781,7 +16781,7 @@
 If you didn't feel like there was something conceived inside, you'd think it was a metal iron ball.</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
+      <c r="H327" s="0" t="inlineStr">
         <is>
           <t>ඞВы держите в руках черное яйцо с более твердой скорлупой, чем вы ожидали.
 Если бы вы не чувствовали, что внутри что-то задумано, вы бы подумали, что это металлический шарик.</t>
@@ -16824,7 +16824,7 @@
           <t>Take this, it is time to meet up with Horn.</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
+      <c r="H328" s="0" t="inlineStr">
         <is>
           <t>ඞВозьми это, пришло время встретиться с Рогом.</t>
         </is>
@@ -16866,7 +16866,7 @@
           <t>Investigate the Flower Pot</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
+      <c r="H329" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте цветочный горшок</t>
         </is>
@@ -16908,7 +16908,7 @@
           <t>Merry's Room</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
+      <c r="H330" s="0" t="inlineStr">
         <is>
           <t>ඞКомната Мерри</t>
         </is>
@@ -16950,7 +16950,7 @@
           <t>Merry's Notebook</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
+      <c r="H331" s="0" t="inlineStr">
         <is>
           <t>ඞЗаписная книжка Мерри</t>
         </is>
@@ -17016,7 +17016,7 @@
 There is a list of items that need to build a hotel and the largest cost of funds is the lease of the land.</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
+      <c r="H332" s="0" t="inlineStr">
         <is>
           <t>ඞВы читали этот блокнот.
 Следы указывают на то, что блокнотом часто пользовались.
@@ -17068,7 +17068,7 @@
 "Ryan said he would put something with me temporarily and I left it in the storage room on the second floor."</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
+      <c r="H333" s="0" t="inlineStr">
         <is>
           <t>ඞ...Вы продолжаете читать заметку, и в ежедневнике есть строчка, которая привлекает ваше внимание——
 "Райан сказал, что временно передаст мне кое-что, и я оставила это в кладовке на втором этаже".</t>
@@ -17117,7 +17117,7 @@
 And "Happy Birthday" is written on the picture with a lovely face drawn beside it.</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
+      <c r="H334" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы уже собирались закрыть блокнот, вы увидели в нем картинку.
 На картинке написано "С днем рождения", а рядом нарисовано милое личико.</t>
@@ -17160,7 +17160,7 @@
           <t>Read the Notebook</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
+      <c r="H335" s="0" t="inlineStr">
         <is>
           <t>ඞПрочтите записную книжку</t>
         </is>
@@ -17208,7 +17208,7 @@
 You found a key inside.</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
+      <c r="H336" s="0" t="inlineStr">
         <is>
           <t>ඞВ ящике есть кое-какие косметические принадлежности, сувенирные открытки и старые детские игрушки.
 Внутри вы нашли ключ.</t>
@@ -17251,7 +17251,7 @@
           <t>Inside the drawer are some grooming items, souvenir cards, and some old children's toys.</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
+      <c r="H337" s="0" t="inlineStr">
         <is>
           <t>ඞВ ящике лежат кое-какие принадлежности для ухода за собой, сувенирные открытки и несколько старых детских игрушек.</t>
         </is>
@@ -17293,7 +17293,7 @@
           <t>Clean and tidy wardrobe with women's clothes neatly arranged.</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
+      <c r="H338" s="0" t="inlineStr">
         <is>
           <t>ඞЧистый и опрятный гардероб с аккуратно разложенной женской одеждой.</t>
         </is>
@@ -17335,7 +17335,7 @@
           <t>The grocery store</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
+      <c r="H339" s="0" t="inlineStr">
         <is>
           <t>ඞПродуктовый магазин</t>
         </is>
@@ -17377,7 +17377,7 @@
           <t>Townsend Morning</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
+      <c r="H340" s="0" t="inlineStr">
         <is>
           <t>ඞДоброе утро в Таунсенде</t>
         </is>
@@ -17425,7 +17425,7 @@
 However, the layout of news events about pharmacies being robbed occupies a large position.</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
+      <c r="H341" s="0" t="inlineStr">
         <is>
           <t>ඞВ городе не так много новостей. В основном это пикантные новости и забавные анекдоты.
 Однако большое место в новостях занимают события, связанные с ограблениями аптек.</t>
@@ -17474,7 +17474,7 @@
 It is reported that the man broke into a pharmacy on East Street and took away some deposited medicines.</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
+      <c r="H342" s="0" t="inlineStr">
         <is>
           <t>ඞДнем 13 января 1920 года в доме № 7 по Ист-стрит в Таунсенде произошло ограбление. Полиция быстро выехала на Саут-стрит, чтобы арестовать мужчину.
 Сообщается, что мужчина вломился в аптеку на Ист-стрит и забрал несколько хранившихся там лекарств.</t>
@@ -17535,7 +17535,7 @@
 Judging by the dress, it was a worker in the factory in the town.</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
+      <c r="H343" s="0" t="inlineStr">
         <is>
           <t>ඞПо воспоминаниям продавца, мужчина казался очень нервным и сказал ему::
 "Не двигайтесь, я не хочу этого делать".
@@ -17580,7 +17580,7 @@
           <t>Read the Newspaper</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
+      <c r="H344" s="0" t="inlineStr">
         <is>
           <t>ඞПочитайте газету</t>
         </is>
@@ -17628,7 +17628,7 @@
 In addition you alse found a pocket of  the pistol tape to the top in the drawer, probably used by the clerk for self-defence.</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
+      <c r="H345" s="0" t="inlineStr">
         <is>
           <t>ඞВ выдвижном ящике есть кое-что из мелочей, газета для разгадывания кроссворда и коробка для ланча.
 Кроме того, вы также нашли в ящике кассету для пистолета, которая, вероятно, использовалась продавцом для самообороны.</t>
@@ -17671,7 +17671,7 @@
           <t>Inisde the drawer there are some changes, newspaper for corssword puzzle and lunch box.</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
+      <c r="H346" s="0" t="inlineStr">
         <is>
           <t>ඞВ выдвижном ящике лежат кое-какие мелочи, газета для разгадывания кроссворда и коробка для ланча.</t>
         </is>
@@ -17713,7 +17713,7 @@
           <t>Investigate the Cashier Desk</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
+      <c r="H347" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте кассу</t>
         </is>
@@ -17755,7 +17755,7 @@
           <t>Ledger</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
+      <c r="H348" s="0" t="inlineStr">
         <is>
           <t>ඞГроссбух</t>
         </is>
@@ -17809,7 +17809,7 @@
 In the previous six months, the hardware store barely broke even.</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
+      <c r="H349" s="0" t="inlineStr">
         <is>
           <t>ඞБухгалтерская книга очень подробная, и по ней можно проследить доходы и отследить детали за последние 10 месяцев.
 В ней плотно прописаны платежи за покупку и приобретение инструментов.
@@ -17871,7 +17871,7 @@
 The government's procurement department purchased a matching lock mold.</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
+      <c r="H350" s="0" t="inlineStr">
         <is>
           <t>ඞВы заметили, что после октября 1919 года резко возрос спрос на современные противоугонные замки в магазинах?
 Основными источниками спроса являются пользователи с Ист-стрит и Норт-стрит.
@@ -17916,7 +17916,7 @@
           <t>Read the ledgers</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
+      <c r="H351" s="0" t="inlineStr">
         <is>
           <t>ඞПочитайте бухгалтерские книги</t>
         </is>
@@ -17958,7 +17958,7 @@
           <t>Take away Cleanser</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
+      <c r="H352" s="0" t="inlineStr">
         <is>
           <t>ඞУбирайте моющее средство</t>
         </is>
@@ -18000,7 +18000,7 @@
           <t>This is the shelf for daily items. There is some cleanser on it.</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
+      <c r="H353" s="0" t="inlineStr">
         <is>
           <t>ඞЭто полка для ежедневных принадлежностей. На ней есть немного моющего средства.</t>
         </is>
@@ -18042,7 +18042,7 @@
           <t>The Lottery Rules</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
+      <c r="H354" s="0" t="inlineStr">
         <is>
           <t>ඞПравила лотереи</t>
         </is>
@@ -18114,7 +18114,7 @@
 "(Note: The lottery ticket is vaild only if it is stamped with a seal on the perforation)"</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
+      <c r="H355" s="0" t="inlineStr">
         <is>
           <t>ඞВ нем говорится:
 "Таунсенд будет выпускать 5000 лотерейных билетов каждый месяц, каждый из которых будет стоить 5 долларов, чтобы собрать средства на содержание общественных объектов в городе".
@@ -18161,7 +18161,7 @@
           <t>Isn't the lottery prohibited by law?</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
+      <c r="H356" s="0" t="inlineStr">
         <is>
           <t>ඞРазве лотерея не запрещена законом?</t>
         </is>
@@ -18203,7 +18203,7 @@
           <t>This is a coin-operated lottery machine. Are you going to spend 5 bucks to buy a bet…</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
+      <c r="H357" s="0" t="inlineStr">
         <is>
           <t>ඞЭто лотерейный автомат с монетным управлением. Собираетесь ли вы потратить 5 баксов на покупку ставки…</t>
         </is>
@@ -18245,7 +18245,7 @@
           <t>[Buy Lottery]</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
+      <c r="H358" s="0" t="inlineStr">
         <is>
           <t>ඞ[Купить лотерею]</t>
         </is>
@@ -18287,7 +18287,7 @@
           <t>[Don't Buy]</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
+      <c r="H359" s="0" t="inlineStr">
         <is>
           <t>ඞ[Не покупай]</t>
         </is>
@@ -18329,7 +18329,7 @@
           <t>View the lottery machine</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
+      <c r="H360" s="0" t="inlineStr">
         <is>
           <t>ඞПосмотрите на лотерейный автомат</t>
         </is>
@@ -18371,7 +18371,7 @@
           <t>Take the money</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
+      <c r="H361" s="0" t="inlineStr">
         <is>
           <t>ඞВозьми деньги</t>
         </is>
@@ -18413,7 +18413,7 @@
           <t>What flover dose Nana like to eat...</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
+      <c r="H362" s="0" t="inlineStr">
         <is>
           <t>ඞКакую дозу фловера любит есть Нана?..</t>
         </is>
@@ -18455,7 +18455,7 @@
           <t>Then choose this one...</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
+      <c r="H363" s="0" t="inlineStr">
         <is>
           <t>ඞТогда выбери вот это...</t>
         </is>
@@ -18497,7 +18497,7 @@
           <t>She took out some money and put it on the counter.</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
+      <c r="H364" s="0" t="inlineStr">
         <is>
           <t>ඞОна достала немного денег и положила их на прилавок.</t>
         </is>
@@ -18539,7 +18539,7 @@
           <t>Monstro aranha</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
+      <c r="H365" s="0" t="inlineStr">
         <is>
           <t>ඞМонстр-паук</t>
         </is>
@@ -18581,7 +18581,7 @@
           <t>Customer</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
+      <c r="H366" s="0" t="inlineStr">
         <is>
           <t>ඞПокупатель</t>
         </is>
@@ -18623,7 +18623,7 @@
           <t>The skin and flesh on his body faded and the black sticky blood covered his whole body. Soon you saw that he turned into a terrible monster.</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
+      <c r="H367" s="0" t="inlineStr">
         <is>
           <t>ඞКожа и плоть на его теле поблекли, и черная липкая кровь покрыла все его тело. Вскоре вы увидели, что он превратился в ужасного монстра.</t>
         </is>
@@ -18665,7 +18665,7 @@
           <t>Give him this "Win" lottery ticket.</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
+      <c r="H368" s="0" t="inlineStr">
         <is>
           <t>ඞДайте ему этот "Выигрышный" лотерейный билет.</t>
         </is>
@@ -18719,7 +18719,7 @@
 At this time, you pointed to his pocket and when he took out the lottery ticket in his pocket…</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
+      <c r="H369" s="0" t="inlineStr">
         <is>
           <t>ඞВы положили выигрышный лотерейный билет ему в карман, а затем вставили уведомление в автомат.
 Вы видели, как заблестели его глаза, и он, тяжело дыша, сравнивал номера лотерейных билетов, которые держал в руках. Когда он обнаружил, что все номера не совпадают, его настроение начало выходить из-под контроля.
@@ -18769,7 +18769,7 @@
 EH! GREAT!! I WON!!</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
+      <c r="H370" s="0" t="inlineStr">
         <is>
           <t>ඞЭх! - отлично! Я ПОБЕДИЛ!
 ЭХ! - отлично!! Я ПОБЕДИЛ!!</t>
@@ -18812,7 +18812,7 @@
           <t>He talked to himself for a long time as if he had lost his mind.</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
+      <c r="H371" s="0" t="inlineStr">
         <is>
           <t>ඞОн долго разговаривал сам с собой, как будто сошел с ума.</t>
         </is>
@@ -18860,7 +18860,7 @@
 The rest of the money still can buy a house…</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
+      <c r="H372" s="0" t="inlineStr">
         <is>
           <t>ඞЯ могу погасить долг.
 На оставшиеся деньги еще можно купить дом…</t>
@@ -18903,7 +18903,7 @@
           <t>But his body seemed to collapse and began to fade.</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
+      <c r="H373" s="0" t="inlineStr">
         <is>
           <t>ඞНо его тело, казалось, обмякло и начало исчезать.</t>
         </is>
@@ -18951,7 +18951,7 @@
 You see a black seed falling on the ground.</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
+      <c r="H374" s="0" t="inlineStr">
         <is>
           <t>ඞЕго фигура таяла и, наконец, исчезла у вас на глазах,
 Вы видите, как на землю падает черное семечко.</t>
@@ -18994,7 +18994,7 @@
           <t>The man's eye is glassy and he holds a lot of lottery tickets in his hand and keeps talking…</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
+      <c r="H375" s="0" t="inlineStr">
         <is>
           <t>ඞГлаза мужчины остекленели, в руке он держит пачку лотерейных билетов и продолжает что-то говорить…</t>
         </is>
@@ -19042,7 +19042,7 @@
 Today is not lottery day…</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
+      <c r="H376" s="0" t="inlineStr">
         <is>
           <t>ඞПризов не предлагается…
 Сегодня не день лотереи…</t>
@@ -19103,7 +19103,7 @@
 Please help me to find today's lottery announcement…</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
+      <c r="H377" s="0" t="inlineStr">
         <is>
           <t>ඞСегодня день лотереи…
 Я купил так много лотерейных билетов, что обязательно выиграю первый приз…
@@ -19148,7 +19148,7 @@
           <t>He has stuck to this belief until now.</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
+      <c r="H378" s="0" t="inlineStr">
         <is>
           <t>ඞОн придерживался этого убеждения до сих пор.</t>
         </is>
@@ -19190,7 +19190,7 @@
           <t>I will try to find it.</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
+      <c r="H379" s="0" t="inlineStr">
         <is>
           <t>ඞЯ постараюсь найти его.</t>
         </is>
@@ -19232,7 +19232,7 @@
           <t>Center Square</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
+      <c r="H380" s="0" t="inlineStr">
         <is>
           <t>ඞЦентральная площадь</t>
         </is>
@@ -19274,7 +19274,7 @@
           <t>Merry seems went to the south</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
+      <c r="H381" s="0" t="inlineStr">
         <is>
           <t>ඞМерри, кажется, уехала на юг</t>
         </is>
@@ -19328,7 +19328,7 @@
 It said, "Sheriff Ryan! Keeper of Townsend!"</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
+      <c r="H382" s="0" t="inlineStr">
         <is>
           <t>ඞПохоже, его только что установили здесь.
 Вы нашли картонку.
@@ -19372,7 +19372,7 @@
           <t>Police Station Notice</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
+      <c r="H383" s="0" t="inlineStr">
         <is>
           <t>ඞУведомление из полицейского участка</t>
         </is>
@@ -19437,7 +19437,7 @@
 "...I hope that all walks of life will provide relevant clues, and the government will give a reward of 20,000 dollar to the informants who discover the clues and those who assist in the arrest."</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
+      <c r="H384" s="0" t="inlineStr">
         <is>
           <t>ඞ2 января 1927 года полиция опубликовала уведомление с подробным описанием местных преступлений и расследований.
 В нем содержится ордер на арест человека с рябым лицом, известного как Хорн, место рождения которого неизвестно.
@@ -19482,7 +19482,7 @@
           <t>View the police station notice area</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
+      <c r="H385" s="0" t="inlineStr">
         <is>
           <t>ඞПросмотр области уведомлений полицейского участка</t>
         </is>
@@ -19524,7 +19524,7 @@
           <t>News Report</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
+      <c r="H386" s="0" t="inlineStr">
         <is>
           <t>ඞНовостной репортаж</t>
         </is>
@@ -19584,7 +19584,7 @@
 "Missing Person Notice: Pianist Pascal has disappeared recently..."</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
+      <c r="H387" s="0" t="inlineStr">
         <is>
           <t>ඞ"Констебль Райан будет назначен шерифом 15 января 1920 года..."
 "...Богач Тонсон пожертвовал деньги на поставку в город радиовещательного оборудования и основал первую в городе радиостанцию..."
@@ -19642,7 +19642,7 @@
 "Missing Person Notice: The pianist Pascal has recently disappeared…"</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
+      <c r="H388" s="0" t="inlineStr">
         <is>
           <t>ඞ"Офицер Райан будет официально назначен шерифом нашего города, церемония инаугурации состоится 5 января 1927 года..."
 "...Филантроп Тонсон пожертвовал средства на поставку в город радиовещательного оборудования и создание первой в городе радиостанции..."
@@ -19686,7 +19686,7 @@
           <t>View news area</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
+      <c r="H389" s="0" t="inlineStr">
         <is>
           <t>ඞПросмотр области новостей</t>
         </is>
@@ -19728,7 +19728,7 @@
           <t>Hiring Notice</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
+      <c r="H390" s="0" t="inlineStr">
         <is>
           <t>ඞУведомление о приеме на работу</t>
         </is>
@@ -19782,7 +19782,7 @@
 For example a man under the age of 25 with a height of 165 and who can play the violin.</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
+      <c r="H391" s="0" t="inlineStr">
         <is>
           <t>ඞ"...Химический завод Таунсенда набирает работников на 12 часов в день, а дневная зарплата составляет 1 доллар США!"
 Кроме того, существуют требования к набору персонала на несколько государственных должностей.
@@ -19826,7 +19826,7 @@
           <t>The government's recruitment requirements are really... unique.</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
+      <c r="H392" s="0" t="inlineStr">
         <is>
           <t>ඞТребования правительства к набору персонала на самом деле таковы... уникальный.</t>
         </is>
@@ -19868,7 +19868,7 @@
           <t>Read the hiring notice</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
+      <c r="H393" s="0" t="inlineStr">
         <is>
           <t>ඞОзнакомьтесь с уведомлением о приеме на работу</t>
         </is>
@@ -19910,7 +19910,7 @@
           <t>Resident Commission</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
+      <c r="H394" s="0" t="inlineStr">
         <is>
           <t>ඞРезидентская комиссия</t>
         </is>
@@ -19958,7 +19958,7 @@
 "...Townsend Chemical Factory is recruiting workers, 12 hours a day, and the daily salary is as high as 1 US dollar!"</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
+      <c r="H395" s="0" t="inlineStr">
         <is>
           <t>ඞ- Норт-стрит, дом 12... наймите няню с большими деньгами, а для тех, у кого есть опыт работы в медицине, предпочтительнее - Роланда О'Брайена
 ". "...Химическая фабрика Таунсенда набирает работников на 12 часов в день, а ежедневная зарплата достигает 1 доллара США!"</t>
@@ -20001,7 +20001,7 @@
           <t>Read Resident Commission</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
+      <c r="H396" s="0" t="inlineStr">
         <is>
           <t>ඞОзнакомьтесь с комиссией резидента</t>
         </is>
@@ -20043,7 +20043,7 @@
           <t>Hotel Opening Rewards</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
+      <c r="H397" s="0" t="inlineStr">
         <is>
           <t>ඞНаграды за открытие отеля</t>
         </is>
@@ -20097,7 +20097,7 @@
 "Thank you for your continuous help, all the dishes are free tonight-Merry"</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
+      <c r="H398" s="0" t="inlineStr">
         <is>
           <t>ඞНаграды за открытие отеля!
 На буклете написано о множестве великолепных блюд, а в конце - благодарность от Мерри.
@@ -20141,7 +20141,7 @@
           <t>Read Leaflet</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
+      <c r="H399" s="0" t="inlineStr">
         <is>
           <t>ඞПрочитайте брошюру</t>
         </is>
@@ -20189,7 +20189,7 @@
 In addition to finding some traces of being excavated under the fountain, you also found a key.</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
+      <c r="H400" s="0" t="inlineStr">
         <is>
           <t>ඞВы заметили, что на дне фонтана есть несколько водопроводных труб. Похоже, что вода поступает сюда откуда-то еще.
 В дополнение к некоторым следам раскопок под фонтаном, вы также нашли ключ.</t>
@@ -20238,7 +20238,7 @@
 In addition to finding some traces of being excavated under the fountain, there is nothing else.</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
+      <c r="H401" s="0" t="inlineStr">
         <is>
           <t>ඞВы заметили, что на дне фонтана есть несколько водопроводных труб. Кажется, что вода поступает сюда откуда-то еще.
 Кроме того, что под фонтаном обнаружены следы раскопок, больше ничего нет.</t>
@@ -20281,7 +20281,7 @@
           <t>Investigate the Fountain</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
+      <c r="H402" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте фонтан</t>
         </is>
@@ -20323,7 +20323,7 @@
           <t>You were lucky enough to find some four-leaf clovers in the rubble on the grass.</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
+      <c r="H403" s="0" t="inlineStr">
         <is>
           <t>ඞВам посчастливилось найти несколько четырехлистных клеверов среди обломков на траве.</t>
         </is>
@@ -20365,7 +20365,7 @@
           <t>You look in the grass, and all you find is some unremarkable rubble.</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
+      <c r="H404" s="0" t="inlineStr">
         <is>
           <t>ඞВы смотрите в траву, и все, что вы находите, - это какие-то ничем не примечательные обломки.</t>
         </is>
@@ -20407,7 +20407,7 @@
           <t>Invsestigate grassland</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
+      <c r="H405" s="0" t="inlineStr">
         <is>
           <t>ඞИсследовать пастбище</t>
         </is>
@@ -20449,7 +20449,7 @@
           <t>Get water</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
+      <c r="H406" s="0" t="inlineStr">
         <is>
           <t>ඞПринеси воды</t>
         </is>
@@ -20491,7 +20491,7 @@
           <t>She posted the leaflet in her hand on the bulletin board.</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
+      <c r="H407" s="0" t="inlineStr">
         <is>
           <t>ඞОна повесила листовку, которую держала в руке, на доску объявлений.</t>
         </is>
@@ -20533,7 +20533,7 @@
           <t>Hope everyone will see...</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
+      <c r="H408" s="0" t="inlineStr">
         <is>
           <t>ඞНадеюсь, все это увидят...</t>
         </is>
@@ -20575,7 +20575,7 @@
           <t>The Old Man</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
+      <c r="H409" s="0" t="inlineStr">
         <is>
           <t>ඞСтарик</t>
         </is>
@@ -20623,7 +20623,7 @@
 The old man responded to your words.</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
+      <c r="H410" s="0" t="inlineStr">
         <is>
           <t>ඞУ вас хватает терпения общаться со стариком, возможно, ваша искренность запала ему в сердце.
 Старик отреагировал на ваши слова.</t>
@@ -20672,7 +20672,7 @@
 Can you help me to ask what happened…</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
+      <c r="H411" s="0" t="inlineStr">
         <is>
           <t>ඞТрансляция долгое время была прервана…
 Не могли бы вы помочь мне узнать, что произошло…</t>
@@ -20739,7 +20739,7 @@
 As soon as the broadcast starts, we will come to the square to talk about the past.</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
+      <c r="H412" s="0" t="inlineStr">
         <is>
           <t>ඞСпасибо… Я услышал знакомую песню…
 Но они... больше не могут прийти на площадь…
@@ -20791,7 +20791,7 @@
 Thanks for talking to me.</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
+      <c r="H413" s="0" t="inlineStr">
         <is>
           <t>ඞЯ знаю, что умираю.
 Спасибо, что поговорили со мной.</t>
@@ -20834,7 +20834,7 @@
           <t>The old man just stared at the broadcast and didn't pay any attention to you.</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
+      <c r="H414" s="0" t="inlineStr">
         <is>
           <t>ඞСтарик просто пялился в трансляцию и не обращал на тебя никакого внимания.</t>
         </is>
@@ -20876,7 +20876,7 @@
           <t>South Street</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
+      <c r="H415" s="0" t="inlineStr">
         <is>
           <t>ඞЮжная улица</t>
         </is>
@@ -20924,7 +20924,7 @@
 The vampire has Tonson's name written on it, and the hound is Ryan.</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
+      <c r="H416" s="0" t="inlineStr">
         <is>
           <t>ඞТолстый вампир тянет за собой сильного пса.
 На вампире написано имя Тонсона, а пса зовут Райан.</t>
@@ -20967,7 +20967,7 @@
           <t>Investigate the doodle</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
+      <c r="H417" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте каракули</t>
         </is>
@@ -21009,7 +21009,7 @@
           <t>Time passed and the Horn climbed out of the sewer.</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
+      <c r="H418" s="0" t="inlineStr">
         <is>
           <t>ඞПрошло время, и Рог вылез из канализации.</t>
         </is>
@@ -21051,7 +21051,7 @@
           <t>The plot will transition to the next stage.</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
+      <c r="H419" s="0" t="inlineStr">
         <is>
           <t>ඞСюжет перейдет к следующему этапу.</t>
         </is>
@@ -21093,7 +21093,7 @@
           <t>Wait for Horn.</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
+      <c r="H420" s="0" t="inlineStr">
         <is>
           <t>ඞДождитесь гудка.</t>
         </is>
@@ -21135,7 +21135,7 @@
           <t>This is a sewer, its surroundings are covered with mud-like yellow objects, and the surroundings are filled with a rotten and stench.</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
+      <c r="H421" s="0" t="inlineStr">
         <is>
           <t>ඞЭто канализационный коллектор, его окрестности покрыты грязеподобными желтыми предметами, а все вокруг наполнено гнилью и зловонием.</t>
         </is>
@@ -21177,7 +21177,7 @@
           <t>You find a crumpled piece of paper in a mess of clothes.</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
+      <c r="H422" s="0" t="inlineStr">
         <is>
           <t>ඞВы находите смятый листок бумаги в куче одежды.</t>
         </is>
@@ -21219,7 +21219,7 @@
           <t>Medical Records</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
+      <c r="H423" s="0" t="inlineStr">
         <is>
           <t>ඞМедицинские записи</t>
         </is>
@@ -21285,7 +21285,7 @@
 Comments: Reduce alcoholic beverages and prescribe topical medication.</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
+      <c r="H424" s="0" t="inlineStr">
         <is>
           <t>ඞОсновная жалоба: Потеря обоняния после случайного употребления моющего средства.
 В анамнезе: фиброз печени, аллергических реакций в анамнезе нет.
@@ -21331,7 +21331,7 @@
           <t>You only found the old clothes he collected inside.</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
+      <c r="H425" s="0" t="inlineStr">
         <is>
           <t>ඞВы нашли только старую одежду, которую он собрал внутри.</t>
         </is>
@@ -21373,7 +21373,7 @@
           <t>Investigate the Dumpster</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
+      <c r="H426" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте мусорный контейнер</t>
         </is>
@@ -21415,7 +21415,7 @@
           <t>This dumpster was converted by a homeless man into his storage box.</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
+      <c r="H427" s="0" t="inlineStr">
         <is>
           <t>ඞЭтот мусорный контейнер был превращен бездомным мужчиной в свой ящик для хранения вещей.</t>
         </is>
@@ -21457,7 +21457,7 @@
           <t>You only found a certificate of the award on the bed.</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
+      <c r="H428" s="0" t="inlineStr">
         <is>
           <t>ඞВы нашли только сертификат о награждении на кровати.</t>
         </is>
@@ -21499,7 +21499,7 @@
           <t>Annual Awards</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
+      <c r="H429" s="0" t="inlineStr">
         <is>
           <t>ඞЕжегодные награды</t>
         </is>
@@ -21559,7 +21559,7 @@
 "Signature: Tonson"</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
+      <c r="H430" s="0" t="inlineStr">
         <is>
           <t>ඞ"Лучший инспектор по качеству Таунсендской свечной фабрики"
 "Том Оуэн"
@@ -21604,7 +21604,7 @@
           <t>Emm? What is that?!</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
+      <c r="H431" s="0" t="inlineStr">
         <is>
           <t>ඞЭмм? Что это?!</t>
         </is>
@@ -21646,7 +21646,7 @@
           <t>You found a black seed under the bed accidentally.</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
+      <c r="H432" s="0" t="inlineStr">
         <is>
           <t>ඞВы случайно нашли черные семечки под кроватью.</t>
         </is>
@@ -21688,7 +21688,7 @@
           <t>Investigate the Bed</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
+      <c r="H433" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте кровать</t>
         </is>
@@ -21730,7 +21730,7 @@
           <t>You found many old cards in the garbage.</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
+      <c r="H434" s="0" t="inlineStr">
         <is>
           <t>ඞВы нашли много старых открыток в мусоре.</t>
         </is>
@@ -21772,7 +21772,7 @@
           <t>Join Us</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
+      <c r="H435" s="0" t="inlineStr">
         <is>
           <t>ඞприсоединяйтесь к нам</t>
         </is>
@@ -21838,7 +21838,7 @@
 Address: No. 21 South Street.</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
+      <c r="H436" s="0" t="inlineStr">
         <is>
           <t>ඞНулевой риск, ежедневная оплата труда, чем больше работы, тем больше вы получаете, и вы можете работать, когда захотите.
 Приветствуются как мужчины, так и женщины. Никаких профессиональных или возрастных ограничений.
@@ -21884,7 +21884,7 @@
           <t>Investigate the Garbage</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
+      <c r="H437" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте мусор</t>
         </is>
@@ -21932,7 +21932,7 @@
 Hey, where did Merry go?</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
+      <c r="H438" s="0" t="inlineStr">
         <is>
           <t>ඞHere...it должно быть, это Саут-стрит.
 Эй, а куда делась Мерри?</t>
@@ -21981,7 +21981,7 @@
 The surrounding sewage flows into the dirty stinking pool, making it keep expanding.</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
+      <c r="H439" s="0" t="inlineStr">
         <is>
           <t>ඞЭто похоже на трущобы, с простыми деревянными панелями, из которых построены временные жилища, а вокруг есть следы костров для обогрева.
 Сточные воды стекают в грязный вонючий бассейн, из-за чего он продолжает расширяться.</t>
@@ -22030,7 +22030,7 @@
 Merry held her own arm, lowered her head and sobbed.</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
+      <c r="H440" s="0" t="inlineStr">
         <is>
           <t>ඞВонючая канава источает зловоние, а вокруг много увядших цветов.
 Мерри обхватила себя за руку, опустила голову и зарыдала.</t>
@@ -22103,7 +22103,7 @@
 You can definitely change this and it won't be like this...</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
+      <c r="H441" s="0" t="inlineStr">
         <is>
           <t>ඞНана... Ты не хочешь сказать мне, что ты думаешь, ты все еще злишься на меня?
 Я знаю...ты был единственным, кто мог уйти отсюда.
@@ -22150,7 +22150,7 @@
           <t>She gently buried the cake she bought under the soil.</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
+      <c r="H442" s="0" t="inlineStr">
         <is>
           <t>ඞОна аккуратно закопала купленный торт в землю.</t>
         </is>
@@ -22210,7 +22210,7 @@
 I will work harder so that everyone can see my heart...</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
+      <c r="H443" s="0" t="inlineStr">
         <is>
           <t>ඞЯ знаю, что все это время был неправ...
 Истинное сердце должно быть открыто другим...
@@ -22261,7 +22261,7 @@
 Did Horn not keeping his word...</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
+      <c r="H444" s="0" t="inlineStr">
         <is>
           <t>ඞМерри уже ушла.
 Хорн не сдержал своего слова?..</t>
@@ -22304,7 +22304,7 @@
           <t>What sound?!</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
+      <c r="H445" s="0" t="inlineStr">
         <is>
           <t>ඞКакой звук?!</t>
         </is>
@@ -22346,7 +22346,7 @@
           <t>You heard sound over the drain.</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
+      <c r="H446" s="0" t="inlineStr">
         <is>
           <t>ඞВы услышали звук из-за водостока.</t>
         </is>
@@ -22388,7 +22388,7 @@
           <t>A man in a raincoat crawls out of the drain | He removes the raincoat and tosses it aside in disgust</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
+      <c r="H447" s="0" t="inlineStr">
         <is>
           <t>ඞМужчина в плаще вылезает из водостока | Он снимает плащ и с отвращением отбрасывает его в сторону</t>
         </is>
@@ -22430,7 +22430,7 @@
           <t>With blue hair, black clothes, and a playful expression, it was Horn.</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
+      <c r="H448" s="0" t="inlineStr">
         <is>
           <t>ඞС синими волосами, в черной одежде и игривым выражением лица, это был Хорн.</t>
         </is>
@@ -22478,7 +22478,7 @@
 I can finally bypass Ryan~</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
+      <c r="H449" s="0" t="inlineStr">
         <is>
           <t>ඞК счастью, на этот раз я нашел потайной ход, ведущий прямо на Северную улицу.
 Наконец-то я могу обойти Райана~</t>
@@ -22527,7 +22527,7 @@
 You can't help covering your nose.</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
+      <c r="H450" s="0" t="inlineStr">
         <is>
           <t>ඞКак только вы приблизились, вы почувствовали его сильную вонь.
 Вы невольно зажимаете нос.</t>
@@ -22576,7 +22576,7 @@
 Have you never seen such a handsome sewer worker?</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
+      <c r="H451" s="0" t="inlineStr">
         <is>
           <t>ඞЧто?
 Вы что, никогда не видели такого красивого работника канализации?</t>
@@ -22619,7 +22619,7 @@
           <t>He seems to be completely used to the smell, you resist the urge to run away and talk to him.</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
+      <c r="H452" s="0" t="inlineStr">
         <is>
           <t>ඞКажется, он полностью привык к этому запаху, и ты сопротивляешься желанию убежать и заговорить с ним.</t>
         </is>
@@ -22667,7 +22667,7 @@
 We'll go in here later...</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
+      <c r="H453" s="0" t="inlineStr">
         <is>
           <t>ඞНе говори мне...……
 Мы зайдем сюда позже...</t>
@@ -22728,7 +22728,7 @@
 To show respect, you first.</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
+      <c r="H454" s="0" t="inlineStr">
         <is>
           <t>ඞВы уже догадались~
 Пока мусор в канализации снова не скапливался.
@@ -22779,7 +22779,7 @@
 It will be the most unforgettable memory in your life.</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
+      <c r="H455" s="0" t="inlineStr">
         <is>
           <t>ඞВы знаете, что это за следующая часть пути.
 Это будет самое незабываемое воспоминание в вашей жизни.</t>
@@ -22840,7 +22840,7 @@
 After breathing the fresh air, you quickly take off your dirty raincoat| You are now in a luxurious house.</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
+      <c r="H456" s="0" t="inlineStr">
         <is>
           <t>ඞГорн поможет вам легко пересечь подземелье.
 Вы даже не представляете, сколько всего толстого, гнилого и жирного вы натерли по пути.
@@ -22885,7 +22885,7 @@
           <t>Horn saw you get close and tidied up his hair and sneered at you.</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
+      <c r="H457" s="0" t="inlineStr">
         <is>
           <t>ඞХорн увидел, что ты подошел ближе, пригладил волосы и усмехнулся тебе.</t>
         </is>
@@ -22927,7 +22927,7 @@
           <t>Have you found any new clues?</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
+      <c r="H458" s="0" t="inlineStr">
         <is>
           <t>ඞВы нашли какие-нибудь новые улики?</t>
         </is>
@@ -22969,7 +22969,7 @@
           <t>No new clues, but found this.</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
+      <c r="H459" s="0" t="inlineStr">
         <is>
           <t>ඞНикаких новых зацепок, но нашел вот это.</t>
         </is>
@@ -23011,7 +23011,7 @@
           <t>You handed over the black egg, and he played with it and returned it to you.</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
+      <c r="H460" s="0" t="inlineStr">
         <is>
           <t>ඞВы отдали ему черное яйцо, а он поиграл с ним и вернул вам.</t>
         </is>
@@ -23077,7 +23077,7 @@
 Let's go, let's play another game~</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
+      <c r="H461" s="0" t="inlineStr">
         <is>
           <t>ඞНекоторые детективы всегда будут гордиться тем, что нашли новый узел.
 Затем он без конца развязывал веревку.
@@ -23129,7 +23129,7 @@
 Why did Ryan appear here!</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
+      <c r="H462" s="0" t="inlineStr">
         <is>
           <t>ඞКак это могло быть?
 Почему Райан появился здесь?</t>
@@ -23172,7 +23172,7 @@
           <t>Go now!</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
+      <c r="H463" s="0" t="inlineStr">
         <is>
           <t>ඞУходи сейчас же!</t>
         </is>
@@ -23214,7 +23214,7 @@
           <t>But you stopped in front of Horn|Ryan approached you, he did not attack you|You saw Tonson appearing behind Ryan</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
+      <c r="H464" s="0" t="inlineStr">
         <is>
           <t>ඞНо вы остановились перед Хорном |Райан подошел к вам, он не нападал на вас|Вы увидели, как Тонсон появился позади Райана</t>
         </is>
@@ -23262,7 +23262,7 @@
 I'll send you out of town once this is completed.</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
+      <c r="H465" s="0" t="inlineStr">
         <is>
           <t>ඞВы отлично справились с задачей вывести Хорна на чистую воду, как и было условлено.
 Я отправлю вас из города, как только все закончится.</t>
@@ -23305,7 +23305,7 @@
           <t>You betrayed me!</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
+      <c r="H466" s="0" t="inlineStr">
         <is>
           <t>ඞТы предал меня!</t>
         </is>
@@ -23353,7 +23353,7 @@
 Tonson, I never had any agreement with you!</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
+      <c r="H467" s="0" t="inlineStr">
         <is>
           <t>ඞНе верьте тому, что он сказал!
 Тонсон, у меня никогда не было с вами никаких договоренностей!</t>
@@ -23396,7 +23396,7 @@
           <t>Looks like it's time to remind you of something you forgot.</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
+      <c r="H468" s="0" t="inlineStr">
         <is>
           <t>ඞПохоже, пришло время напомнить тебе кое о чем, что ты забыл.</t>
         </is>
@@ -23438,7 +23438,7 @@
           <t>Tonson snapped his fingers, and your body involuntarily attacked Horn.</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
+      <c r="H469" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон щелкнул пальцами, и твое тело непроизвольно атаковало Хорна.</t>
         </is>
@@ -23480,7 +23480,7 @@
           <t>He blocks your attack.</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
+      <c r="H470" s="0" t="inlineStr">
         <is>
           <t>ඞОн блокирует вашу атаку.</t>
         </is>
@@ -23528,7 +23528,7 @@
 Heh, I can't beat you, but don't even try to catch me!</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
+      <c r="H471" s="0" t="inlineStr">
         <is>
           <t>ඞУ меня и в мыслях не было кому-либо доверять.
 Хех, я не могу победить тебя, но даже не пытайся меня поймать!</t>
@@ -23577,7 +23577,7 @@
 Horn's body fell to the ground, and you remembered the lost memory.</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
+      <c r="H472" s="0" t="inlineStr">
         <is>
           <t>ඞНо как только Хорн закончил говорить, Тонсон зажег свечу в своей руке, и воздух наполнился ароматом.
 Тело Хорна упало на землю, и вы вспомнили о потерянном воспоминании.</t>
@@ -23620,7 +23620,7 @@
           <t>You recall your lost memory but because of the scent of the Merder, you and Horn cannot act. You are going to…</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
+      <c r="H473" s="0" t="inlineStr">
         <is>
           <t>ඞВы вспоминаете о своей утраченной памяти, но из-за запаха Дерьма вы с Хорном не можете действовать. Вы собираетесь…</t>
         </is>
@@ -23662,7 +23662,7 @@
           <t>[Find a way to resist Merder]</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
+      <c r="H474" s="0" t="inlineStr">
         <is>
           <t>ඞ[Найди способ противостоять Мердеру]</t>
         </is>
@@ -23704,7 +23704,7 @@
           <t>You have to find a way to resist Merder's scent…</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
+      <c r="H475" s="0" t="inlineStr">
         <is>
           <t>ඞВы должны найти способ противостоять аромату Мердера…</t>
         </is>
@@ -23758,7 +23758,7 @@
 You gasp and use your mouth to breathe to exchange air into your lungs.</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
+      <c r="H476" s="0" t="inlineStr">
         <is>
           <t>ඞВы открываете флакон с очищающим средством и даете жидкости политься в нос.
 Сильный и раздражающий запах распространяется по носовой полости, и кажется, что горло перерезано.
@@ -23814,7 +23814,7 @@
 Shield yourself and breathe!</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
+      <c r="H477" s="0" t="inlineStr">
         <is>
           <t>ඞХорн, со мной и раньше случались несчастные случаи.
 Все это случилось со мной в результате того, что Тонсон случайно загипнотизировал меня.
@@ -23858,7 +23858,7 @@
           <t>You mercilessly poured cleaner on him.</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
+      <c r="H478" s="0" t="inlineStr">
         <is>
           <t>ඞВы безжалостно облили его чистящим средством.</t>
         </is>
@@ -23912,7 +23912,7 @@
 Let's get started.</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
+      <c r="H479" s="0" t="inlineStr">
         <is>
           <t>ඞКхе, кхе, кхе.
 Это само собой разумеется.
@@ -23956,7 +23956,7 @@
           <t>Ryan, stop them!</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
+      <c r="H480" s="0" t="inlineStr">
         <is>
           <t>ඞРайан, останови их!</t>
         </is>
@@ -23998,7 +23998,7 @@
           <t>You fought valiantly against Ryan, and Tonson fled the scene when he realized the situation was dire.</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
+      <c r="H481" s="0" t="inlineStr">
         <is>
           <t>ඞВы доблестно сражались против Райана, а Тонсон скрылся с места преступления, когда понял, что ситуация ужасна.</t>
         </is>
@@ -24052,7 +24052,7 @@
 Let's head straight to North Street~</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
+      <c r="H482" s="0" t="inlineStr">
         <is>
           <t>ඞОтличная работа, сэр.
 Мой план может быть осуществлен более эффективно без вмешательства Райана.
@@ -24096,7 +24096,7 @@
           <t>[Don't resist first, go with the flow]</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
+      <c r="H483" s="0" t="inlineStr">
         <is>
           <t>ඞ[Сначала не сопротивляйся, плыви по течению]</t>
         </is>
@@ -24150,7 +24150,7 @@
 And I also changed my mind. I will let you know what happens in this town!</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
+      <c r="H484" s="0" t="inlineStr">
         <is>
           <t>ඞНе нужно смотреть на меня так сердито.
 Я знаю, что вы что-то расследуете обо мне.
@@ -24194,7 +24194,7 @@
           <t>Horn, give me a favor now.</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
+      <c r="H485" s="0" t="inlineStr">
         <is>
           <t>ඞХорн, сделай мне одолжение сейчас.</t>
         </is>
@@ -24236,7 +24236,7 @@
           <t>Huh? Did you really untie the rope?</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
+      <c r="H486" s="0" t="inlineStr">
         <is>
           <t>ඞА? Ты действительно развязал веревку?</t>
         </is>
@@ -24278,7 +24278,7 @@
           <t>What rope?</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
+      <c r="H487" s="0" t="inlineStr">
         <is>
           <t>ඞКакая веревка?</t>
         </is>
@@ -24320,7 +24320,7 @@
           <t>It is not important. Just say it, What favor?</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
+      <c r="H488" s="0" t="inlineStr">
         <is>
           <t>ඞЭто не важно. Просто скажи, какое одолжение?</t>
         </is>
@@ -24362,7 +24362,7 @@
           <t>You tell Horn the new clues you found.</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
+      <c r="H489" s="0" t="inlineStr">
         <is>
           <t>ඞТы расскажешь Хорну о новых уликах, которые ты нашел.</t>
         </is>
@@ -24416,7 +24416,7 @@
 Wait! You defeated Ryan?</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
+      <c r="H490" s="0" t="inlineStr">
         <is>
           <t>ඞЧто ж, отправляйтесь в дом Тонсонов.
 Все просто, главная проблема в Райане.
@@ -24460,7 +24460,7 @@
           <t>You told Horn about you have defeated Ryan.</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
+      <c r="H491" s="0" t="inlineStr">
         <is>
           <t>ඞТы рассказал Хорну о том, что победил Райана.</t>
         </is>
@@ -24514,7 +24514,7 @@
 Let's go~Go straight to North Street.</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
+      <c r="H492" s="0" t="inlineStr">
         <is>
           <t>ඞМолодец, чувак!
 Без Райана мой план был бы лучше осуществлен.
@@ -24558,7 +24558,7 @@
           <t>Hobo</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
+      <c r="H493" s="0" t="inlineStr">
         <is>
           <t>ඞБродяга</t>
         </is>
@@ -24603,7 +24603,7 @@
           <t>He has been always tinkering with a pile of old parts. You can see that he has some reason remaining. But when you are going to talk to him.</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
+      <c r="H494" s="0" t="inlineStr">
         <is>
           <t>ඞОн всегда возился с кучей старых деталей. Вы можете видеть, что у него еще остались какие-то соображения. Но когда вы собираетесь с ним поговорить.</t>
         </is>
@@ -24645,7 +24645,7 @@
           <t>Don't disturb my work!</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
+      <c r="H495" s="0" t="inlineStr">
         <is>
           <t>ඞНе мешайте мне работать!</t>
         </is>
@@ -24687,7 +24687,7 @@
           <t>Is this what you want to make?</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
+      <c r="H496" s="0" t="inlineStr">
         <is>
           <t>ඞЭто то, что ты хочешь приготовить?</t>
         </is>
@@ -24729,7 +24729,7 @@
           <t>He doesn't want to talk to you at all.</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
+      <c r="H497" s="0" t="inlineStr">
         <is>
           <t>ඞОн вообще не хочет с тобой разговаривать.</t>
         </is>
@@ -24771,7 +24771,7 @@
           <t>I won't take it for nothing. I will pay you.</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
+      <c r="H498" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не возьму это просто так. Я заплачу вам.</t>
         </is>
@@ -24813,7 +24813,7 @@
           <t>You will pay me, won't you?!</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
+      <c r="H499" s="0" t="inlineStr">
         <is>
           <t>ඞТы ведь заплатишь мне, правда?!</t>
         </is>
@@ -24855,7 +24855,7 @@
           <t>It looks like that…</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
+      <c r="H500" s="0" t="inlineStr">
         <is>
           <t>ඞЭто выглядит примерно так…</t>
         </is>
@@ -24903,7 +24903,7 @@
 I found a job…</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
+      <c r="H501" s="0" t="inlineStr">
         <is>
           <t>ඞТот…Это здорово!
 Я нашла работу…</t>
@@ -24953,7 +24953,7 @@
 I must return to the factory…</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
+      <c r="H502" s="0" t="inlineStr">
         <is>
           <t>ඞЯ должен выжить…
 Я должен вернуться на фабрику…</t>
@@ -24996,7 +24996,7 @@
           <t>No. 21 South Street</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
+      <c r="H503" s="0" t="inlineStr">
         <is>
           <t>ඞ№ 21 по Саут-стрит</t>
         </is>
@@ -25038,7 +25038,7 @@
           <t>View the Bed</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
+      <c r="H504" s="0" t="inlineStr">
         <is>
           <t>ඞПосмотреть на кровать</t>
         </is>
@@ -25086,7 +25086,7 @@
 You found paper and a pen under the bed, and you read the letter.</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
+      <c r="H505" s="0" t="inlineStr">
         <is>
           <t>ඞЭто простая и грубоватая постель, но из-за влажности вы обнаруживаете, что на одеяле много плесени.
 Вы нашли бумагу и ручку под кроватью и прочитали письмо.</t>
@@ -25129,7 +25129,7 @@
           <t>Confession Letter</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
+      <c r="H506" s="0" t="inlineStr">
         <is>
           <t>ඞПисьмо-признание</t>
         </is>
@@ -25189,7 +25189,7 @@
 "I should have listened to Nana earlier. She is a good person to me. She doesn't want me to get too close to those people."</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
+      <c r="H507" s="0" t="inlineStr">
         <is>
           <t>ඞЭто письмо было раскрашено и изменено. Многое в нем было написано и стерто. Бумага для писем истрепалась, но строчки все еще можно различить.
 "Мне очень жаль… Нана… Мерри..."
@@ -25246,7 +25246,7 @@
 "Merry, I have no face to see you now. I will try to make money to make up for my mistakes…"</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
+      <c r="H508" s="0" t="inlineStr">
         <is>
           <t>ඞ"Я был одержим. Чтобы уехать отсюда, я работал на них".
 "Но я не ожидал, что они заинтересуются Наной. Я изо всех сил старался остановить их… Клянусь! Я не предавал тебя! То, что они нашли этот дом, было случайностью!"
@@ -25290,7 +25290,7 @@
           <t>This is a simple and crude bed but because of the humidity, you find that there is a lot of mold on the quilt.</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
+      <c r="H509" s="0" t="inlineStr">
         <is>
           <t>ඞЭто простая и грубоватая кровать, но из-за влажности вы обнаружите, что на одеяле много плесени.</t>
         </is>
@@ -25332,7 +25332,7 @@
           <t>There is some metal garbage in the drawer, such as finished cans, discarded cans, metal bottle caps, and some unfinished cables, which are their prized possessions.</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
+      <c r="H510" s="0" t="inlineStr">
         <is>
           <t>ඞВ ящике есть какой-то металлический мусор, например, готовые консервные банки, выброшенные консервные банки, металлические крышки от бутылок и несколько незаконченных кабелей, которые являются их ценным имуществом.</t>
         </is>
@@ -25374,7 +25374,7 @@
           <t>Land Exchange Agreement</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
+      <c r="H511" s="0" t="inlineStr">
         <is>
           <t>ඞСоглашение об обмене землей</t>
         </is>
@@ -25434,7 +25434,7 @@
 And promised to complete the construction of supporting house after 5 years.</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
+      <c r="H512" s="0" t="inlineStr">
         <is>
           <t>ඞВы нашли соглашение от 1899 года.
 В нем говорилось, что из-за катастрофического схода селей правительству необходимо объединить все оставшиеся земли, чтобы восстановить прилегающую территорию.
@@ -25503,7 +25503,7 @@
 There is a man lying in the bed quietly.</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
+      <c r="H513" s="0" t="inlineStr">
         <is>
           <t>ඞВоздух вокруг наполнен гнилостными и влажными запахами.
 В узкой комнате есть несколько предметов мебели.
@@ -25555,7 +25555,7 @@
 I will get justice for you!</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
+      <c r="H514" s="0" t="inlineStr">
         <is>
           <t>ඞДедушка…
 Я добьюсь справедливости для тебя!</t>
@@ -25598,7 +25598,7 @@
           <t>You can feel his sadness and resentment.</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
+      <c r="H515" s="0" t="inlineStr">
         <is>
           <t>ඞВы можете почувствовать его печаль и негодование.</t>
         </is>
@@ -25640,7 +25640,7 @@
           <t>He took out the contract from the cabinet.</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
+      <c r="H516" s="0" t="inlineStr">
         <is>
           <t>ඞОн достал контракт из шкафа.</t>
         </is>
@@ -25682,7 +25682,7 @@
           <t>Investigate the old man</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
+      <c r="H517" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте старика</t>
         </is>
@@ -25736,7 +25736,7 @@
 However, given its shriveled belly, it is also possible that it will die of starvation.</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
+      <c r="H518" s="0" t="inlineStr">
         <is>
           <t>ඞОн был мертв, и, судя по степени окоченения, можно предположить, что он умер более 24 часов назад.
 Он умер в результате сильного обезвоживания, вызванного инфекцией и лихорадкой.
@@ -25780,7 +25780,7 @@
           <t>Have a good rest...</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
+      <c r="H519" s="0" t="inlineStr">
         <is>
           <t>ඞЖелаю вам хорошо отдохнуть...</t>
         </is>
@@ -25822,7 +25822,7 @@
           <t>You find a folded amulet in the old man's gripped hand.</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
+      <c r="H520" s="0" t="inlineStr">
         <is>
           <t>ඞВы находите сложенный амулет в сжатой руке старика.</t>
         </is>
@@ -25864,7 +25864,7 @@
           <t>He has been dead for a long time.</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
+      <c r="H521" s="0" t="inlineStr">
         <is>
           <t>ඞОн уже давно мертв.</t>
         </is>
@@ -25906,7 +25906,7 @@
           <t>Dilapidated house</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
+      <c r="H522" s="0" t="inlineStr">
         <is>
           <t>ඞПолуразрушенный дом</t>
         </is>
@@ -25954,7 +25954,7 @@
 Merry's name is much lower than Nana's, and the height mark for Nana's name remains at 152cm.</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
+      <c r="H523" s="0" t="inlineStr">
         <is>
           <t>ඞВы замечаете на столбике кровати несколько выемок с именами Мерри и Наны, написанными на них.
 Имя Мерри намного ниже, чем Нана, и высота имени Наны остается на уровне 152 см.</t>
@@ -25997,7 +25997,7 @@
           <t>What is this?</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
+      <c r="H524" s="0" t="inlineStr">
         <is>
           <t>ඞЧто это?</t>
         </is>
@@ -26065,7 +26065,7 @@
 Then there are a few big words: "Merry will always love Nana!"</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
+      <c r="H525" s="0" t="inlineStr">
         <is>
           <t>ඞТы порылась под кроватью и обнаружила розовую поздравительную открытку с несколькими корявыми строчками, написанными на ней.
 Бабуля, сестренка, с днем рождения!
@@ -26111,7 +26111,7 @@
           <t>Investigate the Bed</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
+      <c r="H526" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте кровать</t>
         </is>
@@ -26153,7 +26153,7 @@
           <t>You look at the wall and find there are various shapes drawn on the wall, there are cats, rainbows, whales, and stars…</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
+      <c r="H527" s="0" t="inlineStr">
         <is>
           <t>ඞВы смотрите на стену и обнаруживаете, что на ней нарисованы различные фигуры: кошки, радуги, киты и звезды…</t>
         </is>
@@ -26195,7 +26195,7 @@
           <t>Investigate the wall painting</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
+      <c r="H528" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте настенную роспись</t>
         </is>
@@ -26237,7 +26237,7 @@
           <t>She stared at the wall painting quietly for a long time and finally came back to her senses.</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
+      <c r="H529" s="0" t="inlineStr">
         <is>
           <t>ඞОна долго молча смотрела на настенную роспись и наконец пришла в себя.</t>
         </is>
@@ -26279,7 +26279,7 @@
           <t>Can't make Nana wait too long…</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
+      <c r="H530" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не могу заставлять бабушку ждать слишком долго.…</t>
         </is>
@@ -26321,7 +26321,7 @@
           <t>You see a dagger under the pillow.</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
+      <c r="H531" s="0" t="inlineStr">
         <is>
           <t>ඞТы видишь кинжал под подушкой.</t>
         </is>
@@ -26363,7 +26363,7 @@
           <t>North Street</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
+      <c r="H532" s="0" t="inlineStr">
         <is>
           <t>ඞСеверная улица</t>
         </is>
@@ -26405,7 +26405,7 @@
           <t>We should look at Wende's situation first.</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
+      <c r="H533" s="0" t="inlineStr">
         <is>
           <t>ඞСначала мы должны рассмотреть ситуацию с Венде.</t>
         </is>
@@ -26447,7 +26447,7 @@
           <t>This is Tonson's mansion, and you're at a loss for what to do when you see the heavy steel gate.</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
+      <c r="H534" s="0" t="inlineStr">
         <is>
           <t>ඞЭто особняк Тонсона, и вы не знаете, что делать, когда видите тяжелые стальные ворота.</t>
         </is>
@@ -26489,7 +26489,7 @@
           <t>Ah, this... is this?</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
+      <c r="H535" s="0" t="inlineStr">
         <is>
           <t>ඞАх, это... это и есть это?</t>
         </is>
@@ -26533,7 +26533,7 @@
           <t>The crazy white giant beast is stepping toward you and you cannot see any reason in its red eyes.</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
+      <c r="H536" s="0" t="inlineStr">
         <is>
           <t>ඞБезумный белый гигантский зверь шагает к вам, и вы не видите никакого смысла в его красных глазах.</t>
         </is>
@@ -26575,7 +26575,7 @@
           <t>You see the spider monster and Ryan tearing at each other.</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
+      <c r="H537" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите, как паук-монстр и Райан рвут друг друга на части.</t>
         </is>
@@ -26618,7 +26618,7 @@
           <t>At last, Ryan killed the spider monster with an angry heavy blow. However, you can see that Ryan's strength was consumed a lot.</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
+      <c r="H538" s="0" t="inlineStr">
         <is>
           <t>ඞВ конце концов, Райан убил монстра-паука сильным ударом. Однако вы можете видеть, что силы Райана были потрачены впустую.</t>
         </is>
@@ -26660,7 +26660,7 @@
           <t>The crazy white monster blocks in front of you. You are going to…</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
+      <c r="H539" s="0" t="inlineStr">
         <is>
           <t>ඞБезумный белый монстр загораживает дорогу перед вами. Вы собираетесь…</t>
         </is>
@@ -26702,7 +26702,7 @@
           <t>[Run Away Quickly]</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
+      <c r="H540" s="0" t="inlineStr">
         <is>
           <t>ඞ[Быстро убегай]</t>
         </is>
@@ -26744,7 +26744,7 @@
           <t>It didn't catch up…</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
+      <c r="H541" s="0" t="inlineStr">
         <is>
           <t>ඞОн меня не догнал…</t>
         </is>
@@ -26786,7 +26786,7 @@
           <t>Ryan is weak now. You are going to…</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
+      <c r="H542" s="0" t="inlineStr">
         <is>
           <t>ඞРайан сейчас слаб. Ты собираешься…</t>
         </is>
@@ -26828,7 +26828,7 @@
           <t>[Seize the chance and challenge]</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
+      <c r="H543" s="0" t="inlineStr">
         <is>
           <t>ඞ[Воспользуйся шансом и брось вызов]</t>
         </is>
@@ -26870,7 +26870,7 @@
           <t>You followed Horn to North Street, where he came to a halt in front of a mansion | You noticed a heavy steel gate in front of you.</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
+      <c r="H544" s="0" t="inlineStr">
         <is>
           <t>ඞВы последовали за Хорном на Северную улицу, где он остановился перед особняком, и заметили перед собой тяжелые стальные ворота.</t>
         </is>
@@ -26926,7 +26926,7 @@
 What a cute act, but his treasure will be wiped out today.</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
+      <c r="H545" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон - настоящий собственник и обожает коллекционировать предметы.
 Я также презираю чужие визиты, поэтому меры защиты от краж идеальны.
@@ -26970,7 +26970,7 @@
           <t>Horn took a remote control from his pocket.</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
+      <c r="H546" s="0" t="inlineStr">
         <is>
           <t>ඞХорн достал из кармана пульт дистанционного управления.</t>
         </is>
@@ -27018,7 +27018,7 @@
 So I've been laying out some gifts for him before getting stuck in the cycle.</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
+      <c r="H547" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон всегда был для меня мишенью, которую я должен был привести в порядок.
 Поэтому я приготовил для него кое-какие подарки, пока не застрял в этом цикле.</t>
@@ -27061,7 +27061,7 @@
           <t>What you prepared were those stolen explosives!</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
+      <c r="H548" s="0" t="inlineStr">
         <is>
           <t>ඞТо, что вы приготовили, было украденной взрывчаткой!</t>
         </is>
@@ -27151,7 +27151,7 @@
 Dude, cover your ears~</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
+      <c r="H549" s="0" t="inlineStr">
         <is>
           <t>ඞВ конце концов, перед выходом на сцену обязательно должен быть эффектный фейерверк.
 Вечером 14-го я все спланировал.
@@ -27207,7 +27207,7 @@
 Everything around you is trembling, you can see tongues of fire erupting from Tonson's mansion, the screams of monsters in agony are interminable, and this thick gate is like a massive coffin covering the tomb.</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
+      <c r="H550" s="0" t="inlineStr">
         <is>
           <t>ඞОн нажал на кнопку дистанционного управления, и вы услышали ужасный звук.
 Все вокруг вас дрожит, вы можете видеть языки пламени, вырывающиеся из особняка Тонсона, крики агонизирующих монстров бесконечны, а эти толстые ворота похожи на массивный гроб, закрывающий могилу.</t>
@@ -27250,7 +27250,7 @@
           <t>Horn looked at everything in front of him and said with emotion:</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
+      <c r="H551" s="0" t="inlineStr">
         <is>
           <t>ඞХорн посмотрел на все, что было перед ним, и с чувством сказал:</t>
         </is>
@@ -27304,7 +27304,7 @@
 "I wish I could set off fireworks every day." </t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
+      <c r="H552" s="0" t="inlineStr">
         <is>
           <t>ඞ"Я не зря рисковал своей жизнью, чтобы раздобыть эти промышленные взрывчатые вещества". 
 "После того, как их так долго прятали, они наконец-то пригодились".
@@ -27348,7 +27348,7 @@
           <t>And while he was admiring the "beautiful scenery" in front of him, you noticed a lot of cracks in the ground, and you knew something was wrong.</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
+      <c r="H553" s="0" t="inlineStr">
         <is>
           <t>ඞИ пока он любовался "прекрасным пейзажем" перед собой, вы заметили множество трещин в земле и поняли, что что-то не так.</t>
         </is>
@@ -27390,7 +27390,7 @@
           <t>Horn! RUN! It is about to collapse! …</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
+      <c r="H554" s="0" t="inlineStr">
         <is>
           <t>ඞГудок! беги! Он вот-вот рухнет! …</t>
         </is>
@@ -27432,7 +27432,7 @@
           <t>When he heard your words, Horn instantly ran away and the soil under your feet cracked like ice and you fell into the cracks.</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
+      <c r="H555" s="0" t="inlineStr">
         <is>
           <t>ඞУслышав твои слова, Хорн мгновенно убежал, и почва у тебя под ногами треснула, как лед, и ты провалился в трещины.</t>
         </is>
@@ -27474,7 +27474,7 @@
           <t>Time is reshaped again, and this time you wake up not in the hotel.</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
+      <c r="H556" s="0" t="inlineStr">
         <is>
           <t>ඞВремя снова меняется, и на этот раз вы просыпаетесь не в отеле.</t>
         </is>
@@ -27528,7 +27528,7 @@
 Horn appears to have vanished yesterday.</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
+      <c r="H557" s="0" t="inlineStr">
         <is>
           <t>ඞКак могло это изменение формы попасть сюда…
 Белый туман исчез?! - отлично!
@@ -27572,7 +27572,7 @@
           <t>Let's go see how Wende is doing.</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
+      <c r="H558" s="0" t="inlineStr">
         <is>
           <t>ඞПойдем посмотрим, как там Венде.</t>
         </is>
@@ -27614,7 +27614,7 @@
           <t>Ryan</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
+      <c r="H559" s="0" t="inlineStr">
         <is>
           <t>ඞРайан</t>
         </is>
@@ -27662,7 +27662,7 @@
 You see a black seed falling on the ground.</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
+      <c r="H560" s="0" t="inlineStr">
         <is>
           <t>ඞРайан побежден вами. И его фигура исчезает у вас на глазах.
 Вы видите, как на землю падает черное семечко.</t>
@@ -27705,7 +27705,7 @@
           <t>East Street</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
+      <c r="H561" s="0" t="inlineStr">
         <is>
           <t>ඞВосточная улица</t>
         </is>
@@ -27747,7 +27747,7 @@
           <t>Punishment Ordinance</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
+      <c r="H562" s="0" t="inlineStr">
         <is>
           <t>ඞПостановление о наказании</t>
         </is>
@@ -27808,7 +27808,7 @@
 ※If the violator cannot pay the fine, he or she can also choose to work in Tonson's factory to pay the fine, in addition, to going to prison.</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
+      <c r="H563" s="0" t="inlineStr">
         <is>
           <t>ඞ"Полицейский участок Таунсенда, пожалуйста, не входите".
 На доске объявлений размещены некоторые правила о наказаниях.
@@ -27853,7 +27853,7 @@
           <t>The sign said that the landmarks are on the north and east. On the north side, go to the Silent Cliff, and on the east side, go to the Worker's Home.</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
+      <c r="H564" s="0" t="inlineStr">
         <is>
           <t>ඞНа указателе было написано, что ориентиры находятся на севере и востоке. С северной стороны идите к Безмолвному утесу, а с восточной - к Дому рабочего.</t>
         </is>
@@ -27895,7 +27895,7 @@
           <t>Administration Hall</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
+      <c r="H565" s="0" t="inlineStr">
         <is>
           <t>ඞАдминистративный зал</t>
         </is>
@@ -27937,7 +27937,7 @@
           <t>Need to find Ryan's profile first...</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
+      <c r="H566" s="0" t="inlineStr">
         <is>
           <t>ඞСначала нужно найти профиль Райана...</t>
         </is>
@@ -27979,7 +27979,7 @@
           <t>Interrogation Notes</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
+      <c r="H567" s="0" t="inlineStr">
         <is>
           <t>ඞЗаписи допроса</t>
         </is>
@@ -28043,7 +28043,7 @@
 Address: No. 21 South Street.</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
+      <c r="H568" s="0" t="inlineStr">
         <is>
           <t>ඞВремя: с 19:30 13 января 1920 года по 19:54 13 января 1920 года.
 Местонахождение: Секция безопасности полицейского участка Таунсенд
@@ -28119,7 +28119,7 @@
 A: No. 21 South Street.</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
+      <c r="H569" s="0" t="inlineStr">
         <is>
           <t>ඞВ: Мы следователи отдела безопасности полицейского участка (предъявите документы). Сегодня мы задаем вам вопросы в соответствии с законом, и вы должны отвечать правдиво.
 О: Конечно.
@@ -28184,7 +28184,7 @@
 A: No, except this time I always work in the factory.</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
+      <c r="H570" s="0" t="inlineStr">
         <is>
           <t>ඞВ: Вы знаете, почему мы вас задержали?
 О: Да, я украл лекарство…
@@ -28252,7 +28252,7 @@
 A: Yes.</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
+      <c r="H571" s="0" t="inlineStr">
         <is>
           <t>ඞВ: Не волнуйтесь, пожалуйста, объясните, чем вы занимались с 6:00 до 8:00 12 января.
 О: Вечером 12-го? В тот день я отдыхал на фабрике. Я вернулся домой в 5 часов вечера и обнаружил, что мой дедушка все это время лежал в постели. После этого я искал врача, но никто из них не захотел приехать на Саут-стрит.
@@ -28334,7 +28334,7 @@
 January 13, 1920</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
+      <c r="H572" s="0" t="inlineStr">
         <is>
           <t>ඞВ: Вы знаете о пропаже пороха на складе фабрики?
 О: Я не знаю. Я отпросился в отпуск после того, как заболел мой дедушка.
@@ -28382,7 +28382,7 @@
           <t>Read the Record</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
+      <c r="H573" s="0" t="inlineStr">
         <is>
           <t>ඞПрочтите запись</t>
         </is>
@@ -28424,7 +28424,7 @@
           <t>Use the crowbar</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
+      <c r="H574" s="0" t="inlineStr">
         <is>
           <t>ඞИспользуй лом</t>
         </is>
@@ -28466,7 +28466,7 @@
           <t>Use Key</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
+      <c r="H575" s="0" t="inlineStr">
         <is>
           <t>ඞИспользовать ключ</t>
         </is>
@@ -28508,7 +28508,7 @@
           <t>Go home… Take care of… Grandpa…</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
+      <c r="H576" s="0" t="inlineStr">
         <is>
           <t>ඞПойти домой… Заботиться о… Дедушка…</t>
         </is>
@@ -28550,7 +28550,7 @@
           <t>Open the fence</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
+      <c r="H577" s="0" t="inlineStr">
         <is>
           <t>ඞОткрой забор</t>
         </is>
@@ -28592,7 +28592,7 @@
           <t>The locked bars form a containment cell.</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
+      <c r="H578" s="0" t="inlineStr">
         <is>
           <t>ඞЗапертые прутья образуют защитную камеру.</t>
         </is>
@@ -28634,7 +28634,7 @@
           <t>Signature List</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
+      <c r="H579" s="0" t="inlineStr">
         <is>
           <t>ඞСписок подписей</t>
         </is>
@@ -28688,7 +28688,7 @@
 The start time is 10:00 am and the end time is 16:00.</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
+      <c r="H580" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите дюжину имен в списке.
 Но подпись сделана одним и тем же человеком.
@@ -28732,7 +28732,7 @@
           <t>Don't these people have to work?</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
+      <c r="H581" s="0" t="inlineStr">
         <is>
           <t>ඞРазве этим людям не нужно работать?</t>
         </is>
@@ -28774,7 +28774,7 @@
           <t>Read the Roster</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
+      <c r="H582" s="0" t="inlineStr">
         <is>
           <t>ඞОзнакомьтесь с составом</t>
         </is>
@@ -28816,7 +28816,7 @@
           <t>Slogan</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
+      <c r="H583" s="0" t="inlineStr">
         <is>
           <t>ඞЛозунг</t>
         </is>
@@ -28876,7 +28876,7 @@
 "If you violate your oath, you will be punished severely! I vowed."</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
+      <c r="H584" s="0" t="inlineStr">
         <is>
           <t>ඞ"Настоящим я клянусь, что буду выполнять свой долг"
 "Прилагать усилия, проявлять смирение, справедливость и следовать закону".
@@ -28921,7 +28921,7 @@
           <t>Read the Slogan</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
+      <c r="H585" s="0" t="inlineStr">
         <is>
           <t>ඞПрочтите слоган</t>
         </is>
@@ -28969,7 +28969,7 @@
 With a leisurely look.</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
+      <c r="H586" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите, что Хорн спит на скамейке.
 С ленивым видом.</t>
@@ -29012,7 +29012,7 @@
           <t>Why are you here now?</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
+      <c r="H587" s="0" t="inlineStr">
         <is>
           <t>ඞПочему ты сейчас здесь?</t>
         </is>
@@ -29054,7 +29054,7 @@
           <t>He stretched.</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
+      <c r="H588" s="0" t="inlineStr">
         <is>
           <t>ඞОн потянулся.</t>
         </is>
@@ -29102,7 +29102,7 @@
 Don't expect me to find anything useful.</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
+      <c r="H589" s="0" t="inlineStr">
         <is>
           <t>ඞЗдесь слишком много информации.
 Не ждите, что я найду что-то полезное.</t>
@@ -29145,7 +29145,7 @@
           <t>Move Now</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
+      <c r="H590" s="0" t="inlineStr">
         <is>
           <t>ඞДвигайся сейчас же</t>
         </is>
@@ -29187,7 +29187,7 @@
           <t>You had just entered the police station's corridor when you noticed Horn about to leave and were stopped by a few spider monsters.</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
+      <c r="H591" s="0" t="inlineStr">
         <is>
           <t>ඞВы только что вошли в коридор полицейского участка, когда заметили, что Хорн собирается уходить, и были остановлены несколькими паукообразными монстрами.</t>
         </is>
@@ -29229,7 +29229,7 @@
           <t>Just in time~just in time to use the new toy.</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
+      <c r="H592" s="0" t="inlineStr">
         <is>
           <t>ඞКак раз вовремя - как раз вовремя, чтобы воспользоваться новой игрушкой.</t>
         </is>
@@ -29271,7 +29271,7 @@
           <t>Those monsters have become difficult to deal with</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
+      <c r="H593" s="0" t="inlineStr">
         <is>
           <t>ඞС этими монстрами стало трудно иметь дело</t>
         </is>
@@ -29313,7 +29313,7 @@
           <t>For safety, should we act together?</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
+      <c r="H594" s="0" t="inlineStr">
         <is>
           <t>ඞВ целях безопасности, должны ли мы действовать сообща?</t>
         </is>
@@ -29361,7 +29361,7 @@
 I am still good at dealing with problems alone.</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
+      <c r="H595" s="0" t="inlineStr">
         <is>
           <t>ඞВсего несколько пауков в округе - это все равно что присматривать друг за другом.
 Я по-прежнему умею справляться с проблемами в одиночку.</t>
@@ -29416,7 +29416,7 @@
 By the way, how did these monsters come here…</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
+      <c r="H596" s="0" t="inlineStr">
         <is>
           <t>ඞЗабудь об этом, не нужно заставлять.
 ...
@@ -29460,7 +29460,7 @@
           <t>Tayler</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
+      <c r="H597" s="0" t="inlineStr">
         <is>
           <t>ඞТейлер</t>
         </is>
@@ -29502,7 +29502,7 @@
           <t>Office</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
+      <c r="H598" s="0" t="inlineStr">
         <is>
           <t>ඞОфис</t>
         </is>
@@ -29544,7 +29544,7 @@
           <t>Tax Statement</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
+      <c r="H599" s="0" t="inlineStr">
         <is>
           <t>ඞНалоговый отчет</t>
         </is>
@@ -29598,7 +29598,7 @@
 The cupboards were spotless and appeared to be cleaned regularly.</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
+      <c r="H600" s="0" t="inlineStr">
         <is>
           <t>ඞСтопка документов была аккуратно уложена в шкаф, а сам шкаф был заперт на замок с изысканными узорами.
 По сравнению с другими шкафами, этот шкаф слишком роскошный. На передней панели шкафа имеется деревянная резная табличка с надписью "Налог Таунсенда".
@@ -29654,7 +29654,7 @@
 And there are huge taxes levied on other types of factories, and you see that none of these factories have been taxed for more than a year.</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
+      <c r="H601" s="0" t="inlineStr">
         <is>
           <t>ඞЭто налоговые отчеты Таунсенда за последние несколько лет. Среди них самая крупная экспортная сделка приходится на фабрику Тонсона. Он заработал огромное состояние, экспортируя ароматические свечи "Мердер".
 Но крупным налогоплательщиком в городе является не сам Тонсон, он пользуется рядом налоговых льгот.
@@ -29698,7 +29698,7 @@
           <t>No wonder locals can only choose Tonson's factory</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
+      <c r="H602" s="0" t="inlineStr">
         <is>
           <t>ඞНеудивительно, что местные жители могут выбрать только фабрику Тонсона</t>
         </is>
@@ -29740,7 +29740,7 @@
           <t>Read the Record</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
+      <c r="H603" s="0" t="inlineStr">
         <is>
           <t>ඞПрочтите запись</t>
         </is>
@@ -29782,7 +29782,7 @@
           <t>Reconstruction Plan</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
+      <c r="H604" s="0" t="inlineStr">
         <is>
           <t>ඞПлан реконструкции</t>
         </is>
@@ -29836,7 +29836,7 @@
 Most of the comments are objections.</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
+      <c r="H605" s="0" t="inlineStr">
         <is>
           <t>ඞНа обложке написано: "План реконструкции Таунсенда".
 Вы видите множество комментариев, под каждым из которых стоит подпись "Тонсон".
@@ -29880,7 +29880,7 @@
           <t>Against the digging of deep wells! If there is a lack of water, we can build pipelines to connect water sources down the mountain.</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
+      <c r="H606" s="0" t="inlineStr">
         <is>
           <t>ඞПротив рытья глубоких колодцев! Если возникнет нехватка воды, мы можем построить трубопроводы, чтобы соединить источники воды ниже по склону.</t>
         </is>
@@ -29922,7 +29922,7 @@
           <t>Against the reconstruction of South Street, the cost is too high, and proper conflict will facilitate the stability of the town structure.</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
+      <c r="H607" s="0" t="inlineStr">
         <is>
           <t>ඞВ отличие от реконструкции Саут-стрит, затраты на нее слишком высоки, а надлежащий конфликт будет способствовать стабильности городской структуры.</t>
         </is>
@@ -29964,7 +29964,7 @@
           <t>Against the construction of welfare home, our town is the largest welfare home!</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
+      <c r="H608" s="0" t="inlineStr">
         <is>
           <t>ඞНесмотря на строительство дома социального обеспечения, наш город является крупнейшим домом социального обеспечения!</t>
         </is>
@@ -30006,7 +30006,7 @@
           <t>There is a stack of cheques beside it. You are going to…</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
+      <c r="H609" s="0" t="inlineStr">
         <is>
           <t>ඞРядом с ним лежит пачка чеков. Вы собираетесь…</t>
         </is>
@@ -30048,7 +30048,7 @@
           <t>[Take it away]</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
+      <c r="H610" s="0" t="inlineStr">
         <is>
           <t>ඞ[Убери это]</t>
         </is>
@@ -30090,7 +30090,7 @@
           <t>[Give up taking it]</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
+      <c r="H611" s="0" t="inlineStr">
         <is>
           <t>ඞ[Откажись от этого]</t>
         </is>
@@ -30132,7 +30132,7 @@
           <t>Read the Plan</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
+      <c r="H612" s="0" t="inlineStr">
         <is>
           <t>ඞОзнакомьтесь с планом</t>
         </is>
@@ -30180,7 +30180,7 @@
 He appealed in legal form to establish the protection of children's rights and implement family assistance programs for orphans, children from single-parent families or families with disabled parents.</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
+      <c r="H613" s="0" t="inlineStr">
         <is>
           <t>ඞВы находите проект Закона о социальном обеспечении от 1910 года, вы видите, что проект подписан Райаном.
 Он обратился в юридическом порядке с призывом обеспечить защиту прав детей и внедрить программы помощи семьям для сирот, детей из неполных семей или семей с родителями-инвалидами.</t>
@@ -30223,7 +30223,7 @@
           <t>The key content mentioned in it is that children's spiritual and mental health will have a profound impact on social development. If children's growth environment is protected, it will greatly improve the social environment and reduce social problems.</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
+      <c r="H614" s="0" t="inlineStr">
         <is>
           <t>ඞОсновное содержание, упомянутое в нем, заключается в том, что духовное и психическое здоровье детей окажет глубокое влияние на социальное развитие. Если обеспечить защиту условий для роста детей, это значительно улучшит социальную среду и уменьшит социальные проблемы.</t>
         </is>
@@ -30271,7 +30271,7 @@
 However, only one adoption document was approved. The approval date was 1914. Merry was the object of funding and Ryan was the signatory.</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
+      <c r="H615" s="0" t="inlineStr">
         <is>
           <t>ඞЗатем вы найдете бланк заявления на усыновление со списком Мерри, Наны и других сирот.
 Однако был одобрен только один документ об усыновлении. Дата утверждения - 1914 год. Мерри была объектом финансирования, а Райан - подписантом.</t>
@@ -30320,7 +30320,7 @@
 The purpose is to solve the problem of social conflict by improving the growth environment of children.</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
+      <c r="H616" s="0" t="inlineStr">
         <is>
           <t>ඞЭто политический документ, который иллюстрирует ряд изменений в политике, касающихся детей.
 Цель - решить проблему социальных конфликтов путем улучшения условий для роста детей.</t>
@@ -30363,7 +30363,7 @@
           <t>Read the Files</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
+      <c r="H617" s="0" t="inlineStr">
         <is>
           <t>ඞПрочитайте файлы</t>
         </is>
@@ -30405,7 +30405,7 @@
           <t>Historical Archives</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
+      <c r="H618" s="0" t="inlineStr">
         <is>
           <t>ඞИсторические архивы</t>
         </is>
@@ -30453,7 +30453,7 @@
 In March 1890, a rare geological disaster caused a landslide to bury a large amount of land and houses. More than 90% of the town's population is dead or missing.</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
+      <c r="H619" s="0" t="inlineStr">
         <is>
           <t>ඞИз-за редких геологических катастроф данные о городе до 1890 года больше недоступны.
 В марте 1890 года редкая геологическая катастрофа вызвала оползень, который уничтожил большое количество земель и домов. Более 90% населения города погибло или пропало без вести.</t>
@@ -30502,7 +30502,7 @@
 The town of Dunwich re-planned its land in November 1901.</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
+      <c r="H620" s="0" t="inlineStr">
         <is>
           <t>ඞГород был восстановлен в сентябре 1899 года после того, как правительство собрало средства на земельных аукционах.
 В ноябре 1901 года Данвич перепланировал свои земли.</t>
@@ -30551,7 +30551,7 @@
 Townsend Town began a reconstruction plan in August 1915 to expand the town's functions and convert the original residential area into a factory...</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
+      <c r="H621" s="0" t="inlineStr">
         <is>
           <t>ඞРеконструкция Данвич-Тауна была завершена в июне 1903 года. В это же время был построен первый жилой район на Норт-стрит, который был переименован в Таунсенд-Таун в честь поддержки, оказанной мистером Тонсоном работам по реконструкции.
 В августе 1915 года Таунсенд-Таун приступил к реализации плана реконструкции, направленного на расширение функций города и превращение первоначального жилого района в фабрику...</t>
@@ -30596,7 +30596,7 @@
           <t>There are many old files in the carton. You can look through some of them casually. They are useless files.</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
+      <c r="H622" s="0" t="inlineStr">
         <is>
           <t>ඞВ картонной коробке много старых файлов. Вы можете просмотреть некоторые из них случайно. Это бесполезные файлы.</t>
         </is>
@@ -30638,7 +30638,7 @@
           <t>Read Archives</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
+      <c r="H623" s="0" t="inlineStr">
         <is>
           <t>ඞЧитать архивы</t>
         </is>
@@ -30680,7 +30680,7 @@
           <t>"We need struggle"</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
+      <c r="H624" s="0" t="inlineStr">
         <is>
           <t>ඞ"Нам нужна борьба"</t>
         </is>
@@ -30728,7 +30728,7 @@
 Every person in this world wishes to be successful, to live a better life, and to be respected. Let me ask you this: how can you achieve success if you don't put in more effort and time than others?</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
+      <c r="H625" s="0" t="inlineStr">
         <is>
           <t>ඞТема борьбы в настоящее время является актуальной в городе.
 Каждый человек в этом мире хочет быть успешным, жить лучше и пользоваться уважением. Позвольте мне спросить вас: как вы можете добиться успеха, если не прилагаете больше усилий и времени, чем другие?</t>
@@ -30777,7 +30777,7 @@
 So today Townsend Town can be built like this, I think it is a fortune for us to work like this.</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
+      <c r="H626" s="0" t="inlineStr">
         <is>
           <t>ඞМногие люди сталкиваются с трудностями в этом мире. Многие люди работают от 16 до 18 часов в день. Есть много людей, которые работают усерднее, дольше и умнее нас. Не у всех людей, которые борются за выживание, есть возможность сделать что-то значимое и результативное и ощутить чувство выполненного долга.
 Итак, сегодня Таунсенд-Таун может быть построен таким образом, и я думаю, что для нас большая удача работать таким образом.</t>
@@ -30822,7 +30822,7 @@
           <t>Think about the people who have no job, think about the people whose shops may close tomorrow, think about the people who have made a lot of efforts but are useless...Compared with them, we are very lucky.</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
+      <c r="H627" s="0" t="inlineStr">
         <is>
           <t>ඞПодумайте о людях, у которых нет работы, подумайте о людях, чьи магазины завтра могут закрыться, подумайте о людях, которые приложили много усилий, но оказались бесполезными...По сравнению с ними нам очень повезло.</t>
         </is>
@@ -30870,7 +30870,7 @@
 This requires struggle.</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
+      <c r="H628" s="0" t="inlineStr">
         <is>
           <t>ඞМногие люди просто хотят купить машину и дом для своих родителей, что очень важно, но я думаю, что у вас должен быть этот идеал. Вы проработали в Таунсенде 30 лет и можете заниматься тем, чем хотите. Это хорошо - помогать своим детям стать более удачливыми и помогать себе стать более удачливым.
 Это требует борьбы.</t>
@@ -30913,7 +30913,7 @@
           <t>Read the Brochure</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
+      <c r="H629" s="0" t="inlineStr">
         <is>
           <t>ඞПрочтите брошюру</t>
         </is>
@@ -30961,7 +30961,7 @@
 However, on the notes besides, the lottery result is written in the marking column of the internal number.</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
+      <c r="H630" s="0" t="inlineStr">
         <is>
           <t>ඞЭто объявление о лотерее еще не было опубликовано, и выигрышный номер не был указан.
 Однако, кроме того, в примечаниях результат лотереи указан в графе для обозначения внутреннего номера.</t>
@@ -31004,7 +31004,7 @@
           <t>It seems that I know why I have never won the prize.</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
+      <c r="H631" s="0" t="inlineStr">
         <is>
           <t>ඞКажется, я знаю, почему я никогда не выигрывал приз.</t>
         </is>
@@ -31046,7 +31046,7 @@
           <t>You look at the number of the lottery in your pocket and fill it in the first prize column.</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
+      <c r="H632" s="0" t="inlineStr">
         <is>
           <t>ඞВы смотрите на номер лотерейного билета у себя в кармане и вписываете его в графу первого приза.</t>
         </is>
@@ -31088,7 +31088,7 @@
           <t>Read Announcement</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
+      <c r="H633" s="0" t="inlineStr">
         <is>
           <t>ඞПрочитать объявление</t>
         </is>
@@ -31130,7 +31130,7 @@
           <t>Broadcasting</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
+      <c r="H634" s="0" t="inlineStr">
         <is>
           <t>ඞТрансляция</t>
         </is>
@@ -31184,7 +31184,7 @@
 You searched for a long time and finally put a tape marked as a concert to play.</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
+      <c r="H635" s="0" t="inlineStr">
         <is>
           <t>ඞВы успешно активировали устройство и теперь готовы вставить кассету.
 Вы открываете коробку рядом с ним, в которой находятся кассеты с развлекательным контентом, таким как музыка, ток-шоу, выступления, а также некоторые жизненные навыки и научные данные.
@@ -31228,7 +31228,7 @@
           <t>You press a button, but then you hear a clicking sound and smell the burning smell.</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
+      <c r="H636" s="0" t="inlineStr">
         <is>
           <t>ඞВы нажимаете на кнопку, но затем слышите щелчок и чувствуете запах гари.</t>
         </is>
@@ -31270,7 +31270,7 @@
           <t>Using the broadcast machine</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
+      <c r="H637" s="0" t="inlineStr">
         <is>
           <t>ඞИспользование широковещательной машины</t>
         </is>
@@ -31324,7 +31324,7 @@
 "Don't touch anything! Or you should bear the consequences!"</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
+      <c r="H638" s="0" t="inlineStr">
         <is>
           <t>ඞПохоже, это очень дорогой аппарат.
 Операция выглядит очень сложной, и ниже также есть примечание.
@@ -31368,7 +31368,7 @@
           <t>Police Officer Office</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
+      <c r="H639" s="0" t="inlineStr">
         <is>
           <t>ඞОфис сотрудника полиции</t>
         </is>
@@ -31410,7 +31410,7 @@
           <t>Open safe</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
+      <c r="H640" s="0" t="inlineStr">
         <is>
           <t>ඞОткрытый сейф</t>
         </is>
@@ -31452,7 +31452,7 @@
           <t>Thick safe with a mechanical lock that can only be opened with a specific key.</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
+      <c r="H641" s="0" t="inlineStr">
         <is>
           <t>ඞМассивный сейф с механическим замком, который можно открыть только специальным ключом.</t>
         </is>
@@ -31500,7 +31500,7 @@
 Just like it is waiting for people to read.</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
+      <c r="H642" s="0" t="inlineStr">
         <is>
           <t>ඞНа столе лежит старая записная книжка.
 Она как будто ждет, когда ее прочтут другие.</t>
@@ -31543,7 +31543,7 @@
           <t>Ryan's Notebook</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
+      <c r="H643" s="0" t="inlineStr">
         <is>
           <t>ඞЗаписная книжка Райана</t>
         </is>
@@ -31603,7 +31603,7 @@
 This way I can apply for government benefits and my children can live better.</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
+      <c r="H644" s="0" t="inlineStr">
         <is>
           <t>ඞX, X, 1912 г.
 Главным приоритетом при наборе государственных служащих в городе является "соответствие требованиям".
@@ -31668,7 +31668,7 @@
 The only requirement is that you be available on call and cannot leave town.</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
+      <c r="H645" s="0" t="inlineStr">
         <is>
           <t>ඞX, X, 1912 год
 Боже! Условия жизни государственных служащих просто возмутительны!
@@ -31737,7 +31737,7 @@
 I will not abandon the children under any circumstances!</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
+      <c r="H646" s="0" t="inlineStr">
         <is>
           <t>ඞX, X, 1913 год
 Окружающий порядок стремительно ухудшается.
@@ -31807,7 +31807,7 @@
 I can't let Merry stay with those bastards any longer.</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
+      <c r="H647" s="0" t="inlineStr">
         <is>
           <t>ඞX, X, 1914 год
 Эти ублюдки заслуживают смерти!
@@ -31865,7 +31865,7 @@
 I swear, I'm going to clean up all the policing issues in town!</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
+      <c r="H648" s="0" t="inlineStr">
         <is>
           <t>ඞX, X, 1914
 Сегодня наконец-то вступили в силу кадровые перестановки.
@@ -31921,7 +31921,7 @@
 However the notes changed in 1918.</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
+      <c r="H649" s="0" t="inlineStr">
         <is>
           <t>ඞ1914-1918
 В блокноте подробно описан опыт Райана в ведении дел. Под каждым случаем есть анализ ситуации, а также исправления и обзоры неправильного поведения.
@@ -31983,7 +31983,7 @@
 Then he began to focus on the record of a criminal named Horn.</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
+      <c r="H650" s="0" t="inlineStr">
         <is>
           <t>ඞ"В первый раз, когда я увидел такого сердитого Тонсона, он обвинил нас в том, что мы берем много зарплат, но все равно позволяем преступникам вламываться в его дом".
 "Я предложил ему пожить у него дома, но получил отказ".
@@ -32058,7 +32058,7 @@
 "I killed him."</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
+      <c r="H651" s="0" t="inlineStr">
         <is>
           <t>ඞX, X, 1920 год
 "Я проследил за грабителем от продуктового магазина до Саут-стрит и наконец поймал его..."
@@ -32117,7 +32117,7 @@
 The intermediate dates are all blank, so you quickly turn to the following page.</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
+      <c r="H652" s="0" t="inlineStr">
         <is>
           <t>ඞВидно, что он сильно пострадал.
 В строках чувствуются его сомнения в себе и неспособность что-либо защитить.
@@ -32191,7 +32191,7 @@
 "I must not let the scene described in that book happen!"</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
+      <c r="H653" s="0" t="inlineStr">
         <is>
           <t>ඞX, X, 1920 год
 "Я нашел тех людей, которые уехали из города! Тонсон лгал всем нам!"
@@ -32268,7 +32268,7 @@
 "I will buy you more time…"</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
+      <c r="H654" s="0" t="inlineStr">
         <is>
           <t>ඞX, X, 1920 год
 "Наконец-то я нашел эти черные семена под ямой".
@@ -32321,7 +32321,7 @@
 What is the black seed he finally found?</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
+      <c r="H655" s="0" t="inlineStr">
         <is>
           <t>ඞРайан раскрыл тайну катастрофы и пытается остановить Тонсона?!
 Что это за черные семена, которые он наконец нашел?</t>
@@ -32364,7 +32364,7 @@
           <t>Not bad~ I found a lot of useful equipment.</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
+      <c r="H656" s="0" t="inlineStr">
         <is>
           <t>ඞНеплохо~ Я нашел много полезного снаряжения.</t>
         </is>
@@ -32406,7 +32406,7 @@
           <t>You've been looking for weapons!</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
+      <c r="H657" s="0" t="inlineStr">
         <is>
           <t>ඞВы искали оружие!</t>
         </is>
@@ -32448,7 +32448,7 @@
           <t>Yes, I'm not good at finding information.</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
+      <c r="H658" s="0" t="inlineStr">
         <is>
           <t>ඞДа, я не силен в поиске информации.</t>
         </is>
@@ -32490,7 +32490,7 @@
           <t>Check this out!</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
+      <c r="H659" s="0" t="inlineStr">
         <is>
           <t>ඞЗацените это!</t>
         </is>
@@ -32532,7 +32532,7 @@
           <t>Horn flipped through the diary, his expression became more and more serious just like yours.</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
+      <c r="H660" s="0" t="inlineStr">
         <is>
           <t>ඞХорн пролистал дневник, выражение его лица становилось все более и более серьезным, совсем как у тебя.</t>
         </is>
@@ -32586,7 +32586,7 @@
 And what did Ryan gave to Merry?!</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
+      <c r="H661" s="0" t="inlineStr">
         <is>
           <t>ඞЭмм, я что, была у Тонсона дома?
 Почему я не могу вспомнить?
@@ -32630,7 +32630,7 @@
           <t>I don't know, but I'm going to look for it.</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
+      <c r="H662" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не знаю, но я собираюсь это поискать.</t>
         </is>
@@ -32672,7 +32672,7 @@
           <t>Then I will leave this matter to you, I will prepare a big gift for Tonson first~</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
+      <c r="H663" s="0" t="inlineStr">
         <is>
           <t>ඞТогда я оставлю это дело на ваше усмотрение, но сначала приготовлю большой подарок для Тонсона ~</t>
         </is>
@@ -32714,7 +32714,7 @@
           <t>Wait! Where can we meet if I make new progress here?</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
+      <c r="H664" s="0" t="inlineStr">
         <is>
           <t>ඞЖдать! Где мы сможем встретиться, если я добьюсь здесь новых успехов?</t>
         </is>
@@ -32756,7 +32756,7 @@
           <t>Really persevering, isn't it easy to deal with it simply and rudely?</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
+      <c r="H665" s="0" t="inlineStr">
         <is>
           <t>ඞДействительно настойчивый, разве не легко справиться с ним просто и грубо?</t>
         </is>
@@ -32816,7 +32816,7 @@
 I will take action on my own.</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
+      <c r="H666" s="0" t="inlineStr">
         <is>
           <t>ඞНе имеет значения, найдете вы ключ к разгадке или нет.
 Я буду ждать вас у входа в канализацию на Саут-стрит вечером в течение четверти часа.
@@ -32861,7 +32861,7 @@
           <t>He waved his hand and left.</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
+      <c r="H667" s="0" t="inlineStr">
         <is>
           <t>ඞОн махнул рукой и ушел.</t>
         </is>
@@ -32903,7 +32903,7 @@
           <t>Read the notebook</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
+      <c r="H668" s="0" t="inlineStr">
         <is>
           <t>ඞПрочтите записную книжку</t>
         </is>
@@ -32947,7 +32947,7 @@
           <t>Here are some case-handling materials and some news reports. You pulled out a past news report to view.</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
+      <c r="H669" s="0" t="inlineStr">
         <is>
           <t>ඞВот некоторые материалы по рассмотрению дел и несколько новостных сообщений. Вы выбрали для просмотра предыдущее сообщение.</t>
         </is>
@@ -32989,7 +32989,7 @@
           <t>Fake Recruitment, True Fraud</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
+      <c r="H670" s="0" t="inlineStr">
         <is>
           <t>ඞФальшивый набор персонала, Настоящее мошенничество</t>
         </is>
@@ -33043,7 +33043,7 @@
 "The police launched an operation at 20 p.m. on X day X month took various measures to actively pursue fugitives and finally arrested 20 suspects involved in the case"</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
+      <c r="H671" s="0" t="inlineStr">
         <is>
           <t>ඞВы нашли новостной репортаж за 1914 год.
 "Полиция арестовала в общей сложности 20 человек, причастных к мошенничеству с набором персонала, на сумму более 20 тысяч долларов".
@@ -33093,7 +33093,7 @@
 "According to the investigation, most of the disappearances in the town are related to this organization."</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
+      <c r="H672" s="0" t="inlineStr">
         <is>
           <t>ඞ"По словам подозреваемых, они использовали высокую зарплату и низкие рабочие места в качестве приманки, чтобы выманить у них, жертв, деньги для медицинского осмотра. Те, кто не мог предоставить документы, удостоверяющие личность, становились объектами торговли с целью получения высокой прибыли".
 - По данным следствия, большинство исчезновений в городе связаны с этой организацией".</t>
@@ -33136,7 +33136,7 @@
           <t>Read the Files</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
+      <c r="H673" s="0" t="inlineStr">
         <is>
           <t>ඞПрочитайте файлы</t>
         </is>
@@ -33178,7 +33178,7 @@
           <t>Open the cabinet</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
+      <c r="H674" s="0" t="inlineStr">
         <is>
           <t>ඞОткройте шкаф</t>
         </is>
@@ -33220,7 +33220,7 @@
           <t>You found a key in a jumble of papers.</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
+      <c r="H675" s="0" t="inlineStr">
         <is>
           <t>ඞВы нашли ключ в груде бумаг.</t>
         </is>
@@ -33262,7 +33262,7 @@
           <t>You rummaged through it and found only a bunch of blank file forms for employment.</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
+      <c r="H676" s="0" t="inlineStr">
         <is>
           <t>ඞВы порылись в нем и нашли только кучу пустых формуляров для приема на работу.</t>
         </is>
@@ -33304,7 +33304,7 @@
           <t>Investigate the drawer.</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
+      <c r="H677" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте ящик стола.</t>
         </is>
@@ -33346,7 +33346,7 @@
           <t>You saw Horn rummaging around.</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
+      <c r="H678" s="0" t="inlineStr">
         <is>
           <t>ඞВы видели, как Хорн рылся вокруг.</t>
         </is>
@@ -33388,7 +33388,7 @@
           <t>What are you doing?!</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
+      <c r="H679" s="0" t="inlineStr">
         <is>
           <t>ඞЧто ты делаешь?!</t>
         </is>
@@ -33442,7 +33442,7 @@
 But it was really a heavy loss.</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
+      <c r="H680" s="0" t="inlineStr">
         <is>
           <t>ඞСначала я должен вернуть свои вещи.
 Райан уже обыскивал один из моих домов.
@@ -33486,7 +33486,7 @@
           <t>Wende House</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
+      <c r="H681" s="0" t="inlineStr">
         <is>
           <t>ඞДом Венде</t>
         </is>
@@ -33528,7 +33528,7 @@
           <t>And now going to North Street will be torn to pieces by Ryan.</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
+      <c r="H682" s="0" t="inlineStr">
         <is>
           <t>ඞИ теперь, отправившись на Северную улицу, Райан будет разорван на куски.</t>
         </is>
@@ -33570,7 +33570,7 @@
           <t>There is a group photo of a little girl and her father. In the picture, the little girl looks six or seven years old. She holds her father's hand and they face the camera. The father looks a little old.</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
+      <c r="H683" s="0" t="inlineStr">
         <is>
           <t>ඞЕсть групповая фотография маленькой девочки и ее отца. На снимке девочке на вид шесть или семь лет. Она держит отца за руку, и они смотрят в камеру. Отец выглядит немного постаревшим.</t>
         </is>
@@ -33612,7 +33612,7 @@
           <t>Letter</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
+      <c r="H684" s="0" t="inlineStr">
         <is>
           <t>ඞПисьмо</t>
         </is>
@@ -33666,7 +33666,7 @@
 "In the afternoon of January 15, I will come back to you."</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
+      <c r="H685" s="0" t="inlineStr">
         <is>
           <t>ඞ"Дорогая доченька, уже слишком поздно, и я не могу уснуть. Хотя я не с тобой, я всегда забочусь о тебе".
 "Я нашел способ вылечить твою болезнь и забронировал обратный билет".
@@ -33710,7 +33710,7 @@
           <t>Read Envelope</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
+      <c r="H686" s="0" t="inlineStr">
         <is>
           <t>ඞПрочитайте конверт</t>
         </is>
@@ -33758,7 +33758,7 @@
 You can feel slight weightlessness and the whole ground is accelerating to sink and the weightlessness make you feel dazed.</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
+      <c r="H687" s="0" t="inlineStr">
         <is>
           <t>ඞЗазвучала грустная песня, пространство рядом с вами сотрясается, и здание начинает рушиться.
 Вы можете почувствовать легкую невесомость, и вся земля стремительно уходит из-под ног, и от невесомости у вас кружится голова.</t>
@@ -33804,7 +33804,7 @@
           <t>You fell down for several seconds without actually hitting the ground, you saw the white mist cover the town gradually close but your fall stopped.</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
+      <c r="H688" s="0" t="inlineStr">
         <is>
           <t>ඞВы падали несколько секунд, фактически не касаясь земли, вы видели, как белый туман постепенно окутывает город, но ваше падение прекратилось.</t>
         </is>
@@ -33852,7 +33852,7 @@
 And you noticed that there a countless corpses under the web and one of them just looks like you and the things stuck with the web are just your consciousness.</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
+      <c r="H689" s="0" t="inlineStr">
         <is>
           <t>ඞВы, кажется, за что-то цепляетесь, но до сих пор обнаруживаете, что все, что вас окружает, - это гигантская паутина! Весь город построен на огромной паутине!
 И вы заметили, что под паутиной находится бесчисленное множество трупов, и один из них просто похож на вас, а то, что застряло в паутине, - это всего лишь ваше сознание.</t>
@@ -33901,7 +33901,7 @@
 At this moment, you can clearly see the horror on the giant net.</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
+      <c r="H690" s="0" t="inlineStr">
         <is>
           <t>ඞТьма перед вами сгущается, и дыхание тьмы и страха распространяется по направлению к вам. Вокруг вас раздается бесчисленное количество шипящих звуков. Вы изо всех сил пытаетесь вырваться из гигантской сети, но у вас ничего не получается.
 В этот момент вы можете отчетливо видеть весь ужас в гигантской сети.</t>
@@ -33956,7 +33956,7 @@
 The face stared at you coldly and said to you…</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
+      <c r="H691" s="0" t="inlineStr">
         <is>
           <t>ඞТемное тело, наполовину похожее на человеческое, но с длинными, как у паука, конечностями…
 Черное тело с бледным лицом, и при одном взгляде на это лицо страх проникает в каждый дюйм твоей кожи.
@@ -34000,7 +34000,7 @@
           <t>If you violate my contract, I will remove your seven souls. If this contract ends, I will continue to weave the eternal web.</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
+      <c r="H692" s="0" t="inlineStr">
         <is>
           <t>ඞЕсли вы нарушите мой контракт, я заберу у вас семь душ. Если этот контракт закончится, я продолжу плести вечную паутину.</t>
         </is>
@@ -34042,7 +34042,7 @@
           <t>They gradually step back and disappear in front of you. And all of your emotions are absorbed by the spider web and become its nourishment.</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
+      <c r="H693" s="0" t="inlineStr">
         <is>
           <t>ඞОни постепенно отступают и исчезают у вас на глазах. И все ваши эмоции поглощаются паутиной и становятся ее питательной средой.</t>
         </is>
@@ -34084,7 +34084,7 @@
           <t>Take the Medicine Bottle</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
+      <c r="H694" s="0" t="inlineStr">
         <is>
           <t>ඞВозьми пузырек с лекарством</t>
         </is>
@@ -34129,7 +34129,7 @@
 and your medical knowledge is improved by the collision of memory retrieval and new knowledge.</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
+      <c r="H695" s="0" t="inlineStr">
         <is>
           <t>ඞВы читали медицинские книги такого рода,
 и ваши медицинские знания улучшились благодаря сочетанию извлечения информации из памяти и новых знаний.</t>
@@ -34174,7 +34174,7 @@
           <t>The shelves are full of books about professional theories, and you haven't found anything that interests you.</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
+      <c r="H696" s="0" t="inlineStr">
         <is>
           <t>ඞПолки полны книг о профессиональных теориях, и вы не нашли ничего, что вас бы заинтересовало.</t>
         </is>
@@ -34216,7 +34216,7 @@
           <t>View</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
+      <c r="H697" s="0" t="inlineStr">
         <is>
           <t>ඞПосмотреть</t>
         </is>
@@ -34258,7 +34258,7 @@
           <t>You have read such encyclopedia, your Erudition skill has improved under the collision of memories and new knowledge</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
+      <c r="H698" s="0" t="inlineStr">
         <is>
           <t>ඞВы прочитали такую энциклопедию, и ваша эрудиция улучшилась под воздействием воспоминаний и новых знаний</t>
         </is>
@@ -34306,7 +34306,7 @@
 Unexpectedly, Tonson would build such a luxurious house for other people to live in.</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
+      <c r="H699" s="0" t="inlineStr">
         <is>
           <t>ඞЯ впервые посещаю этот дом.
 Неожиданно оказалось, что Тонсон построил такой роскошный дом, чтобы в нем могли жить другие люди.</t>
@@ -34349,7 +34349,7 @@
           <t>You see the person with his head bowed at the table, it is the girl you saw in your dream before.</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
+      <c r="H700" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите человека, склонившего голову за столом, это та самая девушка, которую вы видели раньше в своем сне.</t>
         </is>
@@ -34391,7 +34391,7 @@
           <t>Ah, the person I saw in my dream was her.</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
+      <c r="H701" s="0" t="inlineStr">
         <is>
           <t>ඞАх, человек, которого я видел во сне, была она.</t>
         </is>
@@ -34439,7 +34439,7 @@
 Who knows if there will be a bomb buried in the cake.</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
+      <c r="H702" s="0" t="inlineStr">
         <is>
           <t>ඞЧто ж, давайте сначала тщательно проверим.
 Кто знает, может быть, в торте спрятана бомба.</t>
@@ -34482,7 +34482,7 @@
           <t>A 10 years age girl is sleeping in a wheelchair, you are going to...</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
+      <c r="H703" s="0" t="inlineStr">
         <is>
           <t>ඞ10-летняя девочка спит в инвалидном кресле, и вы собираетесь это сделать...</t>
         </is>
@@ -34524,7 +34524,7 @@
           <t>[Ready to wake her up]</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
+      <c r="H704" s="0" t="inlineStr">
         <is>
           <t>ඞ[Готов разбудить ее]</t>
         </is>
@@ -34566,7 +34566,7 @@
           <t>[Wait]</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
+      <c r="H705" s="0" t="inlineStr">
         <is>
           <t>ඞ[Подожди]</t>
         </is>
@@ -34620,7 +34620,7 @@
 I can hear your conversation from this distance.</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
+      <c r="H706" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не очень хорошо умею обращаться с маленькими девочками.
 Ты иди и поговори с ней.
@@ -34664,7 +34664,7 @@
           <t>Well, no problem.</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
+      <c r="H707" s="0" t="inlineStr">
         <is>
           <t>ඞЧто ж, нет проблем.</t>
         </is>
@@ -34706,7 +34706,7 @@
           <t>You shook her arm, and she woke up in a daze. She looked at you with a bright smile, as if she had been waiting for a long time.</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
+      <c r="H708" s="0" t="inlineStr">
         <is>
           <t>ඞТы потряс ее за руку, и она очнулась в изумлении. Она посмотрела на тебя с сияющей улыбкой, как будто ждала тебя долгое время.</t>
         </is>
@@ -34748,7 +34748,7 @@
           <t>I finally waited for you...</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
+      <c r="H709" s="0" t="inlineStr">
         <is>
           <t>ඞНаконец-то я дождался тебя...</t>
         </is>
@@ -34790,7 +34790,7 @@
           <t>But her expression soon changed to disappointment.</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
+      <c r="H710" s="0" t="inlineStr">
         <is>
           <t>ඞНо вскоре выражение ее лица сменилось разочарованием.</t>
         </is>
@@ -34832,7 +34832,7 @@
           <t>You... are not...</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
+      <c r="H711" s="0" t="inlineStr">
         <is>
           <t>ඞТы... не такой...</t>
         </is>
@@ -34886,7 +34886,7 @@
 You feel guilty for no reason.</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
+      <c r="H712" s="0" t="inlineStr">
         <is>
           <t>ඞДаже те, кто не способен к состраданию, могут почувствовать грусть прямо сейчас.
 Потому что девушка перед вами одновременно смеется и плачет.
@@ -34930,7 +34930,7 @@
           <t>Are you... alright?</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
+      <c r="H713" s="0" t="inlineStr">
         <is>
           <t>ඞТы... в порядке?</t>
         </is>
@@ -34978,7 +34978,7 @@
 I didn't expect it to be out of control in the end.</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
+      <c r="H714" s="0" t="inlineStr">
         <is>
           <t>ඞО, я, конечно, думал о многих сценах встреч.
 Я не ожидал, что в конце все выйдет из-под контроля.</t>
@@ -35021,7 +35021,7 @@
           <t>Can you tell me your name?</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
+      <c r="H715" s="0" t="inlineStr">
         <is>
           <t>ඞНе могли бы вы назвать мне свое имя?</t>
         </is>
@@ -35069,7 +35069,7 @@
 After a while, she spoke slowly.</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
+      <c r="H716" s="0" t="inlineStr">
         <is>
           <t>ඞОна немного успокоилась, а затем начала погружаться в воспоминания.
 Через некоторое время она медленно заговорила.</t>
@@ -35112,7 +35112,7 @@
           <t>My name is Wende, and my father's name is Roland...</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
+      <c r="H717" s="0" t="inlineStr">
         <is>
           <t>ඞМеня зовут Венде, а моего отца зовут Роланд...</t>
         </is>
@@ -35154,7 +35154,7 @@
           <t>She looked to the side of the chair and was stunned for a while.</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
+      <c r="H718" s="0" t="inlineStr">
         <is>
           <t>ඞОна посмотрела в сторону стула и на какое-то время остолбенела.</t>
         </is>
@@ -35202,7 +35202,7 @@
 Sometimes I can't tell which things belong to the past or which belong to the present.</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
+      <c r="H719" s="0" t="inlineStr">
         <is>
           <t>ඞИзвините, иногда воспоминания о прошлом и события настоящего накладываются друг на друга...
 Иногда я не могу сказать, какие события относятся к прошлому, а какие - к настоящему.</t>
@@ -35245,7 +35245,7 @@
           <t>It's okay, I'll listen patiently.</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
+      <c r="H720" s="0" t="inlineStr">
         <is>
           <t>ඞВсе в порядке, я буду терпеливо слушать.</t>
         </is>
@@ -35299,7 +35299,7 @@
 But what happened that night is still very clear.</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
+      <c r="H721" s="0" t="inlineStr">
         <is>
           <t>ඞНеизвестно, сколько раз повторялся этот цикл.
 Я многого не помню.
@@ -35343,7 +35343,7 @@
           <t>That night?</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
+      <c r="H722" s="0" t="inlineStr">
         <is>
           <t>ඞВ ту ночь?</t>
         </is>
@@ -35409,7 +35409,7 @@
 I opened the window, only to see that the people in the surrounding streets had disappeared.</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
+      <c r="H723" s="0" t="inlineStr">
         <is>
           <t>ඞТак вот, в ночь на 14 января на небе появились густые темные тучи.
 Ночью мне приснился кошмар, я увидела, что нахожусь в огромной паутине.
@@ -35455,7 +35455,7 @@
           <t>Your family also...?</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
+      <c r="H724" s="0" t="inlineStr">
         <is>
           <t>ඞВаша семья тоже...?</t>
         </is>
@@ -35497,7 +35497,7 @@
           <t>She shook her head.</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
+      <c r="H725" s="0" t="inlineStr">
         <is>
           <t>ඞОна покачала головой.</t>
         </is>
@@ -35551,7 +35551,7 @@
 And because of this disaster, my illness did not get worse.</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
+      <c r="H726" s="0" t="inlineStr">
         <is>
           <t>ඞЯ инвалид, и мой отец бегал по округе в поисках лекарств.
 И мой отец, таким образом, только что избежал катастрофы.
@@ -35597,7 +35597,7 @@
           <t>She smiled happily, but you can't imagine how Wende survived the unchanging days when she was physically unable to move, without the company of relatives</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
+      <c r="H727" s="0" t="inlineStr">
         <is>
           <t>ඞОна счастливо улыбалась, но вы не можете себе представить, как Венде переживала те дни, когда она физически не могла двигаться, без общества родственников</t>
         </is>
@@ -35639,7 +35639,7 @@
           <t>Are you looking for a way out of the cycle?</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
+      <c r="H728" s="0" t="inlineStr">
         <is>
           <t>ඞВы ищете выход из этого замкнутого круга?</t>
         </is>
@@ -35681,7 +35681,7 @@
           <t>Yes, please tell me!</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
+      <c r="H729" s="0" t="inlineStr">
         <is>
           <t>ඞДа, пожалуйста, скажи мне!</t>
         </is>
@@ -35730,7 +35730,7 @@
 But I am worried that you will refuse, please promise me.</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
+      <c r="H730" s="0" t="inlineStr">
         <is>
           <t>ඞТы определенно можешь сделать это таким образом.
 Но я боюсь, что ты откажешься, пожалуйста, пообещай мне.</t>
@@ -35773,7 +35773,7 @@
           <t>No problem, as long as I can do it.</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
+      <c r="H731" s="0" t="inlineStr">
         <is>
           <t>ඞНет проблем, пока я могу это делать.</t>
         </is>
@@ -35815,7 +35815,7 @@
           <t>I want to ask you, kill me, kill me once and for all.</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
+      <c r="H732" s="0" t="inlineStr">
         <is>
           <t>ඞЯ хочу попросить тебя, убей меня, убей раз и навсегда.</t>
         </is>
@@ -35857,7 +35857,7 @@
           <t>How is this possible?!</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
+      <c r="H733" s="0" t="inlineStr">
         <is>
           <t>ඞКак такое возможно?!</t>
         </is>
@@ -35899,7 +35899,7 @@
           <t>She shook her head and stopped your words.</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
+      <c r="H734" s="0" t="inlineStr">
         <is>
           <t>ඞОна покачала головой и оборвала твои слова.</t>
         </is>
@@ -36031,7 +36031,7 @@
 You will surely be saved by this. Because I'm to blame for this cycle...</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
+      <c r="H735" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не из тех, кто требует, чтобы вы убегали от реальности.
 В конце концов, я пришел к такому выводу!
@@ -36088,7 +36088,7 @@
           <t>But, but in this way you are really dead!</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
+      <c r="H736" s="0" t="inlineStr">
         <is>
           <t>ඞНо, но в этом смысле ты действительно мертв!</t>
         </is>
@@ -36148,7 +36148,7 @@
 Despite the fact that I've been out of work for a while, I should be able to accommodate your request.</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
+      <c r="H737" s="0" t="inlineStr">
         <is>
           <t>ඞКажется, я услышал что-то интересное.
 Прошу прощения, но мне все же нужно представиться.
@@ -36199,7 +36199,7 @@
 Then, please.</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
+      <c r="H738" s="0" t="inlineStr">
         <is>
           <t>ඞРад был вас видеть, "Мистер Уборщик". 
 Тогда, пожалуйста.</t>
@@ -36242,7 +36242,7 @@
           <t>My pleasure!</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
+      <c r="H739" s="0" t="inlineStr">
         <is>
           <t>ඞС удовольствием!</t>
         </is>
@@ -36284,7 +36284,7 @@
           <t>Horn is going to kill Wende, are you going to...</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
+      <c r="H740" s="0" t="inlineStr">
         <is>
           <t>ඞХорн собирается убить Венде, а ты собираешься это сделать?..</t>
         </is>
@@ -36326,7 +36326,7 @@
           <t>[Stop Horn]</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
+      <c r="H741" s="0" t="inlineStr">
         <is>
           <t>ඞ[Стоп-сигнал]</t>
         </is>
@@ -36368,7 +36368,7 @@
           <t>[Let Horn Do It]</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
+      <c r="H742" s="0" t="inlineStr">
         <is>
           <t>ඞ[Пусть Хорн Сделает Это]</t>
         </is>
@@ -36428,7 +36428,7 @@
 Please calm down and speak up first, Horn.</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
+      <c r="H743" s="0" t="inlineStr">
         <is>
           <t>ඞВенде, я помогу тебе.
 Однако я не верю, что то, что ты сказала, соответствует действительности.
@@ -36473,7 +36473,7 @@
           <t>Um? Are you trying to stop me?</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
+      <c r="H744" s="0" t="inlineStr">
         <is>
           <t>ඞЭм? Ты пытаешься меня остановить?</t>
         </is>
@@ -36521,7 +36521,7 @@
 I just want to have a private communication with you first.</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
+      <c r="H745" s="0" t="inlineStr">
         <is>
           <t>ඞХорн, я не буду тебя останавливать.
 Я просто хочу сначала поговорить с тобой наедине.</t>
@@ -36570,7 +36570,7 @@
 You must now look for opportunities to lead the conversation.</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
+      <c r="H746" s="0" t="inlineStr">
         <is>
           <t>ඞВы чувствуете, что ситуация усложняется и что собеседнику не хватает сострадания.
 Теперь вы должны искать возможности поддержать беседу.</t>
@@ -36613,7 +36613,7 @@
           <t>He lit the candle just now, Wende fell asleep after smelling the candle.</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
+      <c r="H747" s="0" t="inlineStr">
         <is>
           <t>ඞОн только что зажег свечу, и Венде заснула, понюхав ее аромат.</t>
         </is>
@@ -36655,7 +36655,7 @@
           <t>In this way, you won't suffer any pain.</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
+      <c r="H748" s="0" t="inlineStr">
         <is>
           <t>ඞТаким образом, вы не будете испытывать никакой боли.</t>
         </is>
@@ -36697,7 +36697,7 @@
           <t>He stab the dagger into Wende's chest.</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
+      <c r="H749" s="0" t="inlineStr">
         <is>
           <t>ඞОн вонзил кинжал в грудь Венде.</t>
         </is>
@@ -36745,7 +36745,7 @@
 Your body appears to dissolve into the ground.</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
+      <c r="H750" s="0" t="inlineStr">
         <is>
           <t>ඞВы почувствовали странный аромат и почувствовали легкое оживление, как будто выпили большое количество спиртного.
 Ваше тело, кажется, растворяется в земле.</t>
@@ -36800,7 +36800,7 @@
 Good stuff, I took it.</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
+      <c r="H751" s="0" t="inlineStr">
         <is>
           <t>ඞЭто действительно высококачественный продукт.
 Тонсон на самом деле использовал бы его для своей семьи.
@@ -36850,7 +36850,7 @@
 Your body quickly returns to normal.</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
+      <c r="H752" s="0" t="inlineStr">
         <is>
           <t>ඞОн погасил свечу, и аромат постепенно исчез, возможно, из-за того, что он вдыхал его в небольшом количестве.
 Ваше тело быстро приходит в норму.</t>
@@ -36893,7 +36893,7 @@
           <t>What is this and why is it making me lose my strength?</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
+      <c r="H753" s="0" t="inlineStr">
         <is>
           <t>ඞЧто это такое и почему из-за этого я теряю силы?</t>
         </is>
@@ -36953,7 +36953,7 @@
 That kind of wonderful feeling, I also want to try it very much.</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
+      <c r="H754" s="0" t="inlineStr">
         <is>
           <t>ඞЭта свеча называется Merder.
 Именно на этом веществе Тонсон сколотил свое состояние.
@@ -36998,7 +36998,7 @@
           <t>Why are you all right?</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
+      <c r="H755" s="0" t="inlineStr">
         <is>
           <t>ඞПочему с тобой все в порядке?</t>
         </is>
@@ -37040,7 +37040,7 @@
           <t>He pointed to his nose.</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
+      <c r="H756" s="0" t="inlineStr">
         <is>
           <t>ඞОн указал на свой нос.</t>
         </is>
@@ -37082,7 +37082,7 @@
           <t>Maybe it's because I've been in the sewer for so long that I can't smell anything.</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
+      <c r="H757" s="0" t="inlineStr">
         <is>
           <t>ඞМожет быть, это потому, что я так долго пробыл в канализации, что ничего не чувствую.</t>
         </is>
@@ -37124,7 +37124,7 @@
           <t>When you took away the candle, he became interested and began to search for other things.</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
+      <c r="H758" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы забрали свечу, он заинтересовался и начал искать другие вещи.</t>
         </is>
@@ -37178,7 +37178,7 @@
 We can gather more information before making a decision!</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
+      <c r="H759" s="0" t="inlineStr">
         <is>
           <t>ඞТо, что только что сказала Венде, - всего лишь предположение.
 Если бы мы сделали это напрямую, то, возможно, упустили бы шанс на реальное решение проблемы.
@@ -37234,7 +37234,7 @@
 Do you know what it's like to be in prison for life?</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
+      <c r="H760" s="0" t="inlineStr">
         <is>
           <t>ඞЛегко сказать!
 Ты знаешь, каково это - бесконечно сталкиваться с одним и тем же?
@@ -37278,7 +37278,7 @@
           <t>You feel Horn's killing intent and the madness in his eyes, are you going to...</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
+      <c r="H761" s="0" t="inlineStr">
         <is>
           <t>ඞТы чувствуешь намерение Хорна убить и безумие в его глазах, ты собираешься это сделать?..</t>
         </is>
@@ -37320,7 +37320,7 @@
           <t>[Convince Him]</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
+      <c r="H762" s="0" t="inlineStr">
         <is>
           <t>ඞ[Убеди Его]</t>
         </is>
@@ -37362,7 +37362,7 @@
           <t>Attempt to persuade Horn</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
+      <c r="H763" s="0" t="inlineStr">
         <is>
           <t>ඞПопытайтесь убедить Хорна</t>
         </is>
@@ -37404,7 +37404,7 @@
           <t>He's completely impatient with what you're saying.</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
+      <c r="H764" s="0" t="inlineStr">
         <is>
           <t>ඞОн совершенно не в восторге от того, что ты говоришь.</t>
         </is>
@@ -37446,7 +37446,7 @@
           <t>It is useless to talk too much!</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr">
+      <c r="H765" s="0" t="inlineStr">
         <is>
           <t>ඞБесполезно слишком много говорить!</t>
         </is>
@@ -37488,7 +37488,7 @@
           <t>[Stop him with force]</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
+      <c r="H766" s="0" t="inlineStr">
         <is>
           <t>ඞ[Остановите его силой]</t>
         </is>
@@ -37560,7 +37560,7 @@
 Try some changes, it won't be hard for you!</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
+      <c r="H767" s="0" t="inlineStr">
         <is>
           <t>ඞТы сказал, что застрял здесь надолго.
 Но ты только сегодня узнал о существовании Венде.
@@ -37625,7 +37625,7 @@
 As long as it doesn't affect the final result, I will continue to cooperate</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
+      <c r="H768" s="0" t="inlineStr">
         <is>
           <t>ඞХорошо, хорошо.
 Пока это не доставляет особых хлопот.
@@ -37700,7 +37700,7 @@
 Do you guys remember anything nonordinary the day the cycle happened?</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
+      <c r="H769" s="0" t="inlineStr">
         <is>
           <t>ඞЯ хочу, чтобы вы объяснили, что вам известно на данный момент.
 Желательно, чтобы эта информация не была прямым выводом.
@@ -37753,7 +37753,7 @@
 I seem to remember Tonson leaving the mansion dressed as a missionary.</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
+      <c r="H770" s="0" t="inlineStr">
         <is>
           <t>ඞHmmm...it прошло слишком много времени.
 Кажется, я помню, как Тонсон выходил из особняка в костюме миссионера.</t>
@@ -37814,7 +37814,7 @@
 Wait, Ryan seems to have turned into a monster that day.</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
+      <c r="H771" s="0" t="inlineStr">
         <is>
           <t>ඞОн всегда так одевался.
 Я точно помню, что в тот день это был мой старый враг——
@@ -37877,7 +37877,7 @@
 He seemed to tell me to... beware of Tonson.</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
+      <c r="H772" s="0" t="inlineStr">
         <is>
           <t>ඞРайан, кажется, однажды нашел меня.
 Он хотел отослать меня из города, сказав, что оставаться здесь опасно.
@@ -37934,7 +37934,7 @@
 Horn, do you know what way this is?</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
+      <c r="H773" s="0" t="inlineStr">
         <is>
           <t>ඞЗнать о Тонсоне?
 Тонсон сказал мне, что есть выход, когда я приехал сюда...
@@ -38002,7 +38002,7 @@
 Because Ryan guards there day and night.it</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
+      <c r="H774" s="0" t="inlineStr">
         <is>
           <t>ඞЯ последовал за ним~
 Это лекарство превращает людей в идиотов,
@@ -38060,7 +38060,7 @@
 I think we can start by investigating where Ryan used to work.</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
+      <c r="H775" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон, должно быть, владеет секретом этого цикла.
 Поскольку попасть прямо к дому Тонсона невозможно.
@@ -38104,7 +38104,7 @@
           <t>Horn's face lit up when he heard Ryan's name.</t>
         </is>
       </c>
-      <c r="H776" t="inlineStr">
+      <c r="H776" s="0" t="inlineStr">
         <is>
           <t>ඞЛицо Хорна просветлело, когда он услышал имя Райана.</t>
         </is>
@@ -38158,7 +38158,7 @@
 Wende, no matter what, I will come to fulfill your request tomorrow night~</t>
         </is>
       </c>
-      <c r="H777" t="inlineStr">
+      <c r="H777" s="0" t="inlineStr">
         <is>
           <t>ඞЧто ж, тогда завтра я пойду в полицейский участок на Ист-стрит и буду ждать тебя.
 У меня также есть большой подарок для Тонсон, прежде чем я уеду~
@@ -38208,7 +38208,7 @@
 This man still wants to kill you!</t>
         </is>
       </c>
-      <c r="H778" t="inlineStr">
+      <c r="H778" s="0" t="inlineStr">
         <is>
           <t>ඞНеужели этот человек неразумен?
 Этот человек все еще хочет убить тебя!</t>
@@ -38263,7 +38263,7 @@
 I've enjoyed life long enough...</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
+      <c r="H779" s="0" t="inlineStr">
         <is>
           <t>ඞСпасибо……
 Но на самом деле это мое желание.
@@ -38307,7 +38307,7 @@
           <t>The bell rings and it is backtracking time now.</t>
         </is>
       </c>
-      <c r="H780" t="inlineStr">
+      <c r="H780" s="0" t="inlineStr">
         <is>
           <t>ඞРаздается звонок, и начинается обратный отсчет времени.</t>
         </is>
@@ -38355,7 +38355,7 @@
 Can I have one more rude request?</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
+      <c r="H781" s="0" t="inlineStr">
         <is>
           <t>ඞВремя на исходе.
 Можно еще одну грубую просьбу?</t>
@@ -38398,7 +38398,7 @@
           <t>Of course.</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
+      <c r="H782" s="0" t="inlineStr">
         <is>
           <t>ඞКонечно.</t>
         </is>
@@ -38440,7 +38440,7 @@
           <t>Please come closer to me...</t>
         </is>
       </c>
-      <c r="H783" t="inlineStr">
+      <c r="H783" s="0" t="inlineStr">
         <is>
           <t>ඞПожалуйста, подойди ко мне поближе...</t>
         </is>
@@ -38482,7 +38482,7 @@
           <t>Thanks……</t>
         </is>
       </c>
-      <c r="H784" t="inlineStr">
+      <c r="H784" s="0" t="inlineStr">
         <is>
           <t>ඞСпасибо……</t>
         </is>
@@ -38524,7 +38524,7 @@
           <t>She stretched out her hands and hugged you|Like embracing a person who has not returned for a long time| Time backtracking…</t>
         </is>
       </c>
-      <c r="H785" t="inlineStr">
+      <c r="H785" s="0" t="inlineStr">
         <is>
           <t>ඞОна протянула руки и обняла тебя|Как будто обнимаешь человека, который долго не возвращался| Время возвращается вспять…</t>
         </is>
@@ -38572,7 +38572,7 @@
 The sound hammer is driven by the delicate coordination between gears and it strikes different sound springs.</t>
         </is>
       </c>
-      <c r="H786" t="inlineStr">
+      <c r="H786" s="0" t="inlineStr">
         <is>
           <t>ඞБольшой вертикальный колокол из массива дерева выглядит очень благородно.
 Звуковой молоток приводится в действие благодаря тонкой координации между шестеренками и ударяет по различным звуковым пружинам.</t>
@@ -38615,7 +38615,7 @@
           <t>You see that he is searching quickly. It seems that he is looking for a concealed slot.</t>
         </is>
       </c>
-      <c r="H787" t="inlineStr">
+      <c r="H787" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите, что он быстро ищет. Кажется, что он ищет скрытую щель.</t>
         </is>
@@ -38663,7 +38663,7 @@
 I prefer guns to roses.</t>
         </is>
       </c>
-      <c r="H788" t="inlineStr">
+      <c r="H788" s="0" t="inlineStr">
         <is>
           <t>ඞПочему богатые люди хранят такие броские вещи?
 Я предпочитаю оружие розам.</t>
@@ -38712,7 +38712,7 @@
 Unfortunately, I have no chance to get sick here.</t>
         </is>
       </c>
-      <c r="H789" t="inlineStr">
+      <c r="H789" s="0" t="inlineStr">
         <is>
           <t>ඞЭти лекарства немного дорогие.
 К сожалению, у меня здесь нет возможности заболеть.</t>
@@ -38755,7 +38755,7 @@
           <t>You shook her arm and she woke up in a daze.</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
+      <c r="H790" s="0" t="inlineStr">
         <is>
           <t>ඞТы потряс ее за руку, и она очнулась в оцепенении.</t>
         </is>
@@ -38803,7 +38803,7 @@
 Eh, the cleaner isn't here this time?</t>
         </is>
       </c>
-      <c r="H791" t="inlineStr">
+      <c r="H791" s="0" t="inlineStr">
         <is>
           <t>ඞРад снова вас видеть.
 А, на этот раз уборщицы здесь нет?</t>
@@ -38864,7 +38864,7 @@
 Forget about him, I found something.</t>
         </is>
       </c>
-      <c r="H792" t="inlineStr">
+      <c r="H792" s="0" t="inlineStr">
         <is>
           <t>ඞОн привык действовать по-своему.
 Нет смысла проводить расследование вместе.
@@ -38909,7 +38909,7 @@
           <t>You told Wende all the information about the current investigation.</t>
         </is>
       </c>
-      <c r="H793" t="inlineStr">
+      <c r="H793" s="0" t="inlineStr">
         <is>
           <t>ඞВы рассказали Венде всю информацию о текущем расследовании.</t>
         </is>
@@ -38957,7 +38957,7 @@
 But he failed to stop Tonson.</t>
         </is>
       </c>
-      <c r="H794" t="inlineStr">
+      <c r="H794" s="0" t="inlineStr">
         <is>
           <t>ඞРайан раскрыл тайну катастрофы. 
 Но ему не удалось остановить Тонсона.</t>
@@ -39000,7 +39000,7 @@
           <t>I am going to Merry's home to see if I can find anything.</t>
         </is>
       </c>
-      <c r="H795" t="inlineStr">
+      <c r="H795" s="0" t="inlineStr">
         <is>
           <t>ඞЯ иду к Мерри домой, посмотреть, смогу ли я что-нибудь найти.</t>
         </is>
@@ -39042,7 +39042,7 @@
           <t>I am sorry. I can't help you…</t>
         </is>
       </c>
-      <c r="H796" t="inlineStr">
+      <c r="H796" s="0" t="inlineStr">
         <is>
           <t>ඞМне жаль. Я ничем не могу вам помочь…</t>
         </is>
@@ -39084,7 +39084,7 @@
           <t>I found this at Merry's house.</t>
         </is>
       </c>
-      <c r="H797" t="inlineStr">
+      <c r="H797" s="0" t="inlineStr">
         <is>
           <t>ඞЯ нашел это в доме Мерри.</t>
         </is>
@@ -39126,7 +39126,7 @@
           <t>You gave Wende the black egg but she shook her head.</t>
         </is>
       </c>
-      <c r="H798" t="inlineStr">
+      <c r="H798" s="0" t="inlineStr">
         <is>
           <t>ඞТы дал Венде черное яйцо, но она покачала головой.</t>
         </is>
@@ -39180,7 +39180,7 @@
 This is the same place I went to in my dream.</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
+      <c r="H799" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не знаю, что это.
 Но... этот аромат должен быть подходящим.
@@ -39224,7 +39224,7 @@
           <t>The place you live in the dream?</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
+      <c r="H800" s="0" t="inlineStr">
         <is>
           <t>ඞМесто, где ты живешь во сне?</t>
         </is>
@@ -39296,7 +39296,7 @@
 This breath is the same as what I felt in my dream.</t>
         </is>
       </c>
-      <c r="H801" t="inlineStr">
+      <c r="H801" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не знаю почему.
 В моем сне я, кажется, изменил свое тело.
@@ -39343,7 +39343,7 @@
           <t>What exactly does Ryan want us to do?</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
+      <c r="H802" s="0" t="inlineStr">
         <is>
           <t>ඞЧто именно Райан хочет, чтобы мы сделали?</t>
         </is>
@@ -39415,7 +39415,7 @@
 None of us can get rid of the agreed rules…</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
+      <c r="H803" s="0" t="inlineStr">
         <is>
           <t>ඞЯ думаю... возможно, это согласованный пункт.
 Какое соглашение заключил с ними Тонсон?
@@ -39468,7 +39468,7 @@
 So you decided to encourage her courage.</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
+      <c r="H804" s="0" t="inlineStr">
         <is>
           <t>ඞВам кажется, что Венде грустна, и, возможно, у вас тоже возникло это чувство беспомощности.
 И вы решили подбодрить ее смелостью.</t>
@@ -39535,7 +39535,7 @@
 Oath waved with greed is used to be broken!</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
+      <c r="H805" s="0" t="inlineStr">
         <is>
           <t>ඞЯ вижу…
 Венде, весь город связан их контрактом.
@@ -39587,7 +39587,7 @@
 She slowly wiped away her tears as if she had regained her confidence.</t>
         </is>
       </c>
-      <c r="H806" t="inlineStr">
+      <c r="H806" s="0" t="inlineStr">
         <is>
           <t>ඞВенде услышала ваши слова, и у нее невольно потекли слезы.
 Она медленно вытерла слезы, как будто к ней вернулась уверенность.</t>
@@ -39660,7 +39660,7 @@
 Because only through the altar can give them things.</t>
         </is>
       </c>
-      <c r="H807" t="inlineStr">
+      <c r="H807" s="0" t="inlineStr">
         <is>
           <t>ඞИстинное соглашение?
 Я вижу…Ммм...…
@@ -39713,7 +39713,7 @@
 I will meet Horn first to see how to sneak into Tonson's house.</t>
         </is>
       </c>
-      <c r="H808" t="inlineStr">
+      <c r="H808" s="0" t="inlineStr">
         <is>
           <t>ඞЧто ж, понятно.
 Сначала я встречусь с Хорном, чтобы узнать, как проникнуть в дом Тонсона.</t>
@@ -39762,7 +39762,7 @@
 So if you encounter those monsters they should not attack you.</t>
         </is>
       </c>
-      <c r="H809" t="inlineStr">
+      <c r="H809" s="0" t="inlineStr">
         <is>
           <t>ඞАх, да, вот и вы.
 Так что, если вы столкнетесь с этими монстрами, они не должны нападать на вас.</t>
@@ -39805,7 +39805,7 @@
           <t>Wende gave you a signet pendant.</t>
         </is>
       </c>
-      <c r="H810" t="inlineStr">
+      <c r="H810" s="0" t="inlineStr">
         <is>
           <t>ඞВенде подарила тебе кулон с печаткой.</t>
         </is>
@@ -39853,7 +39853,7 @@
 I should have no use for it…</t>
         </is>
       </c>
-      <c r="H811" t="inlineStr">
+      <c r="H811" s="0" t="inlineStr">
         <is>
           <t>ඞЭто то, что они мне дали.
 Я не должен был этим пользоваться…</t>
@@ -39902,7 +39902,7 @@
 If there are any clues, I will come back and tell you as soon as possible.</t>
         </is>
       </c>
-      <c r="H812" t="inlineStr">
+      <c r="H812" s="0" t="inlineStr">
         <is>
           <t>ඞЧто ж, это мне очень помогло.
 Если будут какие-то подсказки, я вернусь и расскажу вам как можно скорее.</t>
@@ -39945,7 +39945,7 @@
           <t>This may useful later.</t>
         </is>
       </c>
-      <c r="H813" t="inlineStr">
+      <c r="H813" s="0" t="inlineStr">
         <is>
           <t>ඞЭто может пригодиться позже.</t>
         </is>
@@ -39987,7 +39987,7 @@
           <t>Take Merder</t>
         </is>
       </c>
-      <c r="H814" t="inlineStr">
+      <c r="H814" s="0" t="inlineStr">
         <is>
           <t>ඞВозьмем Мердера</t>
         </is>
@@ -40029,7 +40029,7 @@
           <t>Too close to Merder will be affected by its scent.</t>
         </is>
       </c>
-      <c r="H815" t="inlineStr">
+      <c r="H815" s="0" t="inlineStr">
         <is>
           <t>ඞЕсли вы будете находиться слишком близко к Мердеру, это повлияет на его запах.</t>
         </is>
@@ -40071,7 +40071,7 @@
           <t>You have to find a way to resist Merder's scent.</t>
         </is>
       </c>
-      <c r="H816" t="inlineStr">
+      <c r="H816" s="0" t="inlineStr">
         <is>
           <t>ඞВы должны найти способ противостоять аромату Мердера.</t>
         </is>
@@ -40131,7 +40131,7 @@
 Then you approached Merder and this time the scent did not invade your consciousness.</t>
         </is>
       </c>
-      <c r="H817" t="inlineStr">
+      <c r="H817" s="0" t="inlineStr">
         <is>
           <t>ඞВы открываете флакон с очищающим средством и даете жидкости политься в нос.
 Сильный и раздражающий запах распространяется по носовой полости, и кажется, что горло перерезано.
@@ -40182,7 +40182,7 @@
 There are twisted tentacles under it, cruel and dangerous.</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
+      <c r="H818" s="0" t="inlineStr">
         <is>
           <t>ඞВы можете видеть, что Венде одет в поношенный халат, который, кажется, связан с его плотью и кровью.
 Под ним видны скрученные щупальца, жестокие и опасные.</t>
@@ -40225,7 +40225,7 @@
           <t>Wende… How did you become like this…</t>
         </is>
       </c>
-      <c r="H819" t="inlineStr">
+      <c r="H819" s="0" t="inlineStr">
         <is>
           <t>ඞВенде… Как ты стала такой…</t>
         </is>
@@ -40289,7 +40289,7 @@
 It's time to accompany them…</t>
         </is>
       </c>
-      <c r="H820" t="inlineStr">
+      <c r="H820" s="0" t="inlineStr">
         <is>
           <t>ඞНе беспокойтесь обо мне.……
 Из-за своего эгоизма я позволил всем попасть в ловушку замкнутого круга.…
@@ -40334,7 +40334,7 @@
           <t>But is this really the result you want?!</t>
         </is>
       </c>
-      <c r="H821" t="inlineStr">
+      <c r="H821" s="0" t="inlineStr">
         <is>
           <t>ඞНо действительно ли это тот результат, которого вы хотите?!</t>
         </is>
@@ -40376,7 +40376,7 @@
           <t>Wende fell silent, and finally said slowly.</t>
         </is>
       </c>
-      <c r="H822" t="inlineStr">
+      <c r="H822" s="0" t="inlineStr">
         <is>
           <t>ඞВенде замолчала и наконец медленно произнесла:</t>
         </is>
@@ -40426,7 +40426,7 @@
 Loneliness… Isn't it also a kind of freedom…?</t>
         </is>
       </c>
-      <c r="H823" t="inlineStr">
+      <c r="H823" s="0" t="inlineStr">
         <is>
           <t>ඞХотя я не могу двигаться, у меня было много свободного времени.
 Одиночество… Разве это тоже не своего рода свобода?..</t>
@@ -40469,7 +40469,7 @@
           <t>Don't you want to wait for your father to come back?</t>
         </is>
       </c>
-      <c r="H824" t="inlineStr">
+      <c r="H824" s="0" t="inlineStr">
         <is>
           <t>ඞРазве ты не хочешь дождаться возвращения своего отца?</t>
         </is>
@@ -40583,7 +40583,7 @@
 But I can still feel happiness after our reunion.</t>
         </is>
       </c>
-      <c r="H825" t="inlineStr">
+      <c r="H825" s="0" t="inlineStr">
         <is>
           <t>ඞЯ... я хочу дождаться, когда он вернется.
 Но в то же время мне страшно…
@@ -40637,7 +40637,7 @@
           <t>This wish can still become true.</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
+      <c r="H826" s="0" t="inlineStr">
         <is>
           <t>ඞЭто желание все еще может сбыться.</t>
         </is>
@@ -40709,7 +40709,7 @@
 In this way, you can all live well in the real world…</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
+      <c r="H827" s="0" t="inlineStr">
         <is>
           <t>ඞНет… это желание никогда не сбудется…
 Я обещал договориться с ними, и вы все вернетесь к реальности.
@@ -40756,7 +40756,7 @@
           <t>Wende has reached an agreement with the mysterious existence; she will sacrifice herself to end the cycle, and you are prepared to…</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
+      <c r="H828" s="0" t="inlineStr">
         <is>
           <t>ඞВенде заключила соглашение с таинственным существом; она пожертвует собой, чтобы положить конец циклу, и вы готовы к этому.…</t>
         </is>
@@ -40798,7 +40798,7 @@
           <t>[Let the Wende leave and respect Wende's sacrifice]</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
+      <c r="H829" s="0" t="inlineStr">
         <is>
           <t>ඞ[Позволь Венде уйти и уважь жертву Венде]</t>
         </is>
@@ -40840,7 +40840,7 @@
           <t>[Kill Wende, grant wind's wish]</t>
         </is>
       </c>
-      <c r="H830" t="inlineStr">
+      <c r="H830" s="0" t="inlineStr">
         <is>
           <t>ඞ[Убей Венде, исполни желание ветра]</t>
         </is>
@@ -40882,7 +40882,7 @@
           <t>The plot will come to the end.</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
+      <c r="H831" s="0" t="inlineStr">
         <is>
           <t>ඞСюжет подойдет к концу.</t>
         </is>
@@ -40936,7 +40936,7 @@
 I will not let anyone forget about you!</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
+      <c r="H832" s="0" t="inlineStr">
         <is>
           <t>ඞПозволь невинным людям принести себя в жертву, а потом спокойно наслаждаться урожаем.
 Я не смогу этого сделать!
@@ -40986,7 +40986,7 @@
 You will die for sure…</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
+      <c r="H833" s="0" t="inlineStr">
         <is>
           <t>ඞНет, это они контролируют это тело сейчас…
 Ты точно умрешь…</t>
@@ -41029,7 +41029,7 @@
           <t>I've been aware of this for a long time.</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
+      <c r="H834" s="0" t="inlineStr">
         <is>
           <t>ඞЯ знал об этом уже давно.</t>
         </is>
@@ -41071,7 +41071,7 @@
           <t>Wende regained human form and fell down.</t>
         </is>
       </c>
-      <c r="H835" t="inlineStr">
+      <c r="H835" s="0" t="inlineStr">
         <is>
           <t>ඞВенде вновь обрела человеческий облик и упала.</t>
         </is>
@@ -41113,7 +41113,7 @@
           <t>How it could be? Reshape phenomenon is still!</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
+      <c r="H836" s="0" t="inlineStr">
         <is>
           <t>ඞКак это могло быть? Феномен изменения формы существует до сих пор!</t>
         </is>
@@ -41155,7 +41155,7 @@
           <t>This backtrack… Is different from the previous one…</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
+      <c r="H837" s="0" t="inlineStr">
         <is>
           <t>ඞЭтот обратный путь… Отличается от предыдущего…</t>
         </is>
@@ -41197,7 +41197,7 @@
           <t>Your body gradually becomes transparent.</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
+      <c r="H838" s="0" t="inlineStr">
         <is>
           <t>ඞВаше тело постепенно становится прозрачным.</t>
         </is>
@@ -41239,7 +41239,7 @@
           <t>The surrounding scene disappears again as the water curtain falls.|You find yourself on a huge blank canvas.|New shapes gradually appear on the canvas.|And you see different changes in the story as if you were watching the story.</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
+      <c r="H839" s="0" t="inlineStr">
         <is>
           <t>ඞОкружающий пейзаж снова исчезает, когда опускается водяная завеса.|Вы оказываетесь на огромном чистом холсте.|На холсте постепенно появляются новые фигуры.|И вы видите различные изменения в сюжете, как будто смотрите его сами.</t>
         </is>
@@ -41281,7 +41281,7 @@
           <t>I understand…</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
+      <c r="H840" s="0" t="inlineStr">
         <is>
           <t>ඞЯ понимаю…</t>
         </is>
@@ -41323,7 +41323,7 @@
           <t>You hesitated several times, but in the end, you chose to grant Wende's wish.</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
+      <c r="H841" s="0" t="inlineStr">
         <is>
           <t>ඞТы несколько раз колебался, но в конце концов решил исполнить желание Венде.</t>
         </is>
@@ -41365,7 +41365,7 @@
           <t>Thank you…</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
+      <c r="H842" s="0" t="inlineStr">
         <is>
           <t>ඞСпасибо…</t>
         </is>
@@ -41407,7 +41407,7 @@
           <t>Wende</t>
         </is>
       </c>
-      <c r="H843" t="inlineStr">
+      <c r="H843" s="0" t="inlineStr">
         <is>
           <t>ඞПоворот</t>
         </is>
@@ -41449,7 +41449,7 @@
           <t>Lair</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
+      <c r="H844" s="0" t="inlineStr">
         <is>
           <t>ඞLair</t>
         </is>
@@ -41491,7 +41491,7 @@
           <t xml:space="preserve"> "Pact of Kadath"</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
+      <c r="H845" s="0" t="inlineStr">
         <is>
           <t>ඞ"Пакт Кадата"</t>
         </is>
@@ -41551,7 +41551,7 @@
 "I hope you will repay me and let me have a healthy body, the authority of the king, and endless wealth."</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
+      <c r="H846" s="0" t="inlineStr">
         <is>
           <t>ඞЭто английская копия свитка. Свиток называется "Пакт Кадата".
 Когда вы перепишете его, то увидите следующий текст договора::
@@ -41608,7 +41608,7 @@
 "Signature: Tonson"</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
+      <c r="H847" s="0" t="inlineStr">
         <is>
           <t>ඞ"Каждый год я буду дарить вам подходящую душу. Я позволю людям здесь думать только о работе и стану лучшим помощником в создании вечной паутины".
 "Пока подарки продолжают поступать, этот контракт будет действовать вечно".
@@ -41652,7 +41652,7 @@
           <t>This is a scroll recording verious evil contracts. You choose…</t>
         </is>
       </c>
-      <c r="H848" t="inlineStr">
+      <c r="H848" s="0" t="inlineStr">
         <is>
           <t>ඞЭто свиток, в котором записаны подлинные злые контракты. Вы выбираете…</t>
         </is>
@@ -41694,7 +41694,7 @@
           <t>[Take the Book]</t>
         </is>
       </c>
-      <c r="H849" t="inlineStr">
+      <c r="H849" s="0" t="inlineStr">
         <is>
           <t>ඞ[Возьми книгу]</t>
         </is>
@@ -41736,7 +41736,7 @@
           <t>[Do nothing]</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
+      <c r="H850" s="0" t="inlineStr">
         <is>
           <t>ඞ[Ничего не делать]</t>
         </is>
@@ -41778,7 +41778,7 @@
           <t>Read the book</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
+      <c r="H851" s="0" t="inlineStr">
         <is>
           <t>ඞПрочтите эту книгу</t>
         </is>
@@ -41826,7 +41826,7 @@
 You begin to sing obstinate incantations and pray to the altar.</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
+      <c r="H852" s="0" t="inlineStr">
         <is>
           <t>ඞВы прочитали заклинание, записанное в книге, и научились пользоваться алтарем.
 Вы начинаете упорно произносить заклинания и молиться алтарю.</t>
@@ -41875,7 +41875,7 @@
 Your eyes become scarlet. After a long time, the balderdash tide gradually fades and your eyes regain their clarity.</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
+      <c r="H853" s="0" t="inlineStr">
         <is>
           <t>ඞУжасная чепуха вырвалась из твоих ушей, и примитивные и безумные эмоции охватили твое сердце.
 Твои глаза становятся алыми. Спустя долгое время прилив чепухи постепенно проходит, и твои глаза вновь обретают ясность.</t>
@@ -41918,7 +41918,7 @@
           <t>You have a short connection with the Elder Gods and you have learned [Evil Eye].</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
+      <c r="H854" s="0" t="inlineStr">
         <is>
           <t>ඞУ вас короткая связь со Старшими Богами, и вы научились [Сглазу].</t>
         </is>
@@ -41960,7 +41960,7 @@
           <t>You have a short connection with the Elder Gods and you have learned [Evil Eye] and [Implant Fear].</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
+      <c r="H855" s="0" t="inlineStr">
         <is>
           <t>ඞУ вас короткая связь со Старшими Богами, и вы научились [Сглазу] и [Внушению страха].</t>
         </is>
@@ -42002,7 +42002,7 @@
           <t>You have a short connection with the Elder Gods and you have learned [Evil Eye], [Implant Fear], and [Dominate].</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
+      <c r="H856" s="0" t="inlineStr">
         <is>
           <t>ඞУ вас короткая связь со Старшими Богами, и вы научились [Сглазу], [Внушать страх] и [Властвовать].</t>
         </is>
@@ -42050,7 +42050,7 @@
 The gray lines spread to you layer by layer and the altar in front of you seems to be alive.</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
+      <c r="H857" s="0" t="inlineStr">
         <is>
           <t>ඞВам кажется, что вы попали в кошмар, и все вокруг становится серым.
 Серые линии проступают перед вами слой за слоем, и алтарь перед вами кажется живым.</t>
@@ -42093,7 +42093,7 @@
           <t>The illusion disappears and you feel cold sweat. You do not know when you have knelt down in front of the altar.</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
+      <c r="H858" s="0" t="inlineStr">
         <is>
           <t>ඞИллюзия исчезает, и вы покрываетесь холодным потом. Вы не осознаете, что опустились на колени перед алтарем.</t>
         </is>
@@ -42135,7 +42135,7 @@
           <t>Offer Black Seeds</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
+      <c r="H859" s="0" t="inlineStr">
         <is>
           <t>ඞПредлагайте Черные семечки</t>
         </is>
@@ -42177,7 +42177,7 @@
           <t>This action will lead to a change in the plot.</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
+      <c r="H860" s="0" t="inlineStr">
         <is>
           <t>ඞЭто действие приведет к изменению сюжета.</t>
         </is>
@@ -42219,7 +42219,7 @@
           <t>Offer the Unknown Egg</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
+      <c r="H861" s="0" t="inlineStr">
         <is>
           <t>ඞПредложите неизвестное яйцо</t>
         </is>
@@ -42261,7 +42261,7 @@
           <t>You reached out to touch the spider web, but there is nothing.</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
+      <c r="H862" s="0" t="inlineStr">
         <is>
           <t>ඞВы протянули руку, чтобы дотронуться до паутины, но там ничего нет.</t>
         </is>
@@ -42303,7 +42303,7 @@
           <t>These spider webs are not physical…</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
+      <c r="H863" s="0" t="inlineStr">
         <is>
           <t>ඞЭти паутины не являются физическими…</t>
         </is>
@@ -42345,7 +42345,7 @@
           <t>Investigate spider web</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
+      <c r="H864" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте паутину</t>
         </is>
@@ -42393,7 +42393,7 @@
 You can see that the black egg is gradually splitting and a little spider breaks its shell and comes out. It easily climbs onto the spider web and looks at you with eight eyes as if waiting for your order.</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
+      <c r="H865" s="0" t="inlineStr">
         <is>
           <t>ඞНеизвестное яйцо, которое вы приносите, вибрирует.
 Вы можете видеть, как черное яйцо постепенно раскалывается, и маленький паучок пробивает скорлупу и вылезает наружу. Он легко взбирается по паутине и смотрит на вас восемью глазами, как будто ждет вашего заказа.</t>
@@ -42436,7 +42436,7 @@
           <t>Just when you were thinking about how to communicate with it, this little guy bit you——</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
+      <c r="H866" s="0" t="inlineStr">
         <is>
           <t>ඞКак раз в тот момент, когда вы думали о том, как с ним связаться, этот маленький человечек укусил вас——</t>
         </is>
@@ -42478,7 +42478,7 @@
           <t>Extreme joy, anger, sorrow, fear, love, and evil all invaded your heart in an instant, and you noticed that all of your meridians appeared to be connected to a giant net, and your consciousness was being absorbed in the giant net.</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
+      <c r="H867" s="0" t="inlineStr">
         <is>
           <t>ඞКрайняя радость, гнев, печаль, страх, любовь и зло - все это охватило ваше сердце в одно мгновение, и вы заметили, что все ваши меридианы, казалось, были соединены с гигантской сетью, и ваше сознание было поглощено этой гигантской сетью.</t>
         </is>
@@ -42520,7 +42520,7 @@
           <t>The darkness in front of you is surging and the dark and fearful breath is spreading toward you. There are countless "hissing" sounds around you. You try your best to break free from the giant net which generate by your emotions but still failed.</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
+      <c r="H868" s="0" t="inlineStr">
         <is>
           <t>ඞТьма перед вами сгущается, и дыхание тьмы и страха распространяется по направлению к вам. Вокруг вас раздается бесчисленное множество "шипящих" звуков. Вы изо всех сил пытаетесь вырваться из гигантской сети, которую создают ваши эмоции, но все равно терпите неудачу.</t>
         </is>
@@ -42580,7 +42580,7 @@
 The face stared at you coldly and said to you…</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
+      <c r="H869" s="0" t="inlineStr">
         <is>
           <t>ඞВ этот момент вы можете отчетливо видеть ужас в гигантской сети.
 Темное тело, наполовину похожее на человека, но с длинными паукообразными конечностями…
@@ -42631,7 +42631,7 @@
 "However, the contract has been complete, I will continue to weave the eternal web and you have to go quickly."</t>
         </is>
       </c>
-      <c r="H870" t="inlineStr">
+      <c r="H870" s="0" t="inlineStr">
         <is>
           <t>ඞ"Ты не тот, кто воспитал моих наследников, поэтому ты не можешь быть одарен".
 "Тем не менее, контракт выполнен, я продолжу плести вечную паутину, и тебе нужно поторопиться".</t>
@@ -42674,7 +42674,7 @@
           <t>They gradually step back and disappear in front of you.</t>
         </is>
       </c>
-      <c r="H871" t="inlineStr">
+      <c r="H871" s="0" t="inlineStr">
         <is>
           <t>ඞОни постепенно отступают назад и исчезают у вас на глазах.</t>
         </is>
@@ -42716,7 +42716,7 @@
           <t>The surrounding spider webs disappeared, your consciousness quickly began to accelerate upwards, your whole body was finally thrown up, and you escaped from the abyss, and were thrown into the sky above the town.</t>
         </is>
       </c>
-      <c r="H872" t="inlineStr">
+      <c r="H872" s="0" t="inlineStr">
         <is>
           <t>ඞОкружающая вас паутина исчезла, ваше сознание быстро начало ускоряться вверх, все ваше тело, наконец, было подброшено вверх, и вы вырвались из пропасти и были выброшены в небо над городом.</t>
         </is>
@@ -42758,7 +42758,7 @@
           <t>As the white mist around town dissipated, in the sky, you saw a blue-haired figure run to West Street in a panic, and he slipped out of town immediately after the white mist dissipated.</t>
         </is>
       </c>
-      <c r="H873" t="inlineStr">
+      <c r="H873" s="0" t="inlineStr">
         <is>
           <t>ඞКогда белый туман вокруг города рассеялся, в небе вы увидели синеволосую фигуру, в панике выбежавшую на Западную улицу, и он выскользнул из города сразу же после того, как белый туман рассеялся.</t>
         </is>
@@ -42800,7 +42800,7 @@
           <t>A sad song came on just as you fell to the ground in fear, and time reversed.</t>
         </is>
       </c>
-      <c r="H874" t="inlineStr">
+      <c r="H874" s="0" t="inlineStr">
         <is>
           <t>ඞЗазвучала грустная песня как раз в тот момент, когда ты в страхе упал на землю, и время повернулось вспять.</t>
         </is>
@@ -42842,7 +42842,7 @@
           <t>You muster your courage and jump into the abyss. You fell down for several seconds without actually hitting the ground, but your fall stopped.</t>
         </is>
       </c>
-      <c r="H875" t="inlineStr">
+      <c r="H875" s="0" t="inlineStr">
         <is>
           <t>ඞВы набираетесь храбрости и прыгаете в пропасть. Вы падали вниз несколько секунд, не достигая земли, но затем ваше падение прекратилось.</t>
         </is>
@@ -42890,7 +42890,7 @@
 And you noticed that there a countless corpses under the web and one of them just looks like you and the things stuck with the web are just your consciousness.</t>
         </is>
       </c>
-      <c r="H876" t="inlineStr">
+      <c r="H876" s="0" t="inlineStr">
         <is>
           <t>ඞВы, кажется, за что-то цепляетесь, но до сих пор обнаруживаете, что все, что вас окружает, - это гигантская паутина! Весь город построен на огромной паутине!
 И вы заметили, что под паутиной находится бесчисленное множество трупов, и один из них просто похож на вас, а то, что застряло в паутине, - это всего лишь ваше сознание.</t>
@@ -42933,7 +42933,7 @@
           <t>The darkness in front of you is surging and the dark and fearful breath is spreading toward you. There are countless "hissing" sounds around you. You try your best to break free from the giant net but still failed.</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
+      <c r="H877" s="0" t="inlineStr">
         <is>
           <t>ඞТьма перед вами сгущается, и дыхание тьмы и страха распространяется по направлению к вам. Вокруг вас раздается бесчисленное количество шипящих звуков. Вы изо всех сил пытаетесь вырваться из гигантской сети, но у вас ничего не получается.</t>
         </is>
@@ -42993,7 +42993,7 @@
 The face stared at you coldly and said to you…</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
+      <c r="H878" s="0" t="inlineStr">
         <is>
           <t>ඞВ этот момент вы можете отчетливо видеть ужас в гигантской сети.
 Темное тело, наполовину похожее на человека, но с длинными паукообразными конечностями…
@@ -43038,7 +43038,7 @@
           <t>"You are not the one who disobeys my agreement. I will not commit your sin. You should go quickly."</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
+      <c r="H879" s="0" t="inlineStr">
         <is>
           <t>ඞ- Не ты нарушаешь мое соглашение. Я не совершу твоего греха. Тебе следует поторопиться.</t>
         </is>
@@ -43080,7 +43080,7 @@
           <t>They gradually step back and disappear in front of you, and then the light appears before your eyes gradually…</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
+      <c r="H880" s="0" t="inlineStr">
         <is>
           <t>ඞОни постепенно отступают назад и исчезают у вас на глазах, а затем перед вашими глазами постепенно появляется свет…</t>
         </is>
@@ -43122,7 +43122,7 @@
           <t>The abyss in front of you cannot detect its bottom, it seems to go straight to the center of the earth.</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
+      <c r="H881" s="0" t="inlineStr">
         <is>
           <t>ඞУ пропасти перед вами не видно дна, кажется, что она тянется прямо к центру земли.</t>
         </is>
@@ -43170,7 +43170,7 @@
 Since death can be traced back, I might try it.</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
+      <c r="H882" s="0" t="inlineStr">
         <is>
           <t>ඞВнизу нет белого тумана…
 Поскольку смерть можно проследить, я мог бы попробовать.</t>
@@ -43213,7 +43213,7 @@
           <t>The bottomless abyss in front of you is not covered by a white mist. You are going to…</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
+      <c r="H883" s="0" t="inlineStr">
         <is>
           <t>ඞБездонная пропасть перед вами не покрыта белым туманом. Вы собираетесь…</t>
         </is>
@@ -43255,7 +43255,7 @@
           <t>[Jump into Abyss]</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
+      <c r="H884" s="0" t="inlineStr">
         <is>
           <t>ඞ[Прыжок в пропасть]</t>
         </is>
@@ -43297,7 +43297,7 @@
           <t>[Think Again]</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
+      <c r="H885" s="0" t="inlineStr">
         <is>
           <t>ඞ[Подумай еще раз]</t>
         </is>
@@ -43339,7 +43339,7 @@
           <t>Investigate the Abyss</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
+      <c r="H886" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте бездну</t>
         </is>
@@ -43381,7 +43381,7 @@
           <t>Perhaps it was a stroke of luck that you fell into an underground tunnel | Landed on a massive spider web and awoke unharmed.</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
+      <c r="H887" s="0" t="inlineStr">
         <is>
           <t>ඞВозможно, вам просто повезло, что вы упали в подземный туннель | приземлились на огромную паутину и проснулись целыми и невредимыми.</t>
         </is>
@@ -43423,7 +43423,7 @@
           <t>This is a huge nest under it!</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
+      <c r="H888" s="0" t="inlineStr">
         <is>
           <t>ඞЭто огромное гнездо под ним!</t>
         </is>
@@ -43471,7 +43471,7 @@
 Instead, they quickly climbed to the edge of the abyss and left.</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
+      <c r="H889" s="0" t="inlineStr">
         <is>
           <t>ඞОкружающие паукообразные монстры почувствовали ваше присутствие и не стали нападать на вас.
 Вместо этого они быстро вскарабкались на край пропасти и ушли.</t>
@@ -43514,7 +43514,7 @@
           <t>You were taken by Tonson to a huge underground nest.</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
+      <c r="H890" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон привел вас в огромное подземное гнездо.</t>
         </is>
@@ -43562,7 +43562,7 @@
 Horn on the other side is in the same situation as you but he is being tied up. It seems that Tonson is taking good care of him.</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
+      <c r="H891" s="0" t="inlineStr">
         <is>
           <t>ඞВы чувствуете, что ваше тело не может двигаться. Хотя вы можете видеть, слышать и осязать все вокруг, вы не можете пошевелиться.
 Хорн с другой стороны находится в такой же ситуации, как и вы, но он связан. Кажется, что Тонсон хорошо о нем заботится.</t>
@@ -43605,7 +43605,7 @@
           <t>And to your surprise, Wende and Merry were also brought here.</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
+      <c r="H892" s="0" t="inlineStr">
         <is>
           <t>ඞИ, к вашему удивлению, Венде и Мерри тоже были доставлены сюда.</t>
         </is>
@@ -43647,7 +43647,7 @@
           <t>And to your surprise, Wende was also brought here.</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
+      <c r="H893" s="0" t="inlineStr">
         <is>
           <t>ඞИ, к вашему удивлению, Венде тоже привезли сюда.</t>
         </is>
@@ -43701,7 +43701,7 @@
 He turned around and said to you.</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
+      <c r="H894" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите, как Тонсон молится статуе.
 Он произносит непонятное заклинание. Через некоторое время его молитва закончилась.
@@ -43763,7 +43763,7 @@
 But I promise you will understand everything I do when you know the truth!</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
+      <c r="H895" s="0" t="inlineStr">
         <is>
           <t>ඞНаконец-то у меня появилась возможность поговорить с вами.
 Чтобы избежать несчастных случаев, я ограничил ваше передвижение.
@@ -43850,7 +43850,7 @@
 If you really want to change the rules here, you need to exchange more valuable things.</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
+      <c r="H896" s="0" t="inlineStr">
         <is>
           <t>ඞРайан сделал свой выбор.
 Он был человеком правил.
@@ -43929,7 +43929,7 @@
 Everything would have been back on track!</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
+      <c r="H897" s="0" t="inlineStr">
         <is>
           <t>ඞЯ восхищаюсь действиями Райана.
 Он отдал все свои эмоции Атлаху и хотел расторгнуть последний контракт.
@@ -43988,7 +43988,7 @@
 You will let everyone bury with you!</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
+      <c r="H898" s="0" t="inlineStr">
         <is>
           <t>ඞНо ты взорвался здесь!
 Твое поведение задевает всех нас!
@@ -44032,7 +44032,7 @@
           <t>Tonson is too angry to speak, but Horn is indifferent.</t>
         </is>
       </c>
-      <c r="H899" t="inlineStr">
+      <c r="H899" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон слишком зол, чтобы говорить, но Хорну все равно.</t>
         </is>
@@ -44092,7 +44092,7 @@
 I am really disappointed!</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
+      <c r="H900" s="0" t="inlineStr">
         <is>
           <t>ඞК счастью, наступил черед, давший мне шанс успокоить их гнев.
 Мелле обладает всеми качествами, присущими их радости. Я думал, что нашел выход.
@@ -44155,7 +44155,7 @@
 If you promise me to let the cycle continue, I will never let you down.</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
+      <c r="H901" s="0" t="inlineStr">
         <is>
           <t>ඞВенде, я действительно думаю, что ты согласишься со мной.
 Мы должны различать эффективность и вред, когда что-то делаем.
@@ -44200,7 +44200,7 @@
           <t>Wende gasped as if to say something. Tonson flicked his fingers and released the control so Wende could speak.</t>
         </is>
       </c>
-      <c r="H902" t="inlineStr">
+      <c r="H902" s="0" t="inlineStr">
         <is>
           <t>ඞВенде ахнула, словно собираясь что-то сказать. Тонсон щелкнул пальцами и отпустил пульт, чтобы Венде могла говорить.</t>
         </is>
@@ -44254,7 +44254,7 @@
 Don't you think it is a cruel act toward others?</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
+      <c r="H903" s="0" t="inlineStr">
         <is>
           <t>ඞМистер Тонсон… действительно…
 с давних пор мне нравится манипулировать другими людьми…
@@ -44346,7 +44346,7 @@
 And I just let them share the same heart, the same home, the same glorious destiny.</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
+      <c r="H904" s="0" t="inlineStr">
         <is>
           <t>ඞЭто ваше предубеждение.
 Я правлю здесь с наиболее эффективной точки зрения.
@@ -44396,7 +44396,7 @@
           <t>Oh, Mr. Tonson, I think I figure out one thing.</t>
         </is>
       </c>
-      <c r="H905" t="inlineStr">
+      <c r="H905" s="0" t="inlineStr">
         <is>
           <t>ඞО, мистер Тонсон, мне кажется, я кое-что понял.</t>
         </is>
@@ -44438,7 +44438,7 @@
           <t>Huh?!</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
+      <c r="H906" s="0" t="inlineStr">
         <is>
           <t>ඞА?!</t>
         </is>
@@ -44498,7 +44498,7 @@
 You have completely lost yourself and your bigotry has replaced the heart that used to be human.</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
+      <c r="H907" s="0" t="inlineStr">
         <is>
           <t>ඞМеня всегда удивляло, почему мистер Тонсон упорствует в своих зацикленных мечтах.
 Пока вы не сказали, что у нас общее сердце, я понимал.
@@ -44579,7 +44579,7 @@
 We all share this laudable freedom.</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
+      <c r="H908" s="0" t="inlineStr">
         <is>
           <t>ඞВенде, почему ты смеешься надо мной сейчас?
 Чтобы вернуть семью, которая у тебя когда-то была, ты должна сделать так, чтобы это место никогда не менялось.
@@ -44651,7 +44651,7 @@
 But that is all we need to embrace tomorrow.</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
+      <c r="H909" s="0" t="inlineStr">
         <is>
           <t>ඞКакой смысл в долгой бессмысленной жизни?
 Просто потому, что я знаю, что у меня мало времени, я особенно дорожу временем, проведенным со мной моим отцом.
@@ -44727,7 +44727,7 @@
 Since you are unwilling to maintain the cycle, I can only take you all to another eternal world with no choice.!</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
+      <c r="H910" s="0" t="inlineStr">
         <is>
           <t>ඞВенде, ты уже не маленькая девочка!
 Я не позволю тебе изменить здешние правила!
@@ -44804,7 +44804,7 @@
 Please come and have a try this time. It will relieve your pressure.</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
+      <c r="H911" s="0" t="inlineStr">
         <is>
           <t>ඞРайан, это действительно ты!
 Как ты мог стать таким?…
@@ -44857,7 +44857,7 @@
 Maybe she thinks that what is standing in front of her is just a person who has been overwhelmed by pressure and becomes haggard.</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
+      <c r="H912" s="0" t="inlineStr">
         <is>
           <t>ඞМерри, похоже, не понимает, насколько ужасен монстр, стоящий перед ней.
 Возможно, она думает, что стоящий перед ней - это просто человек, который был подавлен давлением и стал изможденным.</t>
@@ -44900,7 +44900,7 @@
           <t>Event</t>
         </is>
       </c>
-      <c r="H913" t="inlineStr">
+      <c r="H913" s="0" t="inlineStr">
         <is>
           <t>ඞСобытие</t>
         </is>
@@ -44942,7 +44942,7 @@
           <t>The monster holds his head and the scarlet breath in his eyes begins to fade.</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
+      <c r="H914" s="0" t="inlineStr">
         <is>
           <t>ඞЧудовище схватилось за голову, и алое дыхание в его глазах начало исчезать.</t>
         </is>
@@ -44996,7 +44996,7 @@
 "Seems like… I killed a lot of people…"</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
+      <c r="H915" s="0" t="inlineStr">
         <is>
           <t>ඞ"Мерри... это ты...?"
 "Как... я стал таким?.."
@@ -45064,7 +45064,7 @@
 You have to come here too.</t>
         </is>
       </c>
-      <c r="H916" t="inlineStr">
+      <c r="H916" s="0" t="inlineStr">
         <is>
           <t>ඞВсе будут в порядке.
 Они должны быть заняты своими делами.
@@ -45110,7 +45110,7 @@
           <t>At this time, Tonson sensed something was wrong.</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
+      <c r="H917" s="0" t="inlineStr">
         <is>
           <t>ඞВ это время Тонсон почувствовал, что что-то не так.</t>
         </is>
@@ -45152,7 +45152,7 @@
           <t>That's not good, stop him!</t>
         </is>
       </c>
-      <c r="H918" t="inlineStr">
+      <c r="H918" s="0" t="inlineStr">
         <is>
           <t>ඞЭто нехорошо, остановите его!</t>
         </is>
@@ -45194,7 +45194,7 @@
           <t>Merry…hide behind me…</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
+      <c r="H919" s="0" t="inlineStr">
         <is>
           <t>ඞМерри... спрячься за моей спиной.…</t>
         </is>
@@ -45236,7 +45236,7 @@
           <t>Town! Send!</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
+      <c r="H920" s="0" t="inlineStr">
         <is>
           <t>ඞГород! Отправить!</t>
         </is>
@@ -45278,7 +45278,7 @@
           <t>Ryan flapped the monster around and the candles on the altar went out. You now regain control of your body.</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
+      <c r="H921" s="0" t="inlineStr">
         <is>
           <t>ඞРайан развернул монстра, и свечи на алтаре погасли. Теперь вы восстанавливаете контроль над своим телом.</t>
         </is>
@@ -45320,7 +45320,7 @@
           <t>Hey man! Help me untie the rope!</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
+      <c r="H922" s="0" t="inlineStr">
         <is>
           <t>ඞЭй, парень! Помоги мне развязать веревку!</t>
         </is>
@@ -45362,7 +45362,7 @@
           <t>You quickly untie Horn's rope.</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
+      <c r="H923" s="0" t="inlineStr">
         <is>
           <t>ඞТы быстро развязываешь веревку Хорна.</t>
         </is>
@@ -45404,7 +45404,7 @@
           <t>You cannout stop me!</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
+      <c r="H924" s="0" t="inlineStr">
         <is>
           <t>ඞТы меня не остановишь!</t>
         </is>
@@ -45446,7 +45446,7 @@
           <t>Tonson was defeated by you and you prevented Horn from continuing his violence.</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
+      <c r="H925" s="0" t="inlineStr">
         <is>
           <t>ඞТонсон был побежден вами, и вы помешали Хорну продолжить его насилие.</t>
         </is>
@@ -45488,7 +45488,7 @@
           <t>You approach Tonson and prepare to ask Townsend how to remove the dream restrictions. But you only see him muttering, cutting his arm skin and throwing the blood to the statue, and then kneeling and praying with his hand raised.</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
+      <c r="H926" s="0" t="inlineStr">
         <is>
           <t>ඞВы подходите к Тонсону и готовитесь спросить Таунсенда, как снять ограничения на сновидения. Но вы видите только, как он бормочет, надрезает кожу на руке и брызгает кровью на статую, а затем опускается на колени и молится с поднятой рукой.</t>
         </is>
@@ -45530,7 +45530,7 @@
           <t>"Great Atlach! I offer everything I have to you, in hopes of becoming your faithful servant."</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
+      <c r="H927" s="0" t="inlineStr">
         <is>
           <t>ඞ"Великий Атлах! Я предлагаю тебе все, что у меня есть, в надежде стать твоим верным слугой".</t>
         </is>
@@ -45572,7 +45572,7 @@
           <t>You see his eyes turn scarlet, like a fierce beast. He did not attack you but jumped into the abyss instead. And you heard his crazy hiss.</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
+      <c r="H928" s="0" t="inlineStr">
         <is>
           <t>ඞТы видишь, как его глаза становятся алыми, как у свирепого зверя. Он не напал на тебя, а вместо этого прыгнул в пропасть. И ты слышишь его безумное шипение.</t>
         </is>
@@ -45620,7 +45620,7 @@
 "I will watch you fall into the eternal dream net!"</t>
         </is>
       </c>
-      <c r="H929" t="inlineStr">
+      <c r="H929" s="0" t="inlineStr">
         <is>
           <t>ඞ"Тебе никогда не сбежать отсюда!"
 "Я буду смотреть, как ты попадаешь в сеть вечного сна!"</t>
@@ -45663,7 +45663,7 @@
           <t>You can see the spider web stretched out from the abyss and connected to the spider statue emitting a dark light. And the ground starts to shake. You can feel slight weightlessness and the whole ground is accelerating to sink.</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
+      <c r="H930" s="0" t="inlineStr">
         <is>
           <t>ඞВы можете видеть паутину, протянутую из бездны и соединенную со статуей паука, излучающую темный свет. И земля начинает дрожать. Вы можете почувствовать легкую невесомость, и вся земля ускоряется, чтобы погрузиться.</t>
         </is>
@@ -45705,7 +45705,7 @@
           <t>Cliff</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
+      <c r="H931" s="0" t="inlineStr">
         <is>
           <t>ඞОбрыв</t>
         </is>
@@ -45747,7 +45747,7 @@
           <t>Musician</t>
         </is>
       </c>
-      <c r="H932" t="inlineStr">
+      <c r="H932" s="0" t="inlineStr">
         <is>
           <t>ඞМузыкант</t>
         </is>
@@ -45801,7 +45801,7 @@
 Forgive me…</t>
         </is>
       </c>
-      <c r="H933" t="inlineStr">
+      <c r="H933" s="0" t="inlineStr">
         <is>
           <t>ඞНэнси…
 Пожалуйста, прости меня…
@@ -45845,7 +45845,7 @@
           <t>You told him the information behind the portrait frame</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
+      <c r="H934" s="0" t="inlineStr">
         <is>
           <t>ඞВы сообщили ему информацию, спрятанную за рамкой портрета</t>
         </is>
@@ -45887,7 +45887,7 @@
           <t>So, that's the reason…</t>
         </is>
       </c>
-      <c r="H935" t="inlineStr">
+      <c r="H935" s="0" t="inlineStr">
         <is>
           <t>ඞТак вот в чем причина…</t>
         </is>
@@ -45965,7 +45965,7 @@
 It is all my fault…</t>
         </is>
       </c>
-      <c r="H936" t="inlineStr">
+      <c r="H936" s="0" t="inlineStr">
         <is>
           <t>ඞЯ очень люблю Нэнси…
 Мне всегда хочется дарить ей самую красивую музыку.
@@ -46013,7 +46013,7 @@
           <t>Did you remember these music scores?</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
+      <c r="H937" s="0" t="inlineStr">
         <is>
           <t>ඞВы помните эти музыкальные партитуры?</t>
         </is>
@@ -46061,7 +46061,7 @@
 I will never forget the emotion that the opera brought to me.</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
+      <c r="H938" s="0" t="inlineStr">
         <is>
           <t>ඞОн был создан после того, как мы с Нэнси сходили в оперу.
 Я никогда не забуду те эмоции, которые вызвала у меня опера.</t>
@@ -46104,7 +46104,7 @@
           <t>He took out his harmonica and began to play.</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
+      <c r="H939" s="0" t="inlineStr">
         <is>
           <t>ඞОн достал губную гармошку и заиграл.</t>
         </is>
@@ -46146,7 +46146,7 @@
           <t>Take note of the melody</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
+      <c r="H940" s="0" t="inlineStr">
         <is>
           <t>ඞОбратите внимание на мелодию</t>
         </is>
@@ -46188,7 +46188,7 @@
           <t>You have recorded this moving music and you can play it with instruments.</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
+      <c r="H941" s="0" t="inlineStr">
         <is>
           <t>ඞВы записали эту трогательную музыку и можете воспроизводить ее на музыкальных инструментах.</t>
         </is>
@@ -46230,7 +46230,7 @@
           <t>This music moves you but it is improvised and you have not mastered it.</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
+      <c r="H942" s="0" t="inlineStr">
         <is>
           <t>ඞЭта музыка трогает вас, но она импровизирована, и вы еще не овладели ею в совершенстве.</t>
         </is>
@@ -46278,7 +46278,7 @@
 I have already done it at the very beginning…</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
+      <c r="H943" s="0" t="inlineStr">
         <is>
           <t>ඞТак… идеальная мелодия…
 Я уже делал это в самом начале…</t>
@@ -46321,7 +46321,7 @@
           <t>Musical Home</t>
         </is>
       </c>
-      <c r="H944" t="inlineStr">
+      <c r="H944" s="0" t="inlineStr">
         <is>
           <t>ඞМузыкальный дом</t>
         </is>
@@ -46369,7 +46369,7 @@
 When you touch the keys, you find some letters under your feet.</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
+      <c r="H945" s="0" t="inlineStr">
         <is>
           <t>ඞЭто высококачественное пианино из дерева Бродвуд с прямыми струнами.
 Когда вы прикасаетесь к клавишам, вы обнаруживаете какие-то буквы у себя под ногами.</t>
@@ -46412,7 +46412,7 @@
           <t>Returned Letter</t>
         </is>
       </c>
-      <c r="H946" t="inlineStr">
+      <c r="H946" s="0" t="inlineStr">
         <is>
           <t>ඞВозвращенное письмо</t>
         </is>
@@ -46470,7 +46470,7 @@
 It is the love for Nancy between the lines.</t>
         </is>
       </c>
-      <c r="H947" t="inlineStr">
+      <c r="H947" s="0" t="inlineStr">
         <is>
           <t>ඞВы нашли много возвращенных писем. Отправителя зовут Джо, а получательницу - Нэнси.
 С 1919 по 1920 год в толстой пачке лежат десятки писем.
@@ -46521,7 +46521,7 @@
 "My dear Nancy, why don't you look at me? You are just like the star in the sky, neither friendly nor aloof."</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
+      <c r="H948" s="0" t="inlineStr">
         <is>
           <t>ඞПисьмо:
 "Моя дорогая Нэнси, почему ты не смотришь на меня? Ты прямо как звезда на небе, ни дружелюбная, ни отчужденная".</t>
@@ -46570,7 +46570,7 @@
 "My dear Nancy, since I saw you, my life has been full of meaning and just like the starry sky where you are the shining stars. Without you, my sky will be dark."</t>
         </is>
       </c>
-      <c r="H949" t="inlineStr">
+      <c r="H949" s="0" t="inlineStr">
         <is>
           <t>ඞПисьмо:
 "Моя дорогая Нэнси, с тех пор как я увидел тебя, моя жизнь наполнилась смыслом и стала похожа на звездное небо, где ты - сияющие звезды. Без тебя мое небо будет темным".</t>
@@ -46625,7 +46625,7 @@
 "Nancy, I will wait for you to come back and I will show you the starry sky again…"</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
+      <c r="H950" s="0" t="inlineStr">
         <is>
           <t>ඞПисьмо:
 "Нэнси, ты, должно быть, заболела".
@@ -46669,7 +46669,7 @@
           <t>Investigate the Piano</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
+      <c r="H951" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте пианино</t>
         </is>
@@ -46723,7 +46723,7 @@
 You have searched for a long time and finally found a piece of music that can be seen but only half of it has been written.</t>
         </is>
       </c>
-      <c r="H952" t="inlineStr">
+      <c r="H952" s="0" t="inlineStr">
         <is>
           <t>ඞТам полно музыкальных партитур.
 Некоторые из них были порваны, а некоторые ноты испачканы кровью.
@@ -46773,7 +46773,7 @@
 Some of them were torn and some of the notes were stained with blood which was unreadable.</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
+      <c r="H953" s="0" t="inlineStr">
         <is>
           <t>ඞВ нем полно музыкальных партитур.
 Некоторые из них были порваны, а на некоторых нотах были пятна крови, которые невозможно было прочитать.</t>
@@ -46816,7 +46816,7 @@
           <t>Investigate the manuscript pile</t>
         </is>
       </c>
-      <c r="H954" t="inlineStr">
+      <c r="H954" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте стопку рукописей</t>
         </is>
@@ -46858,7 +46858,7 @@
           <t>Hidden Note</t>
         </is>
       </c>
-      <c r="H955" t="inlineStr">
+      <c r="H955" s="0" t="inlineStr">
         <is>
           <t>ඞСкрытая записка</t>
         </is>
@@ -46906,7 +46906,7 @@
 You find that the edge of the portrait is not that smooth. When you press the edge, a piece of note falls from behind the portrait.</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
+      <c r="H956" s="0" t="inlineStr">
         <is>
           <t>ඞНа стене висит портрет, на котором красивая женщина танцует на цветочном поле.
 Вы обнаруживаете, что края портрета не совсем ровные. Когда вы нажимаете на край, из-за портрета выпадает листок бумаги.</t>
@@ -46973,7 +46973,7 @@
 "How long have you not danced with me?"</t>
         </is>
       </c>
-      <c r="H957" t="inlineStr">
+      <c r="H957" s="0" t="inlineStr">
         <is>
           <t>ඞ"Я нравлюсь тебе только в мыслях, но не на самом деле".
 "Мне не нужно, чтобы ты сочинял для меня красивую музыку".
@@ -47025,7 +47025,7 @@
 You look at the portrait carefully and you found that although the composition of the painting is simple, great efforts have been made in color.</t>
         </is>
       </c>
-      <c r="H958" t="inlineStr">
+      <c r="H958" s="0" t="inlineStr">
         <is>
           <t>ඞНа стене висит портрет, на котором прекрасная женщина танцует на цветочном поле.
 Вы внимательно смотрите на портрет и обнаруживаете, что, хотя композиция картины проста, в цветовой гамме были приложены большие усилия.</t>
@@ -47068,7 +47068,7 @@
           <t>View portrait</t>
         </is>
       </c>
-      <c r="H959" t="inlineStr">
+      <c r="H959" s="0" t="inlineStr">
         <is>
           <t>ඞПосмотреть на портрет</t>
         </is>
@@ -47110,7 +47110,7 @@
           <t>Back here again…</t>
         </is>
       </c>
-      <c r="H960" t="inlineStr">
+      <c r="H960" s="0" t="inlineStr">
         <is>
           <t>ඞВозвращаюсь сюда снова…</t>
         </is>
@@ -47158,7 +47158,7 @@
 ...There is a picture inside the nodte, with the words "Happy Birthday" written on it and a human face is drawn in the picture.</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
+      <c r="H961" s="0" t="inlineStr">
         <is>
           <t>ඞКак только вы собрались закрыть гроссбух, вы увидели картинку в блокноте.
 ...Внутри блокнота есть картинка, на которой написано "С днем рождения", а на картинке нарисовано человеческое лицо.</t>
@@ -47201,7 +47201,7 @@
           <t>[Ready to shake him up]</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
+      <c r="H962" s="0" t="inlineStr">
         <is>
           <t>ඞ(Готовая встряхнуть его)</t>
         </is>
@@ -47243,7 +47243,7 @@
           <t>Inside the fire were some newspaper ashes and some charred wood.</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
+      <c r="H963" s="0" t="inlineStr">
         <is>
           <t>ඞВ камине было немного пепла от газет и немного обугленного дерева.</t>
         </is>
@@ -47285,7 +47285,7 @@
           <t>Investigate the fire pit</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
+      <c r="H964" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте яму для костра</t>
         </is>
@@ -47327,7 +47327,7 @@
           <t>Notice</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
+      <c r="H965" s="0" t="inlineStr">
         <is>
           <t>ඞУведомление</t>
         </is>
@@ -47393,7 +47393,7 @@
 In order to prevent the scope of the conflict from expanding, the government agreed to the application.</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
+      <c r="H966" s="0" t="inlineStr">
         <is>
           <t>ඞВ нем говорится, почему была построена стена.
 Перечислены различные насильственные преступления, совершенные жителями города за последние 30 лет.
@@ -47439,7 +47439,7 @@
           <t>Investigate the candle</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
+      <c r="H967" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте свечу</t>
         </is>
@@ -47493,7 +47493,7 @@
 I will have no more mercy for you anymore.</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
+      <c r="H968" s="0" t="inlineStr">
         <is>
           <t>ඞГм...
 Что ж, вы все восстаете против меня!
@@ -47537,7 +47537,7 @@
           <t>A spider monster appeared on the roof, carried Tonson away and fled the hotel</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
+      <c r="H969" s="0" t="inlineStr">
         <is>
           <t>ඞНа крыше появился монстр-паук, унес Тонсона и сбежал из отеля</t>
         </is>
@@ -47579,7 +47579,7 @@
           <t>Feels like Tonson is going to take a huge revenge...</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
+      <c r="H970" s="0" t="inlineStr">
         <is>
           <t>ඞТакое чувство, что Тонсон собирается жестоко отомстить...</t>
         </is>
@@ -47621,7 +47621,7 @@
           <t>Police Station</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
+      <c r="H971" s="0" t="inlineStr">
         <is>
           <t>ඞполицейский участок</t>
         </is>
@@ -47663,7 +47663,7 @@
           <t>Read the Statement</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
+      <c r="H972" s="0" t="inlineStr">
         <is>
           <t>ඞПрочтите заявление</t>
         </is>
@@ -47725,7 +47725,7 @@
 These are the tax reports of Townsend in the past few years. The town's income is not high, and the big taxpayer in the town is Tonson himself. There are also many factories and shops under his own name and he enjoys a series of preferential tax policies.</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
+      <c r="H973" s="0" t="inlineStr">
         <is>
           <t>ඞСтопка документов была аккуратно уложена в шкаф, а сам шкаф был заперт на замок с изысканными узорами.
 По сравнению с другими шкафами, этот шкаф слишком роскошный. На передней панели шкафа имеется деревянная табличка с надписью "Налог Таунсенда".
@@ -47770,7 +47770,7 @@
           <t>Never take it lightly in order to survive.</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
+      <c r="H974" s="0" t="inlineStr">
         <is>
           <t>ඞНикогда не относись к этому легкомысленно, чтобы выжить.</t>
         </is>
@@ -47812,7 +47812,7 @@
           <t>Clean up spider webs</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
+      <c r="H975" s="0" t="inlineStr">
         <is>
           <t>ඞУбирайте паутину</t>
         </is>
@@ -47854,7 +47854,7 @@
           <t>True ending name to be added</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
+      <c r="H976" s="0" t="inlineStr">
         <is>
           <t>ඞИстинное конечное имя, которое будет добавлено</t>
         </is>
@@ -47896,7 +47896,7 @@
           <t>The true ending needs to be added.</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
+      <c r="H977" s="0" t="inlineStr">
         <is>
           <t>ඞНужно добавить настоящую концовку.</t>
         </is>
@@ -47944,7 +47944,7 @@
 I am not a worthless person…</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
+      <c r="H978" s="0" t="inlineStr">
         <is>
           <t>ඞЯ нашел работу…
 Я не такой уж никчемный человек…</t>
@@ -47987,7 +47987,7 @@
           <t>Purchase rope net</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
+      <c r="H979" s="0" t="inlineStr">
         <is>
           <t>ඞПриобретите веревочную сетку</t>
         </is>
@@ -48029,7 +48029,7 @@
           <t>It will cost 10 bucks.</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
+      <c r="H980" s="0" t="inlineStr">
         <is>
           <t>ඞЭто будет стоить 10 баксов.</t>
         </is>
@@ -48071,7 +48071,7 @@
           <t>You told him the information behind the portrait frame</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
+      <c r="H981" s="0" t="inlineStr">
         <is>
           <t>ඞВы сообщили ему информацию, спрятанную за рамкой портрета</t>
         </is>
@@ -48125,7 +48125,7 @@
 But every time the monster gets hurt, it can stabilize itself and bite Ryan.</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
+      <c r="H982" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите, как паук-монстр и Райан рвут друг друга.
 Атака Райана оторвала монстру конечности, и по всему его телу потекла иссиня-черная кровь.
@@ -48169,7 +48169,7 @@
           <t>You tried all kinds of ways to communicate with him, but there was no response. When you asked him about lottery tickets, he became interested.</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
+      <c r="H983" s="0" t="inlineStr">
         <is>
           <t>ඞВы перепробовали все возможные способы общения с ним, но ответа не последовало. Когда вы спросили его о лотерейных билетах, он заинтересовался.</t>
         </is>
@@ -48211,7 +48211,7 @@
           <t>You found some traces of being excavated under the fountain</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
+      <c r="H984" s="0" t="inlineStr">
         <is>
           <t>ඞВы обнаружили какие-то следы раскопок под фонтаном</t>
         </is>
@@ -48259,7 +48259,7 @@
 "Ryan said he would put something with me temporarily and I left it in the storage room."</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
+      <c r="H985" s="0" t="inlineStr">
         <is>
           <t>ඞ...Вы продолжаете читать заметку, и в ежедневнике есть строчка, которая привлекает ваше внимание——
 "Райан сказал, что временно передаст мне кое-что, и я оставил это в камере хранения".</t>
@@ -48302,7 +48302,7 @@
           <t>You look for something in the grass, but after searching for it, all you find is a few humble plants</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
+      <c r="H986" s="0" t="inlineStr">
         <is>
           <t>ඞВы ищете что-то в траве, но после долгих поисков все, что вы находите, - это несколько скромных растений</t>
         </is>
